--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7111FD87-CE54-4A39-8D8D-4784C766DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F51330-0131-40D6-A844-1D7869DC9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="291">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -185,15 +185,9 @@
     <t>HOTEL E COMERCIO SOL POENTE LTDA</t>
   </si>
   <si>
-    <t>Ha falta da pagina do meio, da procuracao, a mesma nao se encontra em anexo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contrato social da empresa W3 CUBE FULFILLMENT COMERCIO LOGISTICA LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
   </si>
   <si>
-    <t>Procuracao com poderes para abrir, movimentar e encerrar contas, uma vez que foi identificado que a representacao da empresa deve ser realizada de forma conjunta pelos representantes. O documento deve ser assinado pelos representantes legais nomeados no contrato social, com assinatura digital via GOV.br ou por meio de procuracao publica. Em caso de assinatura digital, o documento devera ser encaminhado em formato PDF para validacao das assinaturas e verificacao do protocolo de autenticidade.</t>
-  </si>
-  <si>
     <t>Yara Galicia de Andrade dos Santos</t>
   </si>
   <si>
@@ -237,6 +231,687 @@
   </si>
   <si>
     <t>ANÁLISE</t>
+  </si>
+  <si>
+    <t>REPROVADA</t>
+  </si>
+  <si>
+    <t>Ainda nao iniciou a abertura de conta</t>
+  </si>
+  <si>
+    <t>27979636000183</t>
+  </si>
+  <si>
+    <t>TRT TRANSPORTES E LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>17353684000108</t>
+  </si>
+  <si>
+    <t>ANTONIO DA LISBOA MIRANDA LEITE</t>
+  </si>
+  <si>
+    <t>05913044000126</t>
+  </si>
+  <si>
+    <t>S. SAIONARA BITTENCOURT SANTANA</t>
+  </si>
+  <si>
+    <t>20705132000126</t>
+  </si>
+  <si>
+    <t>20.705.132 JOSE APARECIDO DE JESUS FERNANDES</t>
+  </si>
+  <si>
+    <t>37297740000141</t>
+  </si>
+  <si>
+    <t>N A SABINO ALVES - FURGOES</t>
+  </si>
+  <si>
+    <t>23966606000181</t>
+  </si>
+  <si>
+    <t>DAVI DE LIMA</t>
+  </si>
+  <si>
+    <t>Caua Miedes do Espirito Santo</t>
+  </si>
+  <si>
+    <t>71187579000191</t>
+  </si>
+  <si>
+    <t>JAIRO JUSTINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>64712090000126</t>
+  </si>
+  <si>
+    <t>BRASA VIVA RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>29163970000190</t>
+  </si>
+  <si>
+    <t>JGC PREPARACAO DE DOCUMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64778452000181</t>
+  </si>
+  <si>
+    <t>PARA PLANA LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>Cristiane dos Santos Andrade</t>
+  </si>
+  <si>
+    <t>19318222000185</t>
+  </si>
+  <si>
+    <t>G.A IMPORTACAO COMERCIO E DISTRIBUICAO DE FERRAMENTAS LTDA</t>
+  </si>
+  <si>
+    <t>Vinicius Araujo Silva</t>
+  </si>
+  <si>
+    <t>64771693000107</t>
+  </si>
+  <si>
+    <t>MN LOCACOES E TERRAPLANGENS LTDA</t>
+  </si>
+  <si>
+    <t>26283924000136</t>
+  </si>
+  <si>
+    <t>REJANY POSSATTO KESTRING</t>
+  </si>
+  <si>
+    <t>Sofia Helena Vieira Domingues</t>
+  </si>
+  <si>
+    <t>64794636000135</t>
+  </si>
+  <si>
+    <t>ZAYIT CLINIC LTDA</t>
+  </si>
+  <si>
+    <t>Endrew Lourenco Posca</t>
+  </si>
+  <si>
+    <t>64732736000137</t>
+  </si>
+  <si>
+    <t>PERFUPOCOS RECURSOS HIDRICOS LTDA</t>
+  </si>
+  <si>
+    <t>Stephany Eduarda Pereira</t>
+  </si>
+  <si>
+    <t>24548702000172</t>
+  </si>
+  <si>
+    <t>AB ARAUJO SERVICO DE TREINAMENTO PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>64747411000128</t>
+  </si>
+  <si>
+    <t>SEMEAR SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>14070281000163</t>
+  </si>
+  <si>
+    <t>J E DA SILVA INSTALACOES REIS</t>
+  </si>
+  <si>
+    <t>Gleicy Ferreira Gomes</t>
+  </si>
+  <si>
+    <t>35670080000177</t>
+  </si>
+  <si>
+    <t>BRUNO DA SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t>45323613000106</t>
+  </si>
+  <si>
+    <t>HEBLING ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>64795061000175</t>
+  </si>
+  <si>
+    <t>A M DA CONCEICAO LTDA</t>
+  </si>
+  <si>
+    <t>19961330000171</t>
+  </si>
+  <si>
+    <t>IG SERVICOS E LOCACAO DE MAQUINAS LTDA</t>
+  </si>
+  <si>
+    <t>13788163000122</t>
+  </si>
+  <si>
+    <t>MARCELO SANTANA DE ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>16422895000192</t>
+  </si>
+  <si>
+    <t>SOUZA SOUZA, LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>28832925000118</t>
+  </si>
+  <si>
+    <t>ROSIMEIRE ALVES DO REGO 02795145731</t>
+  </si>
+  <si>
+    <t>60353379000145</t>
+  </si>
+  <si>
+    <t>A.V. ESTACIONAMENTO E LAVAGEM DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>63330691000101</t>
+  </si>
+  <si>
+    <t>SAMIR EL ASSAL</t>
+  </si>
+  <si>
+    <t>CARIMBADA</t>
+  </si>
+  <si>
+    <t>43529024000145</t>
+  </si>
+  <si>
+    <t>GS BENTO CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>64744059000177</t>
+  </si>
+  <si>
+    <t>RESOLUT INTERMEDIACOES DE NEGOCIOS E APOIO ADMINISTRATIVO LTDA</t>
+  </si>
+  <si>
+    <t>Sophia Bagagi Pigente</t>
+  </si>
+  <si>
+    <t>19770230000168</t>
+  </si>
+  <si>
+    <t>DIRCEU SOARES DE OLIVEIRA E OUTRA</t>
+  </si>
+  <si>
+    <t>PENDÊNCIA DOC</t>
+  </si>
+  <si>
+    <t>59199027000106</t>
+  </si>
+  <si>
+    <t>SEALTH EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>54425570000152</t>
+  </si>
+  <si>
+    <t>D.A/Z HOLDING LTDA</t>
+  </si>
+  <si>
+    <t>Leonardo Ortelan Pereira</t>
+  </si>
+  <si>
+    <t>INDICAÇÃO</t>
+  </si>
+  <si>
+    <t>60847314000156</t>
+  </si>
+  <si>
+    <t>S.DUQUE CONSULTORIA E ASSESSORIA LTDA</t>
+  </si>
+  <si>
+    <t>02016550000124</t>
+  </si>
+  <si>
+    <t>VANDERLI BANDEIRA DE LIMA LTDA</t>
+  </si>
+  <si>
+    <t>59069606000126</t>
+  </si>
+  <si>
+    <t>MONTE SIAO COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>43365786000153</t>
+  </si>
+  <si>
+    <t>LILI BEAUTY ESTUDIO DE BELEZA LTDA</t>
+  </si>
+  <si>
+    <t>59478711000119</t>
+  </si>
+  <si>
+    <t>LM ESTRUTURAL LTDA</t>
+  </si>
+  <si>
+    <t>61591722000152</t>
+  </si>
+  <si>
+    <t>GOLFETO SOLUCOES TECNOLOGICAS LTDA</t>
+  </si>
+  <si>
+    <t>28949622000180</t>
+  </si>
+  <si>
+    <t>CASTALIA SOLUCOES PREDIAIS LTDA</t>
+  </si>
+  <si>
+    <t>63694615000185</t>
+  </si>
+  <si>
+    <t>FABIANA MOREIRA PROTESES ODONTOLOGICAS</t>
+  </si>
+  <si>
+    <t>58268314000150</t>
+  </si>
+  <si>
+    <t>MARCELO HENRIQUE SANTOS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>30515633000101</t>
+  </si>
+  <si>
+    <t>30.515.633 SIDNEI ANTONIO DA SILVA</t>
+  </si>
+  <si>
+    <t>19316860000167</t>
+  </si>
+  <si>
+    <t>19.316.860 ANILTO BONES CABRAL</t>
+  </si>
+  <si>
+    <t>50866825000161</t>
+  </si>
+  <si>
+    <t>CARDOSO DISTRIBUIDORA DE AGUA E GAS LTDA</t>
+  </si>
+  <si>
+    <t>36811285000198</t>
+  </si>
+  <si>
+    <t>REGIS GAS LTDA</t>
+  </si>
+  <si>
+    <t>46331702000159</t>
+  </si>
+  <si>
+    <t>BOLIVAR NETO REPRESENTACOES LIMITADA</t>
+  </si>
+  <si>
+    <t>30293524000260</t>
+  </si>
+  <si>
+    <t>ESTACIONAMENTO SANCHES DE NOVA FRIBURGO LTDA</t>
+  </si>
+  <si>
+    <t>33686110000108</t>
+  </si>
+  <si>
+    <t>SAMIRA SANTOS DE CARVALHO</t>
+  </si>
+  <si>
+    <t>Tauani Santos de Andrade</t>
+  </si>
+  <si>
+    <t>57443275000117</t>
+  </si>
+  <si>
+    <t>LIFE ODONTO LTDA</t>
+  </si>
+  <si>
+    <t>62823913000165</t>
+  </si>
+  <si>
+    <t>L2A PRODUTOS ALIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>45411181000187</t>
+  </si>
+  <si>
+    <t>KELLEN DA CUNHA ALONSO RAMIREZ</t>
+  </si>
+  <si>
+    <t>08237465000172</t>
+  </si>
+  <si>
+    <t>ROGERIO R. DA SILVA ENTREGAS</t>
+  </si>
+  <si>
+    <t>51726435000159</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESERVA DO PONTAL</t>
+  </si>
+  <si>
+    <t>Bruna Tobias Dos Santos</t>
+  </si>
+  <si>
+    <t>13410979000118</t>
+  </si>
+  <si>
+    <t>P R C EDICAO E IMPRESSAO DE REVISTAS E JORNAIS LTDA</t>
+  </si>
+  <si>
+    <t>61627459000104</t>
+  </si>
+  <si>
+    <t>WAG MECANICA INDUSTRIAL E MANUTENCAO ELETRICA LTDA</t>
+  </si>
+  <si>
+    <t>62579699000143</t>
+  </si>
+  <si>
+    <t>BIANCA MACIEL ESTETICA AVANCADA LTDA</t>
+  </si>
+  <si>
+    <t>Thayssa Gasparoto Trabuco</t>
+  </si>
+  <si>
+    <t>51976479000137</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL MIILLER</t>
+  </si>
+  <si>
+    <t>22868609000209</t>
+  </si>
+  <si>
+    <t>CASA DE REPOUSO VIDAS MARCADAS</t>
+  </si>
+  <si>
+    <t>61731775000121</t>
+  </si>
+  <si>
+    <t>DAMARIS SILVEIRA IMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>28865793000120</t>
+  </si>
+  <si>
+    <t>GUERRA SOLUCOES ELETRICAS LTDA</t>
+  </si>
+  <si>
+    <t>40174006000108</t>
+  </si>
+  <si>
+    <t>AZIMUTE SERVICOS DE GEOREFERENCIAMENTO E TOPOGRAFIA LTDA</t>
+  </si>
+  <si>
+    <t>30922489000110</t>
+  </si>
+  <si>
+    <t>NEXER CROSSMEDIA LTDA</t>
+  </si>
+  <si>
+    <t>64811021000170</t>
+  </si>
+  <si>
+    <t>C. ANDRE KELLER LTDA</t>
+  </si>
+  <si>
+    <t>64782712000192</t>
+  </si>
+  <si>
+    <t>SUPER FORZA BATISTA LTDA</t>
+  </si>
+  <si>
+    <t>55730609000108</t>
+  </si>
+  <si>
+    <t>SHEILA ROCHA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>39891884000157</t>
+  </si>
+  <si>
+    <t>39.891.884 JOAO PAULO NASCIMENTO SANTOS</t>
+  </si>
+  <si>
+    <t>LEAD MANUAL</t>
+  </si>
+  <si>
+    <t>63174334000100</t>
+  </si>
+  <si>
+    <t>M. J. DE CARVALHO DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>64536730000194</t>
+  </si>
+  <si>
+    <t>ALIANCA NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>34479500000170</t>
+  </si>
+  <si>
+    <t>SILVA &amp; CORASSA CORRETORA E AGENTE DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>64474634000169</t>
+  </si>
+  <si>
+    <t>R. SILVA DO VALE</t>
+  </si>
+  <si>
+    <t>Jamily de Lima Alves dos Santos</t>
+  </si>
+  <si>
+    <t>32338045000167</t>
+  </si>
+  <si>
+    <t>PARTION AUDIOVISUAL LTDA</t>
+  </si>
+  <si>
+    <t>27252565000112</t>
+  </si>
+  <si>
+    <t>ITAMAR SALES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>37882767000100</t>
+  </si>
+  <si>
+    <t>37.882.767 MURILO ROSA GONCALVES</t>
+  </si>
+  <si>
+    <t>62117942000101</t>
+  </si>
+  <si>
+    <t>ALEXANDRA DA SILVEIRA PSICOLOGA</t>
+  </si>
+  <si>
+    <t>64571512000190</t>
+  </si>
+  <si>
+    <t>VERTICE DIAGNOSTICO LTDA</t>
+  </si>
+  <si>
+    <t>Joao Pedro Gabriel Troiano</t>
+  </si>
+  <si>
+    <t>58031654000162</t>
+  </si>
+  <si>
+    <t>DEILSON MONTAGENS DE MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>57592706000107</t>
+  </si>
+  <si>
+    <t>MERCADO PRIME BOX COMERCIO VAREJISTA LTDA</t>
+  </si>
+  <si>
+    <t>64813555000135</t>
+  </si>
+  <si>
+    <t>PRIMETECH STORE LTDA</t>
+  </si>
+  <si>
+    <t>23044119000161</t>
+  </si>
+  <si>
+    <t>R. M. DOS SANTOS LTDA</t>
+  </si>
+  <si>
+    <t>64600995000104</t>
+  </si>
+  <si>
+    <t>WESLLEY DE SOUZA GARCIA</t>
+  </si>
+  <si>
+    <t>17305646000180</t>
+  </si>
+  <si>
+    <t>LURDES APARECIDA DA SIQUEIRA DOS REIS LTDA</t>
+  </si>
+  <si>
+    <t>59715545000127</t>
+  </si>
+  <si>
+    <t>EQUIPE JEFERSON LEYVER LTDA</t>
+  </si>
+  <si>
+    <t>58657406000121</t>
+  </si>
+  <si>
+    <t>SEMENTES DE ALEGRIA LTDA</t>
+  </si>
+  <si>
+    <t>64754821000104</t>
+  </si>
+  <si>
+    <t>ELETROSM - COMERCIO DE INSTRUMENTOS MUSICAIS E ACESSORIOS LTDA</t>
+  </si>
+  <si>
+    <t>45242117000110</t>
+  </si>
+  <si>
+    <t>MARTINS VIEIRA SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64716065000110</t>
+  </si>
+  <si>
+    <t>HENRIQUETA INACIO DE MELO MARKETING DE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>34003978000129</t>
+  </si>
+  <si>
+    <t>PINHEIRO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>25532124000149</t>
+  </si>
+  <si>
+    <t>25.532.124 KARINA DOS SANTOS SANTIAGO</t>
+  </si>
+  <si>
+    <t>60438588000191</t>
+  </si>
+  <si>
+    <t>ALE INDUSTRIA E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>45560197000151</t>
+  </si>
+  <si>
+    <t>MORAES COMUNICACAO E ENTRETENIMENTO LTDA</t>
+  </si>
+  <si>
+    <t>47051883000122</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO DOS SERVIDORES PUBLICOS MUNICIPAIS</t>
+  </si>
+  <si>
+    <t>32311950000123</t>
+  </si>
+  <si>
+    <t>NEWNET FAMYS TELECOM LTDA</t>
+  </si>
+  <si>
+    <t>31089409000150</t>
+  </si>
+  <si>
+    <t>ANA FLAVIA DOS SANTOS CARVALHO GOBATTI</t>
+  </si>
+  <si>
+    <t>29993149000109</t>
+  </si>
+  <si>
+    <t>EDER ANDRE JARDIM</t>
+  </si>
+  <si>
+    <t>08459835000116</t>
+  </si>
+  <si>
+    <t>SWG SOLUTIONS SERVICOS, COMERCIO E IMPORTACAO LTDA</t>
+  </si>
+  <si>
+    <t>64769393000185</t>
+  </si>
+  <si>
+    <t>MS SERVICOS ELETRICOS E JARDINAGEM LTDA</t>
+  </si>
+  <si>
+    <t>64810268000171</t>
+  </si>
+  <si>
+    <t>BJL COMERCIO DE GRAMA SINTETICO E SERVICO LTDA</t>
+  </si>
+  <si>
+    <t>20996093000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO DE JESUS FERREIRA </t>
+  </si>
+  <si>
+    <t>46802802000116</t>
+  </si>
+  <si>
+    <t>P V REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>04395659000145</t>
+  </si>
+  <si>
+    <t>VALDIR SILVA DE SOUZA LTDA</t>
+  </si>
+  <si>
+    <t>02075218000130</t>
+  </si>
+  <si>
+    <t>SELOBOMBAS ELETROMECANICA LTDA</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Rodrigues</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Contrato Social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>Ata de eleicao do sindico atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Convencao do condominio registrada no orgao competente</t>
+  </si>
+  <si>
+    <t>Contrato Social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -609,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -706,10 +1381,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -775,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -798,10 +1473,10 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -821,10 +1496,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -867,10 +1542,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -901,10 +1576,10 @@
         <v>46054</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -913,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -924,10 +1599,10 @@
         <v>46054</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -936,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -947,19 +1622,19 @@
         <v>46054</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -982,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -993,10 +1668,10 @@
         <v>46054</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1005,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1016,10 +1691,10 @@
         <v>46054</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1028,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1039,10 +1714,10 @@
         <v>46054</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1054,6 +1729,2323 @@
         <v>65</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B86" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B93" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>64</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>63</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B103" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B104" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B105" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B106" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B107" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B108" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B110" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B111" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B113" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B115" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B120" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F51330-0131-40D6-A844-1D7869DC9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B710C-7181-4E50-A40F-F6EFCCC079D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,7 +2959,7 @@
         <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29801"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B710C-7181-4E50-A40F-F6EFCCC079D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D4DE5-ADDE-4AE7-BF67-53739E227204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="462">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -137,12 +137,6 @@
     <t xml:space="preserve"> Convencao de condominio atualizada e devidamente registrada em orgao competente.</t>
   </si>
   <si>
-    <t>00310634000140</t>
-  </si>
-  <si>
-    <t>EXPRESSO RIO VERDE TURISMO LTDA</t>
-  </si>
-  <si>
     <t>20302868000153</t>
   </si>
   <si>
@@ -167,12 +161,6 @@
     <t>SILVA E SILVA SERVICOS LTDA</t>
   </si>
   <si>
-    <t>64711980000113</t>
-  </si>
-  <si>
-    <t>Aluguel De Imóveis Próprios</t>
-  </si>
-  <si>
     <t>21596624000193</t>
   </si>
   <si>
@@ -215,15 +203,6 @@
     <t>JOSE ROBERTO VAZ DE LIMA</t>
   </si>
   <si>
-    <t>Contrato Social da empresa completo, atualizado e devidamente registrado no orgao competente.</t>
-  </si>
-  <si>
-    <t>93242758000117</t>
-  </si>
-  <si>
-    <t>VILAZ AUGUSTO WINCK</t>
-  </si>
-  <si>
     <t>56098300000100</t>
   </si>
   <si>
@@ -912,6 +891,540 @@
   </si>
   <si>
     <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>38045014000102</t>
+  </si>
+  <si>
+    <t>C R DA SILVA COMERCIO</t>
+  </si>
+  <si>
+    <t>34128026000131</t>
+  </si>
+  <si>
+    <t>34.128.026 SUSELI MARIANO GUIMARO</t>
+  </si>
+  <si>
+    <t>05944174000126</t>
+  </si>
+  <si>
+    <t>LUIZ ANTONIO SANTOS OLIVIERI</t>
+  </si>
+  <si>
+    <t>64859060000147</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO SANTOS GONCALVES LTDA</t>
+  </si>
+  <si>
+    <t>37701319000154</t>
+  </si>
+  <si>
+    <t>YATA SUSHI LTDA</t>
+  </si>
+  <si>
+    <t>29696146000103</t>
+  </si>
+  <si>
+    <t>29.696.146 JOSE IVANILDO VALINTIM</t>
+  </si>
+  <si>
+    <t>01111005000154</t>
+  </si>
+  <si>
+    <t>J C BARBOSA NETO LTDA</t>
+  </si>
+  <si>
+    <t>64840417000145</t>
+  </si>
+  <si>
+    <t>NAILTON REBOUCAS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>22630196000130</t>
+  </si>
+  <si>
+    <t>MAFRA MOVEIS PLANEJADOS LTDA</t>
+  </si>
+  <si>
+    <t>15367497000158</t>
+  </si>
+  <si>
+    <t>THIAGO FILIPE DE TOLEDO</t>
+  </si>
+  <si>
+    <t>32770500000107</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO LADEIRA</t>
+  </si>
+  <si>
+    <t>59431359000166</t>
+  </si>
+  <si>
+    <t>SERSOU DESENVOLVIMENTO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>Bruna Eloisa Sousa Carvalho</t>
+  </si>
+  <si>
+    <t>29417405000101</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>62695521000168</t>
+  </si>
+  <si>
+    <t>JOSE SERGIO VALTEMAN SERVICOS DE TERRAPLANAGEM LTDA</t>
+  </si>
+  <si>
+    <t>63876286000193</t>
+  </si>
+  <si>
+    <t>ATTO ASSESSORIA CONTABIL E TRIBUTARIA LTDA</t>
+  </si>
+  <si>
+    <t>64769050000110</t>
+  </si>
+  <si>
+    <t>GF SOLUCOES INTEGRADAS LTDA</t>
+  </si>
+  <si>
+    <t>15832969000104</t>
+  </si>
+  <si>
+    <t>HESSEL E VASCONCELOS SOCIEDADE DE ADVOGADOS</t>
+  </si>
+  <si>
+    <t>36668967000193</t>
+  </si>
+  <si>
+    <t>EMERSON MANZOTTI TRANSPORTES</t>
+  </si>
+  <si>
+    <t>15354688000185</t>
+  </si>
+  <si>
+    <t>GLOBAL CONTROLSERV LTDA</t>
+  </si>
+  <si>
+    <t>59094510000118</t>
+  </si>
+  <si>
+    <t>J. AZEVEDO REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>64736936000168</t>
+  </si>
+  <si>
+    <t>RB SILVA CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>63538595000153</t>
+  </si>
+  <si>
+    <t>EMERSON APOLINARIO CONSULTORIA COMERCIAL</t>
+  </si>
+  <si>
+    <t>23238308000175</t>
+  </si>
+  <si>
+    <t>CELIO ROBERTO B DA SILVA REPRESENTACOES</t>
+  </si>
+  <si>
+    <t>49524755000184</t>
+  </si>
+  <si>
+    <t>INSTITUTO RUDA - ENSINO, PROJETOS E SERVICOS</t>
+  </si>
+  <si>
+    <t>55655986000120</t>
+  </si>
+  <si>
+    <t>55.655.986 THAIS DA SILVA CHAVES</t>
+  </si>
+  <si>
+    <t>64816985000100</t>
+  </si>
+  <si>
+    <t>G COMERCIO DE SUPLIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>07566588000194</t>
+  </si>
+  <si>
+    <t>GRANDE CANTINA LTDA</t>
+  </si>
+  <si>
+    <t>57044123000141</t>
+  </si>
+  <si>
+    <t>JARDIM SILVA ALUGUEL DE MAQUINAS E EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>01900369000113</t>
+  </si>
+  <si>
+    <t>FRANCISCO DE ASSIS DE ARAUJO RINCAO</t>
+  </si>
+  <si>
+    <t>64373804000119</t>
+  </si>
+  <si>
+    <t>GIBOES SOLUCOES EM ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>35902958000152</t>
+  </si>
+  <si>
+    <t>VANDERLINO SANTOS DUTRA</t>
+  </si>
+  <si>
+    <t>62857576000127</t>
+  </si>
+  <si>
+    <t>CRUZ &amp; CRUZ SERVICOS DIGITAIS LTDA</t>
+  </si>
+  <si>
+    <t>47211477000180</t>
+  </si>
+  <si>
+    <t>CIBELE FERREIRA NUTRICIONISTA LTDA</t>
+  </si>
+  <si>
+    <t>50291544000128</t>
+  </si>
+  <si>
+    <t>Lucia Helena Moreira dos Santos Dorta</t>
+  </si>
+  <si>
+    <t>04269695000162</t>
+  </si>
+  <si>
+    <t>BAR FREIZA LTDA</t>
+  </si>
+  <si>
+    <t>64648605000176</t>
+  </si>
+  <si>
+    <t>ENQUANTO ISSO LEM LTDA</t>
+  </si>
+  <si>
+    <t>26368840000103</t>
+  </si>
+  <si>
+    <t>CLEONE DECORACOES LTDA</t>
+  </si>
+  <si>
+    <t>32464165000100</t>
+  </si>
+  <si>
+    <t>D DRIVE TRANSPORTES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64622522000108</t>
+  </si>
+  <si>
+    <t>VITRINE BIKE COMERCIO VAREJISTA DE BICICLETAS LTDA</t>
+  </si>
+  <si>
+    <t>63928991000197</t>
+  </si>
+  <si>
+    <t>ACURACIA LTDA</t>
+  </si>
+  <si>
+    <t>11176265000161</t>
+  </si>
+  <si>
+    <t>R ARAUJO FROTA LTDA</t>
+  </si>
+  <si>
+    <t>14921615000165</t>
+  </si>
+  <si>
+    <t>EVOLUCAO REPARACAO E TELECOMUNICACOES LTDA</t>
+  </si>
+  <si>
+    <t>64551987000115</t>
+  </si>
+  <si>
+    <t>LUA CHEIA LTDA</t>
+  </si>
+  <si>
+    <t>64481461000106</t>
+  </si>
+  <si>
+    <t>SABINO COMERCIO DE COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>42126841000190</t>
+  </si>
+  <si>
+    <t>MARCELO RIBAS DE AZEVEDO BRAGA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>09155386000185</t>
+  </si>
+  <si>
+    <t>STAHL JOIAS INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>64319938000151</t>
+  </si>
+  <si>
+    <t>64.319.938 WESLEY CARLOS PEREIRA ALVES</t>
+  </si>
+  <si>
+    <t>62642682000193</t>
+  </si>
+  <si>
+    <t>BULHAO COMERCIO DE SAPATOS E BOLSAS LTDA</t>
+  </si>
+  <si>
+    <t>64299528000196</t>
+  </si>
+  <si>
+    <t>JETFIRE SERVICOS DE TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>21104192000156</t>
+  </si>
+  <si>
+    <t>OTTO DANIEL DOS SANTOS SILVEIRA</t>
+  </si>
+  <si>
+    <t>32440775000174</t>
+  </si>
+  <si>
+    <t>MARCOS DANIEL LEME</t>
+  </si>
+  <si>
+    <t>64481945000155</t>
+  </si>
+  <si>
+    <t>BARROS E SILVA IMPORTACAO E EXPORTACAO LTDA</t>
+  </si>
+  <si>
+    <t>64407770000136</t>
+  </si>
+  <si>
+    <t>J W M DA S DOURADO REPRESENTACOES</t>
+  </si>
+  <si>
+    <t>64477695000180</t>
+  </si>
+  <si>
+    <t>EDILENE SOARES PIMENTA LTDA</t>
+  </si>
+  <si>
+    <t>64248464000102</t>
+  </si>
+  <si>
+    <t>M L MELO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>62604055000168</t>
+  </si>
+  <si>
+    <t>ELTON DOUGLAS SANTOS LIMA LTDA</t>
+  </si>
+  <si>
+    <t>07845976000104</t>
+  </si>
+  <si>
+    <t>INSPIRE SOLUCOES E EMPREENDIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64342881000101</t>
+  </si>
+  <si>
+    <t>DROGARIA CEMEJ LTDA</t>
+  </si>
+  <si>
+    <t>64501213000180</t>
+  </si>
+  <si>
+    <t>ALPHA MONTAGEM E SERVICO LTDA</t>
+  </si>
+  <si>
+    <t>26156388000108</t>
+  </si>
+  <si>
+    <t>GUARA COMERCIO E SERVICOS DE BALANCAS LTDA</t>
+  </si>
+  <si>
+    <t>42633014000192</t>
+  </si>
+  <si>
+    <t>GERALDO QUIRINO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>64826254000146</t>
+  </si>
+  <si>
+    <t>CLAUDIA REGINA CARVALHO MIGUEL SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>45055276000105</t>
+  </si>
+  <si>
+    <t>BOAVENTURA CONTABILIDADE LTDA</t>
+  </si>
+  <si>
+    <t>56293815000160</t>
+  </si>
+  <si>
+    <t>FEDERACAO DE KARATE ALAGOANA- FKA</t>
+  </si>
+  <si>
+    <t>22898982000113</t>
+  </si>
+  <si>
+    <t>TRUCKSTOP AUTO MECANICA E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>Jose Guilherme de Abreu Mattos</t>
+  </si>
+  <si>
+    <t>64870498000126</t>
+  </si>
+  <si>
+    <t>MASI ONE SOLUCOES EMPRESARIAS LTDA</t>
+  </si>
+  <si>
+    <t>63879323000117</t>
+  </si>
+  <si>
+    <t>MENDANHA ENG. DE INCENDIO E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>24864651000198</t>
+  </si>
+  <si>
+    <t>JOANIZIA TABOSA SOARES</t>
+  </si>
+  <si>
+    <t>25454344000100</t>
+  </si>
+  <si>
+    <t>GISELE DOMINGOS CLINICA ODONTOLOGICA - GCLIN LTDA</t>
+  </si>
+  <si>
+    <t>63932170000124</t>
+  </si>
+  <si>
+    <t>TOLEFORMAS ESTRUTURAL ECM LTDA (-)</t>
+  </si>
+  <si>
+    <t>40599220000106</t>
+  </si>
+  <si>
+    <t>GOMES E MIRANDA ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>43653814000138</t>
+  </si>
+  <si>
+    <t>JULIANO APARECIDO LEITE</t>
+  </si>
+  <si>
+    <t>58168862000108</t>
+  </si>
+  <si>
+    <t>P F RICHTIC GOMES</t>
+  </si>
+  <si>
+    <t>64689916000183</t>
+  </si>
+  <si>
+    <t>AZ.TECH SISTEMAS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>36480876000120</t>
+  </si>
+  <si>
+    <t>AGORA REGULADORA DE SINISTROS LTDA</t>
+  </si>
+  <si>
+    <t>03986516000145</t>
+  </si>
+  <si>
+    <t>RIO GIOM TAPECARIA LTDA</t>
+  </si>
+  <si>
+    <t>64282286000128</t>
+  </si>
+  <si>
+    <t>PRODUTOS DO CERRADO E ELETRONICO LTDA</t>
+  </si>
+  <si>
+    <t>55994335000164</t>
+  </si>
+  <si>
+    <t>RONEI COMERCIO E REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>63140999000194</t>
+  </si>
+  <si>
+    <t>FERNANDO SOARES FERNANDES</t>
+  </si>
+  <si>
+    <t>64801204000104</t>
+  </si>
+  <si>
+    <t>NEVESMOR TRANSPORTE LTDA</t>
+  </si>
+  <si>
+    <t>34076746000109</t>
+  </si>
+  <si>
+    <t>CRISTIANO LIGORIO FERREIRA</t>
+  </si>
+  <si>
+    <t>46144694000131</t>
+  </si>
+  <si>
+    <t>ALC ENGENHARIA AUTOMACAO E GRUPOS GERADORES LTDA</t>
+  </si>
+  <si>
+    <t>35938077000191</t>
+  </si>
+  <si>
+    <t>LUIZ FELIPE SILVA BONFIM</t>
+  </si>
+  <si>
+    <t>63338796000107</t>
+  </si>
+  <si>
+    <t>SAD COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64801001000118</t>
+  </si>
+  <si>
+    <t>VINICIUS CAETANO ENGENHARIA E PROJETOS LTDA</t>
+  </si>
+  <si>
+    <t>62202518000165</t>
+  </si>
+  <si>
+    <t>LOOP CONSTRUTORA E INCORPORADORA LTDA</t>
+  </si>
+  <si>
+    <t>33366575000181</t>
+  </si>
+  <si>
+    <t>AD FERREIRA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>(A procuracao esta vencida) Procuracao com poderes de representacao junto a instituicoes financeiras podendo abrir e movimentar conta corrente com mandato vigente, assinada digitalmente pelo site do GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF.</t>
+  </si>
+  <si>
+    <t>Documento de identificacao pois o apresentado estava ilegivel</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,22 +1836,22 @@
         <v>46054</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,22 +1859,22 @@
         <v>46054</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,22 +1882,22 @@
         <v>46054</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,10 +1905,10 @@
         <v>46054</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1404,10 +1917,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,19 +1928,19 @@
         <v>46054</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1438,19 +1951,19 @@
         <v>46054</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1461,22 +1974,22 @@
         <v>46054</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,22 +1997,22 @@
         <v>46054</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,19 +2020,19 @@
         <v>46054</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1530,19 +2043,19 @@
         <v>46054</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1550,22 +2063,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1573,22 +2086,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1596,22 +2109,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1619,22 +2132,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1642,22 +2155,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1665,13 +2178,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1688,22 +2201,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1711,13 +2224,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1726,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1737,19 +2250,19 @@
         <v>46055</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1760,16 +2273,16 @@
         <v>46055</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -1783,16 +2296,16 @@
         <v>46055</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -1806,13 +2319,13 @@
         <v>46055</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1829,16 +2342,16 @@
         <v>46055</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -1852,19 +2365,19 @@
         <v>46055</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1875,16 +2388,16 @@
         <v>46055</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
@@ -1898,16 +2411,16 @@
         <v>46055</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -1921,16 +2434,16 @@
         <v>46055</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -1944,13 +2457,13 @@
         <v>46055</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1967,19 +2480,19 @@
         <v>46055</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1990,19 +2503,19 @@
         <v>46055</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2013,19 +2526,19 @@
         <v>46055</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2036,16 +2549,16 @@
         <v>46055</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
@@ -2059,16 +2572,16 @@
         <v>46055</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2082,19 +2595,19 @@
         <v>46055</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2105,19 +2618,19 @@
         <v>46055</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2128,19 +2641,19 @@
         <v>46055</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2151,10 +2664,10 @@
         <v>46055</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2174,13 +2687,13 @@
         <v>46055</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -2197,19 +2710,19 @@
         <v>46055</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2220,22 +2733,19 @@
         <v>46055</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2243,19 +2753,19 @@
         <v>46055</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2266,16 +2776,16 @@
         <v>46055</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -2289,22 +2799,22 @@
         <v>46055</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,19 +2822,19 @@
         <v>46055</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2335,19 +2845,22 @@
         <v>46055</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2355,19 +2868,19 @@
         <v>46055</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2378,16 +2891,16 @@
         <v>46055</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
@@ -2401,22 +2914,22 @@
         <v>46055</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" t="s">
-        <v>287</v>
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2424,19 +2937,19 @@
         <v>46055</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2447,19 +2960,19 @@
         <v>46055</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2470,19 +2983,19 @@
         <v>46055</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2493,19 +3006,19 @@
         <v>46055</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2516,13 +3029,13 @@
         <v>46055</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -2539,13 +3052,13 @@
         <v>46055</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -2562,19 +3075,19 @@
         <v>46055</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2585,13 +3098,13 @@
         <v>46055</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -2608,19 +3121,19 @@
         <v>46055</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2631,13 +3144,13 @@
         <v>46055</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -2654,13 +3167,13 @@
         <v>46055</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2677,19 +3190,19 @@
         <v>46055</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2700,19 +3213,19 @@
         <v>46055</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2723,19 +3236,19 @@
         <v>46055</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2746,19 +3259,19 @@
         <v>46055</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2769,19 +3282,19 @@
         <v>46055</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2792,19 +3305,19 @@
         <v>46055</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2815,22 +3328,22 @@
         <v>46055</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,19 +3351,19 @@
         <v>46055</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2861,10 +3374,10 @@
         <v>46055</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2873,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2884,19 +3397,19 @@
         <v>46055</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2907,13 +3420,13 @@
         <v>46055</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -2930,22 +3443,22 @@
         <v>46055</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>288</v>
+        <v>58</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,22 +3466,22 @@
         <v>46055</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" t="s">
-        <v>289</v>
+        <v>21</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,19 +3489,19 @@
         <v>46055</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2999,13 +3512,13 @@
         <v>46055</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -3022,16 +3535,16 @@
         <v>46055</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
@@ -3045,19 +3558,19 @@
         <v>46055</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3068,16 +3581,16 @@
         <v>46055</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
         <v>21</v>
@@ -3091,19 +3604,19 @@
         <v>46055</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3114,19 +3627,19 @@
         <v>46055</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3137,13 +3650,13 @@
         <v>46055</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -3160,19 +3673,22 @@
         <v>46055</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,16 +3696,16 @@
         <v>46055</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
         <v>21</v>
@@ -3203,19 +3719,19 @@
         <v>46055</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3226,19 +3742,19 @@
         <v>46055</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3249,19 +3765,19 @@
         <v>46055</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3272,19 +3788,19 @@
         <v>46055</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3295,10 +3811,10 @@
         <v>46055</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3307,7 +3823,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3318,19 +3834,19 @@
         <v>46055</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3341,16 +3857,16 @@
         <v>46055</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
@@ -3364,19 +3880,19 @@
         <v>46055</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3387,16 +3903,16 @@
         <v>46055</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -3410,19 +3926,19 @@
         <v>46055</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3433,13 +3949,13 @@
         <v>46055</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -3456,13 +3972,13 @@
         <v>46055</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -3479,19 +3995,19 @@
         <v>46055</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3502,19 +4018,19 @@
         <v>46055</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3525,16 +4041,16 @@
         <v>46055</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -3548,16 +4064,16 @@
         <v>46055</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -3571,16 +4087,16 @@
         <v>46055</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
         <v>21</v>
@@ -3594,19 +4110,19 @@
         <v>46055</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3617,19 +4133,19 @@
         <v>46055</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3640,19 +4156,19 @@
         <v>46055</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3663,19 +4179,19 @@
         <v>46055</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3686,22 +4202,22 @@
         <v>46055</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="G105" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,19 +4225,19 @@
         <v>46055</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3732,13 +4248,13 @@
         <v>46055</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -3755,19 +4271,19 @@
         <v>46055</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3778,19 +4294,19 @@
         <v>46055</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3798,45 +4314,45 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>290</v>
+        <v>21</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3844,19 +4360,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" t="s">
         <v>268</v>
       </c>
-      <c r="C112" t="s">
-        <v>269</v>
-      </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3867,19 +4383,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B113" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" t="s">
         <v>270</v>
       </c>
-      <c r="C113" t="s">
-        <v>271</v>
-      </c>
       <c r="D113" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
         <v>21</v>
@@ -3890,19 +4406,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" t="s">
         <v>272</v>
       </c>
-      <c r="C114" t="s">
-        <v>273</v>
-      </c>
       <c r="D114" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
         <v>21</v>
@@ -3916,16 +4432,16 @@
         <v>46056</v>
       </c>
       <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s">
         <v>274</v>
       </c>
-      <c r="C115" t="s">
-        <v>275</v>
-      </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -3939,16 +4455,16 @@
         <v>46056</v>
       </c>
       <c r="B116" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" t="s">
         <v>276</v>
       </c>
-      <c r="C116" t="s">
-        <v>277</v>
-      </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -3962,16 +4478,16 @@
         <v>46056</v>
       </c>
       <c r="B117" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" t="s">
         <v>278</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>279</v>
       </c>
-      <c r="D117" t="s">
-        <v>90</v>
-      </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
         <v>21</v>
@@ -3985,13 +4501,13 @@
         <v>46056</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -4008,13 +4524,13 @@
         <v>46056</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -4031,21 +4547,1950 @@
         <v>46056</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B121" t="s">
+        <v>290</v>
+      </c>
+      <c r="C121" t="s">
+        <v>291</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
         <v>10</v>
       </c>
-      <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120">
+      <c r="F121" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B123" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>56</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B125" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>56</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B127" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" t="s">
+        <v>305</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B129" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" t="s">
+        <v>307</v>
+      </c>
+      <c r="D129" t="s">
+        <v>308</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
+        <v>312</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" t="s">
+        <v>308</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140" t="s">
+        <v>330</v>
+      </c>
+      <c r="D140" t="s">
+        <v>125</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>128</v>
+      </c>
+      <c r="G141" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>334</v>
+      </c>
+      <c r="D142" t="s">
+        <v>185</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>57</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B143" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" t="s">
+        <v>336</v>
+      </c>
+      <c r="D143" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B144" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>128</v>
+      </c>
+      <c r="G144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>340</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
+        <v>342</v>
+      </c>
+      <c r="D146" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B148" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148" t="s">
+        <v>346</v>
+      </c>
+      <c r="D148" t="s">
+        <v>83</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B149" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" t="s">
+        <v>348</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" t="s">
+        <v>350</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B151" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B152" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" t="s">
+        <v>354</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B153" t="s">
+        <v>355</v>
+      </c>
+      <c r="C153" t="s">
+        <v>356</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B154" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B155" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" t="s">
+        <v>360</v>
+      </c>
+      <c r="D155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B156" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" t="s">
+        <v>83</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>56</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B157" t="s">
+        <v>363</v>
+      </c>
+      <c r="C157" t="s">
+        <v>364</v>
+      </c>
+      <c r="D157" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B158" t="s">
+        <v>365</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C159" t="s">
+        <v>368</v>
+      </c>
+      <c r="D159" t="s">
+        <v>88</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>57</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B160" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" t="s">
+        <v>370</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B161" t="s">
+        <v>371</v>
+      </c>
+      <c r="C161" t="s">
+        <v>372</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B162" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" t="s">
+        <v>374</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B163" t="s">
+        <v>375</v>
+      </c>
+      <c r="C163" t="s">
+        <v>376</v>
+      </c>
+      <c r="D163" t="s">
+        <v>88</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B164" t="s">
+        <v>377</v>
+      </c>
+      <c r="C164" t="s">
+        <v>378</v>
+      </c>
+      <c r="D164" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>56</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B167" t="s">
+        <v>383</v>
+      </c>
+      <c r="C167" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B168" t="s">
+        <v>385</v>
+      </c>
+      <c r="C168" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" t="s">
+        <v>56</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B169" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" t="s">
+        <v>388</v>
+      </c>
+      <c r="D169" t="s">
+        <v>83</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>56</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B170" t="s">
+        <v>389</v>
+      </c>
+      <c r="C170" t="s">
+        <v>390</v>
+      </c>
+      <c r="D170" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
+        <v>57</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B171" t="s">
+        <v>391</v>
+      </c>
+      <c r="C171" t="s">
+        <v>392</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B172" t="s">
+        <v>393</v>
+      </c>
+      <c r="C172" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B173" t="s">
+        <v>395</v>
+      </c>
+      <c r="C173" t="s">
+        <v>396</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" t="s">
+        <v>57</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B174" t="s">
+        <v>397</v>
+      </c>
+      <c r="C174" t="s">
+        <v>398</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B175" t="s">
+        <v>399</v>
+      </c>
+      <c r="C175" t="s">
+        <v>400</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" t="s">
+        <v>56</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B176" t="s">
+        <v>401</v>
+      </c>
+      <c r="C176" t="s">
+        <v>402</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>56</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B177" t="s">
+        <v>403</v>
+      </c>
+      <c r="C177" t="s">
+        <v>404</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B178" t="s">
+        <v>405</v>
+      </c>
+      <c r="C178" t="s">
+        <v>406</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B179" t="s">
+        <v>407</v>
+      </c>
+      <c r="C179" t="s">
+        <v>408</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B180" t="s">
+        <v>409</v>
+      </c>
+      <c r="C180" t="s">
+        <v>410</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>57</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B181" t="s">
+        <v>411</v>
+      </c>
+      <c r="C181" t="s">
+        <v>412</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" t="s">
+        <v>56</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B182" t="s">
+        <v>413</v>
+      </c>
+      <c r="C182" t="s">
+        <v>414</v>
+      </c>
+      <c r="D182" t="s">
+        <v>415</v>
+      </c>
+      <c r="E182" t="s">
+        <v>134</v>
+      </c>
+      <c r="F182" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B183" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" t="s">
+        <v>417</v>
+      </c>
+      <c r="D183" t="s">
+        <v>80</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B184" t="s">
+        <v>418</v>
+      </c>
+      <c r="C184" t="s">
+        <v>419</v>
+      </c>
+      <c r="D184" t="s">
+        <v>226</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>21</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B185" t="s">
+        <v>420</v>
+      </c>
+      <c r="C185" t="s">
+        <v>421</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B186" t="s">
+        <v>422</v>
+      </c>
+      <c r="C186" t="s">
+        <v>423</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B187" t="s">
+        <v>424</v>
+      </c>
+      <c r="C187" t="s">
+        <v>425</v>
+      </c>
+      <c r="D187" t="s">
+        <v>226</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>56</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B188" t="s">
+        <v>426</v>
+      </c>
+      <c r="C188" t="s">
+        <v>427</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B189" t="s">
+        <v>428</v>
+      </c>
+      <c r="C189" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" t="s">
+        <v>71</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B190" t="s">
+        <v>430</v>
+      </c>
+      <c r="C190" t="s">
+        <v>431</v>
+      </c>
+      <c r="D190" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B191" t="s">
+        <v>432</v>
+      </c>
+      <c r="C191" t="s">
+        <v>433</v>
+      </c>
+      <c r="D191" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B192" t="s">
+        <v>434</v>
+      </c>
+      <c r="C192" t="s">
+        <v>435</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>56</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
+        <v>437</v>
+      </c>
+      <c r="D193" t="s">
+        <v>185</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" t="s">
+        <v>128</v>
+      </c>
+      <c r="G193" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B194" t="s">
+        <v>438</v>
+      </c>
+      <c r="C194" t="s">
+        <v>439</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>21</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C195" t="s">
+        <v>441</v>
+      </c>
+      <c r="D195" t="s">
+        <v>185</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" t="s">
+        <v>57</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B196" t="s">
+        <v>442</v>
+      </c>
+      <c r="C196" t="s">
+        <v>443</v>
+      </c>
+      <c r="D196" t="s">
+        <v>185</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B197" t="s">
+        <v>444</v>
+      </c>
+      <c r="C197" t="s">
+        <v>445</v>
+      </c>
+      <c r="D197" t="s">
+        <v>45</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B198" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" t="s">
+        <v>447</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B199" t="s">
+        <v>448</v>
+      </c>
+      <c r="C199" t="s">
+        <v>449</v>
+      </c>
+      <c r="D199" t="s">
+        <v>185</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" t="s">
+        <v>21</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B200" t="s">
+        <v>450</v>
+      </c>
+      <c r="C200" t="s">
+        <v>451</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B201" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" t="s">
+        <v>453</v>
+      </c>
+      <c r="D201" t="s">
+        <v>125</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>21</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B202" t="s">
+        <v>454</v>
+      </c>
+      <c r="C202" t="s">
+        <v>455</v>
+      </c>
+      <c r="D202" t="s">
+        <v>80</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>21</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B203" t="s">
+        <v>456</v>
+      </c>
+      <c r="C203" t="s">
+        <v>457</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>21</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B204" t="s">
+        <v>458</v>
+      </c>
+      <c r="C204" t="s">
+        <v>459</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D4DE5-ADDE-4AE7-BF67-53739E227204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFCCA6-9218-42BB-ACEF-A565E36CA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="611">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -107,12 +107,6 @@
     <t>APROVADA</t>
   </si>
   <si>
-    <t>64408267000103</t>
-  </si>
-  <si>
-    <t>R&amp;F7 SONORIZACAO LTDA</t>
-  </si>
-  <si>
     <t>62477388000173</t>
   </si>
   <si>
@@ -134,15 +128,6 @@
     <t>GH MAX INDUSTRIA E COMERCIO LTDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Convencao de condominio atualizada e devidamente registrada em orgao competente.</t>
-  </si>
-  <si>
-    <t>20302868000153</t>
-  </si>
-  <si>
-    <t>JOCELINO JOSE DE SANTANA</t>
-  </si>
-  <si>
     <t>35378120000101</t>
   </si>
   <si>
@@ -218,30 +203,12 @@
     <t>Ainda nao iniciou a abertura de conta</t>
   </si>
   <si>
-    <t>27979636000183</t>
-  </si>
-  <si>
-    <t>TRT TRANSPORTES E LOCACOES LTDA</t>
-  </si>
-  <si>
-    <t>17353684000108</t>
-  </si>
-  <si>
-    <t>ANTONIO DA LISBOA MIRANDA LEITE</t>
-  </si>
-  <si>
     <t>05913044000126</t>
   </si>
   <si>
     <t>S. SAIONARA BITTENCOURT SANTANA</t>
   </si>
   <si>
-    <t>20705132000126</t>
-  </si>
-  <si>
-    <t>20.705.132 JOSE APARECIDO DE JESUS FERNANDES</t>
-  </si>
-  <si>
     <t>37297740000141</t>
   </si>
   <si>
@@ -275,12 +242,6 @@
     <t>JGC PREPARACAO DE DOCUMENTOS LTDA</t>
   </si>
   <si>
-    <t>64778452000181</t>
-  </si>
-  <si>
-    <t>PARA PLANA LOCACOES LTDA</t>
-  </si>
-  <si>
     <t>Cristiane dos Santos Andrade</t>
   </si>
   <si>
@@ -299,12 +260,6 @@
     <t>MN LOCACOES E TERRAPLANGENS LTDA</t>
   </si>
   <si>
-    <t>26283924000136</t>
-  </si>
-  <si>
-    <t>REJANY POSSATTO KESTRING</t>
-  </si>
-  <si>
     <t>Sofia Helena Vieira Domingues</t>
   </si>
   <si>
@@ -782,12 +737,6 @@
     <t>MARTINS VIEIRA SERVICOS LTDA</t>
   </si>
   <si>
-    <t>64716065000110</t>
-  </si>
-  <si>
-    <t>HENRIQUETA INACIO DE MELO MARKETING DE SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>34003978000129</t>
   </si>
   <si>
@@ -1425,6 +1374,504 @@
   </si>
   <si>
     <t>Documento de identificacao pois o apresentado estava ilegivel</t>
+  </si>
+  <si>
+    <t>07992633000172</t>
+  </si>
+  <si>
+    <t>WALTER RAMOS DE SIQUEIRA JUNIOR PRODUCOES E COMUNICACOES</t>
+  </si>
+  <si>
+    <t>63993721000160</t>
+  </si>
+  <si>
+    <t>EURO 5 EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>40207740000118</t>
+  </si>
+  <si>
+    <t>WELIDA SHEILA DA CONCEICAO GOMES</t>
+  </si>
+  <si>
+    <t>64525816000111</t>
+  </si>
+  <si>
+    <t>VALERIO ADVOCACIA E CONSULTORIA JURIDICA</t>
+  </si>
+  <si>
+    <t>10810338000162</t>
+  </si>
+  <si>
+    <t>TRANSFRECAR TRANSPORTES RODOVIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>09279072000194</t>
+  </si>
+  <si>
+    <t>J PEREIRA NETO</t>
+  </si>
+  <si>
+    <t>22062643000100</t>
+  </si>
+  <si>
+    <t>OLIVIO GOMES FERREIRA JUNIOR LTDA</t>
+  </si>
+  <si>
+    <t>35872186000153</t>
+  </si>
+  <si>
+    <t>AZIZA ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>42678545000100</t>
+  </si>
+  <si>
+    <t>PARAOPEBA FUTEBOL CLUBE</t>
+  </si>
+  <si>
+    <t>64796442000179</t>
+  </si>
+  <si>
+    <t>A L NAVAS LTDA</t>
+  </si>
+  <si>
+    <t>09545098000137</t>
+  </si>
+  <si>
+    <t>TUCURUI ARMAZEM E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>53405219000137</t>
+  </si>
+  <si>
+    <t>INFINIT CAR LTDA</t>
+  </si>
+  <si>
+    <t>34422868000100</t>
+  </si>
+  <si>
+    <t>SOBRAL DE OLIVEIRA - SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>05217597000144</t>
+  </si>
+  <si>
+    <t>PAULO FRANCISCO DO CARMO</t>
+  </si>
+  <si>
+    <t>62612181000164</t>
+  </si>
+  <si>
+    <t>J.J.C DEMOLICAO DE ROCHAS LTDA</t>
+  </si>
+  <si>
+    <t>09605054000155</t>
+  </si>
+  <si>
+    <t>VALDETE FEITOSA DE ARAUJO</t>
+  </si>
+  <si>
+    <t>63341174000138</t>
+  </si>
+  <si>
+    <t>EXPRESSO DELIVERY LTDA</t>
+  </si>
+  <si>
+    <t>14370963000191</t>
+  </si>
+  <si>
+    <t>SO ALEGRIA FESTAS E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>07713529000100</t>
+  </si>
+  <si>
+    <t>TATIANA SCHLENDAK CORRETORA DE IMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>15454153000186</t>
+  </si>
+  <si>
+    <t>C-LOG TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>63875647000187</t>
+  </si>
+  <si>
+    <t>PARADISO IMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>64794093000156</t>
+  </si>
+  <si>
+    <t>THIAGO ARAUJO LIMA DE SOUZA LTDA</t>
+  </si>
+  <si>
+    <t>21434350000136</t>
+  </si>
+  <si>
+    <t>TRANS ANDRADE LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>56604854000131</t>
+  </si>
+  <si>
+    <t>RBT NEGOCIOS LTDA</t>
+  </si>
+  <si>
+    <t>39959402000153</t>
+  </si>
+  <si>
+    <t>LONG GLORY BRASIL TECHNOLOGY LTDA</t>
+  </si>
+  <si>
+    <t>11676834000138</t>
+  </si>
+  <si>
+    <t>ELIANA APARECIDA MARCONDES FIGUEIREDO</t>
+  </si>
+  <si>
+    <t>45198503000151</t>
+  </si>
+  <si>
+    <t>WILLIANS FELIPE CONTABILIDADE LTDA</t>
+  </si>
+  <si>
+    <t>57350458000198</t>
+  </si>
+  <si>
+    <t>AYAME ESTETICA E SPA LTDA</t>
+  </si>
+  <si>
+    <t>56387625000102</t>
+  </si>
+  <si>
+    <t>A. M. PEDROSO - SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>25360817000100</t>
+  </si>
+  <si>
+    <t>VIVIANE DA SILVA PEREIRA</t>
+  </si>
+  <si>
+    <t>39563642000134</t>
+  </si>
+  <si>
+    <t>CHARLES SILVEIRA DE SOUZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>10462473000164</t>
+  </si>
+  <si>
+    <t>NASCIMENTO CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>64893959000186</t>
+  </si>
+  <si>
+    <t>LUCIENE MARTINS APOIO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>10898041000109</t>
+  </si>
+  <si>
+    <t>J. C. B. VAZ HAMBURGUERIA</t>
+  </si>
+  <si>
+    <t>60490197000116</t>
+  </si>
+  <si>
+    <t>FERNANDO CARLOS UZEDA DA SILVA JUNIOR SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>29895990000155</t>
+  </si>
+  <si>
+    <t>CRISNEY MARCIAO BELO</t>
+  </si>
+  <si>
+    <t>21380895000107</t>
+  </si>
+  <si>
+    <t>FLAVIA DA SILVA MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>54316560000189</t>
+  </si>
+  <si>
+    <t>S. SANTOS DA SILVA LTDAIMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>30593937000189</t>
+  </si>
+  <si>
+    <t>AYONARA REGINA DE OLIVEIRA COELHO</t>
+  </si>
+  <si>
+    <t>41257200000101</t>
+  </si>
+  <si>
+    <t>OSWALDO AMERICO DE SOUZA JUNIOR-SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>01504237000172</t>
+  </si>
+  <si>
+    <t>P S EMPREENDIMENTOS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>20368506000165</t>
+  </si>
+  <si>
+    <t>WALDIR BRAZ FERREIRA ALIMENTOS</t>
+  </si>
+  <si>
+    <t>35154524000111</t>
+  </si>
+  <si>
+    <t>RAFAEL BATISTA DA SILVA</t>
+  </si>
+  <si>
+    <t>01513976000120</t>
+  </si>
+  <si>
+    <t>ULISSES PEREIRA DE MELO SERVICOS</t>
+  </si>
+  <si>
+    <t>55417186000170</t>
+  </si>
+  <si>
+    <t>JOSILENE BUSTO E OUTRO</t>
+  </si>
+  <si>
+    <t>43732109000126</t>
+  </si>
+  <si>
+    <t>LOTEAMENTO CHACARAS PORTAL DE VERTENTES LTDA</t>
+  </si>
+  <si>
+    <t>53192809000129</t>
+  </si>
+  <si>
+    <t>ROMAO IMOVEIS EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>60838076000112</t>
+  </si>
+  <si>
+    <t>DIAS TRANSPORTES ESPECIALIZADOS LTDA</t>
+  </si>
+  <si>
+    <t>21714404000117</t>
+  </si>
+  <si>
+    <t>WLSOLUCOES IMOBILIARIA NEGOCIOS E ASSESSORIAS LTDA</t>
+  </si>
+  <si>
+    <t>83355727000119</t>
+  </si>
+  <si>
+    <t>HAVYLAH COMPANHIA DE MINERACAO E EXTRACAO IMPORTACAO E EXPORTACAO LTDA</t>
+  </si>
+  <si>
+    <t>61006331000123</t>
+  </si>
+  <si>
+    <t>CRS PRESTACAO DE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>58811735000185</t>
+  </si>
+  <si>
+    <t>MARTINS PROMOCAO DE VENDAS LTDA</t>
+  </si>
+  <si>
+    <t>28962283000171</t>
+  </si>
+  <si>
+    <t>JAILTON JOSE PEQUENO</t>
+  </si>
+  <si>
+    <t>10940599000105</t>
+  </si>
+  <si>
+    <t>T. P. MIRANDA COMERCIO</t>
+  </si>
+  <si>
+    <t>19956160000137</t>
+  </si>
+  <si>
+    <t>VALQUIRIA ARRUDA CARDOSO</t>
+  </si>
+  <si>
+    <t>34418046000147</t>
+  </si>
+  <si>
+    <t>Mcs Manutencao Eletrica</t>
+  </si>
+  <si>
+    <t>60889172000190</t>
+  </si>
+  <si>
+    <t>JOCA COMERCIO E SERVICO LTDA</t>
+  </si>
+  <si>
+    <t>60482671000168</t>
+  </si>
+  <si>
+    <t>FRIGORIFICO BRUTHOS LTDA</t>
+  </si>
+  <si>
+    <t>64900595000114</t>
+  </si>
+  <si>
+    <t>MJV PECAS LTDA</t>
+  </si>
+  <si>
+    <t>64887931000136</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE GOIS - SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>65770521000173</t>
+  </si>
+  <si>
+    <t>TPS DISTRIBUICAO E REPRESENTACAO LTDA</t>
+  </si>
+  <si>
+    <t>58648243000110</t>
+  </si>
+  <si>
+    <t>PITINHO DE PALHA PRODUTOS ARTESANAIS DO TABACO LTDA</t>
+  </si>
+  <si>
+    <t>44474281000190</t>
+  </si>
+  <si>
+    <t>R A SOUSA DA COSTA REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>19613499000130</t>
+  </si>
+  <si>
+    <t>CLAUDINEI LEANDRO PAULINO DE MELLO</t>
+  </si>
+  <si>
+    <t>04391820000102</t>
+  </si>
+  <si>
+    <t>SV GRAFICA LTDA</t>
+  </si>
+  <si>
+    <t>63907993000108</t>
+  </si>
+  <si>
+    <t>EDIVANILSON SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>Luana Duarte Paulo</t>
+  </si>
+  <si>
+    <t>07694780000166</t>
+  </si>
+  <si>
+    <t>FREIRE ARTIGOS FUNERARIOS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>60729769000177</t>
+  </si>
+  <si>
+    <t>JOSE AURICIO DE CARVALHO BRITO LTDA</t>
+  </si>
+  <si>
+    <t>64623452000102</t>
+  </si>
+  <si>
+    <t>OPTICA LUME</t>
+  </si>
+  <si>
+    <t>64546889000190</t>
+  </si>
+  <si>
+    <t>D.P.H. COMERCIO VAREJISTA LTDA</t>
+  </si>
+  <si>
+    <t>05956433000139</t>
+  </si>
+  <si>
+    <t>J VARJAO CONSTRUTORA, EMPREENDIMENTOS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>Aghata Alves dos Santos</t>
+  </si>
+  <si>
+    <t>43757455000169</t>
+  </si>
+  <si>
+    <t>SAFE CLEAR CONSULTORIA EM SISTEMAS DE HIGIENIZACAO PROFISSIONAL LTDA</t>
+  </si>
+  <si>
+    <t>13524883000180</t>
+  </si>
+  <si>
+    <t>F SALES COMERCIO E REPRESENTACOES</t>
+  </si>
+  <si>
+    <t>15634950000145</t>
+  </si>
+  <si>
+    <t>ELITE IMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>64805565000129</t>
+  </si>
+  <si>
+    <t>ELORA ENERGIA LTDA</t>
+  </si>
+  <si>
+    <t>60058337000181</t>
+  </si>
+  <si>
+    <t>CURISCO COMERCIO DE PALETES LTDA</t>
+  </si>
+  <si>
+    <t>21503717000126</t>
+  </si>
+  <si>
+    <t>EDMAR BRAZ BANDEIRA</t>
+  </si>
+  <si>
+    <t>LETICIA VIVIANE CARVALHO DA PENA</t>
+  </si>
+  <si>
+    <t>64750655000160</t>
+  </si>
+  <si>
+    <t>BMS FOODS LTDA</t>
+  </si>
+  <si>
+    <t>10778107000119</t>
+  </si>
+  <si>
+    <t>ALLAN AGUIAR VIEIRA LTDA</t>
+  </si>
+  <si>
+    <t>64200018000110</t>
+  </si>
+  <si>
+    <t>OUSE CLOSET LTDA</t>
+  </si>
+  <si>
+    <t>64672081000159</t>
+  </si>
+  <si>
+    <t>DIGASA SERVICOS DE APOIO ADMINISTRATIVOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convencao de condominio atualizada e devidamente registrada em orgao competente.&lt;br&gt;&lt;br&gt;Convencao do condominio registrada no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -1797,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,10 +2283,10 @@
         <v>46054</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1848,10 +2295,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,10 +2306,10 @@
         <v>46054</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1871,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1882,10 +2329,10 @@
         <v>46054</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1894,10 +2341,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,10 +2352,10 @@
         <v>46054</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1917,10 +2364,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,10 +2375,10 @@
         <v>46054</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1940,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1951,19 +2398,19 @@
         <v>46054</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1974,19 +2421,19 @@
         <v>46054</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1997,19 +2444,19 @@
         <v>46054</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2017,22 +2464,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2040,22 +2487,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2066,16 +2513,16 @@
         <v>46055</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -2089,13 +2536,13 @@
         <v>46055</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -2112,16 +2559,16 @@
         <v>46055</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -2135,19 +2582,19 @@
         <v>46055</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2164,10 +2611,10 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -2187,10 +2634,10 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -2210,7 +2657,7 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -2227,19 +2674,19 @@
         <v>46055</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2250,19 +2697,19 @@
         <v>46055</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2273,16 +2720,16 @@
         <v>46055</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -2296,13 +2743,13 @@
         <v>46055</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -2319,13 +2766,13 @@
         <v>46055</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -2342,19 +2789,19 @@
         <v>46055</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2365,19 +2812,19 @@
         <v>46055</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2388,16 +2835,16 @@
         <v>46055</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
@@ -2411,13 +2858,13 @@
         <v>46055</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -2434,19 +2881,19 @@
         <v>46055</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2457,16 +2904,16 @@
         <v>46055</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
@@ -2486,13 +2933,13 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2509,13 +2956,13 @@
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2532,13 +2979,13 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2549,19 +2996,19 @@
         <v>46055</v>
       </c>
       <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2572,22 +3019,19 @@
         <v>46055</v>
       </c>
       <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2601,13 +3045,13 @@
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2624,10 +3068,10 @@
         <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -2641,22 +3085,22 @@
         <v>46055</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G37" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,19 +3108,19 @@
         <v>46055</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2687,19 +3131,19 @@
         <v>46055</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2710,19 +3154,19 @@
         <v>46055</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2733,19 +3177,22 @@
         <v>46055</v>
       </c>
       <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,19 +3200,19 @@
         <v>46055</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2776,16 +3223,16 @@
         <v>46055</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -2799,22 +3246,22 @@
         <v>46055</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" t="s">
-        <v>280</v>
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,19 +3269,19 @@
         <v>46055</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2845,19 +3292,19 @@
         <v>46055</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2868,19 +3315,19 @@
         <v>46055</v>
       </c>
       <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2891,16 +3338,16 @@
         <v>46055</v>
       </c>
       <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
         <v>137</v>
       </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
@@ -2914,13 +3361,13 @@
         <v>46055</v>
       </c>
       <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -2937,13 +3384,13 @@
         <v>46055</v>
       </c>
       <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -2960,10 +3407,10 @@
         <v>46055</v>
       </c>
       <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
         <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2972,7 +3419,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2983,13 +3430,13 @@
         <v>46055</v>
       </c>
       <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s">
-        <v>146</v>
-      </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -3006,19 +3453,19 @@
         <v>46055</v>
       </c>
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
         <v>147</v>
       </c>
-      <c r="C53" t="s">
-        <v>148</v>
-      </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3029,19 +3476,19 @@
         <v>46055</v>
       </c>
       <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
         <v>149</v>
       </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3052,19 +3499,19 @@
         <v>46055</v>
       </c>
       <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
         <v>151</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>152</v>
       </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3081,13 +3528,13 @@
         <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3104,13 +3551,13 @@
         <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3127,13 +3574,13 @@
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3150,10 +3597,10 @@
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
@@ -3173,16 +3620,16 @@
         <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="G60" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,19 +3637,19 @@
         <v>46055</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3213,19 +3660,19 @@
         <v>46055</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3242,13 +3689,13 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3259,19 +3706,19 @@
         <v>46055</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3282,19 +3729,19 @@
         <v>46055</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3305,16 +3752,16 @@
         <v>46055</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
@@ -3328,22 +3775,22 @@
         <v>46055</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" t="s">
-        <v>281</v>
+        <v>21</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3357,10 +3804,10 @@
         <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -3380,13 +3827,13 @@
         <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3403,13 +3850,13 @@
         <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3420,16 +3867,16 @@
         <v>46055</v>
       </c>
       <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
         <v>186</v>
       </c>
-      <c r="C71" t="s">
-        <v>187</v>
-      </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
@@ -3443,19 +3890,19 @@
         <v>46055</v>
       </c>
       <c r="B72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" t="s">
         <v>188</v>
       </c>
-      <c r="C72" t="s">
-        <v>189</v>
-      </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3466,19 +3913,19 @@
         <v>46055</v>
       </c>
       <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
         <v>190</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
         <v>191</v>
       </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3495,7 +3942,7 @@
         <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -3518,10 +3965,10 @@
         <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>21</v>
@@ -3541,7 +3988,7 @@
         <v>197</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -3564,13 +4011,13 @@
         <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3581,16 +4028,16 @@
         <v>46055</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
         <v>21</v>
@@ -3604,19 +4051,19 @@
         <v>46055</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3627,19 +4074,19 @@
         <v>46055</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3656,13 +4103,13 @@
         <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3679,7 +4126,7 @@
         <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -3696,13 +4143,13 @@
         <v>46055</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -3719,19 +4166,19 @@
         <v>46055</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3748,10 +4195,10 @@
         <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3771,13 +4218,13 @@
         <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3794,10 +4241,10 @@
         <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
         <v>21</v>
@@ -3817,13 +4264,13 @@
         <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3840,13 +4287,13 @@
         <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3857,19 +4304,19 @@
         <v>46055</v>
       </c>
       <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
         <v>227</v>
       </c>
-      <c r="C90" t="s">
-        <v>228</v>
-      </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3880,16 +4327,16 @@
         <v>46055</v>
       </c>
       <c r="B91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="s">
         <v>229</v>
       </c>
-      <c r="C91" t="s">
-        <v>230</v>
-      </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
@@ -3903,16 +4350,16 @@
         <v>46055</v>
       </c>
       <c r="B92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" t="s">
         <v>231</v>
       </c>
-      <c r="C92" t="s">
-        <v>232</v>
-      </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -3926,19 +4373,19 @@
         <v>46055</v>
       </c>
       <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
         <v>233</v>
       </c>
-      <c r="C93" t="s">
-        <v>234</v>
-      </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3949,16 +4396,16 @@
         <v>46055</v>
       </c>
       <c r="B94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" t="s">
         <v>235</v>
       </c>
-      <c r="C94" t="s">
-        <v>236</v>
-      </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -3972,19 +4419,19 @@
         <v>46055</v>
       </c>
       <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
         <v>237</v>
       </c>
-      <c r="C95" t="s">
-        <v>238</v>
-      </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3995,19 +4442,19 @@
         <v>46055</v>
       </c>
       <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
         <v>239</v>
       </c>
-      <c r="C96" t="s">
-        <v>240</v>
-      </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4018,19 +4465,19 @@
         <v>46055</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4041,16 +4488,16 @@
         <v>46055</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -4064,13 +4511,13 @@
         <v>46055</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -4087,13 +4534,13 @@
         <v>46055</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -4107,22 +4554,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4130,16 +4577,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -4153,22 +4600,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4176,22 +4623,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4199,45 +4646,45 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>283</v>
+        <v>21</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4245,16 +4692,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -4268,19 +4715,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -4291,19 +4738,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -4317,13 +4764,13 @@
         <v>46056</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -4340,16 +4787,16 @@
         <v>46056</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F111" t="s">
         <v>21</v>
@@ -4363,19 +4810,19 @@
         <v>46056</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4386,19 +4833,19 @@
         <v>46056</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4409,16 +4856,16 @@
         <v>46056</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
         <v>21</v>
@@ -4432,19 +4879,19 @@
         <v>46056</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D115" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4455,16 +4902,16 @@
         <v>46056</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C116" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -4478,19 +4925,19 @@
         <v>46056</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4501,13 +4948,13 @@
         <v>46056</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -4524,13 +4971,13 @@
         <v>46056</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -4547,19 +4994,19 @@
         <v>46056</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4570,19 +5017,19 @@
         <v>46056</v>
       </c>
       <c r="B121" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4593,19 +5040,19 @@
         <v>46056</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4616,16 +5063,16 @@
         <v>46056</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -4639,19 +5086,19 @@
         <v>46056</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C124" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4662,16 +5109,16 @@
         <v>46056</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D125" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -4685,19 +5132,19 @@
         <v>46056</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4708,13 +5155,13 @@
         <v>46056</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -4731,13 +5178,13 @@
         <v>46056</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -4754,19 +5201,19 @@
         <v>46056</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4777,13 +5224,13 @@
         <v>46056</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -4800,16 +5247,16 @@
         <v>46056</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -4823,22 +5270,22 @@
         <v>46056</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D132" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G132" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4846,19 +5293,19 @@
         <v>46056</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4869,16 +5316,16 @@
         <v>46056</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -4892,22 +5339,22 @@
         <v>46056</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G135" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4915,19 +5362,19 @@
         <v>46056</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C136" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4938,13 +5385,13 @@
         <v>46056</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -4961,13 +5408,13 @@
         <v>46056</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -4984,13 +5431,13 @@
         <v>46056</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C139" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -5007,16 +5454,16 @@
         <v>46056</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D140" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -5030,22 +5477,22 @@
         <v>46056</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>128</v>
-      </c>
-      <c r="G141" t="s">
-        <v>461</v>
+        <v>21</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5053,19 +5500,19 @@
         <v>46056</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5076,16 +5523,16 @@
         <v>46056</v>
       </c>
       <c r="B143" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -5099,22 +5546,22 @@
         <v>46056</v>
       </c>
       <c r="B144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>128</v>
-      </c>
-      <c r="G144" t="s">
-        <v>282</v>
+        <v>21</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5122,19 +5569,19 @@
         <v>46056</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5145,19 +5592,19 @@
         <v>46056</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C146" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D146" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5168,19 +5615,19 @@
         <v>46056</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5191,16 +5638,16 @@
         <v>46056</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F148" t="s">
         <v>21</v>
@@ -5214,13 +5661,13 @@
         <v>46056</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -5237,19 +5684,19 @@
         <v>46056</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C150" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5260,13 +5707,13 @@
         <v>46056</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -5283,16 +5730,16 @@
         <v>46056</v>
       </c>
       <c r="B152" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -5306,13 +5753,13 @@
         <v>46056</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -5329,13 +5776,13 @@
         <v>46056</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -5352,19 +5799,22 @@
         <v>46056</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,19 +5822,19 @@
         <v>46056</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D156" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -5395,19 +5845,19 @@
         <v>46056</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D157" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -5418,16 +5868,16 @@
         <v>46056</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
         <v>21</v>
@@ -5441,19 +5891,19 @@
         <v>46056</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D159" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -5464,19 +5914,19 @@
         <v>46056</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C160" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -5487,19 +5937,19 @@
         <v>46056</v>
       </c>
       <c r="B161" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C161" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -5510,10 +5960,10 @@
         <v>46056</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C162" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -5533,13 +5983,13 @@
         <v>46056</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C163" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D163" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -5556,19 +6006,19 @@
         <v>46056</v>
       </c>
       <c r="B164" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D164" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5579,13 +6029,13 @@
         <v>46056</v>
       </c>
       <c r="B165" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -5602,22 +6052,22 @@
         <v>46056</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G166" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5625,19 +6075,19 @@
         <v>46056</v>
       </c>
       <c r="B167" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D167" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5648,10 +6098,10 @@
         <v>46056</v>
       </c>
       <c r="B168" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D168" t="s">
         <v>16</v>
@@ -5660,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5671,19 +6121,19 @@
         <v>46056</v>
       </c>
       <c r="B169" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C169" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5694,19 +6144,19 @@
         <v>46056</v>
       </c>
       <c r="B170" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D170" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5717,19 +6167,19 @@
         <v>46056</v>
       </c>
       <c r="B171" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C171" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5740,19 +6190,19 @@
         <v>46056</v>
       </c>
       <c r="B172" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5763,19 +6213,19 @@
         <v>46056</v>
       </c>
       <c r="B173" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C173" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="F173" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5786,16 +6236,16 @@
         <v>46056</v>
       </c>
       <c r="B174" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C174" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
@@ -5809,19 +6259,19 @@
         <v>46056</v>
       </c>
       <c r="B175" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C175" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5832,19 +6282,19 @@
         <v>46056</v>
       </c>
       <c r="B176" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C176" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5855,16 +6305,16 @@
         <v>46056</v>
       </c>
       <c r="B177" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C177" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F177" t="s">
         <v>21</v>
@@ -5878,19 +6328,19 @@
         <v>46056</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C178" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5901,16 +6351,16 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C179" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F179" t="s">
         <v>21</v>
@@ -5924,19 +6374,19 @@
         <v>46056</v>
       </c>
       <c r="B180" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C180" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5947,19 +6397,19 @@
         <v>46056</v>
       </c>
       <c r="B181" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C181" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5970,16 +6420,16 @@
         <v>46056</v>
       </c>
       <c r="B182" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C182" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D182" t="s">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="E182" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5993,16 +6443,16 @@
         <v>46056</v>
       </c>
       <c r="B183" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D183" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F183" t="s">
         <v>21</v>
@@ -6016,22 +6466,22 @@
         <v>46056</v>
       </c>
       <c r="B184" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D184" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G184" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6039,13 +6489,13 @@
         <v>46056</v>
       </c>
       <c r="B185" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C185" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -6062,19 +6512,19 @@
         <v>46056</v>
       </c>
       <c r="B186" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C186" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -6085,19 +6535,19 @@
         <v>46056</v>
       </c>
       <c r="B187" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D187" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -6108,16 +6558,16 @@
         <v>46056</v>
       </c>
       <c r="B188" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C188" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6131,13 +6581,13 @@
         <v>46056</v>
       </c>
       <c r="B189" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C189" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -6154,13 +6604,13 @@
         <v>46056</v>
       </c>
       <c r="B190" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D190" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -6177,16 +6627,16 @@
         <v>46056</v>
       </c>
       <c r="B191" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C191" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6197,22 +6647,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -6220,39 +6670,39 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C193" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>128</v>
-      </c>
-      <c r="G193" t="s">
-        <v>282</v>
+        <v>21</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B194" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C194" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -6266,22 +6716,22 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B195" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C195" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D195" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -6289,16 +6739,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B196" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C196" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D196" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -6312,22 +6762,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B197" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C197" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D197" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -6335,16 +6785,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B198" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C198" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -6358,19 +6808,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B199" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C199" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D199" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F199" t="s">
         <v>21</v>
@@ -6381,25 +6831,25 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B200" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C200" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G200" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6407,19 +6857,19 @@
         <v>46057</v>
       </c>
       <c r="B201" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C201" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D201" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6430,16 +6880,16 @@
         <v>46057</v>
       </c>
       <c r="B202" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C202" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D202" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F202" t="s">
         <v>21</v>
@@ -6453,10 +6903,10 @@
         <v>46057</v>
       </c>
       <c r="B203" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -6465,10 +6915,10 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G203" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6476,21 +6926,1697 @@
         <v>46057</v>
       </c>
       <c r="B204" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C204" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D204" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" t="s">
+        <v>51</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B205" t="s">
+        <v>463</v>
+      </c>
+      <c r="C205" t="s">
+        <v>464</v>
+      </c>
+      <c r="D205" t="s">
+        <v>76</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>21</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B206" t="s">
+        <v>465</v>
+      </c>
+      <c r="C206" t="s">
+        <v>466</v>
+      </c>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" t="s">
+        <v>51</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B207" t="s">
+        <v>467</v>
+      </c>
+      <c r="C207" t="s">
+        <v>468</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" t="s">
+        <v>21</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B208" t="s">
+        <v>469</v>
+      </c>
+      <c r="C208" t="s">
+        <v>470</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>51</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B209" t="s">
+        <v>471</v>
+      </c>
+      <c r="C209" t="s">
+        <v>472</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B210" t="s">
+        <v>473</v>
+      </c>
+      <c r="C210" t="s">
+        <v>474</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>51</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B211" t="s">
+        <v>475</v>
+      </c>
+      <c r="C211" t="s">
+        <v>476</v>
+      </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" t="s">
+        <v>52</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B212" t="s">
+        <v>477</v>
+      </c>
+      <c r="C212" t="s">
+        <v>478</v>
+      </c>
+      <c r="D212" t="s">
+        <v>70</v>
+      </c>
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" t="s">
+        <v>51</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B213" t="s">
+        <v>479</v>
+      </c>
+      <c r="C213" t="s">
+        <v>480</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" t="s">
+        <v>21</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B214" t="s">
+        <v>240</v>
+      </c>
+      <c r="C214" t="s">
+        <v>241</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
+        <v>51</v>
+      </c>
+      <c r="G214" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B215" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" t="s">
+        <v>482</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>21</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B216" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" t="s">
+        <v>484</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" t="s">
+        <v>21</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B217" t="s">
+        <v>485</v>
+      </c>
+      <c r="C217" t="s">
+        <v>486</v>
+      </c>
+      <c r="D217" t="s">
+        <v>67</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>21</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B218" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218" t="s">
+        <v>488</v>
+      </c>
+      <c r="D218" t="s">
+        <v>163</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>52</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B219" t="s">
+        <v>489</v>
+      </c>
+      <c r="C219" t="s">
+        <v>490</v>
+      </c>
+      <c r="D219" t="s">
+        <v>170</v>
+      </c>
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B220" t="s">
+        <v>491</v>
+      </c>
+      <c r="C220" t="s">
+        <v>492</v>
+      </c>
+      <c r="D220" t="s">
+        <v>170</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" t="s">
+        <v>21</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B221" t="s">
+        <v>493</v>
+      </c>
+      <c r="C221" t="s">
+        <v>494</v>
+      </c>
+      <c r="D221" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B222" t="s">
+        <v>495</v>
+      </c>
+      <c r="C222" t="s">
+        <v>496</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>21</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B223" t="s">
+        <v>497</v>
+      </c>
+      <c r="C223" t="s">
+        <v>498</v>
+      </c>
+      <c r="D223" t="s">
+        <v>60</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>51</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B224" t="s">
+        <v>499</v>
+      </c>
+      <c r="C224" t="s">
+        <v>500</v>
+      </c>
+      <c r="D224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>113</v>
+      </c>
+      <c r="G224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B225" t="s">
+        <v>501</v>
+      </c>
+      <c r="C225" t="s">
+        <v>502</v>
+      </c>
+      <c r="D225" t="s">
+        <v>73</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B226" t="s">
+        <v>503</v>
+      </c>
+      <c r="C226" t="s">
+        <v>504</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" t="s">
+        <v>51</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B227" t="s">
+        <v>505</v>
+      </c>
+      <c r="C227" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" t="s">
+        <v>110</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
+        <v>21</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B228" t="s">
+        <v>507</v>
+      </c>
+      <c r="C228" t="s">
+        <v>508</v>
+      </c>
+      <c r="D228" t="s">
+        <v>73</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" t="s">
+        <v>21</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B229" t="s">
+        <v>509</v>
+      </c>
+      <c r="C229" t="s">
+        <v>510</v>
+      </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>21</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B230" t="s">
+        <v>511</v>
+      </c>
+      <c r="C230" t="s">
+        <v>512</v>
+      </c>
+      <c r="D230" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" t="s">
+        <v>21</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B231" t="s">
+        <v>513</v>
+      </c>
+      <c r="C231" t="s">
+        <v>514</v>
+      </c>
+      <c r="D231" t="s">
         <v>12</v>
       </c>
-      <c r="E204" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204">
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" t="s">
+        <v>52</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B232" t="s">
+        <v>515</v>
+      </c>
+      <c r="C232" t="s">
+        <v>516</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" t="s">
+        <v>21</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B233" t="s">
+        <v>517</v>
+      </c>
+      <c r="C233" t="s">
+        <v>518</v>
+      </c>
+      <c r="D233" t="s">
+        <v>110</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>21</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B234" t="s">
+        <v>519</v>
+      </c>
+      <c r="C234" t="s">
+        <v>520</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" t="s">
+        <v>52</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B235" t="s">
+        <v>521</v>
+      </c>
+      <c r="C235" t="s">
+        <v>522</v>
+      </c>
+      <c r="D235" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B236" t="s">
+        <v>523</v>
+      </c>
+      <c r="C236" t="s">
+        <v>524</v>
+      </c>
+      <c r="D236" t="s">
+        <v>170</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
+        <v>21</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B237" t="s">
+        <v>525</v>
+      </c>
+      <c r="C237" t="s">
+        <v>526</v>
+      </c>
+      <c r="D237" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>51</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B238" t="s">
+        <v>527</v>
+      </c>
+      <c r="C238" t="s">
+        <v>528</v>
+      </c>
+      <c r="D238" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
+        <v>21</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B239" t="s">
+        <v>529</v>
+      </c>
+      <c r="C239" t="s">
+        <v>530</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
+        <v>21</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B240" t="s">
+        <v>531</v>
+      </c>
+      <c r="C240" t="s">
+        <v>532</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>21</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B241" t="s">
+        <v>533</v>
+      </c>
+      <c r="C241" t="s">
+        <v>534</v>
+      </c>
+      <c r="D241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" t="s">
+        <v>51</v>
+      </c>
+      <c r="G241" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B242" t="s">
+        <v>535</v>
+      </c>
+      <c r="C242" t="s">
+        <v>536</v>
+      </c>
+      <c r="D242" t="s">
+        <v>40</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" t="s">
+        <v>51</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B243" t="s">
+        <v>537</v>
+      </c>
+      <c r="C243" t="s">
+        <v>538</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" t="s">
+        <v>21</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B244" t="s">
+        <v>539</v>
+      </c>
+      <c r="C244" t="s">
+        <v>540</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" t="s">
+        <v>21</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B245" t="s">
+        <v>541</v>
+      </c>
+      <c r="C245" t="s">
+        <v>542</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" t="s">
+        <v>21</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B246" t="s">
+        <v>543</v>
+      </c>
+      <c r="C246" t="s">
+        <v>544</v>
+      </c>
+      <c r="D246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
+        <v>113</v>
+      </c>
+      <c r="G246" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B247" t="s">
+        <v>545</v>
+      </c>
+      <c r="C247" t="s">
+        <v>546</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>51</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B248" t="s">
+        <v>547</v>
+      </c>
+      <c r="C248" t="s">
+        <v>548</v>
+      </c>
+      <c r="D248" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>21</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B249" t="s">
+        <v>549</v>
+      </c>
+      <c r="C249" t="s">
+        <v>550</v>
+      </c>
+      <c r="D249" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" t="s">
+        <v>52</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B250" t="s">
+        <v>551</v>
+      </c>
+      <c r="C250" t="s">
+        <v>552</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>21</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+      <c r="C251" t="s">
+        <v>554</v>
+      </c>
+      <c r="D251" t="s">
+        <v>73</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>21</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B252" t="s">
+        <v>555</v>
+      </c>
+      <c r="C252" t="s">
+        <v>556</v>
+      </c>
+      <c r="D252" t="s">
+        <v>170</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>52</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B253" t="s">
+        <v>557</v>
+      </c>
+      <c r="C253" t="s">
+        <v>558</v>
+      </c>
+      <c r="D253" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
+        <v>113</v>
+      </c>
+      <c r="G253" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B254" t="s">
+        <v>559</v>
+      </c>
+      <c r="C254" t="s">
+        <v>560</v>
+      </c>
+      <c r="D254" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
+        <v>21</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B255" t="s">
+        <v>561</v>
+      </c>
+      <c r="C255" t="s">
+        <v>562</v>
+      </c>
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>21</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B256" t="s">
+        <v>563</v>
+      </c>
+      <c r="C256" t="s">
+        <v>564</v>
+      </c>
+      <c r="D256" t="s">
+        <v>152</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>21</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B257" t="s">
+        <v>565</v>
+      </c>
+      <c r="C257" t="s">
+        <v>566</v>
+      </c>
+      <c r="D257" t="s">
+        <v>73</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>52</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C258" t="s">
+        <v>568</v>
+      </c>
+      <c r="D258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" t="s">
+        <v>21</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B259" t="s">
+        <v>569</v>
+      </c>
+      <c r="C259" t="s">
+        <v>570</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B260" t="s">
+        <v>571</v>
+      </c>
+      <c r="C260" t="s">
+        <v>572</v>
+      </c>
+      <c r="D260" t="s">
+        <v>110</v>
+      </c>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>21</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B261" t="s">
+        <v>573</v>
+      </c>
+      <c r="C261" t="s">
+        <v>574</v>
+      </c>
+      <c r="D261" t="s">
+        <v>170</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
+        <v>52</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B262" t="s">
+        <v>575</v>
+      </c>
+      <c r="C262" t="s">
+        <v>576</v>
+      </c>
+      <c r="D262" t="s">
+        <v>577</v>
+      </c>
+      <c r="E262" t="s">
+        <v>191</v>
+      </c>
+      <c r="F262" t="s">
+        <v>21</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B263" t="s">
+        <v>578</v>
+      </c>
+      <c r="C263" t="s">
+        <v>579</v>
+      </c>
+      <c r="D263" t="s">
+        <v>170</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
+        <v>21</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B264" t="s">
+        <v>580</v>
+      </c>
+      <c r="C264" t="s">
+        <v>581</v>
+      </c>
+      <c r="D264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
+        <v>21</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B265" t="s">
+        <v>582</v>
+      </c>
+      <c r="C265" t="s">
+        <v>583</v>
+      </c>
+      <c r="D265" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s">
+        <v>21</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B266" t="s">
+        <v>584</v>
+      </c>
+      <c r="C266" t="s">
+        <v>585</v>
+      </c>
+      <c r="D266" t="s">
+        <v>152</v>
+      </c>
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>21</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B267" t="s">
+        <v>586</v>
+      </c>
+      <c r="C267" t="s">
+        <v>587</v>
+      </c>
+      <c r="D267" t="s">
+        <v>588</v>
+      </c>
+      <c r="E267" t="s">
+        <v>119</v>
+      </c>
+      <c r="F267" t="s">
+        <v>21</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B268" t="s">
+        <v>589</v>
+      </c>
+      <c r="C268" t="s">
+        <v>590</v>
+      </c>
+      <c r="D268" t="s">
+        <v>200</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" t="s">
+        <v>52</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B269" t="s">
+        <v>591</v>
+      </c>
+      <c r="C269" t="s">
+        <v>592</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269" t="s">
+        <v>21</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B270" t="s">
+        <v>593</v>
+      </c>
+      <c r="C270" t="s">
+        <v>594</v>
+      </c>
+      <c r="D270" t="s">
+        <v>16</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>21</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B271" t="s">
+        <v>595</v>
+      </c>
+      <c r="C271" t="s">
+        <v>596</v>
+      </c>
+      <c r="D271" t="s">
+        <v>67</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>21</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B272" t="s">
+        <v>597</v>
+      </c>
+      <c r="C272" t="s">
+        <v>598</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" t="s">
+        <v>21</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B273" t="s">
+        <v>599</v>
+      </c>
+      <c r="C273" t="s">
+        <v>600</v>
+      </c>
+      <c r="D273" t="s">
+        <v>601</v>
+      </c>
+      <c r="F273" t="s">
+        <v>21</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B274" t="s">
+        <v>602</v>
+      </c>
+      <c r="C274" t="s">
+        <v>603</v>
+      </c>
+      <c r="D274" t="s">
+        <v>152</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
+        <v>21</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B275" t="s">
+        <v>604</v>
+      </c>
+      <c r="C275" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>21</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B276" t="s">
+        <v>606</v>
+      </c>
+      <c r="C276" t="s">
+        <v>607</v>
+      </c>
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" t="s">
+        <v>21</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B277" t="s">
+        <v>608</v>
+      </c>
+      <c r="C277" t="s">
+        <v>609</v>
+      </c>
+      <c r="D277" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277" t="s">
+        <v>21</v>
+      </c>
+      <c r="G277">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFCCA6-9218-42BB-ACEF-A565E36CA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C3843-C0B4-4279-8E53-08727C37B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="742">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -1370,9 +1370,6 @@
     <t>AD FERREIRA TRANSPORTES LTDA</t>
   </si>
   <si>
-    <t>(A procuracao esta vencida) Procuracao com poderes de representacao junto a instituicoes financeiras podendo abrir e movimentar conta corrente com mandato vigente, assinada digitalmente pelo site do GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF.</t>
-  </si>
-  <si>
     <t>Documento de identificacao pois o apresentado estava ilegivel</t>
   </si>
   <si>
@@ -1872,6 +1869,402 @@
   </si>
   <si>
     <t xml:space="preserve"> Convencao de condominio atualizada e devidamente registrada em orgao competente.&lt;br&gt;&lt;br&gt;Convencao do condominio registrada no orgao competente</t>
+  </si>
+  <si>
+    <t>35448429000120</t>
+  </si>
+  <si>
+    <t>ANGELO P DE OLIVEIRA A P DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Andrey de Souza Batista Bizao</t>
+  </si>
+  <si>
+    <t>BACKOFFICE</t>
+  </si>
+  <si>
+    <t>39579050000100</t>
+  </si>
+  <si>
+    <t>ALEQUES DALENOGARE FERRAZ</t>
+  </si>
+  <si>
+    <t>61243990000183</t>
+  </si>
+  <si>
+    <t>THIAGO BLANDY CAMPOS</t>
+  </si>
+  <si>
+    <t>61262125000184</t>
+  </si>
+  <si>
+    <t>ROUSE NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>14625988000199</t>
+  </si>
+  <si>
+    <t>NERMISON GONCALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>37848814000190</t>
+  </si>
+  <si>
+    <t>ZEZINHO CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>01580652000105</t>
+  </si>
+  <si>
+    <t>MCI INVESTIMENTOS E PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>64934439000174</t>
+  </si>
+  <si>
+    <t>GUSTAVO DE CARVALHO RAGUZZANI CONSULTORIA</t>
+  </si>
+  <si>
+    <t>64493369000166</t>
+  </si>
+  <si>
+    <t>BEBIDARIA DA ORLA COMERCIO DE BEBIDAS E CONVENIENCIA LTDA</t>
+  </si>
+  <si>
+    <t>47306684000118</t>
+  </si>
+  <si>
+    <t>TJ COMERCIO DE MARMORES E GRANITOS LTDA</t>
+  </si>
+  <si>
+    <t>46659576000166</t>
+  </si>
+  <si>
+    <t>EVANDRO VINHAS MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>64936034000175</t>
+  </si>
+  <si>
+    <t>TEKTON SUPPLEMENTS LIMITADA</t>
+  </si>
+  <si>
+    <t>05747254000191</t>
+  </si>
+  <si>
+    <t>ACADJUR - ACADEMIA DE ESTUDOS JURIDICOS LTDA</t>
+  </si>
+  <si>
+    <t>03392931000170</t>
+  </si>
+  <si>
+    <t>DECK BAR 84 E CONVENIENCIA LTDA</t>
+  </si>
+  <si>
+    <t>64869693000136</t>
+  </si>
+  <si>
+    <t>FORT STEEL ARMACAO DE FERRAGENS LTDA</t>
+  </si>
+  <si>
+    <t>30043387000124</t>
+  </si>
+  <si>
+    <t>MBS FUTEBOL CLUBE LTDA</t>
+  </si>
+  <si>
+    <t>57732487000114</t>
+  </si>
+  <si>
+    <t>OVOS CAMPO VERDE LTDA</t>
+  </si>
+  <si>
+    <t>64620731000112</t>
+  </si>
+  <si>
+    <t>R. CEZAR GUSMAO SILVA</t>
+  </si>
+  <si>
+    <t>05022197000183</t>
+  </si>
+  <si>
+    <t>JJF PERFECT SYSTEM SERVICOS DE PINTURA E FUNILARIA LTDA</t>
+  </si>
+  <si>
+    <t>62032111000137</t>
+  </si>
+  <si>
+    <t>IM PRODUTOS AGROPECUARIOS LTDA</t>
+  </si>
+  <si>
+    <t>63861056000150</t>
+  </si>
+  <si>
+    <t>DAVID RIBEIRO DE MELO</t>
+  </si>
+  <si>
+    <t>29068001000150</t>
+  </si>
+  <si>
+    <t>ALENCAR DE JESUS DA SILVA MELLO</t>
+  </si>
+  <si>
+    <t>63532856000128</t>
+  </si>
+  <si>
+    <t>L A DE A COSTA</t>
+  </si>
+  <si>
+    <t>60567946000166</t>
+  </si>
+  <si>
+    <t>R3 COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>34094470000183</t>
+  </si>
+  <si>
+    <t>ALMEIDA MARTINS SERVICOS E PECAS LTDA</t>
+  </si>
+  <si>
+    <t>22868609000110</t>
+  </si>
+  <si>
+    <t>41525062000102</t>
+  </si>
+  <si>
+    <t>HOESA GLOBAL LTDA</t>
+  </si>
+  <si>
+    <t>25285209000170</t>
+  </si>
+  <si>
+    <t>HEILER ALMEIDA VIEIRA</t>
+  </si>
+  <si>
+    <t>46274283000160</t>
+  </si>
+  <si>
+    <t>KELLEN RAMOS COSTA LTDA</t>
+  </si>
+  <si>
+    <t>26328271000164</t>
+  </si>
+  <si>
+    <t>FR CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>31945902000124</t>
+  </si>
+  <si>
+    <t>GIRASSOL PRODUTOS DE PESCA E IMPORTADOS LTDA</t>
+  </si>
+  <si>
+    <t>34731890000123</t>
+  </si>
+  <si>
+    <t>ELIAS CASTILHO DA SILVA</t>
+  </si>
+  <si>
+    <t>42960073000175</t>
+  </si>
+  <si>
+    <t>GAMERO ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>64539617000162</t>
+  </si>
+  <si>
+    <t>ABN PROTEGE REGIONAL SANTANA LTDA</t>
+  </si>
+  <si>
+    <t>58367668000151</t>
+  </si>
+  <si>
+    <t>HORIZONWARE SOLUCOES TECNOLOGICAS LTDA</t>
+  </si>
+  <si>
+    <t>48214395000151</t>
+  </si>
+  <si>
+    <t>CM SERVICOS E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>56173868000148</t>
+  </si>
+  <si>
+    <t>MELO - SERVICO DE TERAPIA LTDA</t>
+  </si>
+  <si>
+    <t>17488793000132</t>
+  </si>
+  <si>
+    <t>SILVANIA EMPREENDIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>05405419000147</t>
+  </si>
+  <si>
+    <t>APRIMORA PRESTADORA DE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>59907781000145</t>
+  </si>
+  <si>
+    <t>MOURA PACHECO LTDA</t>
+  </si>
+  <si>
+    <t>17544367000179</t>
+  </si>
+  <si>
+    <t>IMUNISAN PEST CONTROL LTDA</t>
+  </si>
+  <si>
+    <t>27097353000108</t>
+  </si>
+  <si>
+    <t>SUSANI DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>50842559000137</t>
+  </si>
+  <si>
+    <t>JAIR PELEGRIN JUNIOR</t>
+  </si>
+  <si>
+    <t>14225761000156</t>
+  </si>
+  <si>
+    <t>GUINCHO EXPRESSO REPUBLICA E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>27388695000187</t>
+  </si>
+  <si>
+    <t>ERILANE FERREIRA DE MELO 38534070300</t>
+  </si>
+  <si>
+    <t>54099836000114</t>
+  </si>
+  <si>
+    <t>A. GONCALO DA SILVA LTDA</t>
+  </si>
+  <si>
+    <t>64207068000129</t>
+  </si>
+  <si>
+    <t>ONEZIMO AR LTDA</t>
+  </si>
+  <si>
+    <t>28468225000196</t>
+  </si>
+  <si>
+    <t>NELCIR JOAO POLINSKI SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>24144952000147</t>
+  </si>
+  <si>
+    <t>OPES PRODUCOES E COBRANCAS LTDA</t>
+  </si>
+  <si>
+    <t>52149083000189</t>
+  </si>
+  <si>
+    <t>OTICA OLHAR MAIS COMERCIO DE OPTICAS LTDA.</t>
+  </si>
+  <si>
+    <t>11898957000113</t>
+  </si>
+  <si>
+    <t>COMETINHA TORQUATO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>48465622000111</t>
+  </si>
+  <si>
+    <t>LULA EMBREAGENS COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>32005963000174</t>
+  </si>
+  <si>
+    <t>ALCANCE LOCAL MARKETING DIGITAL E PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>50244611000153</t>
+  </si>
+  <si>
+    <t>LUCIANO P SILVA LTDA</t>
+  </si>
+  <si>
+    <t>37131319000166</t>
+  </si>
+  <si>
+    <t>MINEIROS VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>44376460000194</t>
+  </si>
+  <si>
+    <t>JM TAPETES PERSONALIZADOS LTDA</t>
+  </si>
+  <si>
+    <t>60664247000134</t>
+  </si>
+  <si>
+    <t>MARXSUELL FERNANDES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>58550093000108</t>
+  </si>
+  <si>
+    <t>MATHEUS FERNANDES RIBEIRO CAMACAM LTDA</t>
+  </si>
+  <si>
+    <t>53455872000100</t>
+  </si>
+  <si>
+    <t>OPTICA PAJEU LTDA</t>
+  </si>
+  <si>
+    <t>64938502000140</t>
+  </si>
+  <si>
+    <t>ESTETICA AVANCADA ESPACO VOCE LTDA</t>
+  </si>
+  <si>
+    <t>36667580000112</t>
+  </si>
+  <si>
+    <t>GRAFICA MIXTURA LTDA</t>
+  </si>
+  <si>
+    <t>63950895000145</t>
+  </si>
+  <si>
+    <t>JULIANA SIQUEIRA FELIPE LTDA</t>
+  </si>
+  <si>
+    <t>64865100000163</t>
+  </si>
+  <si>
+    <t>SAFIRA LIMPEZAS LTDA</t>
+  </si>
+  <si>
+    <t>64830648000178</t>
+  </si>
+  <si>
+    <t>MARIA DO LIVRAMENTO MENEZES FLORENCIO</t>
+  </si>
+  <si>
+    <t>30643196000101</t>
+  </si>
+  <si>
+    <t>ROBSON PEREIRA DA SILVA EMPILHADEIRA</t>
+  </si>
+  <si>
+    <t>Contrato Social da empresa completo, atualizado e devidamente registrado no orgao competente.&lt;br&gt;&lt;br&gt;Caso a representacao seja em conjunto sera preciso encaminhar a procuracao com poderes para abrir e movimentar contas, o documento deve ser assinado pelos representantes legais nomeados no contrato social, assinada digitalmente GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF, para validacao das assinaturas e protocolo de autenticidade.</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2691,7 @@
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,10 +2757,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>443</v>
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4017,7 +4410,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5285,7 +5678,7 @@
         <v>113</v>
       </c>
       <c r="G132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6742,10 +7135,10 @@
         <v>46057</v>
       </c>
       <c r="B196" t="s">
+        <v>444</v>
+      </c>
+      <c r="C196" t="s">
         <v>445</v>
-      </c>
-      <c r="C196" t="s">
-        <v>446</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
@@ -6765,10 +7158,10 @@
         <v>46057</v>
       </c>
       <c r="B197" t="s">
+        <v>446</v>
+      </c>
+      <c r="C197" t="s">
         <v>447</v>
-      </c>
-      <c r="C197" t="s">
-        <v>448</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -6777,7 +7170,7 @@
         <v>7</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -6788,10 +7181,10 @@
         <v>46057</v>
       </c>
       <c r="B198" t="s">
+        <v>448</v>
+      </c>
+      <c r="C198" t="s">
         <v>449</v>
-      </c>
-      <c r="C198" t="s">
-        <v>450</v>
       </c>
       <c r="D198" t="s">
         <v>170</v>
@@ -6811,10 +7204,10 @@
         <v>46057</v>
       </c>
       <c r="B199" t="s">
+        <v>450</v>
+      </c>
+      <c r="C199" t="s">
         <v>451</v>
-      </c>
-      <c r="C199" t="s">
-        <v>452</v>
       </c>
       <c r="D199" t="s">
         <v>110</v>
@@ -6834,10 +7227,10 @@
         <v>46057</v>
       </c>
       <c r="B200" t="s">
+        <v>452</v>
+      </c>
+      <c r="C200" t="s">
         <v>453</v>
-      </c>
-      <c r="C200" t="s">
-        <v>454</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -6857,10 +7250,10 @@
         <v>46057</v>
       </c>
       <c r="B201" t="s">
+        <v>454</v>
+      </c>
+      <c r="C201" t="s">
         <v>455</v>
-      </c>
-      <c r="C201" t="s">
-        <v>456</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -6869,7 +7262,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6880,10 +7273,10 @@
         <v>46057</v>
       </c>
       <c r="B202" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" t="s">
         <v>457</v>
-      </c>
-      <c r="C202" t="s">
-        <v>458</v>
       </c>
       <c r="D202" t="s">
         <v>86</v>
@@ -6903,10 +7296,10 @@
         <v>46057</v>
       </c>
       <c r="B203" t="s">
+        <v>458</v>
+      </c>
+      <c r="C203" t="s">
         <v>459</v>
-      </c>
-      <c r="C203" t="s">
-        <v>460</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -6926,10 +7319,10 @@
         <v>46057</v>
       </c>
       <c r="B204" t="s">
+        <v>460</v>
+      </c>
+      <c r="C204" t="s">
         <v>461</v>
-      </c>
-      <c r="C204" t="s">
-        <v>462</v>
       </c>
       <c r="D204" t="s">
         <v>86</v>
@@ -6949,10 +7342,10 @@
         <v>46057</v>
       </c>
       <c r="B205" t="s">
+        <v>462</v>
+      </c>
+      <c r="C205" t="s">
         <v>463</v>
-      </c>
-      <c r="C205" t="s">
-        <v>464</v>
       </c>
       <c r="D205" t="s">
         <v>76</v>
@@ -6972,10 +7365,10 @@
         <v>46057</v>
       </c>
       <c r="B206" t="s">
+        <v>464</v>
+      </c>
+      <c r="C206" t="s">
         <v>465</v>
-      </c>
-      <c r="C206" t="s">
-        <v>466</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -6984,7 +7377,7 @@
         <v>7</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6995,10 +7388,10 @@
         <v>46057</v>
       </c>
       <c r="B207" t="s">
+        <v>466</v>
+      </c>
+      <c r="C207" t="s">
         <v>467</v>
-      </c>
-      <c r="C207" t="s">
-        <v>468</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -7018,10 +7411,10 @@
         <v>46057</v>
       </c>
       <c r="B208" t="s">
+        <v>468</v>
+      </c>
+      <c r="C208" t="s">
         <v>469</v>
-      </c>
-      <c r="C208" t="s">
-        <v>470</v>
       </c>
       <c r="D208" t="s">
         <v>14</v>
@@ -7030,7 +7423,7 @@
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7041,10 +7434,10 @@
         <v>46057</v>
       </c>
       <c r="B209" t="s">
+        <v>470</v>
+      </c>
+      <c r="C209" t="s">
         <v>471</v>
-      </c>
-      <c r="C209" t="s">
-        <v>472</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -7064,10 +7457,10 @@
         <v>46057</v>
       </c>
       <c r="B210" t="s">
+        <v>472</v>
+      </c>
+      <c r="C210" t="s">
         <v>473</v>
-      </c>
-      <c r="C210" t="s">
-        <v>474</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
@@ -7076,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -7087,10 +7480,10 @@
         <v>46057</v>
       </c>
       <c r="B211" t="s">
+        <v>474</v>
+      </c>
+      <c r="C211" t="s">
         <v>475</v>
-      </c>
-      <c r="C211" t="s">
-        <v>476</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
@@ -7110,10 +7503,10 @@
         <v>46057</v>
       </c>
       <c r="B212" t="s">
+        <v>476</v>
+      </c>
+      <c r="C212" t="s">
         <v>477</v>
-      </c>
-      <c r="C212" t="s">
-        <v>478</v>
       </c>
       <c r="D212" t="s">
         <v>70</v>
@@ -7122,7 +7515,7 @@
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7133,10 +7526,10 @@
         <v>46057</v>
       </c>
       <c r="B213" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" t="s">
         <v>479</v>
-      </c>
-      <c r="C213" t="s">
-        <v>480</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
@@ -7179,10 +7572,10 @@
         <v>46057</v>
       </c>
       <c r="B215" t="s">
+        <v>480</v>
+      </c>
+      <c r="C215" t="s">
         <v>481</v>
-      </c>
-      <c r="C215" t="s">
-        <v>482</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -7202,10 +7595,10 @@
         <v>46057</v>
       </c>
       <c r="B216" t="s">
+        <v>482</v>
+      </c>
+      <c r="C216" t="s">
         <v>483</v>
-      </c>
-      <c r="C216" t="s">
-        <v>484</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -7225,10 +7618,10 @@
         <v>46057</v>
       </c>
       <c r="B217" t="s">
+        <v>484</v>
+      </c>
+      <c r="C217" t="s">
         <v>485</v>
-      </c>
-      <c r="C217" t="s">
-        <v>486</v>
       </c>
       <c r="D217" t="s">
         <v>67</v>
@@ -7248,10 +7641,10 @@
         <v>46057</v>
       </c>
       <c r="B218" t="s">
+        <v>486</v>
+      </c>
+      <c r="C218" t="s">
         <v>487</v>
-      </c>
-      <c r="C218" t="s">
-        <v>488</v>
       </c>
       <c r="D218" t="s">
         <v>163</v>
@@ -7271,10 +7664,10 @@
         <v>46057</v>
       </c>
       <c r="B219" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" t="s">
         <v>489</v>
-      </c>
-      <c r="C219" t="s">
-        <v>490</v>
       </c>
       <c r="D219" t="s">
         <v>170</v>
@@ -7294,10 +7687,10 @@
         <v>46057</v>
       </c>
       <c r="B220" t="s">
+        <v>490</v>
+      </c>
+      <c r="C220" t="s">
         <v>491</v>
-      </c>
-      <c r="C220" t="s">
-        <v>492</v>
       </c>
       <c r="D220" t="s">
         <v>170</v>
@@ -7317,10 +7710,10 @@
         <v>46057</v>
       </c>
       <c r="B221" t="s">
+        <v>492</v>
+      </c>
+      <c r="C221" t="s">
         <v>493</v>
-      </c>
-      <c r="C221" t="s">
-        <v>494</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
@@ -7340,10 +7733,10 @@
         <v>46057</v>
       </c>
       <c r="B222" t="s">
+        <v>494</v>
+      </c>
+      <c r="C222" t="s">
         <v>495</v>
-      </c>
-      <c r="C222" t="s">
-        <v>496</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -7363,10 +7756,10 @@
         <v>46057</v>
       </c>
       <c r="B223" t="s">
+        <v>496</v>
+      </c>
+      <c r="C223" t="s">
         <v>497</v>
-      </c>
-      <c r="C223" t="s">
-        <v>498</v>
       </c>
       <c r="D223" t="s">
         <v>60</v>
@@ -7375,7 +7768,7 @@
         <v>8</v>
       </c>
       <c r="F223" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -7386,10 +7779,10 @@
         <v>46057</v>
       </c>
       <c r="B224" t="s">
+        <v>498</v>
+      </c>
+      <c r="C224" t="s">
         <v>499</v>
-      </c>
-      <c r="C224" t="s">
-        <v>500</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -7409,10 +7802,10 @@
         <v>46057</v>
       </c>
       <c r="B225" t="s">
+        <v>500</v>
+      </c>
+      <c r="C225" t="s">
         <v>501</v>
-      </c>
-      <c r="C225" t="s">
-        <v>502</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
@@ -7432,10 +7825,10 @@
         <v>46057</v>
       </c>
       <c r="B226" t="s">
+        <v>502</v>
+      </c>
+      <c r="C226" t="s">
         <v>503</v>
-      </c>
-      <c r="C226" t="s">
-        <v>504</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
@@ -7444,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="F226" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7455,10 +7848,10 @@
         <v>46057</v>
       </c>
       <c r="B227" t="s">
+        <v>504</v>
+      </c>
+      <c r="C227" t="s">
         <v>505</v>
-      </c>
-      <c r="C227" t="s">
-        <v>506</v>
       </c>
       <c r="D227" t="s">
         <v>110</v>
@@ -7478,10 +7871,10 @@
         <v>46057</v>
       </c>
       <c r="B228" t="s">
+        <v>506</v>
+      </c>
+      <c r="C228" t="s">
         <v>507</v>
-      </c>
-      <c r="C228" t="s">
-        <v>508</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
@@ -7501,10 +7894,10 @@
         <v>46057</v>
       </c>
       <c r="B229" t="s">
+        <v>508</v>
+      </c>
+      <c r="C229" t="s">
         <v>509</v>
-      </c>
-      <c r="C229" t="s">
-        <v>510</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -7524,10 +7917,10 @@
         <v>46057</v>
       </c>
       <c r="B230" t="s">
+        <v>510</v>
+      </c>
+      <c r="C230" t="s">
         <v>511</v>
-      </c>
-      <c r="C230" t="s">
-        <v>512</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -7547,10 +7940,10 @@
         <v>46057</v>
       </c>
       <c r="B231" t="s">
+        <v>512</v>
+      </c>
+      <c r="C231" t="s">
         <v>513</v>
-      </c>
-      <c r="C231" t="s">
-        <v>514</v>
       </c>
       <c r="D231" t="s">
         <v>12</v>
@@ -7570,10 +7963,10 @@
         <v>46057</v>
       </c>
       <c r="B232" t="s">
+        <v>514</v>
+      </c>
+      <c r="C232" t="s">
         <v>515</v>
-      </c>
-      <c r="C232" t="s">
-        <v>516</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
@@ -7593,10 +7986,10 @@
         <v>46057</v>
       </c>
       <c r="B233" t="s">
+        <v>516</v>
+      </c>
+      <c r="C233" t="s">
         <v>517</v>
-      </c>
-      <c r="C233" t="s">
-        <v>518</v>
       </c>
       <c r="D233" t="s">
         <v>110</v>
@@ -7616,10 +8009,10 @@
         <v>46057</v>
       </c>
       <c r="B234" t="s">
+        <v>518</v>
+      </c>
+      <c r="C234" t="s">
         <v>519</v>
-      </c>
-      <c r="C234" t="s">
-        <v>520</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -7639,10 +8032,10 @@
         <v>46057</v>
       </c>
       <c r="B235" t="s">
+        <v>520</v>
+      </c>
+      <c r="C235" t="s">
         <v>521</v>
-      </c>
-      <c r="C235" t="s">
-        <v>522</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -7662,10 +8055,10 @@
         <v>46057</v>
       </c>
       <c r="B236" t="s">
+        <v>522</v>
+      </c>
+      <c r="C236" t="s">
         <v>523</v>
-      </c>
-      <c r="C236" t="s">
-        <v>524</v>
       </c>
       <c r="D236" t="s">
         <v>170</v>
@@ -7685,10 +8078,10 @@
         <v>46057</v>
       </c>
       <c r="B237" t="s">
+        <v>524</v>
+      </c>
+      <c r="C237" t="s">
         <v>525</v>
-      </c>
-      <c r="C237" t="s">
-        <v>526</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
@@ -7708,10 +8101,10 @@
         <v>46057</v>
       </c>
       <c r="B238" t="s">
+        <v>526</v>
+      </c>
+      <c r="C238" t="s">
         <v>527</v>
-      </c>
-      <c r="C238" t="s">
-        <v>528</v>
       </c>
       <c r="D238" t="s">
         <v>16</v>
@@ -7731,10 +8124,10 @@
         <v>46057</v>
       </c>
       <c r="B239" t="s">
+        <v>528</v>
+      </c>
+      <c r="C239" t="s">
         <v>529</v>
-      </c>
-      <c r="C239" t="s">
-        <v>530</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -7754,10 +8147,10 @@
         <v>46057</v>
       </c>
       <c r="B240" t="s">
+        <v>530</v>
+      </c>
+      <c r="C240" t="s">
         <v>531</v>
-      </c>
-      <c r="C240" t="s">
-        <v>532</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
@@ -7777,10 +8170,10 @@
         <v>46057</v>
       </c>
       <c r="B241" t="s">
+        <v>532</v>
+      </c>
+      <c r="C241" t="s">
         <v>533</v>
-      </c>
-      <c r="C241" t="s">
-        <v>534</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -7800,10 +8193,10 @@
         <v>46057</v>
       </c>
       <c r="B242" t="s">
+        <v>534</v>
+      </c>
+      <c r="C242" t="s">
         <v>535</v>
-      </c>
-      <c r="C242" t="s">
-        <v>536</v>
       </c>
       <c r="D242" t="s">
         <v>40</v>
@@ -7814,8 +8207,8 @@
       <c r="F242" t="s">
         <v>51</v>
       </c>
-      <c r="G242">
-        <v>0</v>
+      <c r="G242" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7823,10 +8216,10 @@
         <v>46057</v>
       </c>
       <c r="B243" t="s">
+        <v>536</v>
+      </c>
+      <c r="C243" t="s">
         <v>537</v>
-      </c>
-      <c r="C243" t="s">
-        <v>538</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
@@ -7846,10 +8239,10 @@
         <v>46057</v>
       </c>
       <c r="B244" t="s">
+        <v>538</v>
+      </c>
+      <c r="C244" t="s">
         <v>539</v>
-      </c>
-      <c r="C244" t="s">
-        <v>540</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -7869,10 +8262,10 @@
         <v>46057</v>
       </c>
       <c r="B245" t="s">
+        <v>540</v>
+      </c>
+      <c r="C245" t="s">
         <v>541</v>
-      </c>
-      <c r="C245" t="s">
-        <v>542</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -7892,10 +8285,10 @@
         <v>46057</v>
       </c>
       <c r="B246" t="s">
+        <v>542</v>
+      </c>
+      <c r="C246" t="s">
         <v>543</v>
-      </c>
-      <c r="C246" t="s">
-        <v>544</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
@@ -7904,7 +8297,7 @@
         <v>8</v>
       </c>
       <c r="F246" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G246" t="s">
         <v>265</v>
@@ -7915,10 +8308,10 @@
         <v>46057</v>
       </c>
       <c r="B247" t="s">
+        <v>544</v>
+      </c>
+      <c r="C247" t="s">
         <v>545</v>
-      </c>
-      <c r="C247" t="s">
-        <v>546</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
@@ -7927,7 +8320,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7938,10 +8331,10 @@
         <v>46057</v>
       </c>
       <c r="B248" t="s">
+        <v>546</v>
+      </c>
+      <c r="C248" t="s">
         <v>547</v>
-      </c>
-      <c r="C248" t="s">
-        <v>548</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
@@ -7961,10 +8354,10 @@
         <v>46057</v>
       </c>
       <c r="B249" t="s">
+        <v>548</v>
+      </c>
+      <c r="C249" t="s">
         <v>549</v>
-      </c>
-      <c r="C249" t="s">
-        <v>550</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -7984,10 +8377,10 @@
         <v>46057</v>
       </c>
       <c r="B250" t="s">
+        <v>550</v>
+      </c>
+      <c r="C250" t="s">
         <v>551</v>
-      </c>
-      <c r="C250" t="s">
-        <v>552</v>
       </c>
       <c r="D250" t="s">
         <v>14</v>
@@ -8007,10 +8400,10 @@
         <v>46057</v>
       </c>
       <c r="B251" t="s">
+        <v>552</v>
+      </c>
+      <c r="C251" t="s">
         <v>553</v>
-      </c>
-      <c r="C251" t="s">
-        <v>554</v>
       </c>
       <c r="D251" t="s">
         <v>73</v>
@@ -8030,10 +8423,10 @@
         <v>46057</v>
       </c>
       <c r="B252" t="s">
+        <v>554</v>
+      </c>
+      <c r="C252" t="s">
         <v>555</v>
-      </c>
-      <c r="C252" t="s">
-        <v>556</v>
       </c>
       <c r="D252" t="s">
         <v>170</v>
@@ -8053,10 +8446,10 @@
         <v>46057</v>
       </c>
       <c r="B253" t="s">
+        <v>556</v>
+      </c>
+      <c r="C253" t="s">
         <v>557</v>
-      </c>
-      <c r="C253" t="s">
-        <v>558</v>
       </c>
       <c r="D253" t="s">
         <v>60</v>
@@ -8076,10 +8469,10 @@
         <v>46057</v>
       </c>
       <c r="B254" t="s">
+        <v>558</v>
+      </c>
+      <c r="C254" t="s">
         <v>559</v>
-      </c>
-      <c r="C254" t="s">
-        <v>560</v>
       </c>
       <c r="D254" t="s">
         <v>17</v>
@@ -8099,10 +8492,10 @@
         <v>46057</v>
       </c>
       <c r="B255" t="s">
+        <v>560</v>
+      </c>
+      <c r="C255" t="s">
         <v>561</v>
-      </c>
-      <c r="C255" t="s">
-        <v>562</v>
       </c>
       <c r="D255" t="s">
         <v>19</v>
@@ -8122,10 +8515,10 @@
         <v>46057</v>
       </c>
       <c r="B256" t="s">
+        <v>562</v>
+      </c>
+      <c r="C256" t="s">
         <v>563</v>
-      </c>
-      <c r="C256" t="s">
-        <v>564</v>
       </c>
       <c r="D256" t="s">
         <v>152</v>
@@ -8145,10 +8538,10 @@
         <v>46057</v>
       </c>
       <c r="B257" t="s">
+        <v>564</v>
+      </c>
+      <c r="C257" t="s">
         <v>565</v>
-      </c>
-      <c r="C257" t="s">
-        <v>566</v>
       </c>
       <c r="D257" t="s">
         <v>73</v>
@@ -8168,10 +8561,10 @@
         <v>46057</v>
       </c>
       <c r="B258" t="s">
+        <v>566</v>
+      </c>
+      <c r="C258" t="s">
         <v>567</v>
-      </c>
-      <c r="C258" t="s">
-        <v>568</v>
       </c>
       <c r="D258" t="s">
         <v>14</v>
@@ -8191,10 +8584,10 @@
         <v>46057</v>
       </c>
       <c r="B259" t="s">
+        <v>568</v>
+      </c>
+      <c r="C259" t="s">
         <v>569</v>
-      </c>
-      <c r="C259" t="s">
-        <v>570</v>
       </c>
       <c r="D259" t="s">
         <v>14</v>
@@ -8214,10 +8607,10 @@
         <v>46057</v>
       </c>
       <c r="B260" t="s">
+        <v>570</v>
+      </c>
+      <c r="C260" t="s">
         <v>571</v>
-      </c>
-      <c r="C260" t="s">
-        <v>572</v>
       </c>
       <c r="D260" t="s">
         <v>110</v>
@@ -8237,10 +8630,10 @@
         <v>46057</v>
       </c>
       <c r="B261" t="s">
+        <v>572</v>
+      </c>
+      <c r="C261" t="s">
         <v>573</v>
-      </c>
-      <c r="C261" t="s">
-        <v>574</v>
       </c>
       <c r="D261" t="s">
         <v>170</v>
@@ -8260,13 +8653,13 @@
         <v>46057</v>
       </c>
       <c r="B262" t="s">
+        <v>574</v>
+      </c>
+      <c r="C262" t="s">
         <v>575</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>576</v>
-      </c>
-      <c r="D262" t="s">
-        <v>577</v>
       </c>
       <c r="E262" t="s">
         <v>191</v>
@@ -8283,10 +8676,10 @@
         <v>46057</v>
       </c>
       <c r="B263" t="s">
+        <v>577</v>
+      </c>
+      <c r="C263" t="s">
         <v>578</v>
-      </c>
-      <c r="C263" t="s">
-        <v>579</v>
       </c>
       <c r="D263" t="s">
         <v>170</v>
@@ -8306,10 +8699,10 @@
         <v>46057</v>
       </c>
       <c r="B264" t="s">
+        <v>579</v>
+      </c>
+      <c r="C264" t="s">
         <v>580</v>
-      </c>
-      <c r="C264" t="s">
-        <v>581</v>
       </c>
       <c r="D264" t="s">
         <v>11</v>
@@ -8329,10 +8722,10 @@
         <v>46057</v>
       </c>
       <c r="B265" t="s">
+        <v>581</v>
+      </c>
+      <c r="C265" t="s">
         <v>582</v>
-      </c>
-      <c r="C265" t="s">
-        <v>583</v>
       </c>
       <c r="D265" t="s">
         <v>40</v>
@@ -8352,10 +8745,10 @@
         <v>46057</v>
       </c>
       <c r="B266" t="s">
+        <v>583</v>
+      </c>
+      <c r="C266" t="s">
         <v>584</v>
-      </c>
-      <c r="C266" t="s">
-        <v>585</v>
       </c>
       <c r="D266" t="s">
         <v>152</v>
@@ -8375,13 +8768,13 @@
         <v>46057</v>
       </c>
       <c r="B267" t="s">
+        <v>585</v>
+      </c>
+      <c r="C267" t="s">
         <v>586</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>587</v>
-      </c>
-      <c r="D267" t="s">
-        <v>588</v>
       </c>
       <c r="E267" t="s">
         <v>119</v>
@@ -8398,10 +8791,10 @@
         <v>46057</v>
       </c>
       <c r="B268" t="s">
+        <v>588</v>
+      </c>
+      <c r="C268" t="s">
         <v>589</v>
-      </c>
-      <c r="C268" t="s">
-        <v>590</v>
       </c>
       <c r="D268" t="s">
         <v>200</v>
@@ -8421,10 +8814,10 @@
         <v>46057</v>
       </c>
       <c r="B269" t="s">
+        <v>590</v>
+      </c>
+      <c r="C269" t="s">
         <v>591</v>
-      </c>
-      <c r="C269" t="s">
-        <v>592</v>
       </c>
       <c r="D269" t="s">
         <v>12</v>
@@ -8444,10 +8837,10 @@
         <v>46058</v>
       </c>
       <c r="B270" t="s">
+        <v>592</v>
+      </c>
+      <c r="C270" t="s">
         <v>593</v>
-      </c>
-      <c r="C270" t="s">
-        <v>594</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -8467,10 +8860,10 @@
         <v>46058</v>
       </c>
       <c r="B271" t="s">
+        <v>594</v>
+      </c>
+      <c r="C271" t="s">
         <v>595</v>
-      </c>
-      <c r="C271" t="s">
-        <v>596</v>
       </c>
       <c r="D271" t="s">
         <v>67</v>
@@ -8490,10 +8883,10 @@
         <v>46058</v>
       </c>
       <c r="B272" t="s">
+        <v>596</v>
+      </c>
+      <c r="C272" t="s">
         <v>597</v>
-      </c>
-      <c r="C272" t="s">
-        <v>598</v>
       </c>
       <c r="D272" t="s">
         <v>11</v>
@@ -8513,13 +8906,13 @@
         <v>46058</v>
       </c>
       <c r="B273" t="s">
+        <v>598</v>
+      </c>
+      <c r="C273" t="s">
         <v>599</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>600</v>
-      </c>
-      <c r="D273" t="s">
-        <v>601</v>
       </c>
       <c r="F273" t="s">
         <v>21</v>
@@ -8533,10 +8926,10 @@
         <v>46058</v>
       </c>
       <c r="B274" t="s">
+        <v>601</v>
+      </c>
+      <c r="C274" t="s">
         <v>602</v>
-      </c>
-      <c r="C274" t="s">
-        <v>603</v>
       </c>
       <c r="D274" t="s">
         <v>152</v>
@@ -8556,10 +8949,10 @@
         <v>46058</v>
       </c>
       <c r="B275" t="s">
+        <v>603</v>
+      </c>
+      <c r="C275" t="s">
         <v>604</v>
-      </c>
-      <c r="C275" t="s">
-        <v>605</v>
       </c>
       <c r="D275" t="s">
         <v>19</v>
@@ -8579,10 +8972,10 @@
         <v>46058</v>
       </c>
       <c r="B276" t="s">
+        <v>605</v>
+      </c>
+      <c r="C276" t="s">
         <v>606</v>
-      </c>
-      <c r="C276" t="s">
-        <v>607</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
@@ -8602,10 +8995,10 @@
         <v>46058</v>
       </c>
       <c r="B277" t="s">
+        <v>607</v>
+      </c>
+      <c r="C277" t="s">
         <v>608</v>
-      </c>
-      <c r="C277" t="s">
-        <v>609</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -8617,6 +9010,1495 @@
         <v>21</v>
       </c>
       <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B278" t="s">
+        <v>610</v>
+      </c>
+      <c r="C278" t="s">
+        <v>611</v>
+      </c>
+      <c r="D278" t="s">
+        <v>612</v>
+      </c>
+      <c r="E278" t="s">
+        <v>613</v>
+      </c>
+      <c r="F278" t="s">
+        <v>21</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B279" t="s">
+        <v>614</v>
+      </c>
+      <c r="C279" t="s">
+        <v>615</v>
+      </c>
+      <c r="D279" t="s">
+        <v>612</v>
+      </c>
+      <c r="E279" t="s">
+        <v>613</v>
+      </c>
+      <c r="F279" t="s">
+        <v>21</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B280" t="s">
+        <v>616</v>
+      </c>
+      <c r="C280" t="s">
+        <v>617</v>
+      </c>
+      <c r="D280" t="s">
+        <v>612</v>
+      </c>
+      <c r="E280" t="s">
+        <v>613</v>
+      </c>
+      <c r="F280" t="s">
+        <v>21</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B281" t="s">
+        <v>618</v>
+      </c>
+      <c r="C281" t="s">
+        <v>619</v>
+      </c>
+      <c r="D281" t="s">
+        <v>70</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" t="s">
+        <v>21</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B282" t="s">
+        <v>620</v>
+      </c>
+      <c r="C282" t="s">
+        <v>621</v>
+      </c>
+      <c r="D282" t="s">
+        <v>18</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" t="s">
+        <v>21</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B283" t="s">
+        <v>622</v>
+      </c>
+      <c r="C283" t="s">
+        <v>623</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" t="s">
+        <v>21</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B284" t="s">
+        <v>624</v>
+      </c>
+      <c r="C284" t="s">
+        <v>625</v>
+      </c>
+      <c r="D284" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" t="s">
+        <v>21</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B285" t="s">
+        <v>626</v>
+      </c>
+      <c r="C285" t="s">
+        <v>627</v>
+      </c>
+      <c r="D285" t="s">
+        <v>211</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>21</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B286" t="s">
+        <v>628</v>
+      </c>
+      <c r="C286" t="s">
+        <v>629</v>
+      </c>
+      <c r="D286" t="s">
+        <v>67</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>52</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B287" t="s">
+        <v>630</v>
+      </c>
+      <c r="C287" t="s">
+        <v>631</v>
+      </c>
+      <c r="D287" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B288" t="s">
+        <v>632</v>
+      </c>
+      <c r="C288" t="s">
+        <v>633</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>21</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B289" t="s">
+        <v>634</v>
+      </c>
+      <c r="C289" t="s">
+        <v>635</v>
+      </c>
+      <c r="D289" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" t="s">
+        <v>21</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B290" t="s">
+        <v>636</v>
+      </c>
+      <c r="C290" t="s">
+        <v>637</v>
+      </c>
+      <c r="D290" t="s">
+        <v>110</v>
+      </c>
+      <c r="E290" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" t="s">
+        <v>51</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B291" t="s">
+        <v>638</v>
+      </c>
+      <c r="C291" t="s">
+        <v>639</v>
+      </c>
+      <c r="D291" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
+        <v>113</v>
+      </c>
+      <c r="G291" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B292" t="s">
+        <v>640</v>
+      </c>
+      <c r="C292" t="s">
+        <v>641</v>
+      </c>
+      <c r="D292" t="s">
+        <v>76</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" t="s">
+        <v>21</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B293" t="s">
+        <v>642</v>
+      </c>
+      <c r="C293" t="s">
+        <v>643</v>
+      </c>
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" t="s">
+        <v>52</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B294" t="s">
+        <v>644</v>
+      </c>
+      <c r="C294" t="s">
+        <v>645</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" t="s">
+        <v>21</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B295" t="s">
+        <v>646</v>
+      </c>
+      <c r="C295" t="s">
+        <v>647</v>
+      </c>
+      <c r="D295" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>21</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B296" t="s">
+        <v>648</v>
+      </c>
+      <c r="C296" t="s">
+        <v>649</v>
+      </c>
+      <c r="D296" t="s">
+        <v>18</v>
+      </c>
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>52</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B297" t="s">
+        <v>650</v>
+      </c>
+      <c r="C297" t="s">
+        <v>651</v>
+      </c>
+      <c r="D297" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" t="s">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s">
+        <v>51</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B298" t="s">
+        <v>652</v>
+      </c>
+      <c r="C298" t="s">
+        <v>653</v>
+      </c>
+      <c r="D298" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" t="s">
+        <v>51</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B299" t="s">
+        <v>654</v>
+      </c>
+      <c r="C299" t="s">
+        <v>655</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" t="s">
+        <v>21</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B300" t="s">
+        <v>656</v>
+      </c>
+      <c r="C300" t="s">
+        <v>657</v>
+      </c>
+      <c r="D300" t="s">
+        <v>211</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" t="s">
+        <v>51</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B301" t="s">
+        <v>658</v>
+      </c>
+      <c r="C301" t="s">
+        <v>659</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B302" t="s">
+        <v>660</v>
+      </c>
+      <c r="C302" t="s">
+        <v>661</v>
+      </c>
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302" t="s">
+        <v>51</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B303" t="s">
+        <v>662</v>
+      </c>
+      <c r="C303" t="s">
+        <v>174</v>
+      </c>
+      <c r="D303" t="s">
+        <v>18</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303" t="s">
+        <v>51</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B304" t="s">
+        <v>663</v>
+      </c>
+      <c r="C304" t="s">
+        <v>664</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" t="s">
+        <v>51</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B305" t="s">
+        <v>665</v>
+      </c>
+      <c r="C305" t="s">
+        <v>666</v>
+      </c>
+      <c r="D305" t="s">
+        <v>163</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>21</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B306" t="s">
+        <v>667</v>
+      </c>
+      <c r="C306" t="s">
+        <v>668</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306" t="s">
+        <v>21</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B307" t="s">
+        <v>669</v>
+      </c>
+      <c r="C307" t="s">
+        <v>670</v>
+      </c>
+      <c r="D307" t="s">
+        <v>24</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B308" t="s">
+        <v>671</v>
+      </c>
+      <c r="C308" t="s">
+        <v>672</v>
+      </c>
+      <c r="D308" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" t="s">
+        <v>21</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B309" t="s">
+        <v>673</v>
+      </c>
+      <c r="C309" t="s">
+        <v>674</v>
+      </c>
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
+        <v>21</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B310" t="s">
+        <v>675</v>
+      </c>
+      <c r="C310" t="s">
+        <v>676</v>
+      </c>
+      <c r="D310" t="s">
+        <v>211</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" t="s">
+        <v>21</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B311" t="s">
+        <v>677</v>
+      </c>
+      <c r="C311" t="s">
+        <v>678</v>
+      </c>
+      <c r="D311" t="s">
+        <v>19</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" t="s">
+        <v>51</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B312" t="s">
+        <v>679</v>
+      </c>
+      <c r="C312" t="s">
+        <v>680</v>
+      </c>
+      <c r="D312" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>21</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B313" t="s">
+        <v>681</v>
+      </c>
+      <c r="C313" t="s">
+        <v>682</v>
+      </c>
+      <c r="D313" t="s">
+        <v>163</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" t="s">
+        <v>51</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B314" t="s">
+        <v>683</v>
+      </c>
+      <c r="C314" t="s">
+        <v>684</v>
+      </c>
+      <c r="D314" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314" t="s">
+        <v>21</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B315" t="s">
+        <v>685</v>
+      </c>
+      <c r="C315" t="s">
+        <v>686</v>
+      </c>
+      <c r="D315" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" t="s">
+        <v>21</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B316" t="s">
+        <v>687</v>
+      </c>
+      <c r="C316" t="s">
+        <v>688</v>
+      </c>
+      <c r="D316" t="s">
+        <v>86</v>
+      </c>
+      <c r="E316" t="s">
+        <v>13</v>
+      </c>
+      <c r="F316" t="s">
+        <v>21</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B317" t="s">
+        <v>689</v>
+      </c>
+      <c r="C317" t="s">
+        <v>690</v>
+      </c>
+      <c r="D317" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>21</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B318" t="s">
+        <v>691</v>
+      </c>
+      <c r="C318" t="s">
+        <v>692</v>
+      </c>
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" t="s">
+        <v>21</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B319" t="s">
+        <v>693</v>
+      </c>
+      <c r="C319" t="s">
+        <v>694</v>
+      </c>
+      <c r="D319" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>51</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B320" t="s">
+        <v>695</v>
+      </c>
+      <c r="C320" t="s">
+        <v>696</v>
+      </c>
+      <c r="D320" t="s">
+        <v>19</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320" t="s">
+        <v>21</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B321" t="s">
+        <v>697</v>
+      </c>
+      <c r="C321" t="s">
+        <v>698</v>
+      </c>
+      <c r="D321" t="s">
+        <v>67</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s">
+        <v>21</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B322" t="s">
+        <v>699</v>
+      </c>
+      <c r="C322" t="s">
+        <v>700</v>
+      </c>
+      <c r="D322" t="s">
+        <v>70</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322" t="s">
+        <v>21</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B323" t="s">
+        <v>701</v>
+      </c>
+      <c r="C323" t="s">
+        <v>702</v>
+      </c>
+      <c r="D323" t="s">
+        <v>70</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
+        <v>21</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B324" t="s">
+        <v>703</v>
+      </c>
+      <c r="C324" t="s">
+        <v>704</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+      <c r="F324" t="s">
+        <v>21</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B325" t="s">
+        <v>705</v>
+      </c>
+      <c r="C325" t="s">
+        <v>706</v>
+      </c>
+      <c r="D325" t="s">
+        <v>18</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325" t="s">
+        <v>51</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B326" t="s">
+        <v>707</v>
+      </c>
+      <c r="C326" t="s">
+        <v>708</v>
+      </c>
+      <c r="D326" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326" t="s">
+        <v>51</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B327" t="s">
+        <v>709</v>
+      </c>
+      <c r="C327" t="s">
+        <v>710</v>
+      </c>
+      <c r="D327" t="s">
+        <v>200</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" t="s">
+        <v>52</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B328" t="s">
+        <v>711</v>
+      </c>
+      <c r="C328" t="s">
+        <v>712</v>
+      </c>
+      <c r="D328" t="s">
+        <v>70</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B329" t="s">
+        <v>713</v>
+      </c>
+      <c r="C329" t="s">
+        <v>714</v>
+      </c>
+      <c r="D329" t="s">
+        <v>60</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+      <c r="F329" t="s">
+        <v>51</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B330" t="s">
+        <v>715</v>
+      </c>
+      <c r="C330" t="s">
+        <v>716</v>
+      </c>
+      <c r="D330" t="s">
+        <v>200</v>
+      </c>
+      <c r="E330" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330" t="s">
+        <v>21</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B331" t="s">
+        <v>717</v>
+      </c>
+      <c r="C331" t="s">
+        <v>718</v>
+      </c>
+      <c r="D331" t="s">
+        <v>18</v>
+      </c>
+      <c r="E331" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331" t="s">
+        <v>21</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B332" t="s">
+        <v>719</v>
+      </c>
+      <c r="C332" t="s">
+        <v>720</v>
+      </c>
+      <c r="D332" t="s">
+        <v>86</v>
+      </c>
+      <c r="E332" t="s">
+        <v>13</v>
+      </c>
+      <c r="F332" t="s">
+        <v>21</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B333" t="s">
+        <v>721</v>
+      </c>
+      <c r="C333" t="s">
+        <v>722</v>
+      </c>
+      <c r="D333" t="s">
+        <v>40</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+      <c r="F333" t="s">
+        <v>21</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B334" t="s">
+        <v>723</v>
+      </c>
+      <c r="C334" t="s">
+        <v>724</v>
+      </c>
+      <c r="D334" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334" t="s">
+        <v>51</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B335" t="s">
+        <v>725</v>
+      </c>
+      <c r="C335" t="s">
+        <v>726</v>
+      </c>
+      <c r="D335" t="s">
+        <v>262</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335" t="s">
+        <v>51</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B336" t="s">
+        <v>727</v>
+      </c>
+      <c r="C336" t="s">
+        <v>728</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>21</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B337" t="s">
+        <v>729</v>
+      </c>
+      <c r="C337" t="s">
+        <v>730</v>
+      </c>
+      <c r="D337" t="s">
+        <v>40</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" t="s">
+        <v>21</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B338" t="s">
+        <v>731</v>
+      </c>
+      <c r="C338" t="s">
+        <v>732</v>
+      </c>
+      <c r="D338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338" t="s">
+        <v>21</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B339" t="s">
+        <v>733</v>
+      </c>
+      <c r="C339" t="s">
+        <v>734</v>
+      </c>
+      <c r="D339" t="s">
+        <v>110</v>
+      </c>
+      <c r="E339" t="s">
+        <v>8</v>
+      </c>
+      <c r="F339" t="s">
+        <v>21</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B340" t="s">
+        <v>735</v>
+      </c>
+      <c r="C340" t="s">
+        <v>736</v>
+      </c>
+      <c r="D340" t="s">
+        <v>152</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>21</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B341" t="s">
+        <v>737</v>
+      </c>
+      <c r="C341" t="s">
+        <v>738</v>
+      </c>
+      <c r="D341" t="s">
+        <v>67</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" t="s">
+        <v>21</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B342" t="s">
+        <v>739</v>
+      </c>
+      <c r="C342" t="s">
+        <v>740</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" t="s">
+        <v>21</v>
+      </c>
+      <c r="G342">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29805"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C3843-C0B4-4279-8E53-08727C37B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD05CA-F10E-4B45-B407-BDC3D6B62C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="933">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -833,9 +833,6 @@
     <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Contrato Social atualizado e registrado no orgao competente</t>
   </si>
   <si>
-    <t>Ata de eleicao do sindico atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Convencao do condominio registrada no orgao competente</t>
-  </si>
-  <si>
     <t>Contrato Social atualizado e registrado no orgao competente</t>
   </si>
   <si>
@@ -1841,9 +1838,6 @@
     <t>EDMAR BRAZ BANDEIRA</t>
   </si>
   <si>
-    <t>LETICIA VIVIANE CARVALHO DA PENA</t>
-  </si>
-  <si>
     <t>64750655000160</t>
   </si>
   <si>
@@ -2265,6 +2259,585 @@
   </si>
   <si>
     <t>Contrato Social da empresa completo, atualizado e devidamente registrado no orgao competente.&lt;br&gt;&lt;br&gt;Caso a representacao seja em conjunto sera preciso encaminhar a procuracao com poderes para abrir e movimentar contas, o documento deve ser assinado pelos representantes legais nomeados no contrato social, assinada digitalmente GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF, para validacao das assinaturas e protocolo de autenticidade.</t>
+  </si>
+  <si>
+    <t>07816576000170</t>
+  </si>
+  <si>
+    <t>COMERCIAL FREITAS LTDA</t>
+  </si>
+  <si>
+    <t>37972966000109</t>
+  </si>
+  <si>
+    <t>37.972.966 GUSTAVO RIBEIRO SOARES</t>
+  </si>
+  <si>
+    <t>13249944000149</t>
+  </si>
+  <si>
+    <t>JESSE NOBREGA DE ARAUJO</t>
+  </si>
+  <si>
+    <t>09677321000108</t>
+  </si>
+  <si>
+    <t>MALIN SERVICOS</t>
+  </si>
+  <si>
+    <t>22169210000140</t>
+  </si>
+  <si>
+    <t>22.169.210 GILMAR SCHICHT</t>
+  </si>
+  <si>
+    <t>34680271000157</t>
+  </si>
+  <si>
+    <t>34.680.271 ITALO MASSANEIRO CHICOSKI</t>
+  </si>
+  <si>
+    <t>54949996000105</t>
+  </si>
+  <si>
+    <t>CASA DOS AMORTECEDORES NOVO MUNDO LTDA</t>
+  </si>
+  <si>
+    <t>64837551000197</t>
+  </si>
+  <si>
+    <t>SGA SOLUCOES E VENDAS LTDA</t>
+  </si>
+  <si>
+    <t>59912520000113</t>
+  </si>
+  <si>
+    <t>PLAZA TRACKING LTDA</t>
+  </si>
+  <si>
+    <t>57204468000115</t>
+  </si>
+  <si>
+    <t>FRANCISCO E. A. MOREIRA</t>
+  </si>
+  <si>
+    <t>24197021000107</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO CONJUNTO HABITACIONAL SANTO AMARO</t>
+  </si>
+  <si>
+    <t>30881195000197</t>
+  </si>
+  <si>
+    <t>IMPULSIONE SEU FUTURO ENSINO LTDA.</t>
+  </si>
+  <si>
+    <t>14028379000152</t>
+  </si>
+  <si>
+    <t>ADRIANO LUIS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>31752922000189</t>
+  </si>
+  <si>
+    <t>GERALDO MAGELA COSTA JUNIOR</t>
+  </si>
+  <si>
+    <t>21904837000135</t>
+  </si>
+  <si>
+    <t>DEBORA IANCOVICH</t>
+  </si>
+  <si>
+    <t>16970582000179</t>
+  </si>
+  <si>
+    <t>MARCIO CRISTIANO MACHADO OLIVEIRA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>39296475000102</t>
+  </si>
+  <si>
+    <t>C E M VIEIRA COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>61646500000190</t>
+  </si>
+  <si>
+    <t>NUTRIVIDAS LTDA</t>
+  </si>
+  <si>
+    <t>32655315000163</t>
+  </si>
+  <si>
+    <t>ANTONIO ALBEDIO SALES MACHADO</t>
+  </si>
+  <si>
+    <t>35095273000141</t>
+  </si>
+  <si>
+    <t>REINALDO DONIZETE DE JESUS LTDA</t>
+  </si>
+  <si>
+    <t>36908514000197</t>
+  </si>
+  <si>
+    <t>JEFFERSON LUIZ DA VEIGA</t>
+  </si>
+  <si>
+    <t>39610291000175</t>
+  </si>
+  <si>
+    <t>AGUIA STORE BELEZA E COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>36659447000114</t>
+  </si>
+  <si>
+    <t>JOSE GERALDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>37389947000146</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA AFONSO PENA LTDA</t>
+  </si>
+  <si>
+    <t>20489772000146</t>
+  </si>
+  <si>
+    <t>THAMIRIS ROSA DA SILVA</t>
+  </si>
+  <si>
+    <t>53831908000103</t>
+  </si>
+  <si>
+    <t>NAILA AMELIA PEREIRA CHACON SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>10992757000162</t>
+  </si>
+  <si>
+    <t>FACILITE DISTRIBUIDORA DE PRODUTOS NATURAIS LTDA</t>
+  </si>
+  <si>
+    <t>13975037000187</t>
+  </si>
+  <si>
+    <t>E. A. DA ROCHA LTDA</t>
+  </si>
+  <si>
+    <t>31808129000154</t>
+  </si>
+  <si>
+    <t>DENISE CRISTINA GARCIA</t>
+  </si>
+  <si>
+    <t>20012939000183</t>
+  </si>
+  <si>
+    <t>AUTO POSTO AGUIA LTDA</t>
+  </si>
+  <si>
+    <t>23826276000129</t>
+  </si>
+  <si>
+    <t>ALMEIDA CASTRO SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>38458564000145</t>
+  </si>
+  <si>
+    <t>INTEGRALE DESENVOLVIMENTO HUMANO LTDA</t>
+  </si>
+  <si>
+    <t>12451090000116</t>
+  </si>
+  <si>
+    <t>12.451.090 CECI LARA DOS SANTOS SOARES</t>
+  </si>
+  <si>
+    <t>64809438000106</t>
+  </si>
+  <si>
+    <t>BIG MIX BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>21262486000106</t>
+  </si>
+  <si>
+    <t>GUILHERME ISRAEL BALDANI</t>
+  </si>
+  <si>
+    <t>64852721000102</t>
+  </si>
+  <si>
+    <t>METAL ACO METALURGICA LTDA</t>
+  </si>
+  <si>
+    <t>22468968000180</t>
+  </si>
+  <si>
+    <t>EDNALDO XAVIER DE ARAUJO</t>
+  </si>
+  <si>
+    <t>37368474000109</t>
+  </si>
+  <si>
+    <t>CASSIO FERNANDO DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>23706562000150</t>
+  </si>
+  <si>
+    <t>CRISTIANO DA SILVA DUTRA ELETRICA</t>
+  </si>
+  <si>
+    <t>35652657000118</t>
+  </si>
+  <si>
+    <t>SIRI LTDA</t>
+  </si>
+  <si>
+    <t>15200117000196</t>
+  </si>
+  <si>
+    <t>GEILSON RODRIGUES DE SOUSA</t>
+  </si>
+  <si>
+    <t>34935814000130</t>
+  </si>
+  <si>
+    <t>CLAUDIO ANDRE ALVES - COMERCIO E INSTALACOES ELETRICAS</t>
+  </si>
+  <si>
+    <t>35843799000162</t>
+  </si>
+  <si>
+    <t>35.843.799 LUARA RIBEIRO DE MORAIS</t>
+  </si>
+  <si>
+    <t>63709771000172</t>
+  </si>
+  <si>
+    <t>LUIZ ZANINI BORELLI LTDA</t>
+  </si>
+  <si>
+    <t>13519486000110</t>
+  </si>
+  <si>
+    <t>VITORIA INDUSTRIA E COMERCIO DE CEREAIS LTDA</t>
+  </si>
+  <si>
+    <t>31826538000183</t>
+  </si>
+  <si>
+    <t>FELIPE ANTONIO DA SILVA</t>
+  </si>
+  <si>
+    <t>13417490000178</t>
+  </si>
+  <si>
+    <t>REUNIDAS REPRESENTACAO LTDA</t>
+  </si>
+  <si>
+    <t>41518896000182</t>
+  </si>
+  <si>
+    <t>JACQUELINE CABRAL DE CASTRO LTDA</t>
+  </si>
+  <si>
+    <t>24474002000180</t>
+  </si>
+  <si>
+    <t>N A RAMALHO REPRESENTACAO DE MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>38122961000141</t>
+  </si>
+  <si>
+    <t>LUCIANA LOCACOES &amp; TRANSPORTES - LTDA</t>
+  </si>
+  <si>
+    <t>64513556000164</t>
+  </si>
+  <si>
+    <t>G&amp;C COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>36628524000179</t>
+  </si>
+  <si>
+    <t>GEDIAEL ANTONIO DE SOUZA</t>
+  </si>
+  <si>
+    <t>08516357000139</t>
+  </si>
+  <si>
+    <t>DENIVAL ALVES RIBEIRO MOTO</t>
+  </si>
+  <si>
+    <t>43736931000165</t>
+  </si>
+  <si>
+    <t>CAMILLA VILLARES DA SILVA</t>
+  </si>
+  <si>
+    <t>21511702000100</t>
+  </si>
+  <si>
+    <t>MARIA DAS GRACAS DE DEUS</t>
+  </si>
+  <si>
+    <t>31946975000130</t>
+  </si>
+  <si>
+    <t>S. P. ARAUJO CRUZ SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>16645117000839</t>
+  </si>
+  <si>
+    <t>AMARILDO BARIONI</t>
+  </si>
+  <si>
+    <t>58857078000107</t>
+  </si>
+  <si>
+    <t>OFICINA PORTO ANDRADE LTDA</t>
+  </si>
+  <si>
+    <t>54340818000182</t>
+  </si>
+  <si>
+    <t>AS ASSESSORIA LTDA</t>
+  </si>
+  <si>
+    <t>16864687000143</t>
+  </si>
+  <si>
+    <t>ART CAR LTDA</t>
+  </si>
+  <si>
+    <t>36658076000156</t>
+  </si>
+  <si>
+    <t>ADELSOM FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>64904588000190</t>
+  </si>
+  <si>
+    <t>MMS SHOWS E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>34249397000171</t>
+  </si>
+  <si>
+    <t>SULEICA SCHAEFFER</t>
+  </si>
+  <si>
+    <t>37842759000121</t>
+  </si>
+  <si>
+    <t>37.842.759 MARCIEL FERNANDO FERREIRA</t>
+  </si>
+  <si>
+    <t>39900660000164</t>
+  </si>
+  <si>
+    <t>JULIO CESAR SISDELLI</t>
+  </si>
+  <si>
+    <t>49821847000126</t>
+  </si>
+  <si>
+    <t>SILVA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>56155200000178</t>
+  </si>
+  <si>
+    <t>AUTO ESCOLA APRENDA FACIL EM JOAO PESSOA LTDA</t>
+  </si>
+  <si>
+    <t>61802249000105</t>
+  </si>
+  <si>
+    <t>LOURO ELETROMOTORES LTDA</t>
+  </si>
+  <si>
+    <t>27320040000177</t>
+  </si>
+  <si>
+    <t>RODRIGO DE SOUZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>61418702000184</t>
+  </si>
+  <si>
+    <t>RC CARVALHO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>23847211000160</t>
+  </si>
+  <si>
+    <t>CLEITON APARECIDO TANI</t>
+  </si>
+  <si>
+    <t>20521891000139</t>
+  </si>
+  <si>
+    <t>ALEXANDRE LEITE MONTEIRO</t>
+  </si>
+  <si>
+    <t>13605794000169</t>
+  </si>
+  <si>
+    <t>CHAGAS REFORMAS E PINTURAS LTDA</t>
+  </si>
+  <si>
+    <t>29247148000107</t>
+  </si>
+  <si>
+    <t>CRISTIANE S. M. DOS SANTOS CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>35421087000155</t>
+  </si>
+  <si>
+    <t>EXCLUSIVA CASA LTDA</t>
+  </si>
+  <si>
+    <t>38113869000115</t>
+  </si>
+  <si>
+    <t>JANER CABRAL LAVINAS</t>
+  </si>
+  <si>
+    <t>10605823000102</t>
+  </si>
+  <si>
+    <t>CASA DE ACOLHIMENTO A CRIANCAS DOENTES - CACD</t>
+  </si>
+  <si>
+    <t>18215136000184</t>
+  </si>
+  <si>
+    <t>EDIMAR CARDOSO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>35375061000118</t>
+  </si>
+  <si>
+    <t>JV BAR COMERCIO DE BEBIDAS LTDA</t>
+  </si>
+  <si>
+    <t>Otavio Henrique Silva de Avila</t>
+  </si>
+  <si>
+    <t>04797493000193</t>
+  </si>
+  <si>
+    <t>GESSO OLIVA LTDA</t>
+  </si>
+  <si>
+    <t>34941544000170</t>
+  </si>
+  <si>
+    <t>TRA REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>20268814000119</t>
+  </si>
+  <si>
+    <t>SAUD PINTURAS LTDA</t>
+  </si>
+  <si>
+    <t>56259090000194</t>
+  </si>
+  <si>
+    <t>CLEBER JOSE MACHADO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>48054551000164</t>
+  </si>
+  <si>
+    <t>DAVI DESPACHANTE LTDA</t>
+  </si>
+  <si>
+    <t>60884352000189</t>
+  </si>
+  <si>
+    <t>ISOTHERM REVESTIMENTOS E ARTIGOS CIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>41260283000198</t>
+  </si>
+  <si>
+    <t>E.K.D. LANCHES PIZZARIA LTDA</t>
+  </si>
+  <si>
+    <t>56414710000112</t>
+  </si>
+  <si>
+    <t>COMIDA CASEIRA DA SERRA LTDA</t>
+  </si>
+  <si>
+    <t>64918023000162</t>
+  </si>
+  <si>
+    <t>HOTEL OTIS INOVA SIMPLES IS</t>
+  </si>
+  <si>
+    <t>64893914000101</t>
+  </si>
+  <si>
+    <t>MAYA PRESTACAO DE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>58473081000127</t>
+  </si>
+  <si>
+    <t>D M F DA SILVA  LTDA</t>
+  </si>
+  <si>
+    <t>55672801000195</t>
+  </si>
+  <si>
+    <t>JST MOTORS LTDA</t>
+  </si>
+  <si>
+    <t>64636968000191</t>
+  </si>
+  <si>
+    <t>TELLOS PETISCARIA LTDA</t>
+  </si>
+  <si>
+    <t>64028132000104</t>
+  </si>
+  <si>
+    <t>MADERFORT COMERCIO DE MADEIRAS LTDA</t>
+  </si>
+  <si>
+    <t>64631318000153</t>
+  </si>
+  <si>
+    <t>BOTECO TOKAIA RESTAURANTE E BAR LTDA</t>
+  </si>
+  <si>
+    <t>64519426000139</t>
+  </si>
+  <si>
+    <t>GAMA E ALVES TRANSPORTE DE CARGAS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convencao de condominio completa com todas as paginas.&lt;br&gt;&lt;br&gt;Ata de eleicao da Sindico com mandato vigente, devidamente registrado no orgao competente </t>
+  </si>
+  <si>
+    <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Requerimento de Empresario, atualizado e registrado no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -2637,10 +3210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +3264,7 @@
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -4019,10 +4592,10 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5134,10 +5707,10 @@
         <v>46056</v>
       </c>
       <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" t="s">
         <v>267</v>
-      </c>
-      <c r="C109" t="s">
-        <v>268</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -5157,10 +5730,10 @@
         <v>46056</v>
       </c>
       <c r="B110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" t="s">
         <v>269</v>
-      </c>
-      <c r="C110" t="s">
-        <v>270</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -5180,10 +5753,10 @@
         <v>46056</v>
       </c>
       <c r="B111" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" t="s">
         <v>271</v>
-      </c>
-      <c r="C111" t="s">
-        <v>272</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -5203,10 +5776,10 @@
         <v>46056</v>
       </c>
       <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
         <v>273</v>
-      </c>
-      <c r="C112" t="s">
-        <v>274</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -5226,10 +5799,10 @@
         <v>46056</v>
       </c>
       <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s">
         <v>275</v>
-      </c>
-      <c r="C113" t="s">
-        <v>276</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -5249,10 +5822,10 @@
         <v>46056</v>
       </c>
       <c r="B114" t="s">
+        <v>276</v>
+      </c>
+      <c r="C114" t="s">
         <v>277</v>
-      </c>
-      <c r="C114" t="s">
-        <v>278</v>
       </c>
       <c r="D114" t="s">
         <v>110</v>
@@ -5272,10 +5845,10 @@
         <v>46056</v>
       </c>
       <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" t="s">
         <v>279</v>
-      </c>
-      <c r="C115" t="s">
-        <v>280</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -5295,10 +5868,10 @@
         <v>46056</v>
       </c>
       <c r="B116" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" t="s">
         <v>281</v>
-      </c>
-      <c r="C116" t="s">
-        <v>282</v>
       </c>
       <c r="D116" t="s">
         <v>211</v>
@@ -5318,10 +5891,10 @@
         <v>46056</v>
       </c>
       <c r="B117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" t="s">
         <v>283</v>
-      </c>
-      <c r="C117" t="s">
-        <v>284</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -5341,10 +5914,10 @@
         <v>46056</v>
       </c>
       <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
         <v>285</v>
-      </c>
-      <c r="C118" t="s">
-        <v>286</v>
       </c>
       <c r="D118" t="s">
         <v>73</v>
@@ -5364,10 +5937,10 @@
         <v>46056</v>
       </c>
       <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
         <v>287</v>
-      </c>
-      <c r="C119" t="s">
-        <v>288</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5387,13 +5960,13 @@
         <v>46056</v>
       </c>
       <c r="B120" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" t="s">
         <v>289</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>290</v>
-      </c>
-      <c r="D120" t="s">
-        <v>291</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -5410,10 +5983,10 @@
         <v>46056</v>
       </c>
       <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" t="s">
         <v>292</v>
-      </c>
-      <c r="C121" t="s">
-        <v>293</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
@@ -5433,10 +6006,10 @@
         <v>46056</v>
       </c>
       <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" t="s">
         <v>294</v>
-      </c>
-      <c r="C122" t="s">
-        <v>295</v>
       </c>
       <c r="D122" t="s">
         <v>170</v>
@@ -5456,10 +6029,10 @@
         <v>46056</v>
       </c>
       <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
         <v>296</v>
-      </c>
-      <c r="C123" t="s">
-        <v>297</v>
       </c>
       <c r="D123" t="s">
         <v>76</v>
@@ -5479,10 +6052,10 @@
         <v>46056</v>
       </c>
       <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
         <v>298</v>
-      </c>
-      <c r="C124" t="s">
-        <v>299</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -5502,10 +6075,10 @@
         <v>46056</v>
       </c>
       <c r="B125" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
         <v>300</v>
-      </c>
-      <c r="C125" t="s">
-        <v>301</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -5525,10 +6098,10 @@
         <v>46056</v>
       </c>
       <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
         <v>302</v>
-      </c>
-      <c r="C126" t="s">
-        <v>303</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -5548,10 +6121,10 @@
         <v>46056</v>
       </c>
       <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
         <v>304</v>
-      </c>
-      <c r="C127" t="s">
-        <v>305</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
@@ -5571,10 +6144,10 @@
         <v>46056</v>
       </c>
       <c r="B128" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" t="s">
         <v>306</v>
-      </c>
-      <c r="C128" t="s">
-        <v>307</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -5594,10 +6167,10 @@
         <v>46056</v>
       </c>
       <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" t="s">
         <v>308</v>
-      </c>
-      <c r="C129" t="s">
-        <v>309</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
@@ -5617,13 +6190,13 @@
         <v>46056</v>
       </c>
       <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" t="s">
         <v>310</v>
       </c>
-      <c r="C130" t="s">
-        <v>311</v>
-      </c>
       <c r="D130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -5640,10 +6213,10 @@
         <v>46056</v>
       </c>
       <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
         <v>312</v>
-      </c>
-      <c r="C131" t="s">
-        <v>313</v>
       </c>
       <c r="D131" t="s">
         <v>110</v>
@@ -5663,10 +6236,10 @@
         <v>46056</v>
       </c>
       <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="s">
         <v>314</v>
-      </c>
-      <c r="C132" t="s">
-        <v>315</v>
       </c>
       <c r="D132" t="s">
         <v>16</v>
@@ -5675,10 +6248,10 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5686,10 +6259,10 @@
         <v>46056</v>
       </c>
       <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
         <v>316</v>
-      </c>
-      <c r="C133" t="s">
-        <v>317</v>
       </c>
       <c r="D133" t="s">
         <v>170</v>
@@ -5709,10 +6282,10 @@
         <v>46056</v>
       </c>
       <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
         <v>318</v>
-      </c>
-      <c r="C134" t="s">
-        <v>319</v>
       </c>
       <c r="D134" t="s">
         <v>262</v>
@@ -5732,10 +6305,10 @@
         <v>46056</v>
       </c>
       <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
         <v>320</v>
-      </c>
-      <c r="C135" t="s">
-        <v>321</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -5747,7 +6320,7 @@
         <v>113</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,10 +6328,10 @@
         <v>46056</v>
       </c>
       <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
         <v>322</v>
-      </c>
-      <c r="C136" t="s">
-        <v>323</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -5778,10 +6351,10 @@
         <v>46056</v>
       </c>
       <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" t="s">
         <v>324</v>
-      </c>
-      <c r="C137" t="s">
-        <v>325</v>
       </c>
       <c r="D137" t="s">
         <v>60</v>
@@ -5801,10 +6374,10 @@
         <v>46056</v>
       </c>
       <c r="B138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138" t="s">
         <v>326</v>
-      </c>
-      <c r="C138" t="s">
-        <v>327</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -5824,10 +6397,10 @@
         <v>46056</v>
       </c>
       <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" t="s">
         <v>328</v>
-      </c>
-      <c r="C139" t="s">
-        <v>329</v>
       </c>
       <c r="D139" t="s">
         <v>70</v>
@@ -5847,10 +6420,10 @@
         <v>46056</v>
       </c>
       <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140" t="s">
         <v>330</v>
-      </c>
-      <c r="C140" t="s">
-        <v>331</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
@@ -5870,10 +6443,10 @@
         <v>46056</v>
       </c>
       <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" t="s">
         <v>332</v>
-      </c>
-      <c r="C141" t="s">
-        <v>333</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -5893,10 +6466,10 @@
         <v>46056</v>
       </c>
       <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
         <v>334</v>
-      </c>
-      <c r="C142" t="s">
-        <v>335</v>
       </c>
       <c r="D142" t="s">
         <v>170</v>
@@ -5916,10 +6489,10 @@
         <v>46056</v>
       </c>
       <c r="B143" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" t="s">
         <v>336</v>
-      </c>
-      <c r="C143" t="s">
-        <v>337</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
@@ -5939,10 +6512,10 @@
         <v>46056</v>
       </c>
       <c r="B144" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" t="s">
         <v>338</v>
-      </c>
-      <c r="C144" t="s">
-        <v>339</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -5962,10 +6535,10 @@
         <v>46056</v>
       </c>
       <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
         <v>340</v>
-      </c>
-      <c r="C145" t="s">
-        <v>341</v>
       </c>
       <c r="D145" t="s">
         <v>70</v>
@@ -5985,10 +6558,10 @@
         <v>46056</v>
       </c>
       <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
         <v>342</v>
-      </c>
-      <c r="C146" t="s">
-        <v>343</v>
       </c>
       <c r="D146" t="s">
         <v>170</v>
@@ -6008,10 +6581,10 @@
         <v>46056</v>
       </c>
       <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" t="s">
         <v>344</v>
-      </c>
-      <c r="C147" t="s">
-        <v>345</v>
       </c>
       <c r="D147" t="s">
         <v>70</v>
@@ -6031,10 +6604,10 @@
         <v>46056</v>
       </c>
       <c r="B148" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148" t="s">
         <v>346</v>
-      </c>
-      <c r="C148" t="s">
-        <v>347</v>
       </c>
       <c r="D148" t="s">
         <v>76</v>
@@ -6054,10 +6627,10 @@
         <v>46056</v>
       </c>
       <c r="B149" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" t="s">
         <v>348</v>
-      </c>
-      <c r="C149" t="s">
-        <v>349</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -6077,10 +6650,10 @@
         <v>46056</v>
       </c>
       <c r="B150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" t="s">
         <v>350</v>
-      </c>
-      <c r="C150" t="s">
-        <v>351</v>
       </c>
       <c r="D150" t="s">
         <v>73</v>
@@ -6100,10 +6673,10 @@
         <v>46056</v>
       </c>
       <c r="B151" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" t="s">
         <v>352</v>
-      </c>
-      <c r="C151" t="s">
-        <v>353</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -6123,10 +6696,10 @@
         <v>46056</v>
       </c>
       <c r="B152" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" t="s">
         <v>354</v>
-      </c>
-      <c r="C152" t="s">
-        <v>355</v>
       </c>
       <c r="D152" t="s">
         <v>60</v>
@@ -6146,10 +6719,10 @@
         <v>46056</v>
       </c>
       <c r="B153" t="s">
+        <v>355</v>
+      </c>
+      <c r="C153" t="s">
         <v>356</v>
-      </c>
-      <c r="C153" t="s">
-        <v>357</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -6169,10 +6742,10 @@
         <v>46056</v>
       </c>
       <c r="B154" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" t="s">
         <v>358</v>
-      </c>
-      <c r="C154" t="s">
-        <v>359</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
@@ -6192,10 +6765,10 @@
         <v>46056</v>
       </c>
       <c r="B155" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" t="s">
         <v>360</v>
-      </c>
-      <c r="C155" t="s">
-        <v>361</v>
       </c>
       <c r="D155" t="s">
         <v>79</v>
@@ -6215,10 +6788,10 @@
         <v>46056</v>
       </c>
       <c r="B156" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" t="s">
         <v>362</v>
-      </c>
-      <c r="C156" t="s">
-        <v>363</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -6238,10 +6811,10 @@
         <v>46056</v>
       </c>
       <c r="B157" t="s">
+        <v>363</v>
+      </c>
+      <c r="C157" t="s">
         <v>364</v>
-      </c>
-      <c r="C157" t="s">
-        <v>365</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -6261,10 +6834,10 @@
         <v>46056</v>
       </c>
       <c r="B158" t="s">
+        <v>365</v>
+      </c>
+      <c r="C158" t="s">
         <v>366</v>
-      </c>
-      <c r="C158" t="s">
-        <v>367</v>
       </c>
       <c r="D158" t="s">
         <v>110</v>
@@ -6284,10 +6857,10 @@
         <v>46056</v>
       </c>
       <c r="B159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C159" t="s">
         <v>368</v>
-      </c>
-      <c r="C159" t="s">
-        <v>369</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -6307,10 +6880,10 @@
         <v>46056</v>
       </c>
       <c r="B160" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" t="s">
         <v>370</v>
-      </c>
-      <c r="C160" t="s">
-        <v>371</v>
       </c>
       <c r="D160" t="s">
         <v>70</v>
@@ -6330,10 +6903,10 @@
         <v>46056</v>
       </c>
       <c r="B161" t="s">
+        <v>371</v>
+      </c>
+      <c r="C161" t="s">
         <v>372</v>
-      </c>
-      <c r="C161" t="s">
-        <v>373</v>
       </c>
       <c r="D161" t="s">
         <v>70</v>
@@ -6353,10 +6926,10 @@
         <v>46056</v>
       </c>
       <c r="B162" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" t="s">
         <v>374</v>
-      </c>
-      <c r="C162" t="s">
-        <v>375</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -6376,10 +6949,10 @@
         <v>46056</v>
       </c>
       <c r="B163" t="s">
+        <v>375</v>
+      </c>
+      <c r="C163" t="s">
         <v>376</v>
-      </c>
-      <c r="C163" t="s">
-        <v>377</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
@@ -6399,10 +6972,10 @@
         <v>46056</v>
       </c>
       <c r="B164" t="s">
+        <v>377</v>
+      </c>
+      <c r="C164" t="s">
         <v>378</v>
-      </c>
-      <c r="C164" t="s">
-        <v>379</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
@@ -6422,10 +6995,10 @@
         <v>46056</v>
       </c>
       <c r="B165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" t="s">
         <v>380</v>
-      </c>
-      <c r="C165" t="s">
-        <v>381</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
@@ -6445,10 +7018,10 @@
         <v>46056</v>
       </c>
       <c r="B166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" t="s">
         <v>382</v>
-      </c>
-      <c r="C166" t="s">
-        <v>383</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -6457,10 +7030,10 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>113</v>
-      </c>
-      <c r="G166" t="s">
-        <v>263</v>
+        <v>53</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6468,10 +7041,10 @@
         <v>46056</v>
       </c>
       <c r="B167" t="s">
+        <v>383</v>
+      </c>
+      <c r="C167" t="s">
         <v>384</v>
-      </c>
-      <c r="C167" t="s">
-        <v>385</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -6491,10 +7064,10 @@
         <v>46056</v>
       </c>
       <c r="B168" t="s">
+        <v>385</v>
+      </c>
+      <c r="C168" t="s">
         <v>386</v>
-      </c>
-      <c r="C168" t="s">
-        <v>387</v>
       </c>
       <c r="D168" t="s">
         <v>16</v>
@@ -6514,10 +7087,10 @@
         <v>46056</v>
       </c>
       <c r="B169" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" t="s">
         <v>388</v>
-      </c>
-      <c r="C169" t="s">
-        <v>389</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
@@ -6537,10 +7110,10 @@
         <v>46056</v>
       </c>
       <c r="B170" t="s">
+        <v>389</v>
+      </c>
+      <c r="C170" t="s">
         <v>390</v>
-      </c>
-      <c r="C170" t="s">
-        <v>391</v>
       </c>
       <c r="D170" t="s">
         <v>24</v>
@@ -6560,10 +7133,10 @@
         <v>46056</v>
       </c>
       <c r="B171" t="s">
+        <v>391</v>
+      </c>
+      <c r="C171" t="s">
         <v>392</v>
-      </c>
-      <c r="C171" t="s">
-        <v>393</v>
       </c>
       <c r="D171" t="s">
         <v>16</v>
@@ -6583,10 +7156,10 @@
         <v>46056</v>
       </c>
       <c r="B172" t="s">
+        <v>393</v>
+      </c>
+      <c r="C172" t="s">
         <v>394</v>
-      </c>
-      <c r="C172" t="s">
-        <v>395</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
@@ -6606,13 +7179,13 @@
         <v>46056</v>
       </c>
       <c r="B173" t="s">
+        <v>395</v>
+      </c>
+      <c r="C173" t="s">
         <v>396</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>397</v>
-      </c>
-      <c r="D173" t="s">
-        <v>398</v>
       </c>
       <c r="E173" t="s">
         <v>119</v>
@@ -6629,10 +7202,10 @@
         <v>46056</v>
       </c>
       <c r="B174" t="s">
+        <v>398</v>
+      </c>
+      <c r="C174" t="s">
         <v>399</v>
-      </c>
-      <c r="C174" t="s">
-        <v>400</v>
       </c>
       <c r="D174" t="s">
         <v>67</v>
@@ -6652,10 +7225,10 @@
         <v>46056</v>
       </c>
       <c r="B175" t="s">
+        <v>400</v>
+      </c>
+      <c r="C175" t="s">
         <v>401</v>
-      </c>
-      <c r="C175" t="s">
-        <v>402</v>
       </c>
       <c r="D175" t="s">
         <v>211</v>
@@ -6675,10 +7248,10 @@
         <v>46056</v>
       </c>
       <c r="B176" t="s">
+        <v>402</v>
+      </c>
+      <c r="C176" t="s">
         <v>403</v>
-      </c>
-      <c r="C176" t="s">
-        <v>404</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
@@ -6698,10 +7271,10 @@
         <v>46056</v>
       </c>
       <c r="B177" t="s">
+        <v>404</v>
+      </c>
+      <c r="C177" t="s">
         <v>405</v>
-      </c>
-      <c r="C177" t="s">
-        <v>406</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -6721,10 +7294,10 @@
         <v>46056</v>
       </c>
       <c r="B178" t="s">
+        <v>406</v>
+      </c>
+      <c r="C178" t="s">
         <v>407</v>
-      </c>
-      <c r="C178" t="s">
-        <v>408</v>
       </c>
       <c r="D178" t="s">
         <v>211</v>
@@ -6744,10 +7317,10 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" t="s">
         <v>409</v>
-      </c>
-      <c r="C179" t="s">
-        <v>410</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
@@ -6767,10 +7340,10 @@
         <v>46056</v>
       </c>
       <c r="B180" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" t="s">
         <v>411</v>
-      </c>
-      <c r="C180" t="s">
-        <v>412</v>
       </c>
       <c r="D180" t="s">
         <v>60</v>
@@ -6790,10 +7363,10 @@
         <v>46056</v>
       </c>
       <c r="B181" t="s">
+        <v>412</v>
+      </c>
+      <c r="C181" t="s">
         <v>413</v>
-      </c>
-      <c r="C181" t="s">
-        <v>414</v>
       </c>
       <c r="D181" t="s">
         <v>73</v>
@@ -6813,10 +7386,10 @@
         <v>46056</v>
       </c>
       <c r="B182" t="s">
+        <v>414</v>
+      </c>
+      <c r="C182" t="s">
         <v>415</v>
-      </c>
-      <c r="C182" t="s">
-        <v>416</v>
       </c>
       <c r="D182" t="s">
         <v>79</v>
@@ -6836,10 +7409,10 @@
         <v>46056</v>
       </c>
       <c r="B183" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" t="s">
         <v>417</v>
-      </c>
-      <c r="C183" t="s">
-        <v>418</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
@@ -6859,10 +7432,10 @@
         <v>46056</v>
       </c>
       <c r="B184" t="s">
+        <v>418</v>
+      </c>
+      <c r="C184" t="s">
         <v>419</v>
-      </c>
-      <c r="C184" t="s">
-        <v>420</v>
       </c>
       <c r="D184" t="s">
         <v>170</v>
@@ -6874,7 +7447,7 @@
         <v>113</v>
       </c>
       <c r="G184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6882,10 +7455,10 @@
         <v>46056</v>
       </c>
       <c r="B185" t="s">
+        <v>420</v>
+      </c>
+      <c r="C185" t="s">
         <v>421</v>
-      </c>
-      <c r="C185" t="s">
-        <v>422</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
@@ -6905,10 +7478,10 @@
         <v>46056</v>
       </c>
       <c r="B186" t="s">
+        <v>422</v>
+      </c>
+      <c r="C186" t="s">
         <v>423</v>
-      </c>
-      <c r="C186" t="s">
-        <v>424</v>
       </c>
       <c r="D186" t="s">
         <v>170</v>
@@ -6928,10 +7501,10 @@
         <v>46056</v>
       </c>
       <c r="B187" t="s">
+        <v>424</v>
+      </c>
+      <c r="C187" t="s">
         <v>425</v>
-      </c>
-      <c r="C187" t="s">
-        <v>426</v>
       </c>
       <c r="D187" t="s">
         <v>170</v>
@@ -6951,10 +7524,10 @@
         <v>46056</v>
       </c>
       <c r="B188" t="s">
+        <v>426</v>
+      </c>
+      <c r="C188" t="s">
         <v>427</v>
-      </c>
-      <c r="C188" t="s">
-        <v>428</v>
       </c>
       <c r="D188" t="s">
         <v>40</v>
@@ -6974,10 +7547,10 @@
         <v>46056</v>
       </c>
       <c r="B189" t="s">
+        <v>428</v>
+      </c>
+      <c r="C189" t="s">
         <v>429</v>
-      </c>
-      <c r="C189" t="s">
-        <v>430</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
@@ -6997,10 +7570,10 @@
         <v>46056</v>
       </c>
       <c r="B190" t="s">
+        <v>430</v>
+      </c>
+      <c r="C190" t="s">
         <v>431</v>
-      </c>
-      <c r="C190" t="s">
-        <v>432</v>
       </c>
       <c r="D190" t="s">
         <v>170</v>
@@ -7020,10 +7593,10 @@
         <v>46056</v>
       </c>
       <c r="B191" t="s">
+        <v>432</v>
+      </c>
+      <c r="C191" t="s">
         <v>433</v>
-      </c>
-      <c r="C191" t="s">
-        <v>434</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -7043,10 +7616,10 @@
         <v>46057</v>
       </c>
       <c r="B192" t="s">
+        <v>434</v>
+      </c>
+      <c r="C192" t="s">
         <v>435</v>
-      </c>
-      <c r="C192" t="s">
-        <v>436</v>
       </c>
       <c r="D192" t="s">
         <v>110</v>
@@ -7066,10 +7639,10 @@
         <v>46057</v>
       </c>
       <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
         <v>437</v>
-      </c>
-      <c r="C193" t="s">
-        <v>438</v>
       </c>
       <c r="D193" t="s">
         <v>67</v>
@@ -7089,10 +7662,10 @@
         <v>46057</v>
       </c>
       <c r="B194" t="s">
+        <v>438</v>
+      </c>
+      <c r="C194" t="s">
         <v>439</v>
-      </c>
-      <c r="C194" t="s">
-        <v>440</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
@@ -7112,10 +7685,10 @@
         <v>46057</v>
       </c>
       <c r="B195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C195" t="s">
         <v>441</v>
-      </c>
-      <c r="C195" t="s">
-        <v>442</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
@@ -7135,10 +7708,10 @@
         <v>46057</v>
       </c>
       <c r="B196" t="s">
+        <v>443</v>
+      </c>
+      <c r="C196" t="s">
         <v>444</v>
-      </c>
-      <c r="C196" t="s">
-        <v>445</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
@@ -7158,10 +7731,10 @@
         <v>46057</v>
       </c>
       <c r="B197" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" t="s">
         <v>446</v>
-      </c>
-      <c r="C197" t="s">
-        <v>447</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -7181,10 +7754,10 @@
         <v>46057</v>
       </c>
       <c r="B198" t="s">
+        <v>447</v>
+      </c>
+      <c r="C198" t="s">
         <v>448</v>
-      </c>
-      <c r="C198" t="s">
-        <v>449</v>
       </c>
       <c r="D198" t="s">
         <v>170</v>
@@ -7204,10 +7777,10 @@
         <v>46057</v>
       </c>
       <c r="B199" t="s">
+        <v>449</v>
+      </c>
+      <c r="C199" t="s">
         <v>450</v>
-      </c>
-      <c r="C199" t="s">
-        <v>451</v>
       </c>
       <c r="D199" t="s">
         <v>110</v>
@@ -7227,10 +7800,10 @@
         <v>46057</v>
       </c>
       <c r="B200" t="s">
+        <v>451</v>
+      </c>
+      <c r="C200" t="s">
         <v>452</v>
-      </c>
-      <c r="C200" t="s">
-        <v>453</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -7242,7 +7815,7 @@
         <v>113</v>
       </c>
       <c r="G200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -7250,10 +7823,10 @@
         <v>46057</v>
       </c>
       <c r="B201" t="s">
+        <v>453</v>
+      </c>
+      <c r="C201" t="s">
         <v>454</v>
-      </c>
-      <c r="C201" t="s">
-        <v>455</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -7273,10 +7846,10 @@
         <v>46057</v>
       </c>
       <c r="B202" t="s">
+        <v>455</v>
+      </c>
+      <c r="C202" t="s">
         <v>456</v>
-      </c>
-      <c r="C202" t="s">
-        <v>457</v>
       </c>
       <c r="D202" t="s">
         <v>86</v>
@@ -7296,10 +7869,10 @@
         <v>46057</v>
       </c>
       <c r="B203" t="s">
+        <v>457</v>
+      </c>
+      <c r="C203" t="s">
         <v>458</v>
-      </c>
-      <c r="C203" t="s">
-        <v>459</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -7308,10 +7881,10 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G203" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,10 +7892,10 @@
         <v>46057</v>
       </c>
       <c r="B204" t="s">
+        <v>459</v>
+      </c>
+      <c r="C204" t="s">
         <v>460</v>
-      </c>
-      <c r="C204" t="s">
-        <v>461</v>
       </c>
       <c r="D204" t="s">
         <v>86</v>
@@ -7342,10 +7915,10 @@
         <v>46057</v>
       </c>
       <c r="B205" t="s">
+        <v>461</v>
+      </c>
+      <c r="C205" t="s">
         <v>462</v>
-      </c>
-      <c r="C205" t="s">
-        <v>463</v>
       </c>
       <c r="D205" t="s">
         <v>76</v>
@@ -7365,10 +7938,10 @@
         <v>46057</v>
       </c>
       <c r="B206" t="s">
+        <v>463</v>
+      </c>
+      <c r="C206" t="s">
         <v>464</v>
-      </c>
-      <c r="C206" t="s">
-        <v>465</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -7388,10 +7961,10 @@
         <v>46057</v>
       </c>
       <c r="B207" t="s">
+        <v>465</v>
+      </c>
+      <c r="C207" t="s">
         <v>466</v>
-      </c>
-      <c r="C207" t="s">
-        <v>467</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -7411,10 +7984,10 @@
         <v>46057</v>
       </c>
       <c r="B208" t="s">
+        <v>467</v>
+      </c>
+      <c r="C208" t="s">
         <v>468</v>
-      </c>
-      <c r="C208" t="s">
-        <v>469</v>
       </c>
       <c r="D208" t="s">
         <v>14</v>
@@ -7434,10 +8007,10 @@
         <v>46057</v>
       </c>
       <c r="B209" t="s">
+        <v>469</v>
+      </c>
+      <c r="C209" t="s">
         <v>470</v>
-      </c>
-      <c r="C209" t="s">
-        <v>471</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -7457,10 +8030,10 @@
         <v>46057</v>
       </c>
       <c r="B210" t="s">
+        <v>471</v>
+      </c>
+      <c r="C210" t="s">
         <v>472</v>
-      </c>
-      <c r="C210" t="s">
-        <v>473</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
@@ -7480,10 +8053,10 @@
         <v>46057</v>
       </c>
       <c r="B211" t="s">
+        <v>473</v>
+      </c>
+      <c r="C211" t="s">
         <v>474</v>
-      </c>
-      <c r="C211" t="s">
-        <v>475</v>
       </c>
       <c r="D211" t="s">
         <v>73</v>
@@ -7503,10 +8076,10 @@
         <v>46057</v>
       </c>
       <c r="B212" t="s">
+        <v>475</v>
+      </c>
+      <c r="C212" t="s">
         <v>476</v>
-      </c>
-      <c r="C212" t="s">
-        <v>477</v>
       </c>
       <c r="D212" t="s">
         <v>70</v>
@@ -7526,10 +8099,10 @@
         <v>46057</v>
       </c>
       <c r="B213" t="s">
+        <v>477</v>
+      </c>
+      <c r="C213" t="s">
         <v>478</v>
-      </c>
-      <c r="C213" t="s">
-        <v>479</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
@@ -7564,7 +8137,7 @@
         <v>51</v>
       </c>
       <c r="G214" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7572,10 +8145,10 @@
         <v>46057</v>
       </c>
       <c r="B215" t="s">
+        <v>479</v>
+      </c>
+      <c r="C215" t="s">
         <v>480</v>
-      </c>
-      <c r="C215" t="s">
-        <v>481</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -7595,10 +8168,10 @@
         <v>46057</v>
       </c>
       <c r="B216" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" t="s">
         <v>482</v>
-      </c>
-      <c r="C216" t="s">
-        <v>483</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -7618,10 +8191,10 @@
         <v>46057</v>
       </c>
       <c r="B217" t="s">
+        <v>483</v>
+      </c>
+      <c r="C217" t="s">
         <v>484</v>
-      </c>
-      <c r="C217" t="s">
-        <v>485</v>
       </c>
       <c r="D217" t="s">
         <v>67</v>
@@ -7641,10 +8214,10 @@
         <v>46057</v>
       </c>
       <c r="B218" t="s">
+        <v>485</v>
+      </c>
+      <c r="C218" t="s">
         <v>486</v>
-      </c>
-      <c r="C218" t="s">
-        <v>487</v>
       </c>
       <c r="D218" t="s">
         <v>163</v>
@@ -7664,10 +8237,10 @@
         <v>46057</v>
       </c>
       <c r="B219" t="s">
+        <v>487</v>
+      </c>
+      <c r="C219" t="s">
         <v>488</v>
-      </c>
-      <c r="C219" t="s">
-        <v>489</v>
       </c>
       <c r="D219" t="s">
         <v>170</v>
@@ -7687,10 +8260,10 @@
         <v>46057</v>
       </c>
       <c r="B220" t="s">
+        <v>489</v>
+      </c>
+      <c r="C220" t="s">
         <v>490</v>
-      </c>
-      <c r="C220" t="s">
-        <v>491</v>
       </c>
       <c r="D220" t="s">
         <v>170</v>
@@ -7710,10 +8283,10 @@
         <v>46057</v>
       </c>
       <c r="B221" t="s">
+        <v>491</v>
+      </c>
+      <c r="C221" t="s">
         <v>492</v>
-      </c>
-      <c r="C221" t="s">
-        <v>493</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
@@ -7733,10 +8306,10 @@
         <v>46057</v>
       </c>
       <c r="B222" t="s">
+        <v>493</v>
+      </c>
+      <c r="C222" t="s">
         <v>494</v>
-      </c>
-      <c r="C222" t="s">
-        <v>495</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -7756,10 +8329,10 @@
         <v>46057</v>
       </c>
       <c r="B223" t="s">
+        <v>495</v>
+      </c>
+      <c r="C223" t="s">
         <v>496</v>
-      </c>
-      <c r="C223" t="s">
-        <v>497</v>
       </c>
       <c r="D223" t="s">
         <v>60</v>
@@ -7779,10 +8352,10 @@
         <v>46057</v>
       </c>
       <c r="B224" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" t="s">
         <v>498</v>
-      </c>
-      <c r="C224" t="s">
-        <v>499</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -7794,7 +8367,7 @@
         <v>113</v>
       </c>
       <c r="G224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7802,10 +8375,10 @@
         <v>46057</v>
       </c>
       <c r="B225" t="s">
+        <v>499</v>
+      </c>
+      <c r="C225" t="s">
         <v>500</v>
-      </c>
-      <c r="C225" t="s">
-        <v>501</v>
       </c>
       <c r="D225" t="s">
         <v>73</v>
@@ -7825,10 +8398,10 @@
         <v>46057</v>
       </c>
       <c r="B226" t="s">
+        <v>501</v>
+      </c>
+      <c r="C226" t="s">
         <v>502</v>
-      </c>
-      <c r="C226" t="s">
-        <v>503</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
@@ -7848,10 +8421,10 @@
         <v>46057</v>
       </c>
       <c r="B227" t="s">
+        <v>503</v>
+      </c>
+      <c r="C227" t="s">
         <v>504</v>
-      </c>
-      <c r="C227" t="s">
-        <v>505</v>
       </c>
       <c r="D227" t="s">
         <v>110</v>
@@ -7871,10 +8444,10 @@
         <v>46057</v>
       </c>
       <c r="B228" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" t="s">
         <v>506</v>
-      </c>
-      <c r="C228" t="s">
-        <v>507</v>
       </c>
       <c r="D228" t="s">
         <v>73</v>
@@ -7894,10 +8467,10 @@
         <v>46057</v>
       </c>
       <c r="B229" t="s">
+        <v>507</v>
+      </c>
+      <c r="C229" t="s">
         <v>508</v>
-      </c>
-      <c r="C229" t="s">
-        <v>509</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -7917,10 +8490,10 @@
         <v>46057</v>
       </c>
       <c r="B230" t="s">
+        <v>509</v>
+      </c>
+      <c r="C230" t="s">
         <v>510</v>
-      </c>
-      <c r="C230" t="s">
-        <v>511</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -7940,10 +8513,10 @@
         <v>46057</v>
       </c>
       <c r="B231" t="s">
+        <v>511</v>
+      </c>
+      <c r="C231" t="s">
         <v>512</v>
-      </c>
-      <c r="C231" t="s">
-        <v>513</v>
       </c>
       <c r="D231" t="s">
         <v>12</v>
@@ -7963,10 +8536,10 @@
         <v>46057</v>
       </c>
       <c r="B232" t="s">
+        <v>513</v>
+      </c>
+      <c r="C232" t="s">
         <v>514</v>
-      </c>
-      <c r="C232" t="s">
-        <v>515</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
@@ -7986,10 +8559,10 @@
         <v>46057</v>
       </c>
       <c r="B233" t="s">
+        <v>515</v>
+      </c>
+      <c r="C233" t="s">
         <v>516</v>
-      </c>
-      <c r="C233" t="s">
-        <v>517</v>
       </c>
       <c r="D233" t="s">
         <v>110</v>
@@ -8009,10 +8582,10 @@
         <v>46057</v>
       </c>
       <c r="B234" t="s">
+        <v>517</v>
+      </c>
+      <c r="C234" t="s">
         <v>518</v>
-      </c>
-      <c r="C234" t="s">
-        <v>519</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -8032,10 +8605,10 @@
         <v>46057</v>
       </c>
       <c r="B235" t="s">
+        <v>519</v>
+      </c>
+      <c r="C235" t="s">
         <v>520</v>
-      </c>
-      <c r="C235" t="s">
-        <v>521</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -8055,10 +8628,10 @@
         <v>46057</v>
       </c>
       <c r="B236" t="s">
+        <v>521</v>
+      </c>
+      <c r="C236" t="s">
         <v>522</v>
-      </c>
-      <c r="C236" t="s">
-        <v>523</v>
       </c>
       <c r="D236" t="s">
         <v>170</v>
@@ -8078,10 +8651,10 @@
         <v>46057</v>
       </c>
       <c r="B237" t="s">
+        <v>523</v>
+      </c>
+      <c r="C237" t="s">
         <v>524</v>
-      </c>
-      <c r="C237" t="s">
-        <v>525</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
@@ -8101,10 +8674,10 @@
         <v>46057</v>
       </c>
       <c r="B238" t="s">
+        <v>525</v>
+      </c>
+      <c r="C238" t="s">
         <v>526</v>
-      </c>
-      <c r="C238" t="s">
-        <v>527</v>
       </c>
       <c r="D238" t="s">
         <v>16</v>
@@ -8124,10 +8697,10 @@
         <v>46057</v>
       </c>
       <c r="B239" t="s">
+        <v>527</v>
+      </c>
+      <c r="C239" t="s">
         <v>528</v>
-      </c>
-      <c r="C239" t="s">
-        <v>529</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -8147,10 +8720,10 @@
         <v>46057</v>
       </c>
       <c r="B240" t="s">
+        <v>529</v>
+      </c>
+      <c r="C240" t="s">
         <v>530</v>
-      </c>
-      <c r="C240" t="s">
-        <v>531</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
@@ -8170,10 +8743,10 @@
         <v>46057</v>
       </c>
       <c r="B241" t="s">
+        <v>531</v>
+      </c>
+      <c r="C241" t="s">
         <v>532</v>
-      </c>
-      <c r="C241" t="s">
-        <v>533</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -8193,10 +8766,10 @@
         <v>46057</v>
       </c>
       <c r="B242" t="s">
+        <v>533</v>
+      </c>
+      <c r="C242" t="s">
         <v>534</v>
-      </c>
-      <c r="C242" t="s">
-        <v>535</v>
       </c>
       <c r="D242" t="s">
         <v>40</v>
@@ -8208,7 +8781,7 @@
         <v>51</v>
       </c>
       <c r="G242" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -8216,10 +8789,10 @@
         <v>46057</v>
       </c>
       <c r="B243" t="s">
+        <v>535</v>
+      </c>
+      <c r="C243" t="s">
         <v>536</v>
-      </c>
-      <c r="C243" t="s">
-        <v>537</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
@@ -8239,10 +8812,10 @@
         <v>46057</v>
       </c>
       <c r="B244" t="s">
+        <v>537</v>
+      </c>
+      <c r="C244" t="s">
         <v>538</v>
-      </c>
-      <c r="C244" t="s">
-        <v>539</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -8262,10 +8835,10 @@
         <v>46057</v>
       </c>
       <c r="B245" t="s">
+        <v>539</v>
+      </c>
+      <c r="C245" t="s">
         <v>540</v>
-      </c>
-      <c r="C245" t="s">
-        <v>541</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -8285,10 +8858,10 @@
         <v>46057</v>
       </c>
       <c r="B246" t="s">
+        <v>541</v>
+      </c>
+      <c r="C246" t="s">
         <v>542</v>
-      </c>
-      <c r="C246" t="s">
-        <v>543</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
@@ -8300,7 +8873,7 @@
         <v>51</v>
       </c>
       <c r="G246" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8308,10 +8881,10 @@
         <v>46057</v>
       </c>
       <c r="B247" t="s">
+        <v>543</v>
+      </c>
+      <c r="C247" t="s">
         <v>544</v>
-      </c>
-      <c r="C247" t="s">
-        <v>545</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
@@ -8331,10 +8904,10 @@
         <v>46057</v>
       </c>
       <c r="B248" t="s">
+        <v>545</v>
+      </c>
+      <c r="C248" t="s">
         <v>546</v>
-      </c>
-      <c r="C248" t="s">
-        <v>547</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
@@ -8354,10 +8927,10 @@
         <v>46057</v>
       </c>
       <c r="B249" t="s">
+        <v>547</v>
+      </c>
+      <c r="C249" t="s">
         <v>548</v>
-      </c>
-      <c r="C249" t="s">
-        <v>549</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -8377,10 +8950,10 @@
         <v>46057</v>
       </c>
       <c r="B250" t="s">
+        <v>549</v>
+      </c>
+      <c r="C250" t="s">
         <v>550</v>
-      </c>
-      <c r="C250" t="s">
-        <v>551</v>
       </c>
       <c r="D250" t="s">
         <v>14</v>
@@ -8400,10 +8973,10 @@
         <v>46057</v>
       </c>
       <c r="B251" t="s">
+        <v>551</v>
+      </c>
+      <c r="C251" t="s">
         <v>552</v>
-      </c>
-      <c r="C251" t="s">
-        <v>553</v>
       </c>
       <c r="D251" t="s">
         <v>73</v>
@@ -8423,10 +8996,10 @@
         <v>46057</v>
       </c>
       <c r="B252" t="s">
+        <v>553</v>
+      </c>
+      <c r="C252" t="s">
         <v>554</v>
-      </c>
-      <c r="C252" t="s">
-        <v>555</v>
       </c>
       <c r="D252" t="s">
         <v>170</v>
@@ -8446,10 +9019,10 @@
         <v>46057</v>
       </c>
       <c r="B253" t="s">
+        <v>555</v>
+      </c>
+      <c r="C253" t="s">
         <v>556</v>
-      </c>
-      <c r="C253" t="s">
-        <v>557</v>
       </c>
       <c r="D253" t="s">
         <v>60</v>
@@ -8461,7 +9034,7 @@
         <v>113</v>
       </c>
       <c r="G253" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8469,10 +9042,10 @@
         <v>46057</v>
       </c>
       <c r="B254" t="s">
+        <v>557</v>
+      </c>
+      <c r="C254" t="s">
         <v>558</v>
-      </c>
-      <c r="C254" t="s">
-        <v>559</v>
       </c>
       <c r="D254" t="s">
         <v>17</v>
@@ -8492,10 +9065,10 @@
         <v>46057</v>
       </c>
       <c r="B255" t="s">
+        <v>559</v>
+      </c>
+      <c r="C255" t="s">
         <v>560</v>
-      </c>
-      <c r="C255" t="s">
-        <v>561</v>
       </c>
       <c r="D255" t="s">
         <v>19</v>
@@ -8515,10 +9088,10 @@
         <v>46057</v>
       </c>
       <c r="B256" t="s">
+        <v>561</v>
+      </c>
+      <c r="C256" t="s">
         <v>562</v>
-      </c>
-      <c r="C256" t="s">
-        <v>563</v>
       </c>
       <c r="D256" t="s">
         <v>152</v>
@@ -8538,10 +9111,10 @@
         <v>46057</v>
       </c>
       <c r="B257" t="s">
+        <v>563</v>
+      </c>
+      <c r="C257" t="s">
         <v>564</v>
-      </c>
-      <c r="C257" t="s">
-        <v>565</v>
       </c>
       <c r="D257" t="s">
         <v>73</v>
@@ -8561,10 +9134,10 @@
         <v>46057</v>
       </c>
       <c r="B258" t="s">
+        <v>565</v>
+      </c>
+      <c r="C258" t="s">
         <v>566</v>
-      </c>
-      <c r="C258" t="s">
-        <v>567</v>
       </c>
       <c r="D258" t="s">
         <v>14</v>
@@ -8584,10 +9157,10 @@
         <v>46057</v>
       </c>
       <c r="B259" t="s">
+        <v>567</v>
+      </c>
+      <c r="C259" t="s">
         <v>568</v>
-      </c>
-      <c r="C259" t="s">
-        <v>569</v>
       </c>
       <c r="D259" t="s">
         <v>14</v>
@@ -8607,10 +9180,10 @@
         <v>46057</v>
       </c>
       <c r="B260" t="s">
+        <v>569</v>
+      </c>
+      <c r="C260" t="s">
         <v>570</v>
-      </c>
-      <c r="C260" t="s">
-        <v>571</v>
       </c>
       <c r="D260" t="s">
         <v>110</v>
@@ -8630,10 +9203,10 @@
         <v>46057</v>
       </c>
       <c r="B261" t="s">
+        <v>571</v>
+      </c>
+      <c r="C261" t="s">
         <v>572</v>
-      </c>
-      <c r="C261" t="s">
-        <v>573</v>
       </c>
       <c r="D261" t="s">
         <v>170</v>
@@ -8653,13 +9226,13 @@
         <v>46057</v>
       </c>
       <c r="B262" t="s">
+        <v>573</v>
+      </c>
+      <c r="C262" t="s">
         <v>574</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>575</v>
-      </c>
-      <c r="D262" t="s">
-        <v>576</v>
       </c>
       <c r="E262" t="s">
         <v>191</v>
@@ -8676,10 +9249,10 @@
         <v>46057</v>
       </c>
       <c r="B263" t="s">
+        <v>576</v>
+      </c>
+      <c r="C263" t="s">
         <v>577</v>
-      </c>
-      <c r="C263" t="s">
-        <v>578</v>
       </c>
       <c r="D263" t="s">
         <v>170</v>
@@ -8699,10 +9272,10 @@
         <v>46057</v>
       </c>
       <c r="B264" t="s">
+        <v>578</v>
+      </c>
+      <c r="C264" t="s">
         <v>579</v>
-      </c>
-      <c r="C264" t="s">
-        <v>580</v>
       </c>
       <c r="D264" t="s">
         <v>11</v>
@@ -8722,10 +9295,10 @@
         <v>46057</v>
       </c>
       <c r="B265" t="s">
+        <v>580</v>
+      </c>
+      <c r="C265" t="s">
         <v>581</v>
-      </c>
-      <c r="C265" t="s">
-        <v>582</v>
       </c>
       <c r="D265" t="s">
         <v>40</v>
@@ -8745,10 +9318,10 @@
         <v>46057</v>
       </c>
       <c r="B266" t="s">
+        <v>582</v>
+      </c>
+      <c r="C266" t="s">
         <v>583</v>
-      </c>
-      <c r="C266" t="s">
-        <v>584</v>
       </c>
       <c r="D266" t="s">
         <v>152</v>
@@ -8768,13 +9341,13 @@
         <v>46057</v>
       </c>
       <c r="B267" t="s">
+        <v>584</v>
+      </c>
+      <c r="C267" t="s">
         <v>585</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>586</v>
-      </c>
-      <c r="D267" t="s">
-        <v>587</v>
       </c>
       <c r="E267" t="s">
         <v>119</v>
@@ -8791,10 +9364,10 @@
         <v>46057</v>
       </c>
       <c r="B268" t="s">
+        <v>587</v>
+      </c>
+      <c r="C268" t="s">
         <v>588</v>
-      </c>
-      <c r="C268" t="s">
-        <v>589</v>
       </c>
       <c r="D268" t="s">
         <v>200</v>
@@ -8814,10 +9387,10 @@
         <v>46057</v>
       </c>
       <c r="B269" t="s">
+        <v>589</v>
+      </c>
+      <c r="C269" t="s">
         <v>590</v>
-      </c>
-      <c r="C269" t="s">
-        <v>591</v>
       </c>
       <c r="D269" t="s">
         <v>12</v>
@@ -8837,10 +9410,10 @@
         <v>46058</v>
       </c>
       <c r="B270" t="s">
+        <v>591</v>
+      </c>
+      <c r="C270" t="s">
         <v>592</v>
-      </c>
-      <c r="C270" t="s">
-        <v>593</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -8860,10 +9433,10 @@
         <v>46058</v>
       </c>
       <c r="B271" t="s">
+        <v>593</v>
+      </c>
+      <c r="C271" t="s">
         <v>594</v>
-      </c>
-      <c r="C271" t="s">
-        <v>595</v>
       </c>
       <c r="D271" t="s">
         <v>67</v>
@@ -8883,10 +9456,10 @@
         <v>46058</v>
       </c>
       <c r="B272" t="s">
+        <v>595</v>
+      </c>
+      <c r="C272" t="s">
         <v>596</v>
-      </c>
-      <c r="C272" t="s">
-        <v>597</v>
       </c>
       <c r="D272" t="s">
         <v>11</v>
@@ -8906,13 +9479,16 @@
         <v>46058</v>
       </c>
       <c r="B273" t="s">
+        <v>597</v>
+      </c>
+      <c r="C273" t="s">
         <v>598</v>
       </c>
-      <c r="C273" t="s">
-        <v>599</v>
-      </c>
       <c r="D273" t="s">
-        <v>600</v>
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
       </c>
       <c r="F273" t="s">
         <v>21</v>
@@ -8926,10 +9502,10 @@
         <v>46058</v>
       </c>
       <c r="B274" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D274" t="s">
         <v>152</v>
@@ -8949,10 +9525,10 @@
         <v>46058</v>
       </c>
       <c r="B275" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C275" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D275" t="s">
         <v>19</v>
@@ -8972,10 +9548,10 @@
         <v>46058</v>
       </c>
       <c r="B276" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C276" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
@@ -8995,10 +9571,10 @@
         <v>46058</v>
       </c>
       <c r="B277" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C277" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -9018,16 +9594,16 @@
         <v>46058</v>
       </c>
       <c r="B278" t="s">
+        <v>608</v>
+      </c>
+      <c r="C278" t="s">
+        <v>609</v>
+      </c>
+      <c r="D278" t="s">
         <v>610</v>
       </c>
-      <c r="C278" t="s">
+      <c r="E278" t="s">
         <v>611</v>
-      </c>
-      <c r="D278" t="s">
-        <v>612</v>
-      </c>
-      <c r="E278" t="s">
-        <v>613</v>
       </c>
       <c r="F278" t="s">
         <v>21</v>
@@ -9041,16 +9617,16 @@
         <v>46058</v>
       </c>
       <c r="B279" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C279" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D279" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E279" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F279" t="s">
         <v>21</v>
@@ -9064,16 +9640,16 @@
         <v>46058</v>
       </c>
       <c r="B280" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C280" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D280" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E280" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F280" t="s">
         <v>21</v>
@@ -9087,10 +9663,10 @@
         <v>46058</v>
       </c>
       <c r="B281" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C281" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D281" t="s">
         <v>70</v>
@@ -9110,10 +9686,10 @@
         <v>46058</v>
       </c>
       <c r="B282" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C282" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
@@ -9133,10 +9709,10 @@
         <v>46058</v>
       </c>
       <c r="B283" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C283" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D283" t="s">
         <v>11</v>
@@ -9156,10 +9732,10 @@
         <v>46058</v>
       </c>
       <c r="B284" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C284" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
@@ -9179,10 +9755,10 @@
         <v>46058</v>
       </c>
       <c r="B285" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C285" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D285" t="s">
         <v>211</v>
@@ -9202,10 +9778,10 @@
         <v>46058</v>
       </c>
       <c r="B286" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C286" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D286" t="s">
         <v>67</v>
@@ -9225,10 +9801,10 @@
         <v>46058</v>
       </c>
       <c r="B287" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C287" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D287" t="s">
         <v>14</v>
@@ -9248,10 +9824,10 @@
         <v>46058</v>
       </c>
       <c r="B288" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C288" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -9271,10 +9847,10 @@
         <v>46058</v>
       </c>
       <c r="B289" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C289" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D289" t="s">
         <v>19</v>
@@ -9294,10 +9870,10 @@
         <v>46058</v>
       </c>
       <c r="B290" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C290" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D290" t="s">
         <v>110</v>
@@ -9306,7 +9882,7 @@
         <v>7</v>
       </c>
       <c r="F290" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9317,10 +9893,10 @@
         <v>46058</v>
       </c>
       <c r="B291" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C291" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D291" t="s">
         <v>14</v>
@@ -9332,7 +9908,7 @@
         <v>113</v>
       </c>
       <c r="G291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -9340,10 +9916,10 @@
         <v>46058</v>
       </c>
       <c r="B292" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C292" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D292" t="s">
         <v>76</v>
@@ -9363,10 +9939,10 @@
         <v>46058</v>
       </c>
       <c r="B293" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C293" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D293" t="s">
         <v>16</v>
@@ -9386,10 +9962,10 @@
         <v>46058</v>
       </c>
       <c r="B294" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C294" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D294" t="s">
         <v>12</v>
@@ -9409,10 +9985,10 @@
         <v>46058</v>
       </c>
       <c r="B295" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C295" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D295" t="s">
         <v>19</v>
@@ -9432,10 +10008,10 @@
         <v>46058</v>
       </c>
       <c r="B296" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C296" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
@@ -9455,10 +10031,10 @@
         <v>46058</v>
       </c>
       <c r="B297" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C297" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -9478,10 +10054,10 @@
         <v>46058</v>
       </c>
       <c r="B298" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C298" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D298" t="s">
         <v>19</v>
@@ -9490,7 +10066,7 @@
         <v>8</v>
       </c>
       <c r="F298" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -9501,10 +10077,10 @@
         <v>46058</v>
       </c>
       <c r="B299" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C299" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D299" t="s">
         <v>11</v>
@@ -9524,10 +10100,10 @@
         <v>46058</v>
       </c>
       <c r="B300" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C300" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D300" t="s">
         <v>211</v>
@@ -9536,7 +10112,7 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9547,10 +10123,10 @@
         <v>46058</v>
       </c>
       <c r="B301" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C301" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D301" t="s">
         <v>12</v>
@@ -9570,10 +10146,10 @@
         <v>46058</v>
       </c>
       <c r="B302" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C302" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D302" t="s">
         <v>16</v>
@@ -9593,7 +10169,7 @@
         <v>46058</v>
       </c>
       <c r="B303" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C303" t="s">
         <v>174</v>
@@ -9605,7 +10181,7 @@
         <v>8</v>
       </c>
       <c r="F303" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -9616,10 +10192,10 @@
         <v>46058</v>
       </c>
       <c r="B304" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C304" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D304" t="s">
         <v>9</v>
@@ -9639,10 +10215,10 @@
         <v>46058</v>
       </c>
       <c r="B305" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C305" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D305" t="s">
         <v>163</v>
@@ -9662,10 +10238,10 @@
         <v>46058</v>
       </c>
       <c r="B306" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C306" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
@@ -9685,10 +10261,10 @@
         <v>46058</v>
       </c>
       <c r="B307" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C307" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D307" t="s">
         <v>24</v>
@@ -9697,7 +10273,10 @@
         <v>8</v>
       </c>
       <c r="F307" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -9705,10 +10284,10 @@
         <v>46058</v>
       </c>
       <c r="B308" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C308" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
@@ -9728,10 +10307,10 @@
         <v>46058</v>
       </c>
       <c r="B309" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C309" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D309" t="s">
         <v>16</v>
@@ -9751,10 +10330,10 @@
         <v>46058</v>
       </c>
       <c r="B310" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C310" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D310" t="s">
         <v>211</v>
@@ -9774,10 +10353,10 @@
         <v>46058</v>
       </c>
       <c r="B311" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C311" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D311" t="s">
         <v>19</v>
@@ -9786,7 +10365,7 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9797,10 +10376,10 @@
         <v>46058</v>
       </c>
       <c r="B312" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C312" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D312" t="s">
         <v>18</v>
@@ -9820,10 +10399,10 @@
         <v>46058</v>
       </c>
       <c r="B313" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C313" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D313" t="s">
         <v>163</v>
@@ -9832,7 +10411,7 @@
         <v>8</v>
       </c>
       <c r="F313" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9843,10 +10422,10 @@
         <v>46058</v>
       </c>
       <c r="B314" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C314" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D314" t="s">
         <v>15</v>
@@ -9866,10 +10445,10 @@
         <v>46058</v>
       </c>
       <c r="B315" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C315" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D315" t="s">
         <v>18</v>
@@ -9889,10 +10468,10 @@
         <v>46058</v>
       </c>
       <c r="B316" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C316" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D316" t="s">
         <v>86</v>
@@ -9912,10 +10491,10 @@
         <v>46058</v>
       </c>
       <c r="B317" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C317" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
@@ -9935,10 +10514,10 @@
         <v>46058</v>
       </c>
       <c r="B318" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C318" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D318" t="s">
         <v>11</v>
@@ -9958,10 +10537,10 @@
         <v>46058</v>
       </c>
       <c r="B319" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C319" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D319" t="s">
         <v>15</v>
@@ -9970,7 +10549,7 @@
         <v>8</v>
       </c>
       <c r="F319" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -9981,10 +10560,10 @@
         <v>46058</v>
       </c>
       <c r="B320" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C320" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D320" t="s">
         <v>19</v>
@@ -10004,10 +10583,10 @@
         <v>46058</v>
       </c>
       <c r="B321" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D321" t="s">
         <v>67</v>
@@ -10027,10 +10606,10 @@
         <v>46058</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D322" t="s">
         <v>70</v>
@@ -10050,10 +10629,10 @@
         <v>46058</v>
       </c>
       <c r="B323" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C323" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D323" t="s">
         <v>70</v>
@@ -10073,10 +10652,10 @@
         <v>46058</v>
       </c>
       <c r="B324" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D324" t="s">
         <v>11</v>
@@ -10096,10 +10675,10 @@
         <v>46058</v>
       </c>
       <c r="B325" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C325" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D325" t="s">
         <v>18</v>
@@ -10119,10 +10698,10 @@
         <v>46058</v>
       </c>
       <c r="B326" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C326" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D326" t="s">
         <v>15</v>
@@ -10131,7 +10710,7 @@
         <v>8</v>
       </c>
       <c r="F326" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -10142,10 +10721,10 @@
         <v>46058</v>
       </c>
       <c r="B327" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C327" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D327" t="s">
         <v>200</v>
@@ -10165,10 +10744,10 @@
         <v>46058</v>
       </c>
       <c r="B328" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C328" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D328" t="s">
         <v>70</v>
@@ -10177,7 +10756,10 @@
         <v>8</v>
       </c>
       <c r="F328" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="G328" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -10185,10 +10767,10 @@
         <v>46058</v>
       </c>
       <c r="B329" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C329" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D329" t="s">
         <v>60</v>
@@ -10197,7 +10779,7 @@
         <v>8</v>
       </c>
       <c r="F329" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -10208,10 +10790,10 @@
         <v>46058</v>
       </c>
       <c r="B330" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C330" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D330" t="s">
         <v>200</v>
@@ -10231,10 +10813,10 @@
         <v>46058</v>
       </c>
       <c r="B331" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C331" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D331" t="s">
         <v>18</v>
@@ -10254,10 +10836,10 @@
         <v>46058</v>
       </c>
       <c r="B332" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C332" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D332" t="s">
         <v>86</v>
@@ -10277,10 +10859,10 @@
         <v>46058</v>
       </c>
       <c r="B333" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C333" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D333" t="s">
         <v>40</v>
@@ -10300,10 +10882,10 @@
         <v>46058</v>
       </c>
       <c r="B334" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C334" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D334" t="s">
         <v>15</v>
@@ -10312,7 +10894,7 @@
         <v>8</v>
       </c>
       <c r="F334" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -10323,10 +10905,10 @@
         <v>46058</v>
       </c>
       <c r="B335" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C335" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D335" t="s">
         <v>262</v>
@@ -10346,10 +10928,10 @@
         <v>46059</v>
       </c>
       <c r="B336" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
@@ -10369,10 +10951,10 @@
         <v>46059</v>
       </c>
       <c r="B337" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C337" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D337" t="s">
         <v>40</v>
@@ -10392,10 +10974,10 @@
         <v>46059</v>
       </c>
       <c r="B338" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C338" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D338" t="s">
         <v>11</v>
@@ -10415,10 +10997,10 @@
         <v>46059</v>
       </c>
       <c r="B339" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C339" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D339" t="s">
         <v>110</v>
@@ -10438,10 +11020,10 @@
         <v>46059</v>
       </c>
       <c r="B340" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C340" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D340" t="s">
         <v>152</v>
@@ -10461,10 +11043,10 @@
         <v>46059</v>
       </c>
       <c r="B341" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C341" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D341" t="s">
         <v>67</v>
@@ -10484,10 +11066,10 @@
         <v>46059</v>
       </c>
       <c r="B342" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C342" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D342" t="s">
         <v>9</v>
@@ -10499,6 +11081,2176 @@
         <v>21</v>
       </c>
       <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B343" t="s">
+        <v>740</v>
+      </c>
+      <c r="C343" t="s">
+        <v>741</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343" t="s">
+        <v>53</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B344" t="s">
+        <v>742</v>
+      </c>
+      <c r="C344" t="s">
+        <v>743</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" t="s">
+        <v>21</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B345" t="s">
+        <v>744</v>
+      </c>
+      <c r="C345" t="s">
+        <v>745</v>
+      </c>
+      <c r="D345" t="s">
+        <v>262</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" t="s">
+        <v>21</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B346" t="s">
+        <v>746</v>
+      </c>
+      <c r="C346" t="s">
+        <v>747</v>
+      </c>
+      <c r="D346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" t="s">
+        <v>52</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B347" t="s">
+        <v>748</v>
+      </c>
+      <c r="C347" t="s">
+        <v>749</v>
+      </c>
+      <c r="D347" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" t="s">
+        <v>53</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B348" t="s">
+        <v>750</v>
+      </c>
+      <c r="C348" t="s">
+        <v>751</v>
+      </c>
+      <c r="D348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348" t="s">
+        <v>53</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B349" t="s">
+        <v>752</v>
+      </c>
+      <c r="C349" t="s">
+        <v>753</v>
+      </c>
+      <c r="D349" t="s">
+        <v>575</v>
+      </c>
+      <c r="E349" t="s">
+        <v>191</v>
+      </c>
+      <c r="F349" t="s">
+        <v>21</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B350" t="s">
+        <v>754</v>
+      </c>
+      <c r="C350" t="s">
+        <v>755</v>
+      </c>
+      <c r="D350" t="s">
+        <v>79</v>
+      </c>
+      <c r="E350" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" t="s">
+        <v>53</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B351" t="s">
+        <v>756</v>
+      </c>
+      <c r="C351" t="s">
+        <v>757</v>
+      </c>
+      <c r="D351" t="s">
+        <v>17</v>
+      </c>
+      <c r="E351" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351" t="s">
+        <v>52</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B352" t="s">
+        <v>758</v>
+      </c>
+      <c r="C352" t="s">
+        <v>759</v>
+      </c>
+      <c r="D352" t="s">
+        <v>110</v>
+      </c>
+      <c r="E352" t="s">
+        <v>7</v>
+      </c>
+      <c r="F352" t="s">
+        <v>21</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B353" t="s">
+        <v>760</v>
+      </c>
+      <c r="C353" t="s">
+        <v>761</v>
+      </c>
+      <c r="D353" t="s">
+        <v>70</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+      <c r="F353" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B354" t="s">
+        <v>762</v>
+      </c>
+      <c r="C354" t="s">
+        <v>763</v>
+      </c>
+      <c r="D354" t="s">
+        <v>86</v>
+      </c>
+      <c r="E354" t="s">
+        <v>7</v>
+      </c>
+      <c r="F354" t="s">
+        <v>21</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B355" t="s">
+        <v>764</v>
+      </c>
+      <c r="C355" t="s">
+        <v>765</v>
+      </c>
+      <c r="D355" t="s">
+        <v>86</v>
+      </c>
+      <c r="E355" t="s">
+        <v>7</v>
+      </c>
+      <c r="F355" t="s">
+        <v>53</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B356" t="s">
+        <v>766</v>
+      </c>
+      <c r="C356" t="s">
+        <v>767</v>
+      </c>
+      <c r="D356" t="s">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>7</v>
+      </c>
+      <c r="F356" t="s">
+        <v>113</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B357" t="s">
+        <v>768</v>
+      </c>
+      <c r="C357" t="s">
+        <v>769</v>
+      </c>
+      <c r="D357" t="s">
+        <v>18</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+      <c r="F357" t="s">
+        <v>52</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B358" t="s">
+        <v>770</v>
+      </c>
+      <c r="C358" t="s">
+        <v>771</v>
+      </c>
+      <c r="D358" t="s">
+        <v>18</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358" t="s">
+        <v>21</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B359" t="s">
+        <v>772</v>
+      </c>
+      <c r="C359" t="s">
+        <v>773</v>
+      </c>
+      <c r="D359" t="s">
+        <v>60</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" t="s">
+        <v>53</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B360" t="s">
+        <v>774</v>
+      </c>
+      <c r="C360" t="s">
+        <v>775</v>
+      </c>
+      <c r="D360" t="s">
+        <v>262</v>
+      </c>
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
+      <c r="F360" t="s">
+        <v>53</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B361" t="s">
+        <v>776</v>
+      </c>
+      <c r="C361" t="s">
+        <v>777</v>
+      </c>
+      <c r="D361" t="s">
+        <v>110</v>
+      </c>
+      <c r="E361" t="s">
+        <v>7</v>
+      </c>
+      <c r="F361" t="s">
+        <v>51</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B362" t="s">
+        <v>778</v>
+      </c>
+      <c r="C362" t="s">
+        <v>779</v>
+      </c>
+      <c r="D362" t="s">
+        <v>40</v>
+      </c>
+      <c r="E362" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" t="s">
+        <v>21</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B363" t="s">
+        <v>780</v>
+      </c>
+      <c r="C363" t="s">
+        <v>781</v>
+      </c>
+      <c r="D363" t="s">
+        <v>290</v>
+      </c>
+      <c r="E363" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" t="s">
+        <v>21</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B364" t="s">
+        <v>782</v>
+      </c>
+      <c r="C364" t="s">
+        <v>783</v>
+      </c>
+      <c r="D364" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" t="s">
+        <v>52</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B365" t="s">
+        <v>784</v>
+      </c>
+      <c r="C365" t="s">
+        <v>785</v>
+      </c>
+      <c r="D365" t="s">
+        <v>60</v>
+      </c>
+      <c r="E365" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365" t="s">
+        <v>53</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B366" t="s">
+        <v>786</v>
+      </c>
+      <c r="C366" t="s">
+        <v>787</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>7</v>
+      </c>
+      <c r="F366" t="s">
+        <v>21</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B367" t="s">
+        <v>788</v>
+      </c>
+      <c r="C367" t="s">
+        <v>789</v>
+      </c>
+      <c r="D367" t="s">
+        <v>60</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+      <c r="F367" t="s">
+        <v>21</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B368" t="s">
+        <v>790</v>
+      </c>
+      <c r="C368" t="s">
+        <v>791</v>
+      </c>
+      <c r="D368" t="s">
+        <v>70</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F368" t="s">
+        <v>21</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B369" t="s">
+        <v>792</v>
+      </c>
+      <c r="C369" t="s">
+        <v>793</v>
+      </c>
+      <c r="D369" t="s">
+        <v>262</v>
+      </c>
+      <c r="E369" t="s">
+        <v>7</v>
+      </c>
+      <c r="F369" t="s">
+        <v>53</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B370" t="s">
+        <v>794</v>
+      </c>
+      <c r="C370" t="s">
+        <v>795</v>
+      </c>
+      <c r="D370" t="s">
+        <v>290</v>
+      </c>
+      <c r="E370" t="s">
+        <v>8</v>
+      </c>
+      <c r="F370" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B371" t="s">
+        <v>796</v>
+      </c>
+      <c r="C371" t="s">
+        <v>797</v>
+      </c>
+      <c r="D371" t="s">
+        <v>290</v>
+      </c>
+      <c r="E371" t="s">
+        <v>8</v>
+      </c>
+      <c r="F371" t="s">
+        <v>21</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B372" t="s">
+        <v>798</v>
+      </c>
+      <c r="C372" t="s">
+        <v>799</v>
+      </c>
+      <c r="D372" t="s">
+        <v>16</v>
+      </c>
+      <c r="E372" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372" t="s">
+        <v>51</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B373" t="s">
+        <v>800</v>
+      </c>
+      <c r="C373" t="s">
+        <v>801</v>
+      </c>
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+      <c r="F373" t="s">
+        <v>53</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B374" t="s">
+        <v>802</v>
+      </c>
+      <c r="C374" t="s">
+        <v>803</v>
+      </c>
+      <c r="D374" t="s">
+        <v>40</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+      <c r="F374" t="s">
+        <v>21</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B375" t="s">
+        <v>804</v>
+      </c>
+      <c r="C375" t="s">
+        <v>805</v>
+      </c>
+      <c r="D375" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+      <c r="F375" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B376" t="s">
+        <v>806</v>
+      </c>
+      <c r="C376" t="s">
+        <v>807</v>
+      </c>
+      <c r="D376" t="s">
+        <v>17</v>
+      </c>
+      <c r="E376" t="s">
+        <v>7</v>
+      </c>
+      <c r="F376" t="s">
+        <v>21</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B377" t="s">
+        <v>808</v>
+      </c>
+      <c r="C377" t="s">
+        <v>809</v>
+      </c>
+      <c r="D377" t="s">
+        <v>70</v>
+      </c>
+      <c r="E377" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377" t="s">
+        <v>53</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B378" t="s">
+        <v>810</v>
+      </c>
+      <c r="C378" t="s">
+        <v>811</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+      <c r="E378" t="s">
+        <v>7</v>
+      </c>
+      <c r="F378" t="s">
+        <v>21</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B379" t="s">
+        <v>812</v>
+      </c>
+      <c r="C379" t="s">
+        <v>813</v>
+      </c>
+      <c r="D379" t="s">
+        <v>70</v>
+      </c>
+      <c r="E379" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379" t="s">
+        <v>52</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B380" t="s">
+        <v>814</v>
+      </c>
+      <c r="C380" t="s">
+        <v>815</v>
+      </c>
+      <c r="D380" t="s">
+        <v>60</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" t="s">
+        <v>21</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B381" t="s">
+        <v>816</v>
+      </c>
+      <c r="C381" t="s">
+        <v>817</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" t="s">
+        <v>21</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B382" t="s">
+        <v>818</v>
+      </c>
+      <c r="C382" t="s">
+        <v>819</v>
+      </c>
+      <c r="D382" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" t="s">
+        <v>21</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B383" t="s">
+        <v>820</v>
+      </c>
+      <c r="C383" t="s">
+        <v>821</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" t="s">
+        <v>21</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B384" t="s">
+        <v>822</v>
+      </c>
+      <c r="C384" t="s">
+        <v>823</v>
+      </c>
+      <c r="D384" t="s">
+        <v>70</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" t="s">
+        <v>21</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B385" t="s">
+        <v>824</v>
+      </c>
+      <c r="C385" t="s">
+        <v>825</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" t="s">
+        <v>8</v>
+      </c>
+      <c r="F385" t="s">
+        <v>21</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B386" t="s">
+        <v>826</v>
+      </c>
+      <c r="C386" t="s">
+        <v>827</v>
+      </c>
+      <c r="D386" t="s">
+        <v>79</v>
+      </c>
+      <c r="E386" t="s">
+        <v>10</v>
+      </c>
+      <c r="F386" t="s">
+        <v>113</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B387" t="s">
+        <v>828</v>
+      </c>
+      <c r="C387" t="s">
+        <v>829</v>
+      </c>
+      <c r="D387" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387" t="s">
+        <v>53</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B388" t="s">
+        <v>830</v>
+      </c>
+      <c r="C388" t="s">
+        <v>831</v>
+      </c>
+      <c r="D388" t="s">
+        <v>9</v>
+      </c>
+      <c r="E388" t="s">
+        <v>7</v>
+      </c>
+      <c r="F388" t="s">
+        <v>21</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B389" t="s">
+        <v>832</v>
+      </c>
+      <c r="C389" t="s">
+        <v>833</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>8</v>
+      </c>
+      <c r="F389" t="s">
+        <v>21</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B390" t="s">
+        <v>834</v>
+      </c>
+      <c r="C390" t="s">
+        <v>835</v>
+      </c>
+      <c r="D390" t="s">
+        <v>86</v>
+      </c>
+      <c r="E390" t="s">
+        <v>7</v>
+      </c>
+      <c r="F390" t="s">
+        <v>21</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B391" t="s">
+        <v>836</v>
+      </c>
+      <c r="C391" t="s">
+        <v>837</v>
+      </c>
+      <c r="D391" t="s">
+        <v>16</v>
+      </c>
+      <c r="E391" t="s">
+        <v>8</v>
+      </c>
+      <c r="F391" t="s">
+        <v>51</v>
+      </c>
+      <c r="G391" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B392" t="s">
+        <v>838</v>
+      </c>
+      <c r="C392" t="s">
+        <v>839</v>
+      </c>
+      <c r="D392" t="s">
+        <v>40</v>
+      </c>
+      <c r="E392" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392" t="s">
+        <v>21</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B393" t="s">
+        <v>840</v>
+      </c>
+      <c r="C393" t="s">
+        <v>841</v>
+      </c>
+      <c r="D393" t="s">
+        <v>17</v>
+      </c>
+      <c r="E393" t="s">
+        <v>7</v>
+      </c>
+      <c r="F393" t="s">
+        <v>51</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B394" t="s">
+        <v>842</v>
+      </c>
+      <c r="C394" t="s">
+        <v>843</v>
+      </c>
+      <c r="D394" t="s">
+        <v>40</v>
+      </c>
+      <c r="E394" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" t="s">
+        <v>21</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B395" t="s">
+        <v>844</v>
+      </c>
+      <c r="C395" t="s">
+        <v>845</v>
+      </c>
+      <c r="D395" t="s">
+        <v>17</v>
+      </c>
+      <c r="E395" t="s">
+        <v>7</v>
+      </c>
+      <c r="F395" t="s">
+        <v>52</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B396" t="s">
+        <v>846</v>
+      </c>
+      <c r="C396" t="s">
+        <v>847</v>
+      </c>
+      <c r="D396" t="s">
+        <v>200</v>
+      </c>
+      <c r="E396" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" t="s">
+        <v>21</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B397" t="s">
+        <v>848</v>
+      </c>
+      <c r="C397" t="s">
+        <v>849</v>
+      </c>
+      <c r="D397" t="s">
+        <v>18</v>
+      </c>
+      <c r="E397" t="s">
+        <v>8</v>
+      </c>
+      <c r="F397" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B398" t="s">
+        <v>850</v>
+      </c>
+      <c r="C398" t="s">
+        <v>851</v>
+      </c>
+      <c r="D398" t="s">
+        <v>170</v>
+      </c>
+      <c r="E398" t="s">
+        <v>8</v>
+      </c>
+      <c r="F398" t="s">
+        <v>53</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B399" t="s">
+        <v>852</v>
+      </c>
+      <c r="C399" t="s">
+        <v>853</v>
+      </c>
+      <c r="D399" t="s">
+        <v>19</v>
+      </c>
+      <c r="E399" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399" t="s">
+        <v>53</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B400" t="s">
+        <v>854</v>
+      </c>
+      <c r="C400" t="s">
+        <v>855</v>
+      </c>
+      <c r="D400" t="s">
+        <v>18</v>
+      </c>
+      <c r="E400" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" t="s">
+        <v>21</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B401" t="s">
+        <v>856</v>
+      </c>
+      <c r="C401" t="s">
+        <v>857</v>
+      </c>
+      <c r="D401" t="s">
+        <v>262</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401" t="s">
+        <v>21</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B402" t="s">
+        <v>858</v>
+      </c>
+      <c r="C402" t="s">
+        <v>859</v>
+      </c>
+      <c r="D402" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" t="s">
+        <v>8</v>
+      </c>
+      <c r="F402" t="s">
+        <v>53</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B403" t="s">
+        <v>860</v>
+      </c>
+      <c r="C403" t="s">
+        <v>861</v>
+      </c>
+      <c r="D403" t="s">
+        <v>110</v>
+      </c>
+      <c r="E403" t="s">
+        <v>13</v>
+      </c>
+      <c r="F403" t="s">
+        <v>21</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B404" t="s">
+        <v>862</v>
+      </c>
+      <c r="C404" t="s">
+        <v>863</v>
+      </c>
+      <c r="D404" t="s">
+        <v>76</v>
+      </c>
+      <c r="E404" t="s">
+        <v>10</v>
+      </c>
+      <c r="F404" t="s">
+        <v>53</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B405" t="s">
+        <v>864</v>
+      </c>
+      <c r="C405" t="s">
+        <v>865</v>
+      </c>
+      <c r="D405" t="s">
+        <v>60</v>
+      </c>
+      <c r="E405" t="s">
+        <v>8</v>
+      </c>
+      <c r="F405" t="s">
+        <v>113</v>
+      </c>
+      <c r="G405" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B406" t="s">
+        <v>866</v>
+      </c>
+      <c r="C406" t="s">
+        <v>867</v>
+      </c>
+      <c r="D406" t="s">
+        <v>17</v>
+      </c>
+      <c r="E406" t="s">
+        <v>7</v>
+      </c>
+      <c r="F406" t="s">
+        <v>52</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B407" t="s">
+        <v>868</v>
+      </c>
+      <c r="C407" t="s">
+        <v>869</v>
+      </c>
+      <c r="D407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
+        <v>13</v>
+      </c>
+      <c r="F407" t="s">
+        <v>21</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B408" t="s">
+        <v>870</v>
+      </c>
+      <c r="C408" t="s">
+        <v>871</v>
+      </c>
+      <c r="D408" t="s">
+        <v>18</v>
+      </c>
+      <c r="E408" t="s">
+        <v>8</v>
+      </c>
+      <c r="F408" t="s">
+        <v>53</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B409" t="s">
+        <v>872</v>
+      </c>
+      <c r="C409" t="s">
+        <v>873</v>
+      </c>
+      <c r="D409" t="s">
+        <v>18</v>
+      </c>
+      <c r="E409" t="s">
+        <v>8</v>
+      </c>
+      <c r="F409" t="s">
+        <v>21</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B410" t="s">
+        <v>874</v>
+      </c>
+      <c r="C410" t="s">
+        <v>875</v>
+      </c>
+      <c r="D410" t="s">
+        <v>60</v>
+      </c>
+      <c r="E410" t="s">
+        <v>8</v>
+      </c>
+      <c r="F410" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B411" t="s">
+        <v>876</v>
+      </c>
+      <c r="C411" t="s">
+        <v>877</v>
+      </c>
+      <c r="D411" t="s">
+        <v>12</v>
+      </c>
+      <c r="E411" t="s">
+        <v>8</v>
+      </c>
+      <c r="F411" t="s">
+        <v>21</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B412" t="s">
+        <v>878</v>
+      </c>
+      <c r="C412" t="s">
+        <v>879</v>
+      </c>
+      <c r="D412" t="s">
+        <v>16</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+      <c r="F412" t="s">
+        <v>21</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B413" t="s">
+        <v>880</v>
+      </c>
+      <c r="C413" t="s">
+        <v>881</v>
+      </c>
+      <c r="D413" t="s">
+        <v>18</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413" t="s">
+        <v>21</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B414" t="s">
+        <v>882</v>
+      </c>
+      <c r="C414" t="s">
+        <v>883</v>
+      </c>
+      <c r="D414" t="s">
+        <v>18</v>
+      </c>
+      <c r="E414" t="s">
+        <v>8</v>
+      </c>
+      <c r="F414" t="s">
+        <v>21</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B415" t="s">
+        <v>884</v>
+      </c>
+      <c r="C415" t="s">
+        <v>885</v>
+      </c>
+      <c r="D415" t="s">
+        <v>18</v>
+      </c>
+      <c r="E415" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415" t="s">
+        <v>52</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B416" t="s">
+        <v>886</v>
+      </c>
+      <c r="C416" t="s">
+        <v>887</v>
+      </c>
+      <c r="D416" t="s">
+        <v>200</v>
+      </c>
+      <c r="E416" t="s">
+        <v>8</v>
+      </c>
+      <c r="F416" t="s">
+        <v>21</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B417" t="s">
+        <v>888</v>
+      </c>
+      <c r="C417" t="s">
+        <v>889</v>
+      </c>
+      <c r="D417" t="s">
+        <v>70</v>
+      </c>
+      <c r="E417" t="s">
+        <v>8</v>
+      </c>
+      <c r="F417" t="s">
+        <v>21</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B418" t="s">
+        <v>890</v>
+      </c>
+      <c r="C418" t="s">
+        <v>891</v>
+      </c>
+      <c r="D418" t="s">
+        <v>18</v>
+      </c>
+      <c r="E418" t="s">
+        <v>7</v>
+      </c>
+      <c r="F418" t="s">
+        <v>52</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B419" t="s">
+        <v>892</v>
+      </c>
+      <c r="C419" t="s">
+        <v>893</v>
+      </c>
+      <c r="D419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" t="s">
+        <v>8</v>
+      </c>
+      <c r="F419" t="s">
+        <v>52</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B420" t="s">
+        <v>894</v>
+      </c>
+      <c r="C420" t="s">
+        <v>895</v>
+      </c>
+      <c r="D420" t="s">
+        <v>211</v>
+      </c>
+      <c r="E420" t="s">
+        <v>7</v>
+      </c>
+      <c r="F420" t="s">
+        <v>53</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B421" t="s">
+        <v>896</v>
+      </c>
+      <c r="C421" t="s">
+        <v>897</v>
+      </c>
+      <c r="D421" t="s">
+        <v>898</v>
+      </c>
+      <c r="E421" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" t="s">
+        <v>53</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B422" t="s">
+        <v>899</v>
+      </c>
+      <c r="C422" t="s">
+        <v>900</v>
+      </c>
+      <c r="D422" t="s">
+        <v>16</v>
+      </c>
+      <c r="E422" t="s">
+        <v>8</v>
+      </c>
+      <c r="F422" t="s">
+        <v>21</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B423" t="s">
+        <v>901</v>
+      </c>
+      <c r="C423" t="s">
+        <v>902</v>
+      </c>
+      <c r="D423" t="s">
+        <v>11</v>
+      </c>
+      <c r="E423" t="s">
+        <v>8</v>
+      </c>
+      <c r="F423" t="s">
+        <v>21</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B424" t="s">
+        <v>903</v>
+      </c>
+      <c r="C424" t="s">
+        <v>904</v>
+      </c>
+      <c r="D424" t="s">
+        <v>70</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+      <c r="F424" t="s">
+        <v>53</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B425" t="s">
+        <v>905</v>
+      </c>
+      <c r="C425" t="s">
+        <v>906</v>
+      </c>
+      <c r="D425" t="s">
+        <v>40</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+      <c r="F425" t="s">
+        <v>21</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B426" t="s">
+        <v>907</v>
+      </c>
+      <c r="C426" t="s">
+        <v>908</v>
+      </c>
+      <c r="D426" t="s">
+        <v>11</v>
+      </c>
+      <c r="E426" t="s">
+        <v>8</v>
+      </c>
+      <c r="F426" t="s">
+        <v>21</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B427" t="s">
+        <v>909</v>
+      </c>
+      <c r="C427" t="s">
+        <v>910</v>
+      </c>
+      <c r="D427" t="s">
+        <v>16</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+      <c r="F427" t="s">
+        <v>21</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B428" t="s">
+        <v>911</v>
+      </c>
+      <c r="C428" t="s">
+        <v>912</v>
+      </c>
+      <c r="D428" t="s">
+        <v>16</v>
+      </c>
+      <c r="E428" t="s">
+        <v>8</v>
+      </c>
+      <c r="F428" t="s">
+        <v>21</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B429" t="s">
+        <v>913</v>
+      </c>
+      <c r="C429" t="s">
+        <v>914</v>
+      </c>
+      <c r="D429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429" t="s">
+        <v>8</v>
+      </c>
+      <c r="F429" t="s">
+        <v>52</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B430" t="s">
+        <v>915</v>
+      </c>
+      <c r="C430" t="s">
+        <v>916</v>
+      </c>
+      <c r="D430" t="s">
+        <v>67</v>
+      </c>
+      <c r="E430" t="s">
+        <v>10</v>
+      </c>
+      <c r="F430" t="s">
+        <v>21</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B431" t="s">
+        <v>917</v>
+      </c>
+      <c r="C431" t="s">
+        <v>918</v>
+      </c>
+      <c r="D431" t="s">
+        <v>19</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+      <c r="F431" t="s">
+        <v>21</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B432" t="s">
+        <v>919</v>
+      </c>
+      <c r="C432" t="s">
+        <v>920</v>
+      </c>
+      <c r="D432" t="s">
+        <v>262</v>
+      </c>
+      <c r="E432" t="s">
+        <v>8</v>
+      </c>
+      <c r="F432" t="s">
+        <v>21</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B433" t="s">
+        <v>921</v>
+      </c>
+      <c r="C433" t="s">
+        <v>922</v>
+      </c>
+      <c r="D433" t="s">
+        <v>60</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+      <c r="F433" t="s">
+        <v>21</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B434" t="s">
+        <v>923</v>
+      </c>
+      <c r="C434" t="s">
+        <v>924</v>
+      </c>
+      <c r="D434" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+      <c r="F434" t="s">
+        <v>21</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B435" t="s">
+        <v>925</v>
+      </c>
+      <c r="C435" t="s">
+        <v>926</v>
+      </c>
+      <c r="D435" t="s">
+        <v>170</v>
+      </c>
+      <c r="E435" t="s">
+        <v>8</v>
+      </c>
+      <c r="F435" t="s">
+        <v>21</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B436" t="s">
+        <v>927</v>
+      </c>
+      <c r="C436" t="s">
+        <v>928</v>
+      </c>
+      <c r="D436" t="s">
+        <v>152</v>
+      </c>
+      <c r="E436" t="s">
+        <v>13</v>
+      </c>
+      <c r="F436" t="s">
+        <v>21</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B437" t="s">
+        <v>929</v>
+      </c>
+      <c r="C437" t="s">
+        <v>930</v>
+      </c>
+      <c r="D437" t="s">
+        <v>200</v>
+      </c>
+      <c r="E437" t="s">
+        <v>8</v>
+      </c>
+      <c r="F437" t="s">
+        <v>21</v>
+      </c>
+      <c r="G437">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD05CA-F10E-4B45-B407-BDC3D6B62C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698F184-A08A-4D46-9509-BB95887C879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="1099">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -158,9 +158,6 @@
     <t>HOTEL E COMERCIO SOL POENTE LTDA</t>
   </si>
   <si>
-    <t xml:space="preserve">Contrato social da empresa W3 CUBE FULFILLMENT COMERCIO LOGISTICA LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
-  </si>
-  <si>
     <t>Yara Galicia de Andrade dos Santos</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
     <t>Contrato Social atualizado e registrado no orgao competente</t>
   </si>
   <si>
-    <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
-  </si>
-  <si>
     <t>38045014000102</t>
   </si>
   <si>
@@ -2838,6 +2832,510 @@
   </si>
   <si>
     <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Requerimento de Empresario, atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>INVÁLIDA</t>
+  </si>
+  <si>
+    <t>64651116000173</t>
+  </si>
+  <si>
+    <t>EDR CONSTRUCOES E MATERIAIS LTDA</t>
+  </si>
+  <si>
+    <t>02245569000142</t>
+  </si>
+  <si>
+    <t>JOSE VIEIRA DE SOUZA - TRANSPORTES</t>
+  </si>
+  <si>
+    <t>64926353000108</t>
+  </si>
+  <si>
+    <t>LIONESS PRODUCAO E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>43456674000108</t>
+  </si>
+  <si>
+    <t>V.R. TREINAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>13758350000163</t>
+  </si>
+  <si>
+    <t>R G ROMERO</t>
+  </si>
+  <si>
+    <t>27152480000162</t>
+  </si>
+  <si>
+    <t>CHAPA ONLINE CARGA E DESCARGA LTDA</t>
+  </si>
+  <si>
+    <t>27114178000110</t>
+  </si>
+  <si>
+    <t>EXATA MOVEIS PLANEJADOS LTDA</t>
+  </si>
+  <si>
+    <t>33899359000100</t>
+  </si>
+  <si>
+    <t>EDIL TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>36908433000197</t>
+  </si>
+  <si>
+    <t>CELIA METAIS LTDA</t>
+  </si>
+  <si>
+    <t>27232881000122</t>
+  </si>
+  <si>
+    <t>C Q M TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>04389865000142</t>
+  </si>
+  <si>
+    <t>JAQUELINE DE OLIVEIRA BAZAR</t>
+  </si>
+  <si>
+    <t>31356220000186</t>
+  </si>
+  <si>
+    <t>DAIANE MENEGUZI REPRESENTACOES COMERCIAIS LTDA</t>
+  </si>
+  <si>
+    <t>06967189000172</t>
+  </si>
+  <si>
+    <t>CANDIDO ASSESSORIA FINANCEIRA LTDA</t>
+  </si>
+  <si>
+    <t>10412388000191</t>
+  </si>
+  <si>
+    <t>ANALICE C. M. OLIVEIRA LTDA</t>
+  </si>
+  <si>
+    <t>14658403000137</t>
+  </si>
+  <si>
+    <t>HL TOUR LOCACAO DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>24430395000120</t>
+  </si>
+  <si>
+    <t>CHICO AUTO PECAS LTDA</t>
+  </si>
+  <si>
+    <t>20197205000116</t>
+  </si>
+  <si>
+    <t>S VENANCIO DA SILVA COSTA LTDA</t>
+  </si>
+  <si>
+    <t>02181679000198</t>
+  </si>
+  <si>
+    <t>DANTAS DE OLIVEIRA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>13047677000127</t>
+  </si>
+  <si>
+    <t>BUTEKO DO BALTAS CONCEITO LTDA</t>
+  </si>
+  <si>
+    <t>13022210000122</t>
+  </si>
+  <si>
+    <t>ACOUGUE E MERCADINHO MF LTDA</t>
+  </si>
+  <si>
+    <t>17003423000168</t>
+  </si>
+  <si>
+    <t>DEPARIS INDUSTRIA COMERCIO DE CARNES SELECIONADAS LTDA</t>
+  </si>
+  <si>
+    <t>27892861000188</t>
+  </si>
+  <si>
+    <t>ARACA INCORPORACAO IMOBILIARIA SPE LTDA</t>
+  </si>
+  <si>
+    <t>40687648000100</t>
+  </si>
+  <si>
+    <t>BAR J G LTDA</t>
+  </si>
+  <si>
+    <t>64986906000100</t>
+  </si>
+  <si>
+    <t>CSA CRIATORIO PET SHOP LTDA</t>
+  </si>
+  <si>
+    <t>49289865000109</t>
+  </si>
+  <si>
+    <t>LEYOTEX CAMA MESA BANHO E COLCHOES</t>
+  </si>
+  <si>
+    <t>06930477000152</t>
+  </si>
+  <si>
+    <t>JOSE CESAR O. DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>57523090000112</t>
+  </si>
+  <si>
+    <t>JKHB MANUNTENCAO LTDA</t>
+  </si>
+  <si>
+    <t>30126267000190</t>
+  </si>
+  <si>
+    <t>METALFER ESTRUTURA METALICA E SERRALHERIA LTDA</t>
+  </si>
+  <si>
+    <t>26042714000156</t>
+  </si>
+  <si>
+    <t>26.042.714 JUVANILDO DE JESUS SANTOS</t>
+  </si>
+  <si>
+    <t>10466295000140</t>
+  </si>
+  <si>
+    <t>JOELMA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>35939145000137</t>
+  </si>
+  <si>
+    <t>HAPPY FANTASY STORE MACAE COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>53928194000156</t>
+  </si>
+  <si>
+    <t>INSTITUTO ANJOS DA GUARDA</t>
+  </si>
+  <si>
+    <t>31405030000101</t>
+  </si>
+  <si>
+    <t>I. A. B. L. DE SALES LTDA</t>
+  </si>
+  <si>
+    <t>37983003000100</t>
+  </si>
+  <si>
+    <t>PIZZARIA DA FAMILIA BARAO LTDA</t>
+  </si>
+  <si>
+    <t>38064564000160</t>
+  </si>
+  <si>
+    <t>ROSSETTO E MYNSSEN BUFFET LTDA</t>
+  </si>
+  <si>
+    <t>13558209000117</t>
+  </si>
+  <si>
+    <t>JOAO RODRIGUES BRITO</t>
+  </si>
+  <si>
+    <t>64984770000107</t>
+  </si>
+  <si>
+    <t>BS GESTAO PATRIMONIAL LTDA</t>
+  </si>
+  <si>
+    <t>31481579000185</t>
+  </si>
+  <si>
+    <t>M G MANUTENCOES ELETRICAS LTDA</t>
+  </si>
+  <si>
+    <t>20699793000196</t>
+  </si>
+  <si>
+    <t>ESPETINHO DO MOISES LTDA</t>
+  </si>
+  <si>
+    <t>31179501000100</t>
+  </si>
+  <si>
+    <t>FRANCISCO PINTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>11717617000149</t>
+  </si>
+  <si>
+    <t>IRINEU ELIHIMAS WANDERLEY CARVALHO</t>
+  </si>
+  <si>
+    <t>32396877000130</t>
+  </si>
+  <si>
+    <t>JOSIAS FERREIRA DE LIMA JUNIOR</t>
+  </si>
+  <si>
+    <t>48079539000104</t>
+  </si>
+  <si>
+    <t>A.P.S. COBRANCAS LTDA</t>
+  </si>
+  <si>
+    <t>58738792000186</t>
+  </si>
+  <si>
+    <t>BOMBEIROS DO AMANHA - ESCOLA DE EXCELENCIA - LTDA</t>
+  </si>
+  <si>
+    <t>45393416000155</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO SANCHES JUNIOR SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>03492785000155</t>
+  </si>
+  <si>
+    <t>J. BARROSO PEREIRA</t>
+  </si>
+  <si>
+    <t>25295039000104</t>
+  </si>
+  <si>
+    <t>SJ SERVICOS CONTABEIS SOCIEDADE SIMPLES LTDA</t>
+  </si>
+  <si>
+    <t>61329825000149</t>
+  </si>
+  <si>
+    <t>CASA DE REPOUSO SILVA DUARTE LTDA</t>
+  </si>
+  <si>
+    <t>25104081000109</t>
+  </si>
+  <si>
+    <t>TIAGO CANAN SOCIEDADE UNIPESSOAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>22729306000116</t>
+  </si>
+  <si>
+    <t>NAVARRETE ADVOGADOS ASSOCIADOS</t>
+  </si>
+  <si>
+    <t>55130102000113</t>
+  </si>
+  <si>
+    <t>MANDU LADINO TECNOLOGIA INOVA SIMPLES (I.S.)</t>
+  </si>
+  <si>
+    <t>10727053000162</t>
+  </si>
+  <si>
+    <t>FGS SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>52801853000126</t>
+  </si>
+  <si>
+    <t>DROGARIA SAO JUDAS TADEU LTDA</t>
+  </si>
+  <si>
+    <t>02553029000126</t>
+  </si>
+  <si>
+    <t>FROTA DE TAXI E UBER NOSSA SENHORA APARECIDA LTDA</t>
+  </si>
+  <si>
+    <t>33897102000100</t>
+  </si>
+  <si>
+    <t>PATRICIA HELENA AZEVEDO</t>
+  </si>
+  <si>
+    <t>11408522000143</t>
+  </si>
+  <si>
+    <t>BELA VITTA CASA DE REPOUSO PARA IDOSOS LTDA</t>
+  </si>
+  <si>
+    <t>05065998000126</t>
+  </si>
+  <si>
+    <t>CR GARCIA COMERCIO DE UTILIDADES DO LAR LTDA</t>
+  </si>
+  <si>
+    <t>33564417000136</t>
+  </si>
+  <si>
+    <t>TGM CONSTRUCOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>26308311000106</t>
+  </si>
+  <si>
+    <t>NOVA YORK CAMINHOES E VANS LTDA</t>
+  </si>
+  <si>
+    <t>58921326000131</t>
+  </si>
+  <si>
+    <t>SANTOS RIBEIRO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>63122326000101</t>
+  </si>
+  <si>
+    <t>FALCON SECURITIZADORA SA</t>
+  </si>
+  <si>
+    <t>64996466000171</t>
+  </si>
+  <si>
+    <t>KA RO MODAS LTDA</t>
+  </si>
+  <si>
+    <t>55937505000179</t>
+  </si>
+  <si>
+    <t>DORMITORIO CANAA LTDA</t>
+  </si>
+  <si>
+    <t>64871991000160</t>
+  </si>
+  <si>
+    <t>ROCCA ESTUDIO CRIATIVO LTDA</t>
+  </si>
+  <si>
+    <t>37715098000173</t>
+  </si>
+  <si>
+    <t>KAZA NOVA MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>59455135000194</t>
+  </si>
+  <si>
+    <t>JEAN PAULO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>40069418000170</t>
+  </si>
+  <si>
+    <t>40.069.418 ANDREIA VALADARES TAVARES</t>
+  </si>
+  <si>
+    <t>05796217000173</t>
+  </si>
+  <si>
+    <t>05.796.217 LEONARDO PASSOS MURY</t>
+  </si>
+  <si>
+    <t>26181415000100</t>
+  </si>
+  <si>
+    <t>L J DOS SANTOS FILHO &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>12993063000175</t>
+  </si>
+  <si>
+    <t>ADRIANO JOSE LISBOA TATUI</t>
+  </si>
+  <si>
+    <t>64989266000191</t>
+  </si>
+  <si>
+    <t>H M N FERNANDES</t>
+  </si>
+  <si>
+    <t>18376349000198</t>
+  </si>
+  <si>
+    <t>COMERCIO VAREJISTA YANAH STORE LTDA</t>
+  </si>
+  <si>
+    <t>63444735000124</t>
+  </si>
+  <si>
+    <t>MECSCAN TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>60065237000182</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO FAROL DE ALEXANDRIA LTDA</t>
+  </si>
+  <si>
+    <t>63796990000136</t>
+  </si>
+  <si>
+    <t>RLM8 LTDA</t>
+  </si>
+  <si>
+    <t>49075262000104</t>
+  </si>
+  <si>
+    <t>PIZZA CONE GOULART LTDA</t>
+  </si>
+  <si>
+    <t>05251837000127</t>
+  </si>
+  <si>
+    <t>MERCOIURIS LTDA</t>
+  </si>
+  <si>
+    <t>04309627000180</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA TUCUM</t>
+  </si>
+  <si>
+    <t>43409581000122</t>
+  </si>
+  <si>
+    <t>INOVVE EVENTOS, PROMOCOES E MARKETING DIGITAL LTDA</t>
+  </si>
+  <si>
+    <t>09105739000132</t>
+  </si>
+  <si>
+    <t>HM SISTEMAS LTDA</t>
+  </si>
+  <si>
+    <t>39720870000170</t>
+  </si>
+  <si>
+    <t>V H QUEIROZ GRUCHOSKI</t>
+  </si>
+  <si>
+    <t>61877137000113</t>
+  </si>
+  <si>
+    <t>EDY CAFE LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatuto social atualizado e registrado no orgao competente&lt;br&gt;&lt;br&gt;Ata de eleicao da diretoria com mandato vigente, devidamente registrado no orgao competente </t>
+  </si>
+  <si>
+    <t>Estatuto social atualizado e registrado no orgao competente.&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Certificado de Inova simples</t>
   </si>
 </sst>
 </file>
@@ -3210,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,10 +3759,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3309,8 +3807,8 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,7 +3851,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3364,10 +3862,10 @@
         <v>46054</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3376,7 +3874,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3410,10 +3908,10 @@
         <v>46054</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -3422,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3433,10 +3931,10 @@
         <v>46055</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -3456,13 +3954,13 @@
         <v>46055</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -3502,10 +4000,10 @@
         <v>46055</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -3525,10 +4023,10 @@
         <v>46055</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -3548,19 +4046,19 @@
         <v>46055</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3571,10 +4069,10 @@
         <v>46055</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3594,13 +4092,13 @@
         <v>46055</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -3617,10 +4115,10 @@
         <v>46055</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -3640,19 +4138,19 @@
         <v>46055</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3663,13 +4161,13 @@
         <v>46055</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3686,13 +4184,13 @@
         <v>46055</v>
       </c>
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3709,13 +4207,13 @@
         <v>46055</v>
       </c>
       <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3732,10 +4230,10 @@
         <v>46055</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -3755,10 +4253,10 @@
         <v>46055</v>
       </c>
       <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -3767,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3778,13 +4276,13 @@
         <v>46055</v>
       </c>
       <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -3801,10 +4299,10 @@
         <v>46055</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -3824,10 +4322,10 @@
         <v>46055</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -3847,19 +4345,19 @@
         <v>46055</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3870,13 +4368,13 @@
         <v>46055</v>
       </c>
       <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -3893,10 +4391,10 @@
         <v>46055</v>
       </c>
       <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -3905,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3916,10 +4414,10 @@
         <v>46055</v>
       </c>
       <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -3939,10 +4437,10 @@
         <v>46055</v>
       </c>
       <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -3962,19 +4460,19 @@
         <v>46055</v>
       </c>
       <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3985,10 +4483,10 @@
         <v>46055</v>
       </c>
       <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -3997,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,10 +4503,10 @@
         <v>46055</v>
       </c>
       <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -4017,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4028,13 +4526,13 @@
         <v>46055</v>
       </c>
       <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -4051,10 +4549,10 @@
         <v>46055</v>
       </c>
       <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
         <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -4063,10 +4561,10 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4074,10 +4572,10 @@
         <v>46055</v>
       </c>
       <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -4086,7 +4584,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4097,19 +4595,19 @@
         <v>46055</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4120,10 +4618,10 @@
         <v>46055</v>
       </c>
       <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -4132,7 +4630,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4143,16 +4641,16 @@
         <v>46055</v>
       </c>
       <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
       <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
         <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -4166,13 +4664,13 @@
         <v>46055</v>
       </c>
       <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -4189,13 +4687,13 @@
         <v>46055</v>
       </c>
       <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -4212,10 +4710,10 @@
         <v>46055</v>
       </c>
       <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -4224,7 +4722,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4235,13 +4733,13 @@
         <v>46055</v>
       </c>
       <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4258,19 +4756,19 @@
         <v>46055</v>
       </c>
       <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4281,13 +4779,13 @@
         <v>46055</v>
       </c>
       <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
         <v>134</v>
       </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -4304,13 +4802,13 @@
         <v>46055</v>
       </c>
       <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -4327,13 +4825,13 @@
         <v>46055</v>
       </c>
       <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
-        <v>139</v>
-      </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -4350,10 +4848,10 @@
         <v>46055</v>
       </c>
       <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>141</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -4373,10 +4871,10 @@
         <v>46055</v>
       </c>
       <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" t="s">
-        <v>143</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -4396,13 +4894,13 @@
         <v>46055</v>
       </c>
       <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
         <v>144</v>
       </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -4419,13 +4917,13 @@
         <v>46055</v>
       </c>
       <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
         <v>146</v>
       </c>
-      <c r="C53" t="s">
-        <v>147</v>
-      </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -4442,10 +4940,10 @@
         <v>46055</v>
       </c>
       <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
         <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -4454,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4465,13 +4963,13 @@
         <v>46055</v>
       </c>
       <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
         <v>150</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>151</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -4488,10 +4986,10 @@
         <v>46055</v>
       </c>
       <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
         <v>153</v>
-      </c>
-      <c r="C56" t="s">
-        <v>154</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -4500,7 +4998,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4511,10 +5009,10 @@
         <v>46055</v>
       </c>
       <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
         <v>155</v>
-      </c>
-      <c r="C57" t="s">
-        <v>156</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -4523,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4534,10 +5032,10 @@
         <v>46055</v>
       </c>
       <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
         <v>157</v>
-      </c>
-      <c r="C58" t="s">
-        <v>158</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -4546,7 +5044,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4557,10 +5055,10 @@
         <v>46055</v>
       </c>
       <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
         <v>159</v>
-      </c>
-      <c r="C59" t="s">
-        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -4580,22 +5078,22 @@
         <v>46055</v>
       </c>
       <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>162</v>
       </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4603,13 +5101,13 @@
         <v>46055</v>
       </c>
       <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
         <v>164</v>
       </c>
-      <c r="C61" t="s">
-        <v>165</v>
-      </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -4626,10 +5124,10 @@
         <v>46055</v>
       </c>
       <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -4638,7 +5136,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4649,13 +5147,13 @@
         <v>46055</v>
       </c>
       <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
         <v>168</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>169</v>
-      </c>
-      <c r="D63" t="s">
-        <v>170</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -4672,13 +5170,13 @@
         <v>46055</v>
       </c>
       <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
         <v>171</v>
       </c>
-      <c r="C64" t="s">
-        <v>172</v>
-      </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -4695,10 +5193,10 @@
         <v>46055</v>
       </c>
       <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" t="s">
         <v>173</v>
-      </c>
-      <c r="C65" t="s">
-        <v>174</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -4707,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4718,10 +5216,10 @@
         <v>46055</v>
       </c>
       <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
         <v>175</v>
-      </c>
-      <c r="C66" t="s">
-        <v>176</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -4741,10 +5239,10 @@
         <v>46055</v>
       </c>
       <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
         <v>177</v>
-      </c>
-      <c r="C67" t="s">
-        <v>178</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -4764,10 +5262,10 @@
         <v>46055</v>
       </c>
       <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
         <v>179</v>
-      </c>
-      <c r="C68" t="s">
-        <v>180</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -4787,10 +5285,10 @@
         <v>46055</v>
       </c>
       <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
         <v>181</v>
-      </c>
-      <c r="C69" t="s">
-        <v>182</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -4810,19 +5308,19 @@
         <v>46055</v>
       </c>
       <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
         <v>183</v>
       </c>
-      <c r="C70" t="s">
-        <v>184</v>
-      </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4833,13 +5331,13 @@
         <v>46055</v>
       </c>
       <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
-        <v>186</v>
-      </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -4856,19 +5354,19 @@
         <v>46055</v>
       </c>
       <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
         <v>187</v>
       </c>
-      <c r="C72" t="s">
-        <v>188</v>
-      </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4879,19 +5377,19 @@
         <v>46055</v>
       </c>
       <c r="B73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" t="s">
         <v>189</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" t="s">
         <v>190</v>
       </c>
-      <c r="D73" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" t="s">
-        <v>191</v>
-      </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4902,13 +5400,13 @@
         <v>46055</v>
       </c>
       <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
         <v>192</v>
       </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -4925,13 +5423,13 @@
         <v>46055</v>
       </c>
       <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" t="s">
         <v>194</v>
       </c>
-      <c r="C75" t="s">
-        <v>195</v>
-      </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -4948,10 +5446,10 @@
         <v>46055</v>
       </c>
       <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" t="s">
         <v>196</v>
-      </c>
-      <c r="C76" t="s">
-        <v>197</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4971,19 +5469,19 @@
         <v>46055</v>
       </c>
       <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" t="s">
         <v>198</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>199</v>
-      </c>
-      <c r="D77" t="s">
-        <v>200</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4994,10 +5492,10 @@
         <v>46055</v>
       </c>
       <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="s">
         <v>201</v>
-      </c>
-      <c r="C78" t="s">
-        <v>202</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -5017,10 +5515,10 @@
         <v>46055</v>
       </c>
       <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s">
         <v>203</v>
-      </c>
-      <c r="C79" t="s">
-        <v>204</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -5029,7 +5527,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5040,10 +5538,10 @@
         <v>46055</v>
       </c>
       <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
         <v>205</v>
-      </c>
-      <c r="C80" t="s">
-        <v>206</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -5063,10 +5561,10 @@
         <v>46055</v>
       </c>
       <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s">
         <v>207</v>
-      </c>
-      <c r="C81" t="s">
-        <v>208</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -5075,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5086,13 +5584,13 @@
         <v>46055</v>
       </c>
       <c r="B82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" t="s">
         <v>209</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>210</v>
-      </c>
-      <c r="D82" t="s">
-        <v>211</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -5109,10 +5607,10 @@
         <v>46055</v>
       </c>
       <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
         <v>212</v>
-      </c>
-      <c r="C83" t="s">
-        <v>213</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -5132,10 +5630,10 @@
         <v>46055</v>
       </c>
       <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
         <v>214</v>
-      </c>
-      <c r="C84" t="s">
-        <v>215</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -5155,13 +5653,13 @@
         <v>46055</v>
       </c>
       <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
         <v>216</v>
       </c>
-      <c r="C85" t="s">
-        <v>217</v>
-      </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -5178,13 +5676,13 @@
         <v>46055</v>
       </c>
       <c r="B86" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" t="s">
         <v>218</v>
       </c>
-      <c r="C86" t="s">
-        <v>219</v>
-      </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -5201,13 +5699,13 @@
         <v>46055</v>
       </c>
       <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
         <v>220</v>
       </c>
-      <c r="C87" t="s">
-        <v>221</v>
-      </c>
       <c r="D87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -5224,10 +5722,10 @@
         <v>46055</v>
       </c>
       <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" t="s">
-        <v>223</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -5247,10 +5745,10 @@
         <v>46055</v>
       </c>
       <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
         <v>224</v>
-      </c>
-      <c r="C89" t="s">
-        <v>225</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -5259,7 +5757,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5270,10 +5768,10 @@
         <v>46055</v>
       </c>
       <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>227</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -5282,7 +5780,7 @@
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5293,16 +5791,16 @@
         <v>46055</v>
       </c>
       <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
         <v>228</v>
       </c>
-      <c r="C91" t="s">
-        <v>229</v>
-      </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
@@ -5316,10 +5814,10 @@
         <v>46055</v>
       </c>
       <c r="B92" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" t="s">
-        <v>231</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -5339,10 +5837,10 @@
         <v>46055</v>
       </c>
       <c r="B93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" t="s">
         <v>232</v>
-      </c>
-      <c r="C93" t="s">
-        <v>233</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -5351,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5362,13 +5860,13 @@
         <v>46055</v>
       </c>
       <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
         <v>234</v>
       </c>
-      <c r="C94" t="s">
-        <v>235</v>
-      </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -5385,10 +5883,10 @@
         <v>46055</v>
       </c>
       <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
         <v>236</v>
-      </c>
-      <c r="C95" t="s">
-        <v>237</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -5397,7 +5895,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5408,19 +5906,19 @@
         <v>46055</v>
       </c>
       <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
         <v>238</v>
       </c>
-      <c r="C96" t="s">
-        <v>239</v>
-      </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5431,19 +5929,19 @@
         <v>46055</v>
       </c>
       <c r="B97" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" t="s">
         <v>242</v>
       </c>
-      <c r="C97" t="s">
-        <v>243</v>
-      </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5454,10 +5952,10 @@
         <v>46055</v>
       </c>
       <c r="B98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
         <v>244</v>
-      </c>
-      <c r="C98" t="s">
-        <v>245</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -5477,13 +5975,13 @@
         <v>46055</v>
       </c>
       <c r="B99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" t="s">
         <v>246</v>
       </c>
-      <c r="C99" t="s">
-        <v>247</v>
-      </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -5500,13 +5998,13 @@
         <v>46055</v>
       </c>
       <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
         <v>248</v>
       </c>
-      <c r="C100" t="s">
-        <v>249</v>
-      </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -5546,10 +6044,10 @@
         <v>46056</v>
       </c>
       <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
         <v>47</v>
-      </c>
-      <c r="C102" t="s">
-        <v>48</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -5569,13 +6067,13 @@
         <v>46056</v>
       </c>
       <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
         <v>250</v>
       </c>
-      <c r="C103" t="s">
-        <v>251</v>
-      </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -5592,13 +6090,13 @@
         <v>46056</v>
       </c>
       <c r="B104" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" t="s">
         <v>252</v>
       </c>
-      <c r="C104" t="s">
-        <v>253</v>
-      </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -5615,13 +6113,13 @@
         <v>46056</v>
       </c>
       <c r="B105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" t="s">
         <v>254</v>
       </c>
-      <c r="C105" t="s">
-        <v>255</v>
-      </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -5638,13 +6136,13 @@
         <v>46056</v>
       </c>
       <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" t="s">
         <v>256</v>
       </c>
-      <c r="C106" t="s">
-        <v>257</v>
-      </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -5661,10 +6159,10 @@
         <v>46056</v>
       </c>
       <c r="B107" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" t="s">
         <v>258</v>
-      </c>
-      <c r="C107" t="s">
-        <v>259</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -5684,13 +6182,13 @@
         <v>46056</v>
       </c>
       <c r="B108" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" t="s">
         <v>260</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>261</v>
-      </c>
-      <c r="D108" t="s">
-        <v>262</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -5707,10 +6205,10 @@
         <v>46056</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -5730,10 +6228,10 @@
         <v>46056</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -5753,10 +6251,10 @@
         <v>46056</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -5776,10 +6274,10 @@
         <v>46056</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -5788,7 +6286,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5799,10 +6297,10 @@
         <v>46056</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -5811,7 +6309,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5822,13 +6320,13 @@
         <v>46056</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -5845,10 +6343,10 @@
         <v>46056</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -5857,7 +6355,7 @@
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5868,13 +6366,13 @@
         <v>46056</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -5891,10 +6389,10 @@
         <v>46056</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -5903,7 +6401,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5914,13 +6412,13 @@
         <v>46056</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -5937,10 +6435,10 @@
         <v>46056</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5960,19 +6458,19 @@
         <v>46056</v>
       </c>
       <c r="B120" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" t="s">
         <v>288</v>
       </c>
-      <c r="C120" t="s">
-        <v>289</v>
-      </c>
-      <c r="D120" t="s">
-        <v>290</v>
-      </c>
       <c r="E120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -5983,10 +6481,10 @@
         <v>46056</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
@@ -6006,13 +6504,13 @@
         <v>46056</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -6029,13 +6527,13 @@
         <v>46056</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -6052,10 +6550,10 @@
         <v>46056</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -6075,10 +6573,10 @@
         <v>46056</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -6098,10 +6596,10 @@
         <v>46056</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -6121,10 +6619,10 @@
         <v>46056</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C127" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
@@ -6144,10 +6642,10 @@
         <v>46056</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -6167,10 +6665,10 @@
         <v>46056</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
@@ -6190,13 +6688,13 @@
         <v>46056</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -6213,13 +6711,13 @@
         <v>46056</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -6236,10 +6734,10 @@
         <v>46056</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D132" t="s">
         <v>16</v>
@@ -6248,10 +6746,10 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6259,19 +6757,19 @@
         <v>46056</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6282,13 +6780,13 @@
         <v>46056</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -6305,10 +6803,10 @@
         <v>46056</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -6317,10 +6815,10 @@
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6328,10 +6826,10 @@
         <v>46056</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -6340,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6351,13 +6849,13 @@
         <v>46056</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -6374,10 +6872,10 @@
         <v>46056</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -6397,13 +6895,13 @@
         <v>46056</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C139" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -6420,10 +6918,10 @@
         <v>46056</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C140" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
@@ -6443,10 +6941,10 @@
         <v>46056</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -6466,13 +6964,13 @@
         <v>46056</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -6489,10 +6987,10 @@
         <v>46056</v>
       </c>
       <c r="B143" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
@@ -6512,10 +7010,10 @@
         <v>46056</v>
       </c>
       <c r="B144" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C144" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -6535,13 +7033,13 @@
         <v>46056</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -6558,19 +7056,19 @@
         <v>46056</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C146" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6581,19 +7079,19 @@
         <v>46056</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C147" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6604,13 +7102,13 @@
         <v>46056</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C148" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -6627,10 +7125,10 @@
         <v>46056</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C149" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -6650,19 +7148,19 @@
         <v>46056</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C150" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6673,10 +7171,10 @@
         <v>46056</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C151" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -6696,13 +7194,13 @@
         <v>46056</v>
       </c>
       <c r="B152" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -6719,10 +7217,10 @@
         <v>46056</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -6742,13 +7240,13 @@
         <v>46056</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -6765,13 +7263,13 @@
         <v>46056</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
@@ -6788,10 +7286,10 @@
         <v>46056</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -6811,10 +7309,10 @@
         <v>46056</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -6823,7 +7321,7 @@
         <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -6834,13 +7332,13 @@
         <v>46056</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -6857,10 +7355,10 @@
         <v>46056</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -6869,7 +7367,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -6880,19 +7378,19 @@
         <v>46056</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C160" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
       </c>
       <c r="F160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -6903,19 +7401,19 @@
         <v>46056</v>
       </c>
       <c r="B161" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C161" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6926,10 +7424,10 @@
         <v>46056</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C162" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -6949,10 +7447,10 @@
         <v>46056</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C163" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
@@ -6972,10 +7470,10 @@
         <v>46056</v>
       </c>
       <c r="B164" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
@@ -6984,7 +7482,7 @@
         <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -6995,10 +7493,10 @@
         <v>46056</v>
       </c>
       <c r="B165" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
@@ -7018,10 +7516,10 @@
         <v>46056</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -7030,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -7041,10 +7539,10 @@
         <v>46056</v>
       </c>
       <c r="B167" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -7053,7 +7551,7 @@
         <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7064,10 +7562,10 @@
         <v>46056</v>
       </c>
       <c r="B168" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D168" t="s">
         <v>16</v>
@@ -7087,10 +7585,10 @@
         <v>46056</v>
       </c>
       <c r="B169" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
@@ -7110,10 +7608,10 @@
         <v>46056</v>
       </c>
       <c r="B170" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D170" t="s">
         <v>24</v>
@@ -7133,10 +7631,10 @@
         <v>46056</v>
       </c>
       <c r="B171" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D171" t="s">
         <v>16</v>
@@ -7145,7 +7643,7 @@
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7156,10 +7654,10 @@
         <v>46056</v>
       </c>
       <c r="B172" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
@@ -7168,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7179,16 +7677,16 @@
         <v>46056</v>
       </c>
       <c r="B173" t="s">
+        <v>393</v>
+      </c>
+      <c r="C173" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" t="s">
         <v>395</v>
       </c>
-      <c r="C173" t="s">
-        <v>396</v>
-      </c>
-      <c r="D173" t="s">
-        <v>397</v>
-      </c>
       <c r="E173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -7202,13 +7700,13 @@
         <v>46056</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
@@ -7225,13 +7723,13 @@
         <v>46056</v>
       </c>
       <c r="B175" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
@@ -7248,10 +7746,10 @@
         <v>46056</v>
       </c>
       <c r="B176" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
@@ -7271,10 +7769,10 @@
         <v>46056</v>
       </c>
       <c r="B177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -7294,19 +7792,19 @@
         <v>46056</v>
       </c>
       <c r="B178" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -7317,10 +7815,10 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C179" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
@@ -7340,13 +7838,13 @@
         <v>46056</v>
       </c>
       <c r="B180" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -7363,13 +7861,13 @@
         <v>46056</v>
       </c>
       <c r="B181" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D181" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -7386,13 +7884,13 @@
         <v>46056</v>
       </c>
       <c r="B182" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C182" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
@@ -7409,10 +7907,10 @@
         <v>46056</v>
       </c>
       <c r="B183" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
@@ -7432,22 +7930,22 @@
         <v>46056</v>
       </c>
       <c r="B184" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
       </c>
       <c r="F184" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G184" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7455,10 +7953,10 @@
         <v>46056</v>
       </c>
       <c r="B185" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
@@ -7478,19 +7976,19 @@
         <v>46056</v>
       </c>
       <c r="B186" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C186" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -7501,13 +7999,13 @@
         <v>46056</v>
       </c>
       <c r="B187" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C187" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -7524,13 +8022,13 @@
         <v>46056</v>
       </c>
       <c r="B188" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C188" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -7547,10 +8045,10 @@
         <v>46056</v>
       </c>
       <c r="B189" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
@@ -7570,13 +8068,13 @@
         <v>46056</v>
       </c>
       <c r="B190" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D190" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -7593,10 +8091,10 @@
         <v>46056</v>
       </c>
       <c r="B191" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C191" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -7616,13 +8114,13 @@
         <v>46057</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -7639,13 +8137,13 @@
         <v>46057</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D193" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
@@ -7662,10 +8160,10 @@
         <v>46057</v>
       </c>
       <c r="B194" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C194" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
@@ -7685,10 +8183,10 @@
         <v>46057</v>
       </c>
       <c r="B195" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C195" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
@@ -7708,13 +8206,13 @@
         <v>46057</v>
       </c>
       <c r="B196" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C196" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -7731,10 +8229,10 @@
         <v>46057</v>
       </c>
       <c r="B197" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C197" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -7743,7 +8241,7 @@
         <v>7</v>
       </c>
       <c r="F197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7754,13 +8252,13 @@
         <v>46057</v>
       </c>
       <c r="B198" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C198" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -7777,13 +8275,13 @@
         <v>46057</v>
       </c>
       <c r="B199" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C199" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D199" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
@@ -7800,10 +8298,10 @@
         <v>46057</v>
       </c>
       <c r="B200" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C200" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -7812,10 +8310,10 @@
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G200" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -7823,10 +8321,10 @@
         <v>46057</v>
       </c>
       <c r="B201" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C201" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -7835,7 +8333,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7846,13 +8344,13 @@
         <v>46057</v>
       </c>
       <c r="B202" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D202" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E202" t="s">
         <v>7</v>
@@ -7869,10 +8367,10 @@
         <v>46057</v>
       </c>
       <c r="B203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C203" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -7881,10 +8379,10 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
-      </c>
-      <c r="G203" t="s">
-        <v>264</v>
+        <v>21</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7892,22 +8390,22 @@
         <v>46057</v>
       </c>
       <c r="B204" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C204" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D204" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E204" t="s">
         <v>7</v>
       </c>
       <c r="F204" t="s">
-        <v>51</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7915,13 +8413,13 @@
         <v>46057</v>
       </c>
       <c r="B205" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C205" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -7938,10 +8436,10 @@
         <v>46057</v>
       </c>
       <c r="B206" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C206" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -7950,7 +8448,7 @@
         <v>7</v>
       </c>
       <c r="F206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7961,10 +8459,10 @@
         <v>46057</v>
       </c>
       <c r="B207" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -7984,10 +8482,10 @@
         <v>46057</v>
       </c>
       <c r="B208" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C208" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D208" t="s">
         <v>14</v>
@@ -7996,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -8007,10 +8505,10 @@
         <v>46057</v>
       </c>
       <c r="B209" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C209" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -8030,10 +8528,10 @@
         <v>46057</v>
       </c>
       <c r="B210" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C210" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
@@ -8042,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -8053,19 +8551,19 @@
         <v>46057</v>
       </c>
       <c r="B211" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C211" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D211" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
       </c>
       <c r="F211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -8076,19 +8574,19 @@
         <v>46057</v>
       </c>
       <c r="B212" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C212" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D212" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E212" t="s">
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -8099,10 +8597,10 @@
         <v>46057</v>
       </c>
       <c r="B213" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C213" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
@@ -8122,10 +8620,10 @@
         <v>46057</v>
       </c>
       <c r="B214" t="s">
+        <v>239</v>
+      </c>
+      <c r="C214" t="s">
         <v>240</v>
-      </c>
-      <c r="C214" t="s">
-        <v>241</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -8134,10 +8632,10 @@
         <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="G214" t="s">
-        <v>265</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8145,10 +8643,10 @@
         <v>46057</v>
       </c>
       <c r="B215" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C215" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -8168,10 +8666,10 @@
         <v>46057</v>
       </c>
       <c r="B216" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C216" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -8191,13 +8689,13 @@
         <v>46057</v>
       </c>
       <c r="B217" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C217" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
@@ -8214,19 +8712,19 @@
         <v>46057</v>
       </c>
       <c r="B218" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C218" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D218" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8237,13 +8735,13 @@
         <v>46057</v>
       </c>
       <c r="B219" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C219" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E219" t="s">
         <v>7</v>
@@ -8260,13 +8758,13 @@
         <v>46057</v>
       </c>
       <c r="B220" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C220" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -8283,10 +8781,10 @@
         <v>46057</v>
       </c>
       <c r="B221" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C221" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
@@ -8306,10 +8804,10 @@
         <v>46057</v>
       </c>
       <c r="B222" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C222" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -8329,19 +8827,19 @@
         <v>46057</v>
       </c>
       <c r="B223" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C223" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D223" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
       </c>
       <c r="F223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8352,10 +8850,10 @@
         <v>46057</v>
       </c>
       <c r="B224" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C224" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -8364,10 +8862,10 @@
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -8375,13 +8873,13 @@
         <v>46057</v>
       </c>
       <c r="B225" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C225" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -8398,10 +8896,10 @@
         <v>46057</v>
       </c>
       <c r="B226" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C226" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
@@ -8410,7 +8908,7 @@
         <v>8</v>
       </c>
       <c r="F226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8421,13 +8919,13 @@
         <v>46057</v>
       </c>
       <c r="B227" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C227" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -8444,13 +8942,13 @@
         <v>46057</v>
       </c>
       <c r="B228" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D228" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -8467,10 +8965,10 @@
         <v>46057</v>
       </c>
       <c r="B229" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C229" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -8490,10 +8988,10 @@
         <v>46057</v>
       </c>
       <c r="B230" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C230" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -8513,10 +9011,10 @@
         <v>46057</v>
       </c>
       <c r="B231" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C231" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D231" t="s">
         <v>12</v>
@@ -8525,7 +9023,7 @@
         <v>8</v>
       </c>
       <c r="F231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -8536,10 +9034,10 @@
         <v>46057</v>
       </c>
       <c r="B232" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C232" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
@@ -8559,13 +9057,13 @@
         <v>46057</v>
       </c>
       <c r="B233" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C233" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E233" t="s">
         <v>8</v>
@@ -8582,10 +9080,10 @@
         <v>46057</v>
       </c>
       <c r="B234" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C234" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -8594,7 +9092,7 @@
         <v>7</v>
       </c>
       <c r="F234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -8605,10 +9103,10 @@
         <v>46057</v>
       </c>
       <c r="B235" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C235" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -8628,13 +9126,13 @@
         <v>46057</v>
       </c>
       <c r="B236" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C236" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D236" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -8651,10 +9149,10 @@
         <v>46057</v>
       </c>
       <c r="B237" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C237" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
@@ -8663,7 +9161,7 @@
         <v>8</v>
       </c>
       <c r="F237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -8674,10 +9172,10 @@
         <v>46057</v>
       </c>
       <c r="B238" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C238" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D238" t="s">
         <v>16</v>
@@ -8697,10 +9195,10 @@
         <v>46057</v>
       </c>
       <c r="B239" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C239" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -8720,10 +9218,10 @@
         <v>46057</v>
       </c>
       <c r="B240" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C240" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
@@ -8743,10 +9241,10 @@
         <v>46057</v>
       </c>
       <c r="B241" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C241" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -8755,10 +9253,10 @@
         <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -8766,22 +9264,22 @@
         <v>46057</v>
       </c>
       <c r="B242" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C242" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="G242" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -8789,10 +9287,10 @@
         <v>46057</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C243" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
@@ -8812,10 +9310,10 @@
         <v>46057</v>
       </c>
       <c r="B244" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C244" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -8824,7 +9322,7 @@
         <v>8</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8835,10 +9333,10 @@
         <v>46057</v>
       </c>
       <c r="B245" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C245" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -8858,10 +9356,10 @@
         <v>46057</v>
       </c>
       <c r="B246" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C246" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
@@ -8870,10 +9368,10 @@
         <v>8</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G246" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8881,10 +9379,10 @@
         <v>46057</v>
       </c>
       <c r="B247" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C247" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
@@ -8893,7 +9391,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -8904,10 +9402,10 @@
         <v>46057</v>
       </c>
       <c r="B248" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C248" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
@@ -8927,10 +9425,10 @@
         <v>46057</v>
       </c>
       <c r="B249" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C249" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -8939,7 +9437,7 @@
         <v>8</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -8950,10 +9448,10 @@
         <v>46057</v>
       </c>
       <c r="B250" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C250" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D250" t="s">
         <v>14</v>
@@ -8973,13 +9471,13 @@
         <v>46057</v>
       </c>
       <c r="B251" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D251" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -8996,19 +9494,19 @@
         <v>46057</v>
       </c>
       <c r="B252" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C252" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D252" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9019,22 +9517,22 @@
         <v>46057</v>
       </c>
       <c r="B253" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C253" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D253" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
       </c>
       <c r="F253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -9042,10 +9540,10 @@
         <v>46057</v>
       </c>
       <c r="B254" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C254" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D254" t="s">
         <v>17</v>
@@ -9065,10 +9563,10 @@
         <v>46057</v>
       </c>
       <c r="B255" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C255" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D255" t="s">
         <v>19</v>
@@ -9088,13 +9586,13 @@
         <v>46057</v>
       </c>
       <c r="B256" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C256" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
@@ -9111,19 +9609,19 @@
         <v>46057</v>
       </c>
       <c r="B257" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C257" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D257" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -9134,10 +9632,10 @@
         <v>46057</v>
       </c>
       <c r="B258" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C258" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D258" t="s">
         <v>14</v>
@@ -9157,10 +9655,10 @@
         <v>46057</v>
       </c>
       <c r="B259" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C259" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D259" t="s">
         <v>14</v>
@@ -9180,13 +9678,13 @@
         <v>46057</v>
       </c>
       <c r="B260" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C260" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
@@ -9203,19 +9701,19 @@
         <v>46057</v>
       </c>
       <c r="B261" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C261" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D261" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E261" t="s">
         <v>8</v>
       </c>
       <c r="F261" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -9226,16 +9724,16 @@
         <v>46057</v>
       </c>
       <c r="B262" t="s">
+        <v>571</v>
+      </c>
+      <c r="C262" t="s">
+        <v>572</v>
+      </c>
+      <c r="D262" t="s">
         <v>573</v>
       </c>
-      <c r="C262" t="s">
-        <v>574</v>
-      </c>
-      <c r="D262" t="s">
-        <v>575</v>
-      </c>
       <c r="E262" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F262" t="s">
         <v>21</v>
@@ -9249,13 +9747,13 @@
         <v>46057</v>
       </c>
       <c r="B263" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C263" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D263" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -9272,10 +9770,10 @@
         <v>46057</v>
       </c>
       <c r="B264" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C264" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D264" t="s">
         <v>11</v>
@@ -9295,13 +9793,13 @@
         <v>46057</v>
       </c>
       <c r="B265" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C265" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -9318,13 +9816,13 @@
         <v>46057</v>
       </c>
       <c r="B266" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C266" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D266" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E266" t="s">
         <v>13</v>
@@ -9341,16 +9839,16 @@
         <v>46057</v>
       </c>
       <c r="B267" t="s">
+        <v>582</v>
+      </c>
+      <c r="C267" t="s">
+        <v>583</v>
+      </c>
+      <c r="D267" t="s">
         <v>584</v>
       </c>
-      <c r="C267" t="s">
-        <v>585</v>
-      </c>
-      <c r="D267" t="s">
-        <v>586</v>
-      </c>
       <c r="E267" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F267" t="s">
         <v>21</v>
@@ -9364,19 +9862,19 @@
         <v>46057</v>
       </c>
       <c r="B268" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C268" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D268" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
       </c>
       <c r="F268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -9387,10 +9885,10 @@
         <v>46057</v>
       </c>
       <c r="B269" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C269" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D269" t="s">
         <v>12</v>
@@ -9410,10 +9908,10 @@
         <v>46058</v>
       </c>
       <c r="B270" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C270" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -9433,13 +9931,13 @@
         <v>46058</v>
       </c>
       <c r="B271" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C271" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D271" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
@@ -9456,10 +9954,10 @@
         <v>46058</v>
       </c>
       <c r="B272" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C272" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D272" t="s">
         <v>11</v>
@@ -9479,10 +9977,10 @@
         <v>46058</v>
       </c>
       <c r="B273" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C273" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D273" t="s">
         <v>9</v>
@@ -9502,13 +10000,13 @@
         <v>46058</v>
       </c>
       <c r="B274" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C274" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D274" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E274" t="s">
         <v>13</v>
@@ -9525,10 +10023,10 @@
         <v>46058</v>
       </c>
       <c r="B275" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C275" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D275" t="s">
         <v>19</v>
@@ -9548,10 +10046,10 @@
         <v>46058</v>
       </c>
       <c r="B276" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
@@ -9571,10 +10069,10 @@
         <v>46058</v>
       </c>
       <c r="B277" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C277" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -9594,16 +10092,16 @@
         <v>46058</v>
       </c>
       <c r="B278" t="s">
+        <v>606</v>
+      </c>
+      <c r="C278" t="s">
+        <v>607</v>
+      </c>
+      <c r="D278" t="s">
         <v>608</v>
       </c>
-      <c r="C278" t="s">
+      <c r="E278" t="s">
         <v>609</v>
-      </c>
-      <c r="D278" t="s">
-        <v>610</v>
-      </c>
-      <c r="E278" t="s">
-        <v>611</v>
       </c>
       <c r="F278" t="s">
         <v>21</v>
@@ -9617,16 +10115,16 @@
         <v>46058</v>
       </c>
       <c r="B279" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C279" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D279" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E279" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F279" t="s">
         <v>21</v>
@@ -9640,16 +10138,16 @@
         <v>46058</v>
       </c>
       <c r="B280" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C280" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D280" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E280" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F280" t="s">
         <v>21</v>
@@ -9663,13 +10161,13 @@
         <v>46058</v>
       </c>
       <c r="B281" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C281" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D281" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -9686,10 +10184,10 @@
         <v>46058</v>
       </c>
       <c r="B282" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C282" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
@@ -9709,10 +10207,10 @@
         <v>46058</v>
       </c>
       <c r="B283" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C283" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D283" t="s">
         <v>11</v>
@@ -9732,10 +10230,10 @@
         <v>46058</v>
       </c>
       <c r="B284" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C284" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
@@ -9755,13 +10253,13 @@
         <v>46058</v>
       </c>
       <c r="B285" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C285" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D285" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -9778,19 +10276,19 @@
         <v>46058</v>
       </c>
       <c r="B286" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C286" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D286" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -9801,10 +10299,10 @@
         <v>46058</v>
       </c>
       <c r="B287" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C287" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D287" t="s">
         <v>14</v>
@@ -9824,10 +10322,10 @@
         <v>46058</v>
       </c>
       <c r="B288" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C288" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -9847,10 +10345,10 @@
         <v>46058</v>
       </c>
       <c r="B289" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C289" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D289" t="s">
         <v>19</v>
@@ -9870,19 +10368,19 @@
         <v>46058</v>
       </c>
       <c r="B290" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C290" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D290" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E290" t="s">
         <v>7</v>
       </c>
       <c r="F290" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9893,10 +10391,10 @@
         <v>46058</v>
       </c>
       <c r="B291" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C291" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D291" t="s">
         <v>14</v>
@@ -9905,10 +10403,10 @@
         <v>8</v>
       </c>
       <c r="F291" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G291" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -9916,13 +10414,13 @@
         <v>46058</v>
       </c>
       <c r="B292" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C292" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D292" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
@@ -9939,10 +10437,10 @@
         <v>46058</v>
       </c>
       <c r="B293" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C293" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D293" t="s">
         <v>16</v>
@@ -9951,7 +10449,7 @@
         <v>8</v>
       </c>
       <c r="F293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -9962,10 +10460,10 @@
         <v>46058</v>
       </c>
       <c r="B294" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C294" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D294" t="s">
         <v>12</v>
@@ -9985,10 +10483,10 @@
         <v>46058</v>
       </c>
       <c r="B295" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C295" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D295" t="s">
         <v>19</v>
@@ -10008,10 +10506,10 @@
         <v>46058</v>
       </c>
       <c r="B296" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C296" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
@@ -10020,7 +10518,7 @@
         <v>7</v>
       </c>
       <c r="F296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -10031,10 +10529,10 @@
         <v>46058</v>
       </c>
       <c r="B297" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C297" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -10043,7 +10541,7 @@
         <v>13</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -10054,10 +10552,10 @@
         <v>46058</v>
       </c>
       <c r="B298" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C298" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D298" t="s">
         <v>19</v>
@@ -10066,7 +10564,7 @@
         <v>8</v>
       </c>
       <c r="F298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -10077,10 +10575,10 @@
         <v>46058</v>
       </c>
       <c r="B299" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C299" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D299" t="s">
         <v>11</v>
@@ -10100,19 +10598,19 @@
         <v>46058</v>
       </c>
       <c r="B300" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C300" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D300" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E300" t="s">
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -10123,10 +10621,10 @@
         <v>46058</v>
       </c>
       <c r="B301" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C301" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D301" t="s">
         <v>12</v>
@@ -10146,10 +10644,10 @@
         <v>46058</v>
       </c>
       <c r="B302" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C302" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D302" t="s">
         <v>16</v>
@@ -10158,7 +10656,7 @@
         <v>8</v>
       </c>
       <c r="F302" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -10169,10 +10667,10 @@
         <v>46058</v>
       </c>
       <c r="B303" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C303" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D303" t="s">
         <v>18</v>
@@ -10181,7 +10679,7 @@
         <v>8</v>
       </c>
       <c r="F303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -10192,10 +10690,10 @@
         <v>46058</v>
       </c>
       <c r="B304" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C304" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D304" t="s">
         <v>9</v>
@@ -10204,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -10215,13 +10713,13 @@
         <v>46058</v>
       </c>
       <c r="B305" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C305" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D305" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -10238,10 +10736,10 @@
         <v>46058</v>
       </c>
       <c r="B306" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C306" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
@@ -10261,10 +10759,10 @@
         <v>46058</v>
       </c>
       <c r="B307" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C307" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D307" t="s">
         <v>24</v>
@@ -10273,7 +10771,7 @@
         <v>8</v>
       </c>
       <c r="F307" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -10284,10 +10782,10 @@
         <v>46058</v>
       </c>
       <c r="B308" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C308" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
@@ -10307,10 +10805,10 @@
         <v>46058</v>
       </c>
       <c r="B309" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C309" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D309" t="s">
         <v>16</v>
@@ -10330,13 +10828,13 @@
         <v>46058</v>
       </c>
       <c r="B310" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C310" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D310" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -10353,10 +10851,10 @@
         <v>46058</v>
       </c>
       <c r="B311" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C311" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D311" t="s">
         <v>19</v>
@@ -10365,7 +10863,7 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -10376,10 +10874,10 @@
         <v>46058</v>
       </c>
       <c r="B312" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C312" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D312" t="s">
         <v>18</v>
@@ -10399,19 +10897,19 @@
         <v>46058</v>
       </c>
       <c r="B313" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C313" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D313" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
       </c>
       <c r="F313" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -10422,10 +10920,10 @@
         <v>46058</v>
       </c>
       <c r="B314" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C314" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D314" t="s">
         <v>15</v>
@@ -10445,10 +10943,10 @@
         <v>46058</v>
       </c>
       <c r="B315" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C315" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D315" t="s">
         <v>18</v>
@@ -10468,13 +10966,13 @@
         <v>46058</v>
       </c>
       <c r="B316" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C316" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D316" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E316" t="s">
         <v>13</v>
@@ -10491,10 +10989,10 @@
         <v>46058</v>
       </c>
       <c r="B317" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C317" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
@@ -10514,10 +11012,10 @@
         <v>46058</v>
       </c>
       <c r="B318" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C318" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D318" t="s">
         <v>11</v>
@@ -10537,10 +11035,10 @@
         <v>46058</v>
       </c>
       <c r="B319" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C319" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D319" t="s">
         <v>15</v>
@@ -10549,7 +11047,7 @@
         <v>8</v>
       </c>
       <c r="F319" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -10560,10 +11058,10 @@
         <v>46058</v>
       </c>
       <c r="B320" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C320" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D320" t="s">
         <v>19</v>
@@ -10583,13 +11081,13 @@
         <v>46058</v>
       </c>
       <c r="B321" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C321" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D321" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E321" t="s">
         <v>10</v>
@@ -10606,13 +11104,13 @@
         <v>46058</v>
       </c>
       <c r="B322" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C322" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D322" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -10629,13 +11127,13 @@
         <v>46058</v>
       </c>
       <c r="B323" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D323" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -10652,10 +11150,10 @@
         <v>46058</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D324" t="s">
         <v>11</v>
@@ -10675,10 +11173,10 @@
         <v>46058</v>
       </c>
       <c r="B325" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C325" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D325" t="s">
         <v>18</v>
@@ -10687,7 +11185,7 @@
         <v>8</v>
       </c>
       <c r="F325" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -10698,10 +11196,10 @@
         <v>46058</v>
       </c>
       <c r="B326" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C326" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D326" t="s">
         <v>15</v>
@@ -10710,7 +11208,7 @@
         <v>8</v>
       </c>
       <c r="F326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -10721,19 +11219,19 @@
         <v>46058</v>
       </c>
       <c r="B327" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C327" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D327" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
       </c>
       <c r="F327" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -10744,22 +11242,22 @@
         <v>46058</v>
       </c>
       <c r="B328" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C328" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D328" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
       </c>
       <c r="F328" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G328" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -10767,19 +11265,19 @@
         <v>46058</v>
       </c>
       <c r="B329" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C329" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D329" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
       </c>
       <c r="F329" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -10790,13 +11288,13 @@
         <v>46058</v>
       </c>
       <c r="B330" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C330" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D330" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -10813,10 +11311,10 @@
         <v>46058</v>
       </c>
       <c r="B331" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C331" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D331" t="s">
         <v>18</v>
@@ -10836,13 +11334,13 @@
         <v>46058</v>
       </c>
       <c r="B332" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C332" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D332" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
@@ -10859,13 +11357,13 @@
         <v>46058</v>
       </c>
       <c r="B333" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C333" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D333" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -10882,10 +11380,10 @@
         <v>46058</v>
       </c>
       <c r="B334" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C334" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D334" t="s">
         <v>15</v>
@@ -10894,7 +11392,7 @@
         <v>8</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -10905,19 +11403,19 @@
         <v>46058</v>
       </c>
       <c r="B335" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C335" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D335" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
       </c>
       <c r="F335" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G335">
         <v>0</v>
@@ -10928,10 +11426,10 @@
         <v>46059</v>
       </c>
       <c r="B336" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C336" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
@@ -10951,13 +11449,13 @@
         <v>46059</v>
       </c>
       <c r="B337" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D337" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E337" t="s">
         <v>10</v>
@@ -10974,10 +11472,10 @@
         <v>46059</v>
       </c>
       <c r="B338" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C338" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D338" t="s">
         <v>11</v>
@@ -10997,13 +11495,13 @@
         <v>46059</v>
       </c>
       <c r="B339" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C339" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D339" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -11026,7 +11524,7 @@
         <v>734</v>
       </c>
       <c r="D340" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E340" t="s">
         <v>10</v>
@@ -11049,10 +11547,10 @@
         <v>736</v>
       </c>
       <c r="D341" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F341" t="s">
         <v>21</v>
@@ -11066,19 +11564,19 @@
         <v>46059</v>
       </c>
       <c r="B342" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C342" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D342" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F342" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -11095,13 +11593,13 @@
         <v>741</v>
       </c>
       <c r="D343" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
       </c>
       <c r="F343" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -11118,7 +11616,7 @@
         <v>743</v>
       </c>
       <c r="D344" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -11141,13 +11639,13 @@
         <v>745</v>
       </c>
       <c r="D345" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
       </c>
       <c r="F345" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -11164,7 +11662,7 @@
         <v>747</v>
       </c>
       <c r="D346" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -11187,13 +11685,13 @@
         <v>749</v>
       </c>
       <c r="D347" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
       </c>
       <c r="F347" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G347">
         <v>0</v>
@@ -11210,13 +11708,13 @@
         <v>751</v>
       </c>
       <c r="D348" t="s">
-        <v>19</v>
+        <v>573</v>
       </c>
       <c r="E348" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F348" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G348">
         <v>0</v>
@@ -11233,13 +11731,13 @@
         <v>753</v>
       </c>
       <c r="D349" t="s">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="E349" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -11256,13 +11754,13 @@
         <v>755</v>
       </c>
       <c r="D350" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E350" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F350" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -11279,13 +11777,13 @@
         <v>757</v>
       </c>
       <c r="D351" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="E351" t="s">
         <v>7</v>
       </c>
       <c r="F351" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -11302,13 +11800,13 @@
         <v>759</v>
       </c>
       <c r="D352" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F352" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -11325,13 +11823,16 @@
         <v>761</v>
       </c>
       <c r="D353" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -11345,13 +11846,13 @@
         <v>763</v>
       </c>
       <c r="D354" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E354" t="s">
         <v>7</v>
       </c>
       <c r="F354" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -11368,13 +11869,13 @@
         <v>765</v>
       </c>
       <c r="D355" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E355" t="s">
         <v>7</v>
       </c>
       <c r="F355" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -11391,13 +11892,13 @@
         <v>767</v>
       </c>
       <c r="D356" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F356" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -11420,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="F357" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -11437,13 +11938,13 @@
         <v>771</v>
       </c>
       <c r="D358" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E358" t="s">
         <v>8</v>
       </c>
       <c r="F358" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -11460,13 +11961,13 @@
         <v>773</v>
       </c>
       <c r="D359" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="E359" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F359" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -11483,13 +11984,13 @@
         <v>775</v>
       </c>
       <c r="D360" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E360" t="s">
         <v>7</v>
       </c>
       <c r="F360" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G360">
         <v>0</v>
@@ -11506,13 +12007,13 @@
         <v>777</v>
       </c>
       <c r="D361" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="E361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F361" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -11529,7 +12030,7 @@
         <v>779</v>
       </c>
       <c r="D362" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
@@ -11552,13 +12053,13 @@
         <v>781</v>
       </c>
       <c r="D363" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
       </c>
       <c r="F363" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -11575,7 +12076,7 @@
         <v>783</v>
       </c>
       <c r="D364" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -11598,13 +12099,13 @@
         <v>785</v>
       </c>
       <c r="D365" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F365" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G365">
         <v>0</v>
@@ -11621,10 +12122,10 @@
         <v>787</v>
       </c>
       <c r="D366" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F366" t="s">
         <v>21</v>
@@ -11644,7 +12145,7 @@
         <v>789</v>
       </c>
       <c r="D367" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
@@ -11667,13 +12168,13 @@
         <v>791</v>
       </c>
       <c r="D368" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="E368" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F368" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -11690,16 +12191,13 @@
         <v>793</v>
       </c>
       <c r="D369" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F369" t="s">
-        <v>53</v>
-      </c>
-      <c r="G369">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -11713,13 +12211,16 @@
         <v>795</v>
       </c>
       <c r="D370" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
       </c>
       <c r="F370" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -11733,13 +12234,13 @@
         <v>797</v>
       </c>
       <c r="D371" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="E371" t="s">
         <v>8</v>
       </c>
       <c r="F371" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -11762,7 +12263,7 @@
         <v>8</v>
       </c>
       <c r="F372" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -11779,13 +12280,13 @@
         <v>801</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
       </c>
       <c r="F373" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -11802,16 +12303,13 @@
         <v>803</v>
       </c>
       <c r="D374" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
       </c>
       <c r="F374" t="s">
-        <v>21</v>
-      </c>
-      <c r="G374">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -11825,13 +12323,16 @@
         <v>805</v>
       </c>
       <c r="D375" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E375" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F375" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -11845,13 +12346,13 @@
         <v>807</v>
       </c>
       <c r="D376" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F376" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -11868,13 +12369,13 @@
         <v>809</v>
       </c>
       <c r="D377" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E377" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F377" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -11891,13 +12392,13 @@
         <v>811</v>
       </c>
       <c r="D378" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E378" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F378" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -11914,13 +12415,13 @@
         <v>813</v>
       </c>
       <c r="D379" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
       </c>
       <c r="F379" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -11937,7 +12438,7 @@
         <v>815</v>
       </c>
       <c r="D380" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -11960,7 +12461,7 @@
         <v>817</v>
       </c>
       <c r="D381" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
@@ -11983,10 +12484,10 @@
         <v>819</v>
       </c>
       <c r="D382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E382" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F382" t="s">
         <v>21</v>
@@ -12006,10 +12507,10 @@
         <v>821</v>
       </c>
       <c r="D383" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E383" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F383" t="s">
         <v>21</v>
@@ -12029,7 +12530,7 @@
         <v>823</v>
       </c>
       <c r="D384" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -12052,10 +12553,10 @@
         <v>825</v>
       </c>
       <c r="D385" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E385" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F385" t="s">
         <v>21</v>
@@ -12075,13 +12576,13 @@
         <v>827</v>
       </c>
       <c r="D386" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E386" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F386" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -12098,13 +12599,13 @@
         <v>829</v>
       </c>
       <c r="D387" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F387" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -12121,10 +12622,10 @@
         <v>831</v>
       </c>
       <c r="D388" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E388" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F388" t="s">
         <v>21</v>
@@ -12144,10 +12645,10 @@
         <v>833</v>
       </c>
       <c r="D389" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E389" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F389" t="s">
         <v>21</v>
@@ -12167,10 +12668,10 @@
         <v>835</v>
       </c>
       <c r="D390" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F390" t="s">
         <v>21</v>
@@ -12190,16 +12691,16 @@
         <v>837</v>
       </c>
       <c r="D391" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E391" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>51</v>
-      </c>
-      <c r="G391" t="s">
-        <v>264</v>
+        <v>21</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -12213,13 +12714,13 @@
         <v>839</v>
       </c>
       <c r="D392" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E392" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F392" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="G392">
         <v>0</v>
@@ -12236,13 +12737,13 @@
         <v>841</v>
       </c>
       <c r="D393" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F393" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -12259,13 +12760,13 @@
         <v>843</v>
       </c>
       <c r="D394" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F394" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -12282,13 +12783,13 @@
         <v>845</v>
       </c>
       <c r="D395" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="E395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F395" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -12305,16 +12806,13 @@
         <v>847</v>
       </c>
       <c r="D396" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E396" t="s">
         <v>8</v>
       </c>
       <c r="F396" t="s">
-        <v>21</v>
-      </c>
-      <c r="G396">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -12328,13 +12826,16 @@
         <v>849</v>
       </c>
       <c r="D397" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="E397" t="s">
         <v>8</v>
       </c>
       <c r="F397" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -12348,13 +12849,13 @@
         <v>851</v>
       </c>
       <c r="D398" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E398" t="s">
         <v>8</v>
       </c>
       <c r="F398" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G398">
         <v>0</v>
@@ -12371,13 +12872,13 @@
         <v>853</v>
       </c>
       <c r="D399" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E399" t="s">
         <v>8</v>
       </c>
       <c r="F399" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -12394,7 +12895,7 @@
         <v>855</v>
       </c>
       <c r="D400" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E400" t="s">
         <v>8</v>
@@ -12417,13 +12918,13 @@
         <v>857</v>
       </c>
       <c r="D401" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="E401" t="s">
         <v>8</v>
       </c>
       <c r="F401" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -12440,13 +12941,13 @@
         <v>859</v>
       </c>
       <c r="D402" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="E402" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F402" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -12463,13 +12964,13 @@
         <v>861</v>
       </c>
       <c r="D403" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E403" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -12486,16 +12987,16 @@
         <v>863</v>
       </c>
       <c r="D404" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E404" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F404" t="s">
-        <v>53</v>
-      </c>
-      <c r="G404">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G404" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -12509,16 +13010,16 @@
         <v>865</v>
       </c>
       <c r="D405" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F405" t="s">
-        <v>113</v>
-      </c>
-      <c r="G405" t="s">
-        <v>932</v>
+        <v>51</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -12532,13 +13033,13 @@
         <v>867</v>
       </c>
       <c r="D406" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E406" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F406" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -12555,13 +13056,13 @@
         <v>869</v>
       </c>
       <c r="D407" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E407" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F407" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -12584,7 +13085,7 @@
         <v>8</v>
       </c>
       <c r="F408" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -12601,13 +13102,13 @@
         <v>873</v>
       </c>
       <c r="D409" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
       </c>
       <c r="F409" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -12624,13 +13125,16 @@
         <v>875</v>
       </c>
       <c r="D410" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
       </c>
       <c r="F410" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -12644,7 +13148,7 @@
         <v>877</v>
       </c>
       <c r="D411" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -12667,7 +13171,7 @@
         <v>879</v>
       </c>
       <c r="D412" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -12719,7 +13223,7 @@
         <v>8</v>
       </c>
       <c r="F414" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -12736,13 +13240,13 @@
         <v>885</v>
       </c>
       <c r="D415" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
       </c>
       <c r="F415" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -12759,7 +13263,7 @@
         <v>887</v>
       </c>
       <c r="D416" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="E416" t="s">
         <v>8</v>
@@ -12782,13 +13286,13 @@
         <v>889</v>
       </c>
       <c r="D417" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E417" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F417" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -12805,13 +13309,13 @@
         <v>891</v>
       </c>
       <c r="D418" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E418" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F418" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -12828,10 +13332,10 @@
         <v>893</v>
       </c>
       <c r="D419" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="E419" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F419" t="s">
         <v>52</v>
@@ -12851,13 +13355,13 @@
         <v>895</v>
       </c>
       <c r="D420" t="s">
-        <v>211</v>
+        <v>896</v>
       </c>
       <c r="E420" t="s">
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -12868,19 +13372,19 @@
         <v>46059</v>
       </c>
       <c r="B421" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C421" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D421" t="s">
-        <v>898</v>
+        <v>16</v>
       </c>
       <c r="E421" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F421" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -12897,7 +13401,7 @@
         <v>900</v>
       </c>
       <c r="D422" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E422" t="s">
         <v>8</v>
@@ -12920,13 +13424,13 @@
         <v>902</v>
       </c>
       <c r="D423" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E423" t="s">
         <v>8</v>
       </c>
       <c r="F423" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G423">
         <v>0</v>
@@ -12943,13 +13447,13 @@
         <v>904</v>
       </c>
       <c r="D424" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E424" t="s">
         <v>8</v>
       </c>
       <c r="F424" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G424">
         <v>0</v>
@@ -12966,7 +13470,7 @@
         <v>906</v>
       </c>
       <c r="D425" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E425" t="s">
         <v>8</v>
@@ -12989,7 +13493,7 @@
         <v>908</v>
       </c>
       <c r="D426" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E426" t="s">
         <v>8</v>
@@ -13035,13 +13539,13 @@
         <v>912</v>
       </c>
       <c r="D428" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
       </c>
       <c r="F428" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G428">
         <v>0</v>
@@ -13049,7 +13553,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B429" t="s">
         <v>913</v>
@@ -13058,13 +13562,13 @@
         <v>914</v>
       </c>
       <c r="D429" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E429" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G429">
         <v>0</v>
@@ -13081,10 +13585,10 @@
         <v>916</v>
       </c>
       <c r="D430" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E430" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F430" t="s">
         <v>21</v>
@@ -13104,7 +13608,7 @@
         <v>918</v>
       </c>
       <c r="D431" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="E431" t="s">
         <v>8</v>
@@ -13127,7 +13631,7 @@
         <v>920</v>
       </c>
       <c r="D432" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="E432" t="s">
         <v>8</v>
@@ -13150,7 +13654,7 @@
         <v>922</v>
       </c>
       <c r="D433" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -13173,7 +13677,7 @@
         <v>924</v>
       </c>
       <c r="D434" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -13196,10 +13700,10 @@
         <v>926</v>
       </c>
       <c r="D435" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E435" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F435" t="s">
         <v>21</v>
@@ -13219,10 +13723,10 @@
         <v>928</v>
       </c>
       <c r="D436" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="E436" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F436" t="s">
         <v>21</v>
@@ -13236,21 +13740,1898 @@
         <v>46062</v>
       </c>
       <c r="B437" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C437" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D437" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E437" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F437" t="s">
         <v>21</v>
       </c>
       <c r="G437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B438" t="s">
+        <v>731</v>
+      </c>
+      <c r="C438" t="s">
+        <v>732</v>
+      </c>
+      <c r="D438" t="s">
+        <v>151</v>
+      </c>
+      <c r="E438" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" t="s">
+        <v>21</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B439" t="s">
+        <v>934</v>
+      </c>
+      <c r="C439" t="s">
+        <v>935</v>
+      </c>
+      <c r="D439" t="s">
+        <v>18</v>
+      </c>
+      <c r="E439" t="s">
+        <v>8</v>
+      </c>
+      <c r="F439" t="s">
+        <v>21</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B440" t="s">
+        <v>936</v>
+      </c>
+      <c r="C440" t="s">
+        <v>937</v>
+      </c>
+      <c r="D440" t="s">
+        <v>151</v>
+      </c>
+      <c r="E440" t="s">
+        <v>13</v>
+      </c>
+      <c r="F440" t="s">
+        <v>21</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B441" t="s">
+        <v>938</v>
+      </c>
+      <c r="C441" t="s">
+        <v>939</v>
+      </c>
+      <c r="D441" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+      <c r="F441" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B442" t="s">
+        <v>940</v>
+      </c>
+      <c r="C442" t="s">
+        <v>941</v>
+      </c>
+      <c r="D442" t="s">
+        <v>19</v>
+      </c>
+      <c r="E442" t="s">
+        <v>8</v>
+      </c>
+      <c r="F442" t="s">
+        <v>21</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B443" t="s">
+        <v>942</v>
+      </c>
+      <c r="C443" t="s">
+        <v>943</v>
+      </c>
+      <c r="D443" t="s">
+        <v>85</v>
+      </c>
+      <c r="E443" t="s">
+        <v>7</v>
+      </c>
+      <c r="F443" t="s">
+        <v>21</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B444" t="s">
+        <v>944</v>
+      </c>
+      <c r="C444" t="s">
+        <v>945</v>
+      </c>
+      <c r="D444" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" t="s">
+        <v>8</v>
+      </c>
+      <c r="F444" t="s">
+        <v>21</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B445" t="s">
+        <v>946</v>
+      </c>
+      <c r="C445" t="s">
+        <v>947</v>
+      </c>
+      <c r="D445" t="s">
+        <v>162</v>
+      </c>
+      <c r="E445" t="s">
+        <v>8</v>
+      </c>
+      <c r="F445" t="s">
+        <v>51</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B446" t="s">
+        <v>948</v>
+      </c>
+      <c r="C446" t="s">
+        <v>949</v>
+      </c>
+      <c r="D446" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446" t="s">
+        <v>8</v>
+      </c>
+      <c r="F446" t="s">
+        <v>21</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B447" t="s">
+        <v>950</v>
+      </c>
+      <c r="C447" t="s">
+        <v>951</v>
+      </c>
+      <c r="D447" t="s">
+        <v>18</v>
+      </c>
+      <c r="E447" t="s">
+        <v>8</v>
+      </c>
+      <c r="F447" t="s">
+        <v>51</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B448" t="s">
+        <v>952</v>
+      </c>
+      <c r="C448" t="s">
+        <v>953</v>
+      </c>
+      <c r="D448" t="s">
+        <v>72</v>
+      </c>
+      <c r="E448" t="s">
+        <v>8</v>
+      </c>
+      <c r="F448" t="s">
+        <v>21</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B449" t="s">
+        <v>954</v>
+      </c>
+      <c r="C449" t="s">
+        <v>955</v>
+      </c>
+      <c r="D449" t="s">
+        <v>261</v>
+      </c>
+      <c r="E449" t="s">
+        <v>8</v>
+      </c>
+      <c r="F449" t="s">
+        <v>51</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B450" t="s">
+        <v>956</v>
+      </c>
+      <c r="C450" t="s">
+        <v>957</v>
+      </c>
+      <c r="D450" t="s">
+        <v>72</v>
+      </c>
+      <c r="E450" t="s">
+        <v>8</v>
+      </c>
+      <c r="F450" t="s">
+        <v>21</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B451" t="s">
+        <v>958</v>
+      </c>
+      <c r="C451" t="s">
+        <v>959</v>
+      </c>
+      <c r="D451" t="s">
+        <v>11</v>
+      </c>
+      <c r="E451" t="s">
+        <v>8</v>
+      </c>
+      <c r="F451" t="s">
+        <v>21</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B452" t="s">
+        <v>960</v>
+      </c>
+      <c r="C452" t="s">
+        <v>961</v>
+      </c>
+      <c r="D452" t="s">
+        <v>18</v>
+      </c>
+      <c r="E452" t="s">
+        <v>8</v>
+      </c>
+      <c r="F452" t="s">
+        <v>21</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B453" t="s">
+        <v>962</v>
+      </c>
+      <c r="C453" t="s">
+        <v>963</v>
+      </c>
+      <c r="D453" t="s">
+        <v>75</v>
+      </c>
+      <c r="E453" t="s">
+        <v>8</v>
+      </c>
+      <c r="F453" t="s">
+        <v>50</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B454" t="s">
+        <v>964</v>
+      </c>
+      <c r="C454" t="s">
+        <v>965</v>
+      </c>
+      <c r="D454" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454" t="s">
+        <v>8</v>
+      </c>
+      <c r="F454" t="s">
+        <v>21</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B455" t="s">
+        <v>966</v>
+      </c>
+      <c r="C455" t="s">
+        <v>967</v>
+      </c>
+      <c r="D455" t="s">
+        <v>59</v>
+      </c>
+      <c r="E455" t="s">
+        <v>8</v>
+      </c>
+      <c r="F455" t="s">
+        <v>50</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B456" t="s">
+        <v>968</v>
+      </c>
+      <c r="C456" t="s">
+        <v>969</v>
+      </c>
+      <c r="D456" t="s">
+        <v>210</v>
+      </c>
+      <c r="E456" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" t="s">
+        <v>50</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B457" t="s">
+        <v>970</v>
+      </c>
+      <c r="C457" t="s">
+        <v>971</v>
+      </c>
+      <c r="D457" t="s">
+        <v>75</v>
+      </c>
+      <c r="E457" t="s">
+        <v>8</v>
+      </c>
+      <c r="F457" t="s">
+        <v>50</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B458" t="s">
+        <v>972</v>
+      </c>
+      <c r="C458" t="s">
+        <v>973</v>
+      </c>
+      <c r="D458" t="s">
+        <v>12</v>
+      </c>
+      <c r="E458" t="s">
+        <v>8</v>
+      </c>
+      <c r="F458" t="s">
+        <v>112</v>
+      </c>
+      <c r="G458" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B459" t="s">
+        <v>974</v>
+      </c>
+      <c r="C459" t="s">
+        <v>975</v>
+      </c>
+      <c r="D459" t="s">
+        <v>19</v>
+      </c>
+      <c r="E459" t="s">
+        <v>8</v>
+      </c>
+      <c r="F459" t="s">
+        <v>21</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B460" t="s">
+        <v>976</v>
+      </c>
+      <c r="C460" t="s">
+        <v>977</v>
+      </c>
+      <c r="D460" t="s">
+        <v>72</v>
+      </c>
+      <c r="E460" t="s">
+        <v>8</v>
+      </c>
+      <c r="F460" t="s">
+        <v>51</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B461" t="s">
+        <v>978</v>
+      </c>
+      <c r="C461" t="s">
+        <v>979</v>
+      </c>
+      <c r="D461" t="s">
+        <v>151</v>
+      </c>
+      <c r="E461" t="s">
+        <v>13</v>
+      </c>
+      <c r="F461" t="s">
+        <v>21</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B462" t="s">
+        <v>980</v>
+      </c>
+      <c r="C462" t="s">
+        <v>981</v>
+      </c>
+      <c r="D462" t="s">
+        <v>12</v>
+      </c>
+      <c r="E462" t="s">
+        <v>8</v>
+      </c>
+      <c r="F462" t="s">
+        <v>21</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B463" t="s">
+        <v>982</v>
+      </c>
+      <c r="C463" t="s">
+        <v>983</v>
+      </c>
+      <c r="D463" t="s">
+        <v>11</v>
+      </c>
+      <c r="E463" t="s">
+        <v>8</v>
+      </c>
+      <c r="F463" t="s">
+        <v>21</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B464" t="s">
+        <v>984</v>
+      </c>
+      <c r="C464" t="s">
+        <v>985</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="s">
+        <v>7</v>
+      </c>
+      <c r="F464" t="s">
+        <v>21</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B465" t="s">
+        <v>986</v>
+      </c>
+      <c r="C465" t="s">
+        <v>987</v>
+      </c>
+      <c r="D465" t="s">
+        <v>16</v>
+      </c>
+      <c r="E465" t="s">
+        <v>8</v>
+      </c>
+      <c r="F465" t="s">
+        <v>51</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B466" t="s">
+        <v>988</v>
+      </c>
+      <c r="C466" t="s">
+        <v>989</v>
+      </c>
+      <c r="D466" t="s">
+        <v>72</v>
+      </c>
+      <c r="E466" t="s">
+        <v>8</v>
+      </c>
+      <c r="F466" t="s">
+        <v>21</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B467" t="s">
+        <v>990</v>
+      </c>
+      <c r="C467" t="s">
+        <v>991</v>
+      </c>
+      <c r="D467" t="s">
+        <v>16</v>
+      </c>
+      <c r="E467" t="s">
+        <v>8</v>
+      </c>
+      <c r="F467" t="s">
+        <v>21</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B468" t="s">
+        <v>992</v>
+      </c>
+      <c r="C468" t="s">
+        <v>993</v>
+      </c>
+      <c r="D468" t="s">
+        <v>9</v>
+      </c>
+      <c r="E468" t="s">
+        <v>7</v>
+      </c>
+      <c r="F468" t="s">
+        <v>21</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B469" t="s">
+        <v>994</v>
+      </c>
+      <c r="C469" t="s">
+        <v>995</v>
+      </c>
+      <c r="D469" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" t="s">
+        <v>8</v>
+      </c>
+      <c r="F469" t="s">
+        <v>50</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B470" t="s">
+        <v>996</v>
+      </c>
+      <c r="C470" t="s">
+        <v>997</v>
+      </c>
+      <c r="D470" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" t="s">
+        <v>8</v>
+      </c>
+      <c r="F470" t="s">
+        <v>50</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B471" t="s">
+        <v>998</v>
+      </c>
+      <c r="C471" t="s">
+        <v>999</v>
+      </c>
+      <c r="D471" t="s">
+        <v>11</v>
+      </c>
+      <c r="E471" t="s">
+        <v>8</v>
+      </c>
+      <c r="F471" t="s">
+        <v>21</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D472" t="s">
+        <v>896</v>
+      </c>
+      <c r="E472" t="s">
+        <v>7</v>
+      </c>
+      <c r="F472" t="s">
+        <v>50</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D473" t="s">
+        <v>15</v>
+      </c>
+      <c r="E473" t="s">
+        <v>8</v>
+      </c>
+      <c r="F473" t="s">
+        <v>50</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D474" t="s">
+        <v>75</v>
+      </c>
+      <c r="E474" t="s">
+        <v>10</v>
+      </c>
+      <c r="F474" t="s">
+        <v>50</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D475" t="s">
+        <v>11</v>
+      </c>
+      <c r="E475" t="s">
+        <v>8</v>
+      </c>
+      <c r="F475" t="s">
+        <v>21</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D476" t="s">
+        <v>72</v>
+      </c>
+      <c r="E476" t="s">
+        <v>8</v>
+      </c>
+      <c r="F476" t="s">
+        <v>21</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D477" t="s">
+        <v>109</v>
+      </c>
+      <c r="E477" t="s">
+        <v>7</v>
+      </c>
+      <c r="F477" t="s">
+        <v>21</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D478" t="s">
+        <v>896</v>
+      </c>
+      <c r="E478" t="s">
+        <v>7</v>
+      </c>
+      <c r="F478" t="s">
+        <v>21</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D479" t="s">
+        <v>11</v>
+      </c>
+      <c r="E479" t="s">
+        <v>8</v>
+      </c>
+      <c r="F479" t="s">
+        <v>21</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D480" t="s">
+        <v>18</v>
+      </c>
+      <c r="E480" t="s">
+        <v>8</v>
+      </c>
+      <c r="F480" t="s">
+        <v>21</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D481" t="s">
+        <v>85</v>
+      </c>
+      <c r="E481" t="s">
+        <v>7</v>
+      </c>
+      <c r="F481" t="s">
+        <v>21</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D482" t="s">
+        <v>19</v>
+      </c>
+      <c r="E482" t="s">
+        <v>8</v>
+      </c>
+      <c r="F482" t="s">
+        <v>21</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D483" t="s">
+        <v>19</v>
+      </c>
+      <c r="E483" t="s">
+        <v>8</v>
+      </c>
+      <c r="F483" t="s">
+        <v>21</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D484" t="s">
+        <v>16</v>
+      </c>
+      <c r="E484" t="s">
+        <v>8</v>
+      </c>
+      <c r="F484" t="s">
+        <v>21</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D485" t="s">
+        <v>16</v>
+      </c>
+      <c r="E485" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485" t="s">
+        <v>50</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D486" t="s">
+        <v>18</v>
+      </c>
+      <c r="E486" t="s">
+        <v>8</v>
+      </c>
+      <c r="F486" t="s">
+        <v>21</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D487" t="s">
+        <v>261</v>
+      </c>
+      <c r="E487" t="s">
+        <v>8</v>
+      </c>
+      <c r="F487" t="s">
+        <v>21</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D488" t="s">
+        <v>9</v>
+      </c>
+      <c r="E488" t="s">
+        <v>7</v>
+      </c>
+      <c r="F488" t="s">
+        <v>112</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D489" t="s">
+        <v>9</v>
+      </c>
+      <c r="E489" t="s">
+        <v>7</v>
+      </c>
+      <c r="F489" t="s">
+        <v>50</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D490" t="s">
+        <v>16</v>
+      </c>
+      <c r="E490" t="s">
+        <v>8</v>
+      </c>
+      <c r="F490" t="s">
+        <v>51</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D491" t="s">
+        <v>72</v>
+      </c>
+      <c r="E491" t="s">
+        <v>8</v>
+      </c>
+      <c r="F491" t="s">
+        <v>51</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D492" t="s">
+        <v>11</v>
+      </c>
+      <c r="E492" t="s">
+        <v>8</v>
+      </c>
+      <c r="F492" t="s">
+        <v>21</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D493" t="s">
+        <v>199</v>
+      </c>
+      <c r="E493" t="s">
+        <v>118</v>
+      </c>
+      <c r="F493" t="s">
+        <v>50</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D494" t="s">
+        <v>109</v>
+      </c>
+      <c r="E494" t="s">
+        <v>13</v>
+      </c>
+      <c r="F494" t="s">
+        <v>21</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D495" t="s">
+        <v>39</v>
+      </c>
+      <c r="E495" t="s">
+        <v>8</v>
+      </c>
+      <c r="F495" t="s">
+        <v>21</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D496" t="s">
+        <v>18</v>
+      </c>
+      <c r="E496" t="s">
+        <v>8</v>
+      </c>
+      <c r="F496" t="s">
+        <v>21</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D497" t="s">
+        <v>12</v>
+      </c>
+      <c r="E497" t="s">
+        <v>8</v>
+      </c>
+      <c r="F497" t="s">
+        <v>21</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D498" t="s">
+        <v>75</v>
+      </c>
+      <c r="E498" t="s">
+        <v>10</v>
+      </c>
+      <c r="F498" t="s">
+        <v>51</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D499" t="s">
+        <v>75</v>
+      </c>
+      <c r="E499" t="s">
+        <v>10</v>
+      </c>
+      <c r="F499" t="s">
+        <v>50</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D500" t="s">
+        <v>261</v>
+      </c>
+      <c r="E500" t="s">
+        <v>8</v>
+      </c>
+      <c r="F500" t="s">
+        <v>50</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D501" t="s">
+        <v>66</v>
+      </c>
+      <c r="E501" t="s">
+        <v>10</v>
+      </c>
+      <c r="F501" t="s">
+        <v>21</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D502" t="s">
+        <v>19</v>
+      </c>
+      <c r="E502" t="s">
+        <v>8</v>
+      </c>
+      <c r="F502" t="s">
+        <v>50</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D503" t="s">
+        <v>11</v>
+      </c>
+      <c r="E503" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503" t="s">
+        <v>21</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D504" t="s">
+        <v>16</v>
+      </c>
+      <c r="E504" t="s">
+        <v>8</v>
+      </c>
+      <c r="F504" t="s">
+        <v>21</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D505" t="s">
+        <v>11</v>
+      </c>
+      <c r="E505" t="s">
+        <v>8</v>
+      </c>
+      <c r="F505" t="s">
+        <v>21</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D506" t="s">
+        <v>261</v>
+      </c>
+      <c r="E506" t="s">
+        <v>8</v>
+      </c>
+      <c r="F506" t="s">
+        <v>21</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D507" t="s">
+        <v>18</v>
+      </c>
+      <c r="E507" t="s">
+        <v>8</v>
+      </c>
+      <c r="F507" t="s">
+        <v>21</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D508" t="s">
+        <v>151</v>
+      </c>
+      <c r="E508" t="s">
+        <v>13</v>
+      </c>
+      <c r="F508" t="s">
+        <v>21</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D509" t="s">
+        <v>18</v>
+      </c>
+      <c r="E509" t="s">
+        <v>8</v>
+      </c>
+      <c r="F509" t="s">
+        <v>50</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D510" t="s">
+        <v>66</v>
+      </c>
+      <c r="E510" t="s">
+        <v>10</v>
+      </c>
+      <c r="F510" t="s">
+        <v>50</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D511" t="s">
+        <v>85</v>
+      </c>
+      <c r="E511" t="s">
+        <v>7</v>
+      </c>
+      <c r="F511" t="s">
+        <v>50</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D512" t="s">
+        <v>66</v>
+      </c>
+      <c r="E512" t="s">
+        <v>10</v>
+      </c>
+      <c r="F512" t="s">
+        <v>21</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D513" t="s">
+        <v>11</v>
+      </c>
+      <c r="E513" t="s">
+        <v>8</v>
+      </c>
+      <c r="F513" t="s">
+        <v>50</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D514" t="s">
+        <v>19</v>
+      </c>
+      <c r="E514" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514" t="s">
+        <v>50</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D515" t="s">
+        <v>12</v>
+      </c>
+      <c r="E515" t="s">
+        <v>8</v>
+      </c>
+      <c r="F515" t="s">
+        <v>112</v>
+      </c>
+      <c r="G515" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D516" t="s">
+        <v>18</v>
+      </c>
+      <c r="E516" t="s">
+        <v>8</v>
+      </c>
+      <c r="F516" t="s">
+        <v>21</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F517" t="s">
+        <v>21</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D518" t="s">
+        <v>18</v>
+      </c>
+      <c r="E518" t="s">
+        <v>8</v>
+      </c>
+      <c r="F518" t="s">
+        <v>21</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D519" t="s">
+        <v>11</v>
+      </c>
+      <c r="E519" t="s">
+        <v>7</v>
+      </c>
+      <c r="F519" t="s">
+        <v>21</v>
+      </c>
+      <c r="G519">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29808"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698F184-A08A-4D46-9509-BB95887C879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807D919-A0A9-47CB-A06B-2535C7BEC2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1227">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -3336,6 +3336,390 @@
   </si>
   <si>
     <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Certificado de Inova simples</t>
+  </si>
+  <si>
+    <t>63438186000185</t>
+  </si>
+  <si>
+    <t>J&amp;V STORE LTDA</t>
+  </si>
+  <si>
+    <t>54665244000112</t>
+  </si>
+  <si>
+    <t>TRANSPORTE CRISTINA LTDA</t>
+  </si>
+  <si>
+    <t>11233505000112</t>
+  </si>
+  <si>
+    <t>ROSY ESTEVES ENCARNACAO LTDA</t>
+  </si>
+  <si>
+    <t>22736165000169</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS AVELINO PEREIRA DE BARROS</t>
+  </si>
+  <si>
+    <t>39145774000146</t>
+  </si>
+  <si>
+    <t>QUALITY CONSTRUCOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>14779669000138</t>
+  </si>
+  <si>
+    <t>AMAZON GEOGRAPHIC HOTEIS E TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>25333086000103</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA PADRE DA SILVA SOUSA 08611199405</t>
+  </si>
+  <si>
+    <t>14972560000112</t>
+  </si>
+  <si>
+    <t>KM JEANS CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>33988761000152</t>
+  </si>
+  <si>
+    <t>FILIPE ROSA DA SILVA ENERGIA SOLAR</t>
+  </si>
+  <si>
+    <t>44131714000104</t>
+  </si>
+  <si>
+    <t>PARK INTERATIVO EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64972929000165</t>
+  </si>
+  <si>
+    <t>BRASIL &amp; USA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>50698537000145</t>
+  </si>
+  <si>
+    <t>SERVICO DE INSPECAO VEICULAR KM 32 LTDA</t>
+  </si>
+  <si>
+    <t>64854886000113</t>
+  </si>
+  <si>
+    <t>GLL SOLUCOES CONTABEIS LTDA</t>
+  </si>
+  <si>
+    <t>57801824000188</t>
+  </si>
+  <si>
+    <t>ISA RANGEL COMERCIO VAREJISTA DE ROUPAS LTDA</t>
+  </si>
+  <si>
+    <t>58419682000151</t>
+  </si>
+  <si>
+    <t>MASTER EM CONSORCIOS LTDA</t>
+  </si>
+  <si>
+    <t>64813988000190</t>
+  </si>
+  <si>
+    <t>GMDC CONSULTORIA AMBIENTAL LTDA</t>
+  </si>
+  <si>
+    <t>15815893000109</t>
+  </si>
+  <si>
+    <t>MARCENARIA AMAZONAS LIMITADA</t>
+  </si>
+  <si>
+    <t>09308808000105</t>
+  </si>
+  <si>
+    <t>DIAS E LIRA LTDA</t>
+  </si>
+  <si>
+    <t>28288285000127</t>
+  </si>
+  <si>
+    <t>CONSTRUVILLE ENGENHARIA E CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>64923951000115</t>
+  </si>
+  <si>
+    <t>CARRO CERTO VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>64904270000100</t>
+  </si>
+  <si>
+    <t>DANIEL BARBOSA TERRA LTDA</t>
+  </si>
+  <si>
+    <t>Ana Carla Ferreira Fellippini</t>
+  </si>
+  <si>
+    <t>38949358000138</t>
+  </si>
+  <si>
+    <t>FORMULA USINAGEM LTDA</t>
+  </si>
+  <si>
+    <t>43689760000160</t>
+  </si>
+  <si>
+    <t>POWER TECH GMC LTDA</t>
+  </si>
+  <si>
+    <t>60748069000120</t>
+  </si>
+  <si>
+    <t>EDY FABRICACAO E MONTAGENS LTDA</t>
+  </si>
+  <si>
+    <t>58970777000169</t>
+  </si>
+  <si>
+    <t>WELISON CASTIONI FERREIRA</t>
+  </si>
+  <si>
+    <t>Ana Clara Sabio de Souza</t>
+  </si>
+  <si>
+    <t>31245109000112</t>
+  </si>
+  <si>
+    <t>TAISA MIRELA MESSIAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>40129863000188</t>
+  </si>
+  <si>
+    <t>GILSTON DE PAULA</t>
+  </si>
+  <si>
+    <t>64753679000172</t>
+  </si>
+  <si>
+    <t>TATIANA FREIRE SERVICOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>64863917000100</t>
+  </si>
+  <si>
+    <t>NALDO REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>Ana Laura Rodrigues da Silva</t>
+  </si>
+  <si>
+    <t>52102556000192</t>
+  </si>
+  <si>
+    <t>MONTA RJ - MONTAGENS INDUSTRIAIS LTDA</t>
+  </si>
+  <si>
+    <t>64980093000140</t>
+  </si>
+  <si>
+    <t>BOM - SERVICOS MEDICOS DE APOIO A SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>47142388000129</t>
+  </si>
+  <si>
+    <t>MIRIAN BARBOSA DA SILVA</t>
+  </si>
+  <si>
+    <t>08491873000156</t>
+  </si>
+  <si>
+    <t>TAKAMORI GESTAO EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>49629584000158</t>
+  </si>
+  <si>
+    <t>MAAF CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>39604808000113</t>
+  </si>
+  <si>
+    <t>PRESENZA CAR AUTO CENTER LTDA</t>
+  </si>
+  <si>
+    <t>46545911000103</t>
+  </si>
+  <si>
+    <t>POUSADA BRASIL TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>26337655000143</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO MUSSI DE SOUZA &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>TPG</t>
+  </si>
+  <si>
+    <t>18222665000105</t>
+  </si>
+  <si>
+    <t>MADEREIRA ALIANCA LTDA</t>
+  </si>
+  <si>
+    <t>13461347000183</t>
+  </si>
+  <si>
+    <t>LUAU PRODUCOES E EVENTOS LIMITADA</t>
+  </si>
+  <si>
+    <t>57505002000150</t>
+  </si>
+  <si>
+    <t>57.505.002 JOSELI VIEIRA DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>65000115000121</t>
+  </si>
+  <si>
+    <t>B&amp;R IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>40095178000188</t>
+  </si>
+  <si>
+    <t>BARBER HAUSS BARBEARIA LTDA</t>
+  </si>
+  <si>
+    <t>64289840000107</t>
+  </si>
+  <si>
+    <t>NP REPRESENTACOES COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>52889231000100</t>
+  </si>
+  <si>
+    <t>SS ROCHA ASSESSORIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>64986006000162</t>
+  </si>
+  <si>
+    <t>POUSADA E KIOSQUE DAG E JULIO LTDA</t>
+  </si>
+  <si>
+    <t>60813940000121</t>
+  </si>
+  <si>
+    <t>ITAVERAVA TRANSPORTES</t>
+  </si>
+  <si>
+    <t>41414527000140</t>
+  </si>
+  <si>
+    <t>VANESSA BARBOSA CHIOVETTI MORAES CONSULTORIO ODONTOLOGICO LTDA</t>
+  </si>
+  <si>
+    <t>39964872000105</t>
+  </si>
+  <si>
+    <t>39.964.872 NATALIA FAUSTO DINIZ MARTINS</t>
+  </si>
+  <si>
+    <t>62360809000181</t>
+  </si>
+  <si>
+    <t>INSTITUTO TEMPO DE CUIDAR CARETIME LTDA</t>
+  </si>
+  <si>
+    <t>62411121000183</t>
+  </si>
+  <si>
+    <t>K&amp;G AUTOMACAO INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>64805962000109</t>
+  </si>
+  <si>
+    <t>MV VIDROS LTDA</t>
+  </si>
+  <si>
+    <t>11812991000123</t>
+  </si>
+  <si>
+    <t>MAQJOB LOCACAO DE MAQUINAS LTDA</t>
+  </si>
+  <si>
+    <t>60612366000143</t>
+  </si>
+  <si>
+    <t>EMINENTES FORMATURAS LTDA</t>
+  </si>
+  <si>
+    <t>34667260000137</t>
+  </si>
+  <si>
+    <t>LOPES BAR E LANCHONETE LTDA</t>
+  </si>
+  <si>
+    <t>20667781000180</t>
+  </si>
+  <si>
+    <t>ANDREIA MARIA PIMENTEL</t>
+  </si>
+  <si>
+    <t>37129220000120</t>
+  </si>
+  <si>
+    <t>O S J CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>64990822000140</t>
+  </si>
+  <si>
+    <t>JARDEL SANTANA LTDA</t>
+  </si>
+  <si>
+    <t>15811504000169</t>
+  </si>
+  <si>
+    <t>TATIANE KELEN TEBAR</t>
+  </si>
+  <si>
+    <t>44961087000139</t>
+  </si>
+  <si>
+    <t>GRUPO NOVA ERA COMERCIO DE AUTOMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>63835109000169</t>
+  </si>
+  <si>
+    <t>E M T COMERCIO DE MAQUINAS E SERVICE AMBIENTAIS LTDA</t>
+  </si>
+  <si>
+    <t>35196665000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAGO JUNIO ALVES DA SILVA </t>
+  </si>
+  <si>
+    <t>50217786000171</t>
+  </si>
+  <si>
+    <t>PRIME SERVICE ASSEIO E CONSERVACAO LTDA</t>
   </si>
 </sst>
 </file>
@@ -3708,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5481,7 +5865,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6746,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>440</v>
@@ -7390,7 +7774,7 @@
         <v>8</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -9253,10 +9637,10 @@
         <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
-      </c>
-      <c r="G241" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -11185,7 +11569,7 @@
         <v>8</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -13846,6 +14230,9 @@
       <c r="F441" t="s">
         <v>21</v>
       </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
@@ -14117,7 +14504,7 @@
         <v>8</v>
       </c>
       <c r="F453" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -14163,7 +14550,7 @@
         <v>8</v>
       </c>
       <c r="F455" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -14186,7 +14573,7 @@
         <v>7</v>
       </c>
       <c r="F456" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -14209,7 +14596,7 @@
         <v>8</v>
       </c>
       <c r="F457" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -14485,7 +14872,7 @@
         <v>8</v>
       </c>
       <c r="F469" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -14508,7 +14895,7 @@
         <v>8</v>
       </c>
       <c r="F470" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -14554,7 +14941,7 @@
         <v>7</v>
       </c>
       <c r="F472" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -14577,7 +14964,7 @@
         <v>8</v>
       </c>
       <c r="F473" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G473">
         <v>0</v>
@@ -14600,7 +14987,7 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -14853,7 +15240,7 @@
         <v>8</v>
       </c>
       <c r="F485" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -14945,7 +15332,7 @@
         <v>7</v>
       </c>
       <c r="F489" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -15037,7 +15424,7 @@
         <v>118</v>
       </c>
       <c r="F493" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -15175,7 +15562,7 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -15244,7 +15631,7 @@
         <v>8</v>
       </c>
       <c r="F502" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G502">
         <v>0</v>
@@ -15405,7 +15792,7 @@
         <v>8</v>
       </c>
       <c r="F509" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -15451,7 +15838,7 @@
         <v>7</v>
       </c>
       <c r="F511" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -15497,7 +15884,7 @@
         <v>8</v>
       </c>
       <c r="F513" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -15520,7 +15907,7 @@
         <v>8</v>
       </c>
       <c r="F514" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G514">
         <v>0</v>
@@ -15582,6 +15969,12 @@
       <c r="C517" t="s">
         <v>1091</v>
       </c>
+      <c r="D517" t="s">
+        <v>59</v>
+      </c>
+      <c r="E517" t="s">
+        <v>8</v>
+      </c>
       <c r="F517" t="s">
         <v>21</v>
       </c>
@@ -15632,6 +16025,1429 @@
         <v>21</v>
       </c>
       <c r="G519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D520" t="s">
+        <v>24</v>
+      </c>
+      <c r="E520" t="s">
+        <v>8</v>
+      </c>
+      <c r="F520" t="s">
+        <v>21</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D521" t="s">
+        <v>18</v>
+      </c>
+      <c r="E521" t="s">
+        <v>8</v>
+      </c>
+      <c r="F521" t="s">
+        <v>50</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D522" t="s">
+        <v>210</v>
+      </c>
+      <c r="E522" t="s">
+        <v>7</v>
+      </c>
+      <c r="F522" t="s">
+        <v>21</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D523" t="s">
+        <v>261</v>
+      </c>
+      <c r="E523" t="s">
+        <v>8</v>
+      </c>
+      <c r="F523" t="s">
+        <v>50</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D524" t="s">
+        <v>19</v>
+      </c>
+      <c r="E524" t="s">
+        <v>8</v>
+      </c>
+      <c r="F524" t="s">
+        <v>50</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D525" t="s">
+        <v>9</v>
+      </c>
+      <c r="E525" t="s">
+        <v>7</v>
+      </c>
+      <c r="F525" t="s">
+        <v>50</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D526" t="s">
+        <v>17</v>
+      </c>
+      <c r="E526" t="s">
+        <v>7</v>
+      </c>
+      <c r="F526" t="s">
+        <v>21</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D527" t="s">
+        <v>12</v>
+      </c>
+      <c r="E527" t="s">
+        <v>7</v>
+      </c>
+      <c r="F527" t="s">
+        <v>50</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D528" t="s">
+        <v>896</v>
+      </c>
+      <c r="E528" t="s">
+        <v>7</v>
+      </c>
+      <c r="F528" t="s">
+        <v>21</v>
+      </c>
+      <c r="G528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D529" t="s">
+        <v>85</v>
+      </c>
+      <c r="E529" t="s">
+        <v>7</v>
+      </c>
+      <c r="F529" t="s">
+        <v>21</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D530" t="s">
+        <v>162</v>
+      </c>
+      <c r="E530" t="s">
+        <v>10</v>
+      </c>
+      <c r="F530" t="s">
+        <v>21</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D531" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" t="s">
+        <v>7</v>
+      </c>
+      <c r="F531" t="s">
+        <v>50</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D532" t="s">
+        <v>19</v>
+      </c>
+      <c r="E532" t="s">
+        <v>7</v>
+      </c>
+      <c r="F532" t="s">
+        <v>50</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D533" t="s">
+        <v>16</v>
+      </c>
+      <c r="E533" t="s">
+        <v>8</v>
+      </c>
+      <c r="F533" t="s">
+        <v>112</v>
+      </c>
+      <c r="G533" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D534" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534" t="s">
+        <v>8</v>
+      </c>
+      <c r="F534" t="s">
+        <v>21</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D535" t="s">
+        <v>75</v>
+      </c>
+      <c r="E535" t="s">
+        <v>10</v>
+      </c>
+      <c r="F535" t="s">
+        <v>50</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D536" t="s">
+        <v>16</v>
+      </c>
+      <c r="E536" t="s">
+        <v>8</v>
+      </c>
+      <c r="F536" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D537" t="s">
+        <v>261</v>
+      </c>
+      <c r="E537" t="s">
+        <v>8</v>
+      </c>
+      <c r="F537" t="s">
+        <v>21</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D538" t="s">
+        <v>11</v>
+      </c>
+      <c r="E538" t="s">
+        <v>8</v>
+      </c>
+      <c r="F538" t="s">
+        <v>51</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D539" t="s">
+        <v>66</v>
+      </c>
+      <c r="E539" t="s">
+        <v>190</v>
+      </c>
+      <c r="F539" t="s">
+        <v>21</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E540" t="s">
+        <v>10</v>
+      </c>
+      <c r="F540" t="s">
+        <v>21</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D541" t="s">
+        <v>11</v>
+      </c>
+      <c r="E541" t="s">
+        <v>8</v>
+      </c>
+      <c r="F541" t="s">
+        <v>50</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D542" t="s">
+        <v>59</v>
+      </c>
+      <c r="E542" t="s">
+        <v>8</v>
+      </c>
+      <c r="F542" t="s">
+        <v>50</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D543" t="s">
+        <v>11</v>
+      </c>
+      <c r="E543" t="s">
+        <v>8</v>
+      </c>
+      <c r="F543" t="s">
+        <v>21</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E544" t="s">
+        <v>7</v>
+      </c>
+      <c r="F544" t="s">
+        <v>21</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D545" t="s">
+        <v>261</v>
+      </c>
+      <c r="E545" t="s">
+        <v>8</v>
+      </c>
+      <c r="F545" t="s">
+        <v>51</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D546" t="s">
+        <v>16</v>
+      </c>
+      <c r="E546" t="s">
+        <v>8</v>
+      </c>
+      <c r="F546" t="s">
+        <v>21</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D547" t="s">
+        <v>18</v>
+      </c>
+      <c r="E547" t="s">
+        <v>8</v>
+      </c>
+      <c r="F547" t="s">
+        <v>21</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E548" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548" t="s">
+        <v>21</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D549" t="s">
+        <v>9</v>
+      </c>
+      <c r="E549" t="s">
+        <v>8</v>
+      </c>
+      <c r="F549" t="s">
+        <v>50</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D550" t="s">
+        <v>75</v>
+      </c>
+      <c r="E550" t="s">
+        <v>10</v>
+      </c>
+      <c r="F550" t="s">
+        <v>50</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D551" t="s">
+        <v>9</v>
+      </c>
+      <c r="E551" t="s">
+        <v>8</v>
+      </c>
+      <c r="F551" t="s">
+        <v>21</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D552" t="s">
+        <v>19</v>
+      </c>
+      <c r="E552" t="s">
+        <v>7</v>
+      </c>
+      <c r="F552" t="s">
+        <v>21</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D553" t="s">
+        <v>162</v>
+      </c>
+      <c r="E553" t="s">
+        <v>8</v>
+      </c>
+      <c r="F553" t="s">
+        <v>21</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D554" t="s">
+        <v>72</v>
+      </c>
+      <c r="E554" t="s">
+        <v>8</v>
+      </c>
+      <c r="F554" t="s">
+        <v>21</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D555" t="s">
+        <v>15</v>
+      </c>
+      <c r="E555" t="s">
+        <v>8</v>
+      </c>
+      <c r="F555" t="s">
+        <v>21</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D556" t="s">
+        <v>261</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F556" t="s">
+        <v>51</v>
+      </c>
+      <c r="G556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D557" t="s">
+        <v>11</v>
+      </c>
+      <c r="E557" t="s">
+        <v>8</v>
+      </c>
+      <c r="F557" t="s">
+        <v>21</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D558" t="s">
+        <v>210</v>
+      </c>
+      <c r="E558" t="s">
+        <v>7</v>
+      </c>
+      <c r="F558" t="s">
+        <v>50</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D559" t="s">
+        <v>261</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F559" t="s">
+        <v>21</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D560" t="s">
+        <v>75</v>
+      </c>
+      <c r="E560" t="s">
+        <v>10</v>
+      </c>
+      <c r="F560" t="s">
+        <v>50</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D561" t="s">
+        <v>151</v>
+      </c>
+      <c r="E561" t="s">
+        <v>8</v>
+      </c>
+      <c r="F561" t="s">
+        <v>21</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D562" t="s">
+        <v>39</v>
+      </c>
+      <c r="E562" t="s">
+        <v>8</v>
+      </c>
+      <c r="F562" t="s">
+        <v>21</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D563" t="s">
+        <v>199</v>
+      </c>
+      <c r="E563" t="s">
+        <v>8</v>
+      </c>
+      <c r="F563" t="s">
+        <v>21</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D564" t="s">
+        <v>162</v>
+      </c>
+      <c r="E564" t="s">
+        <v>10</v>
+      </c>
+      <c r="F564" t="s">
+        <v>50</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D565" t="s">
+        <v>39</v>
+      </c>
+      <c r="E565" t="s">
+        <v>8</v>
+      </c>
+      <c r="F565" t="s">
+        <v>21</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D566" t="s">
+        <v>18</v>
+      </c>
+      <c r="E566" t="s">
+        <v>8</v>
+      </c>
+      <c r="F566" t="s">
+        <v>112</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D567" t="s">
+        <v>261</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F567" t="s">
+        <v>21</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D568" t="s">
+        <v>59</v>
+      </c>
+      <c r="E568" t="s">
+        <v>8</v>
+      </c>
+      <c r="F568" t="s">
+        <v>21</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D569" t="s">
+        <v>72</v>
+      </c>
+      <c r="E569" t="s">
+        <v>8</v>
+      </c>
+      <c r="F569" t="s">
+        <v>51</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D570" t="s">
+        <v>75</v>
+      </c>
+      <c r="E570" t="s">
+        <v>10</v>
+      </c>
+      <c r="F570" t="s">
+        <v>51</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D571" t="s">
+        <v>12</v>
+      </c>
+      <c r="E571" t="s">
+        <v>8</v>
+      </c>
+      <c r="F571" t="s">
+        <v>112</v>
+      </c>
+      <c r="G571" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D572" t="s">
+        <v>18</v>
+      </c>
+      <c r="E572" t="s">
+        <v>8</v>
+      </c>
+      <c r="F572" t="s">
+        <v>51</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D573" t="s">
+        <v>59</v>
+      </c>
+      <c r="E573" t="s">
+        <v>8</v>
+      </c>
+      <c r="F573" t="s">
+        <v>21</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D574" t="s">
+        <v>16</v>
+      </c>
+      <c r="E574" t="s">
+        <v>8</v>
+      </c>
+      <c r="F574" t="s">
+        <v>21</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D575" t="s">
+        <v>18</v>
+      </c>
+      <c r="E575" t="s">
+        <v>7</v>
+      </c>
+      <c r="F575" t="s">
+        <v>50</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D576" t="s">
+        <v>151</v>
+      </c>
+      <c r="E576" t="s">
+        <v>10</v>
+      </c>
+      <c r="F576" t="s">
+        <v>21</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D577" t="s">
+        <v>261</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F577" t="s">
+        <v>21</v>
+      </c>
+      <c r="G577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D578" t="s">
+        <v>12</v>
+      </c>
+      <c r="E578" t="s">
+        <v>8</v>
+      </c>
+      <c r="F578" t="s">
+        <v>21</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D579" t="s">
+        <v>78</v>
+      </c>
+      <c r="E579" t="s">
+        <v>10</v>
+      </c>
+      <c r="F579" t="s">
+        <v>21</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D580" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580" t="s">
+        <v>8</v>
+      </c>
+      <c r="F580" t="s">
+        <v>21</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D581" t="s">
+        <v>199</v>
+      </c>
+      <c r="E581" t="s">
+        <v>8</v>
+      </c>
+      <c r="F581" t="s">
+        <v>21</v>
+      </c>
+      <c r="G581">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB137F9-C25F-4BB0-ABE8-0E09A921D587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E7D4A-1A57-421A-A22A-467B0086E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1552">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -4214,7 +4214,487 @@
     <t>RCXSUPLEMENTOS LTDA</t>
   </si>
   <si>
-    <t>AUGUSTO BUENO DE ALMEIDA</t>
+    <t>58353252000184</t>
+  </si>
+  <si>
+    <t>J. VALTO DA SILVA E CIA LTDA</t>
+  </si>
+  <si>
+    <t>09622925000149</t>
+  </si>
+  <si>
+    <t>CONSTRUCAR CONSTRUCAO E LOCACAO LTDA</t>
+  </si>
+  <si>
+    <t>33872601000143</t>
+  </si>
+  <si>
+    <t>GISELLY DIAS BATISTA</t>
+  </si>
+  <si>
+    <t>31966440000121</t>
+  </si>
+  <si>
+    <t>31.966.440 ANDRESSA DE OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>50678413000106</t>
+  </si>
+  <si>
+    <t>BELLAS BOLSAS E ACESSORIOS LTDA</t>
+  </si>
+  <si>
+    <t>50203715000110</t>
+  </si>
+  <si>
+    <t>DANTI RAMOM WEPPO RIBAS LTDA</t>
+  </si>
+  <si>
+    <t>20369721000180</t>
+  </si>
+  <si>
+    <t>FELIZ IDADE RESIDENCIA PARA IDOSO LTDA</t>
+  </si>
+  <si>
+    <t>50763693000142</t>
+  </si>
+  <si>
+    <t>OUTLET DO VESTUARIO CWB LTDA</t>
+  </si>
+  <si>
+    <t>03466297000173</t>
+  </si>
+  <si>
+    <t>INSTITUTO AMOR E VIDA</t>
+  </si>
+  <si>
+    <t>16730051000109</t>
+  </si>
+  <si>
+    <t>16.730.051 EDINEU WILBERT</t>
+  </si>
+  <si>
+    <t>45702261000191</t>
+  </si>
+  <si>
+    <t>JOTASEG SERVICOS EM ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>65082102000149</t>
+  </si>
+  <si>
+    <t>CELESTINO REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>45677727000146</t>
+  </si>
+  <si>
+    <t>COMERCIAL PRADO DISTRIBUIDORA DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>43287902000163</t>
+  </si>
+  <si>
+    <t>RELOGIO BUFFET LTDA</t>
+  </si>
+  <si>
+    <t>35677577000117</t>
+  </si>
+  <si>
+    <t>H. DE MATOS INSTALACAO DE AR CONDICIONADO LTDA</t>
+  </si>
+  <si>
+    <t>63130250000166</t>
+  </si>
+  <si>
+    <t>YNGRIDE GOMES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>60491553000116</t>
+  </si>
+  <si>
+    <t>CAPINI NEGOCIOS DIGITAIS LTDA</t>
+  </si>
+  <si>
+    <t>52682882000116</t>
+  </si>
+  <si>
+    <t>ESTETICA AVANCADA MENNA LTDA</t>
+  </si>
+  <si>
+    <t>63263163000187</t>
+  </si>
+  <si>
+    <t>PIERRE SOLUCOES LTDA</t>
+  </si>
+  <si>
+    <t>63943797000180</t>
+  </si>
+  <si>
+    <t>APFARMA FARMACIA E COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>64292195000173</t>
+  </si>
+  <si>
+    <t>LAKE CONSTRUTORA E INCORPORADORA LTDA</t>
+  </si>
+  <si>
+    <t>64666812000153</t>
+  </si>
+  <si>
+    <t>RENATO SALTAO OTTAIANO CONSULTORIA</t>
+  </si>
+  <si>
+    <t>20848346000151</t>
+  </si>
+  <si>
+    <t>ROMERO NETTO PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>50568778000170</t>
+  </si>
+  <si>
+    <t>ALPINA PARK ESTACIONAMENTO E LAVA RAPIDO LTDA</t>
+  </si>
+  <si>
+    <t>63231726000155</t>
+  </si>
+  <si>
+    <t>RODRIGO RODRIGUES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>14089959000150</t>
+  </si>
+  <si>
+    <t>LINCOLN PAULO ASSIS DA SILVA E OUTRO</t>
+  </si>
+  <si>
+    <t>60344092000159</t>
+  </si>
+  <si>
+    <t>C H KAOLA E-COMERCE E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>65083840000100</t>
+  </si>
+  <si>
+    <t>SV FINANCIAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>48997441000136</t>
+  </si>
+  <si>
+    <t>INFOSLOT SOLUCAO EM TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>33226268000103</t>
+  </si>
+  <si>
+    <t>ST SOLUCOES EM GESTAO DE PESSOAS LTDA</t>
+  </si>
+  <si>
+    <t>58470073000127</t>
+  </si>
+  <si>
+    <t>ISAAC F DE SOUZA</t>
+  </si>
+  <si>
+    <t>64713672000127</t>
+  </si>
+  <si>
+    <t>K M DOS SANTOS ASSESSORIA</t>
+  </si>
+  <si>
+    <t>53478535000139</t>
+  </si>
+  <si>
+    <t>IVONE GONCALVES TEIXEIRA</t>
+  </si>
+  <si>
+    <t>65082399000142</t>
+  </si>
+  <si>
+    <t>ANDREA CONSULTORIA TI LTDA</t>
+  </si>
+  <si>
+    <t>64423711000151</t>
+  </si>
+  <si>
+    <t>MARIO DOS PASSOS JUNIOR LTDA</t>
+  </si>
+  <si>
+    <t>64722660000169</t>
+  </si>
+  <si>
+    <t>IGTEC COMERCIO E MANUTENCAO ELETRICA LTDA</t>
+  </si>
+  <si>
+    <t>48095258000145</t>
+  </si>
+  <si>
+    <t>M PULLIG SERVICOS DE TI LTDA</t>
+  </si>
+  <si>
+    <t>51059385000101</t>
+  </si>
+  <si>
+    <t>MEDICINA PREVENTIVA DOUTOR CARDOZO LTDA</t>
+  </si>
+  <si>
+    <t>12640360000137</t>
+  </si>
+  <si>
+    <t>CONSORCIO CORRETORA DE SEGUROS GERAIS LTDA</t>
+  </si>
+  <si>
+    <t>20547255000186</t>
+  </si>
+  <si>
+    <t>DELBRO RODRIGUES SIMPLICIO</t>
+  </si>
+  <si>
+    <t>62268672000130</t>
+  </si>
+  <si>
+    <t>GRINGO BOTEQUIM LTDA</t>
+  </si>
+  <si>
+    <t>45232322000102</t>
+  </si>
+  <si>
+    <t>LATICINIOS PURO SABOR LTDA</t>
+  </si>
+  <si>
+    <t>49147510000185</t>
+  </si>
+  <si>
+    <t>ANDRADE E RAMOS SERVICOS DE SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>23950117000131</t>
+  </si>
+  <si>
+    <t>MONIQUE OLIVEIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>36814100000107</t>
+  </si>
+  <si>
+    <t>DIEGO DE LIMA SOARES</t>
+  </si>
+  <si>
+    <t>01653011000133</t>
+  </si>
+  <si>
+    <t>SEBASTIAO PACHECO ERVAMEL</t>
+  </si>
+  <si>
+    <t>59284635000100</t>
+  </si>
+  <si>
+    <t>RR F SERVICOS EM APLICACAO DE REVESTIMENTO LTDA</t>
+  </si>
+  <si>
+    <t>32674279000185</t>
+  </si>
+  <si>
+    <t>MUINHOS SOCIEDADE DE ADVOGADOS</t>
+  </si>
+  <si>
+    <t>24659846000104</t>
+  </si>
+  <si>
+    <t>MARLI SILVA BRAZ</t>
+  </si>
+  <si>
+    <t>36813660000139</t>
+  </si>
+  <si>
+    <t>ESPEDITO RABELO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>57147903000117</t>
+  </si>
+  <si>
+    <t>CANTAREIRA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>26419729000190</t>
+  </si>
+  <si>
+    <t>DWA ESTRATEGIA E PERFORMACE LTDA</t>
+  </si>
+  <si>
+    <t>54518288000110</t>
+  </si>
+  <si>
+    <t>A17 VISTORIA VEICULAR LTDA</t>
+  </si>
+  <si>
+    <t>59298975000190</t>
+  </si>
+  <si>
+    <t>SIMONE CARINA FACO LTDA</t>
+  </si>
+  <si>
+    <t>26464261000156</t>
+  </si>
+  <si>
+    <t>CAMILA VASCONCELOS LUCAS ARAGAO</t>
+  </si>
+  <si>
+    <t>49231298000130</t>
+  </si>
+  <si>
+    <t>ALLEAL ENGENHARIA S/S</t>
+  </si>
+  <si>
+    <t>65086215000112</t>
+  </si>
+  <si>
+    <t>VANDER EXPRESS LTDA</t>
+  </si>
+  <si>
+    <t>35370221000136</t>
+  </si>
+  <si>
+    <t>ESPACO DE INCENTIVO A CRIANCA LTDA</t>
+  </si>
+  <si>
+    <t>Artur Cruz Leite</t>
+  </si>
+  <si>
+    <t>14327362000104</t>
+  </si>
+  <si>
+    <t>CACAU REVENDEDORA DE COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>57443431000140</t>
+  </si>
+  <si>
+    <t>TENORIO &amp; MARTINS ADVOGADOS ASSOCIADOS</t>
+  </si>
+  <si>
+    <t>22545616000180</t>
+  </si>
+  <si>
+    <t>C A P DO NASCIMENTO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>26246344000179</t>
+  </si>
+  <si>
+    <t>AC &amp; F FABRICA DE PAINEIS LTDA</t>
+  </si>
+  <si>
+    <t>29513265000175</t>
+  </si>
+  <si>
+    <t>JOAO DOMINGOS STUCHI</t>
+  </si>
+  <si>
+    <t>47297920000187</t>
+  </si>
+  <si>
+    <t>FAST LOGISTICA E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>59275035000186</t>
+  </si>
+  <si>
+    <t>V. N. DE AMORIM</t>
+  </si>
+  <si>
+    <t>64998334000189</t>
+  </si>
+  <si>
+    <t>THIAGO R GARCIA LTDA</t>
+  </si>
+  <si>
+    <t>31818705000144</t>
+  </si>
+  <si>
+    <t>LETICIA VIVIANE CARVALHO DA PENA</t>
+  </si>
+  <si>
+    <t>52208549000170</t>
+  </si>
+  <si>
+    <t>IMPLANTO DOCTOR LTDA</t>
+  </si>
+  <si>
+    <t>07046786000127</t>
+  </si>
+  <si>
+    <t>ADAO SIMPLICIO DA SILVA</t>
+  </si>
+  <si>
+    <t>26762430000134</t>
+  </si>
+  <si>
+    <t>IMAGO SOLIS LTDA</t>
+  </si>
+  <si>
+    <t>64375828000107</t>
+  </si>
+  <si>
+    <t>CLEITON LOSS KASPRZAK CLEITON LOSS KASPRZAK</t>
+  </si>
+  <si>
+    <t>21260665000104</t>
+  </si>
+  <si>
+    <t>ROGERIO CUBA CAIVANO</t>
+  </si>
+  <si>
+    <t>64957992000122</t>
+  </si>
+  <si>
+    <t>WANDEY JEFERSON SILVA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>64063039000130</t>
+  </si>
+  <si>
+    <t>ELAINE DE OLIVEIRA PEREIRA ELAINE DE OLIVEIRA PEREIRA</t>
+  </si>
+  <si>
+    <t>58428888000148</t>
+  </si>
+  <si>
+    <t>NATHALIA SILVA DE SOUZA</t>
+  </si>
+  <si>
+    <t>24853001000147</t>
+  </si>
+  <si>
+    <t>FERNANDO HOEPERS</t>
+  </si>
+  <si>
+    <t>65075808000183</t>
+  </si>
+  <si>
+    <t>MARCELA LIMA DE SOUZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>42981964000108</t>
+  </si>
+  <si>
+    <t>ATOS ENGENHARIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convencao de condominio atualizada e devidamente registrada em orgao competente.&lt;br&gt;&lt;br&gt;Convencao do condominio registrada no orgao competente</t>
+  </si>
+  <si>
+    <t>Contrato social das socias PJ - BRASIL &amp; ISRAEL MINERACAO LTDA e OSHER CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes para abrir e movimentar contas, pois identificamos que a representacao da sua empresa deve ser em conjunto pelos representantes. O documento deve ser assinado pelos representantes legais nomeados no contrato social, assinada digitalmente GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF, para validacao das assinaturas e protocolo de autenticidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato social da empresa ACACIA AGRO-EMPREENDIMENTOS LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
   </si>
 </sst>
 </file>
@@ -4587,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G661"/>
+  <dimension ref="A1:G739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="B661" sqref="B661"/>
+    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
+      <selection activeCell="A739" sqref="A739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,6 +5120,9 @@
       <c r="F2" t="s">
         <v>112</v>
       </c>
+      <c r="G2" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7072,9 +7555,6 @@
       <c r="F108" t="s">
         <v>21</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -8381,10 +8861,10 @@
         <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>52</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G165" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10129,7 +10609,7 @@
         <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s">
         <v>736</v>
@@ -10221,10 +10701,10 @@
         <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G245" t="s">
-        <v>263</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -11394,7 +11874,7 @@
         <v>13</v>
       </c>
       <c r="F296" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -16778,22 +17258,22 @@
         <v>46063</v>
       </c>
       <c r="B531" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C531" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D531" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E531" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F531" t="s">
-        <v>52</v>
-      </c>
-      <c r="G531">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G531" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -16801,22 +17281,22 @@
         <v>46063</v>
       </c>
       <c r="B532" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C532" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D532" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E532" t="s">
         <v>8</v>
       </c>
       <c r="F532" t="s">
-        <v>112</v>
-      </c>
-      <c r="G532" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -16824,19 +17304,19 @@
         <v>46063</v>
       </c>
       <c r="B533" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C533" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D533" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E533" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -16847,19 +17327,19 @@
         <v>46063</v>
       </c>
       <c r="B534" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C534" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D534" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E534" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F534" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -16870,13 +17350,13 @@
         <v>46063</v>
       </c>
       <c r="B535" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C535" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D535" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="E535" t="s">
         <v>8</v>
@@ -16893,19 +17373,19 @@
         <v>46063</v>
       </c>
       <c r="B536" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C536" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D536" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
       </c>
       <c r="F536" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G536">
         <v>0</v>
@@ -16916,19 +17396,19 @@
         <v>46063</v>
       </c>
       <c r="B537" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C537" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D537" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E537" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F537" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -16939,16 +17419,16 @@
         <v>46063</v>
       </c>
       <c r="B538" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C538" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D538" t="s">
-        <v>66</v>
+        <v>1140</v>
       </c>
       <c r="E538" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="F538" t="s">
         <v>21</v>
@@ -16962,19 +17442,19 @@
         <v>46063</v>
       </c>
       <c r="B539" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C539" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D539" t="s">
-        <v>1140</v>
+        <v>11</v>
       </c>
       <c r="E539" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F539" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -16985,19 +17465,19 @@
         <v>46063</v>
       </c>
       <c r="B540" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C540" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D540" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E540" t="s">
         <v>8</v>
       </c>
       <c r="F540" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G540">
         <v>0</v>
@@ -17008,19 +17488,19 @@
         <v>46063</v>
       </c>
       <c r="B541" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C541" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D541" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
       </c>
       <c r="F541" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -17031,16 +17511,16 @@
         <v>46063</v>
       </c>
       <c r="B542" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C542" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D542" t="s">
-        <v>11</v>
+        <v>1149</v>
       </c>
       <c r="E542" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F542" t="s">
         <v>21</v>
@@ -17054,19 +17534,19 @@
         <v>46063</v>
       </c>
       <c r="B543" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C543" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D543" t="s">
-        <v>1149</v>
+        <v>261</v>
       </c>
       <c r="E543" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F543" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -17077,19 +17557,19 @@
         <v>46063</v>
       </c>
       <c r="B544" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C544" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D544" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
       </c>
       <c r="F544" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G544">
         <v>0</v>
@@ -17100,13 +17580,13 @@
         <v>46063</v>
       </c>
       <c r="B545" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C545" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D545" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -17123,16 +17603,16 @@
         <v>46063</v>
       </c>
       <c r="B546" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C546" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D546" t="s">
-        <v>18</v>
+        <v>1158</v>
       </c>
       <c r="E546" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F546" t="s">
         <v>21</v>
@@ -17146,19 +17626,19 @@
         <v>46063</v>
       </c>
       <c r="B547" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C547" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D547" t="s">
-        <v>1158</v>
+        <v>9</v>
       </c>
       <c r="E547" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F547" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -17169,16 +17649,16 @@
         <v>46063</v>
       </c>
       <c r="B548" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C548" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D548" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E548" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F548" t="s">
         <v>52</v>
@@ -17192,19 +17672,19 @@
         <v>46063</v>
       </c>
       <c r="B549" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C549" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D549" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E549" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F549" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -17215,16 +17695,16 @@
         <v>46063</v>
       </c>
       <c r="B550" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C550" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D550" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E550" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F550" t="s">
         <v>21</v>
@@ -17238,16 +17718,16 @@
         <v>46063</v>
       </c>
       <c r="B551" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C551" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D551" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="E551" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F551" t="s">
         <v>21</v>
@@ -17261,13 +17741,13 @@
         <v>46063</v>
       </c>
       <c r="B552" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C552" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D552" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="E552" t="s">
         <v>8</v>
@@ -17284,13 +17764,13 @@
         <v>46063</v>
       </c>
       <c r="B553" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C553" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D553" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E553" t="s">
         <v>8</v>
@@ -17307,19 +17787,19 @@
         <v>46063</v>
       </c>
       <c r="B554" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C554" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D554" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="E554" t="s">
-        <v>8</v>
+        <v>1175</v>
       </c>
       <c r="F554" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G554">
         <v>0</v>
@@ -17330,19 +17810,19 @@
         <v>46063</v>
       </c>
       <c r="B555" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="C555" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D555" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="E555" t="s">
-        <v>1175</v>
+        <v>8</v>
       </c>
       <c r="F555" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -17353,19 +17833,19 @@
         <v>46063</v>
       </c>
       <c r="B556" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C556" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D556" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="E556" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F556" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G556">
         <v>0</v>
@@ -17376,19 +17856,19 @@
         <v>46063</v>
       </c>
       <c r="B557" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C557" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D557" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E557" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="F557" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -17399,16 +17879,16 @@
         <v>46063</v>
       </c>
       <c r="B558" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C558" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D558" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="E558" t="s">
-        <v>1175</v>
+        <v>10</v>
       </c>
       <c r="F558" t="s">
         <v>21</v>
@@ -17422,16 +17902,16 @@
         <v>46063</v>
       </c>
       <c r="B559" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C559" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D559" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E559" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F559" t="s">
         <v>21</v>
@@ -17445,13 +17925,13 @@
         <v>46063</v>
       </c>
       <c r="B560" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C560" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D560" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="E560" t="s">
         <v>8</v>
@@ -17468,13 +17948,13 @@
         <v>46063</v>
       </c>
       <c r="B561" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C561" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D561" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E561" t="s">
         <v>8</v>
@@ -17491,16 +17971,16 @@
         <v>46063</v>
       </c>
       <c r="B562" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C562" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D562" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E562" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F562" t="s">
         <v>21</v>
@@ -17514,19 +17994,19 @@
         <v>46063</v>
       </c>
       <c r="B563" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C563" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D563" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="E563" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F563" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -17537,19 +18017,19 @@
         <v>46063</v>
       </c>
       <c r="B564" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C564" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D564" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
       </c>
       <c r="F564" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G564">
         <v>0</v>
@@ -17560,19 +18040,19 @@
         <v>46063</v>
       </c>
       <c r="B565" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C565" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D565" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E565" t="s">
-        <v>8</v>
+        <v>1175</v>
       </c>
       <c r="F565" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="G565">
         <v>0</v>
@@ -17583,16 +18063,16 @@
         <v>46063</v>
       </c>
       <c r="B566" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C566" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D566" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="E566" t="s">
-        <v>1175</v>
+        <v>8</v>
       </c>
       <c r="F566" t="s">
         <v>21</v>
@@ -17606,19 +18086,19 @@
         <v>46063</v>
       </c>
       <c r="B567" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C567" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D567" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E567" t="s">
         <v>8</v>
       </c>
       <c r="F567" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G567">
         <v>0</v>
@@ -17629,16 +18109,16 @@
         <v>46063</v>
       </c>
       <c r="B568" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C568" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D568" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E568" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F568" t="s">
         <v>51</v>
@@ -17652,22 +18132,22 @@
         <v>46063</v>
       </c>
       <c r="B569" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C569" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D569" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E569" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F569" t="s">
-        <v>51</v>
-      </c>
-      <c r="G569">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G569" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -17675,22 +18155,22 @@
         <v>46063</v>
       </c>
       <c r="B570" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C570" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D570" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E570" t="s">
         <v>8</v>
       </c>
       <c r="F570" t="s">
-        <v>112</v>
-      </c>
-      <c r="G570" t="s">
-        <v>262</v>
+        <v>51</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -17698,19 +18178,19 @@
         <v>46063</v>
       </c>
       <c r="B571" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C571" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D571" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E571" t="s">
         <v>8</v>
       </c>
       <c r="F571" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G571">
         <v>0</v>
@@ -17721,13 +18201,13 @@
         <v>46063</v>
       </c>
       <c r="B572" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C572" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D572" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E572" t="s">
         <v>8</v>
@@ -17744,19 +18224,19 @@
         <v>46063</v>
       </c>
       <c r="B573" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C573" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D573" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E573" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F573" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -17764,22 +18244,22 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="B574" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C574" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D574" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="E574" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F574" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -17790,16 +18270,16 @@
         <v>46064</v>
       </c>
       <c r="B575" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C575" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D575" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="E575" t="s">
-        <v>10</v>
+        <v>1175</v>
       </c>
       <c r="F575" t="s">
         <v>21</v>
@@ -17813,16 +18293,16 @@
         <v>46064</v>
       </c>
       <c r="B576" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C576" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D576" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="E576" t="s">
-        <v>1175</v>
+        <v>8</v>
       </c>
       <c r="F576" t="s">
         <v>21</v>
@@ -17836,16 +18316,16 @@
         <v>46064</v>
       </c>
       <c r="B577" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C577" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D577" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E577" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F577" t="s">
         <v>21</v>
@@ -17859,16 +18339,16 @@
         <v>46064</v>
       </c>
       <c r="B578" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C578" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D578" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E578" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F578" t="s">
         <v>21</v>
@@ -17882,13 +18362,13 @@
         <v>46064</v>
       </c>
       <c r="B579" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C579" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D579" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="E579" t="s">
         <v>8</v>
@@ -17905,19 +18385,19 @@
         <v>46064</v>
       </c>
       <c r="B580" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C580" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D580" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="E580" t="s">
         <v>8</v>
       </c>
       <c r="F580" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -17928,19 +18408,19 @@
         <v>46064</v>
       </c>
       <c r="B581" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C581" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D581" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E581" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F581" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -17951,16 +18431,16 @@
         <v>46064</v>
       </c>
       <c r="B582" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C582" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D582" t="s">
-        <v>85</v>
+        <v>1232</v>
       </c>
       <c r="E582" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F582" t="s">
         <v>21</v>
@@ -17974,19 +18454,19 @@
         <v>46064</v>
       </c>
       <c r="B583" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C583" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D583" t="s">
-        <v>1232</v>
+        <v>16</v>
       </c>
       <c r="E583" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F583" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -17997,19 +18477,19 @@
         <v>46064</v>
       </c>
       <c r="B584" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C584" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D584" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="E584" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F584" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -18020,19 +18500,19 @@
         <v>46064</v>
       </c>
       <c r="B585" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C585" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D585" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="E585" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F585" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -18043,19 +18523,19 @@
         <v>46064</v>
       </c>
       <c r="B586" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C586" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D586" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E586" t="s">
         <v>8</v>
       </c>
       <c r="F586" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -18066,22 +18546,22 @@
         <v>46064</v>
       </c>
       <c r="B587" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C587" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D587" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="E587" t="s">
         <v>8</v>
       </c>
       <c r="F587" t="s">
-        <v>51</v>
-      </c>
-      <c r="G587">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G587" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -18089,19 +18569,19 @@
         <v>46064</v>
       </c>
       <c r="B588" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C588" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D588" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="E588" t="s">
         <v>8</v>
       </c>
       <c r="F588" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -18112,16 +18592,16 @@
         <v>46064</v>
       </c>
       <c r="B589" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C589" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D589" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="E589" t="s">
-        <v>8</v>
+        <v>1175</v>
       </c>
       <c r="F589" t="s">
         <v>51</v>
@@ -18135,19 +18615,19 @@
         <v>46064</v>
       </c>
       <c r="B590" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C590" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D590" t="s">
-        <v>261</v>
+        <v>895</v>
       </c>
       <c r="E590" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
       <c r="F590" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -18158,13 +18638,13 @@
         <v>46064</v>
       </c>
       <c r="B591" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C591" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D591" t="s">
-        <v>895</v>
+        <v>9</v>
       </c>
       <c r="E591" t="s">
         <v>7</v>
@@ -18181,19 +18661,19 @@
         <v>46064</v>
       </c>
       <c r="B592" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C592" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D592" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E592" t="s">
         <v>7</v>
       </c>
       <c r="F592" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G592">
         <v>0</v>
@@ -18204,19 +18684,19 @@
         <v>46064</v>
       </c>
       <c r="B593" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C593" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D593" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E593" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F593" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -18227,16 +18707,16 @@
         <v>46064</v>
       </c>
       <c r="B594" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C594" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D594" t="s">
-        <v>39</v>
+        <v>1158</v>
       </c>
       <c r="E594" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F594" t="s">
         <v>50</v>
@@ -18250,19 +18730,19 @@
         <v>46064</v>
       </c>
       <c r="B595" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C595" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D595" t="s">
-        <v>1158</v>
+        <v>11</v>
       </c>
       <c r="E595" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F595" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -18273,16 +18753,16 @@
         <v>46064</v>
       </c>
       <c r="B596" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C596" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D596" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E596" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F596" t="s">
         <v>21</v>
@@ -18296,13 +18776,13 @@
         <v>46064</v>
       </c>
       <c r="B597" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C597" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D597" t="s">
-        <v>9</v>
+        <v>895</v>
       </c>
       <c r="E597" t="s">
         <v>7</v>
@@ -18319,16 +18799,16 @@
         <v>46064</v>
       </c>
       <c r="B598" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C598" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D598" t="s">
-        <v>895</v>
+        <v>72</v>
       </c>
       <c r="E598" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F598" t="s">
         <v>21</v>
@@ -18342,19 +18822,19 @@
         <v>46064</v>
       </c>
       <c r="B599" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C599" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D599" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E599" t="s">
         <v>8</v>
       </c>
       <c r="F599" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -18365,19 +18845,19 @@
         <v>46064</v>
       </c>
       <c r="B600" t="s">
-        <v>1265</v>
+        <v>57</v>
       </c>
       <c r="C600" t="s">
-        <v>1266</v>
+        <v>58</v>
       </c>
       <c r="D600" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E600" t="s">
         <v>8</v>
       </c>
       <c r="F600" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -18388,19 +18868,19 @@
         <v>46064</v>
       </c>
       <c r="B601" t="s">
-        <v>57</v>
+        <v>1267</v>
       </c>
       <c r="C601" t="s">
-        <v>58</v>
+        <v>1268</v>
       </c>
       <c r="D601" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E601" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F601" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -18411,19 +18891,19 @@
         <v>46064</v>
       </c>
       <c r="B602" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C602" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D602" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="E602" t="s">
-        <v>10</v>
+        <v>1175</v>
       </c>
       <c r="F602" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G602">
         <v>0</v>
@@ -18434,16 +18914,16 @@
         <v>46064</v>
       </c>
       <c r="B603" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C603" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D603" t="s">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="E603" t="s">
-        <v>1175</v>
+        <v>8</v>
       </c>
       <c r="F603" t="s">
         <v>51</v>
@@ -18457,19 +18937,19 @@
         <v>46064</v>
       </c>
       <c r="B604" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C604" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D604" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E604" t="s">
         <v>8</v>
       </c>
       <c r="F604" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -18480,19 +18960,19 @@
         <v>46064</v>
       </c>
       <c r="B605" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C605" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D605" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E605" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F605" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -18503,19 +18983,19 @@
         <v>46064</v>
       </c>
       <c r="B606" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C606" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D606" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E606" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F606" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -18526,19 +19006,19 @@
         <v>46064</v>
       </c>
       <c r="B607" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C607" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D607" t="s">
-        <v>9</v>
+        <v>1149</v>
       </c>
       <c r="E607" t="s">
         <v>7</v>
       </c>
       <c r="F607" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -18549,19 +19029,19 @@
         <v>46064</v>
       </c>
       <c r="B608" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C608" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D608" t="s">
-        <v>1149</v>
+        <v>162</v>
       </c>
       <c r="E608" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F608" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -18572,19 +19052,19 @@
         <v>46064</v>
       </c>
       <c r="B609" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C609" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D609" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E609" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F609" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -18595,19 +19075,19 @@
         <v>46064</v>
       </c>
       <c r="B610" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C610" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D610" t="s">
-        <v>109</v>
+        <v>895</v>
       </c>
       <c r="E610" t="s">
         <v>7</v>
       </c>
       <c r="F610" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -18618,19 +19098,19 @@
         <v>46064</v>
       </c>
       <c r="B611" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C611" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D611" t="s">
-        <v>895</v>
+        <v>16</v>
       </c>
       <c r="E611" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F611" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -18641,16 +19121,16 @@
         <v>46064</v>
       </c>
       <c r="B612" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C612" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D612" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E612" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F612" t="s">
         <v>21</v>
@@ -18664,19 +19144,19 @@
         <v>46064</v>
       </c>
       <c r="B613" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C613" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D613" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E613" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F613" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -18687,22 +19167,22 @@
         <v>46064</v>
       </c>
       <c r="B614" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C614" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D614" t="s">
-        <v>12</v>
+        <v>1295</v>
       </c>
       <c r="E614" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="F614" t="s">
-        <v>51</v>
-      </c>
-      <c r="G614">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G614" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -18710,19 +19190,22 @@
         <v>46064</v>
       </c>
       <c r="B615" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C615" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D615" t="s">
-        <v>1295</v>
+        <v>18</v>
       </c>
       <c r="E615" t="s">
         <v>8</v>
       </c>
       <c r="F615" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -18730,13 +19213,13 @@
         <v>46064</v>
       </c>
       <c r="B616" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C616" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D616" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E616" t="s">
         <v>8</v>
@@ -18753,13 +19236,13 @@
         <v>46064</v>
       </c>
       <c r="B617" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C617" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D617" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E617" t="s">
         <v>8</v>
@@ -18776,13 +19259,13 @@
         <v>46064</v>
       </c>
       <c r="B618" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C618" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D618" t="s">
-        <v>39</v>
+        <v>1304</v>
       </c>
       <c r="E618" t="s">
         <v>8</v>
@@ -18799,16 +19282,16 @@
         <v>46064</v>
       </c>
       <c r="B619" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C619" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D619" t="s">
-        <v>1304</v>
+        <v>85</v>
       </c>
       <c r="E619" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F619" t="s">
         <v>21</v>
@@ -18822,16 +19305,16 @@
         <v>46064</v>
       </c>
       <c r="B620" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C620" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D620" t="s">
-        <v>85</v>
+        <v>1232</v>
       </c>
       <c r="E620" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F620" t="s">
         <v>21</v>
@@ -18845,16 +19328,16 @@
         <v>46064</v>
       </c>
       <c r="B621" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C621" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D621" t="s">
-        <v>1232</v>
+        <v>18</v>
       </c>
       <c r="E621" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F621" t="s">
         <v>21</v>
@@ -18868,19 +19351,19 @@
         <v>46064</v>
       </c>
       <c r="B622" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C622" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D622" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E622" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F622" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G622">
         <v>0</v>
@@ -18891,16 +19374,16 @@
         <v>46064</v>
       </c>
       <c r="B623" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C623" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D623" t="s">
-        <v>24</v>
+        <v>1295</v>
       </c>
       <c r="E623" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F623" t="s">
         <v>21</v>
@@ -18914,19 +19397,19 @@
         <v>46064</v>
       </c>
       <c r="B624" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C624" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D624" t="s">
-        <v>1295</v>
+        <v>39</v>
       </c>
       <c r="E624" t="s">
         <v>8</v>
       </c>
       <c r="F624" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G624">
         <v>0</v>
@@ -18937,19 +19420,19 @@
         <v>46064</v>
       </c>
       <c r="B625" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C625" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D625" t="s">
-        <v>39</v>
+        <v>1304</v>
       </c>
       <c r="E625" t="s">
         <v>8</v>
       </c>
       <c r="F625" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -18960,19 +19443,19 @@
         <v>46064</v>
       </c>
       <c r="B626" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C626" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D626" t="s">
-        <v>1304</v>
+        <v>1149</v>
       </c>
       <c r="E626" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F626" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G626">
         <v>0</v>
@@ -18983,19 +19466,19 @@
         <v>46064</v>
       </c>
       <c r="B627" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C627" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D627" t="s">
-        <v>1149</v>
+        <v>18</v>
       </c>
       <c r="E627" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F627" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -19006,19 +19489,19 @@
         <v>46064</v>
       </c>
       <c r="B628" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C628" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D628" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E628" t="s">
         <v>8</v>
       </c>
       <c r="F628" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -19029,19 +19512,19 @@
         <v>46064</v>
       </c>
       <c r="B629" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C629" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D629" t="s">
-        <v>16</v>
+        <v>1232</v>
       </c>
       <c r="E629" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F629" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -19052,19 +19535,19 @@
         <v>46064</v>
       </c>
       <c r="B630" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C630" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D630" t="s">
-        <v>1232</v>
+        <v>16</v>
       </c>
       <c r="E630" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F630" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G630">
         <v>0</v>
@@ -19075,19 +19558,19 @@
         <v>46064</v>
       </c>
       <c r="B631" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C631" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D631" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E631" t="s">
         <v>8</v>
       </c>
       <c r="F631" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -19098,22 +19581,19 @@
         <v>46064</v>
       </c>
       <c r="B632" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C632" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D632" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E632" t="s">
         <v>8</v>
       </c>
       <c r="F632" t="s">
-        <v>50</v>
-      </c>
-      <c r="G632">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
@@ -19121,19 +19601,22 @@
         <v>46064</v>
       </c>
       <c r="B633" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C633" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D633" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E633" t="s">
         <v>8</v>
       </c>
       <c r="F633" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -19141,19 +19624,19 @@
         <v>46064</v>
       </c>
       <c r="B634" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C634" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D634" t="s">
-        <v>19</v>
+        <v>1232</v>
       </c>
       <c r="E634" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F634" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -19164,19 +19647,19 @@
         <v>46064</v>
       </c>
       <c r="B635" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C635" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D635" t="s">
-        <v>1232</v>
+        <v>1158</v>
       </c>
       <c r="E635" t="s">
         <v>10</v>
       </c>
       <c r="F635" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G635">
         <v>0</v>
@@ -19187,19 +19670,19 @@
         <v>46064</v>
       </c>
       <c r="B636" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C636" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D636" t="s">
-        <v>1158</v>
+        <v>1341</v>
       </c>
       <c r="E636" t="s">
         <v>10</v>
       </c>
       <c r="F636" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G636">
         <v>0</v>
@@ -19210,19 +19693,19 @@
         <v>46064</v>
       </c>
       <c r="B637" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="C637" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D637" t="s">
-        <v>1341</v>
+        <v>16</v>
       </c>
       <c r="E637" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F637" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -19233,19 +19716,19 @@
         <v>46064</v>
       </c>
       <c r="B638" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C638" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D638" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E638" t="s">
         <v>8</v>
       </c>
       <c r="F638" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G638">
         <v>0</v>
@@ -19256,19 +19739,19 @@
         <v>46064</v>
       </c>
       <c r="B639" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C639" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D639" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="E639" t="s">
         <v>8</v>
       </c>
       <c r="F639" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -19279,16 +19762,16 @@
         <v>46064</v>
       </c>
       <c r="B640" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C640" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D640" t="s">
-        <v>199</v>
+        <v>1350</v>
       </c>
       <c r="E640" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F640" t="s">
         <v>21</v>
@@ -19302,19 +19785,19 @@
         <v>46064</v>
       </c>
       <c r="B641" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C641" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="D641" t="s">
-        <v>1350</v>
+        <v>1295</v>
       </c>
       <c r="E641" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F641" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -19325,19 +19808,19 @@
         <v>46064</v>
       </c>
       <c r="B642" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C642" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D642" t="s">
-        <v>1295</v>
+        <v>1232</v>
       </c>
       <c r="E642" t="s">
         <v>8</v>
       </c>
       <c r="F642" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -19348,19 +19831,19 @@
         <v>46064</v>
       </c>
       <c r="B643" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C643" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D643" t="s">
-        <v>1232</v>
+        <v>12</v>
       </c>
       <c r="E643" t="s">
         <v>8</v>
       </c>
       <c r="F643" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G643">
         <v>0</v>
@@ -19371,13 +19854,13 @@
         <v>46064</v>
       </c>
       <c r="B644" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C644" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D644" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E644" t="s">
         <v>8</v>
@@ -19394,13 +19877,13 @@
         <v>46064</v>
       </c>
       <c r="B645" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C645" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D645" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E645" t="s">
         <v>8</v>
@@ -19417,19 +19900,19 @@
         <v>46064</v>
       </c>
       <c r="B646" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C646" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D646" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E646" t="s">
         <v>8</v>
       </c>
       <c r="F646" t="s">
-        <v>21</v>
+        <v>930</v>
       </c>
       <c r="G646">
         <v>0</v>
@@ -19440,22 +19923,22 @@
         <v>46064</v>
       </c>
       <c r="B647" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C647" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D647" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E647" t="s">
         <v>8</v>
       </c>
       <c r="F647" t="s">
-        <v>930</v>
-      </c>
-      <c r="G647">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G647" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
@@ -19463,19 +19946,19 @@
         <v>46064</v>
       </c>
       <c r="B648" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C648" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D648" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E648" t="s">
         <v>8</v>
       </c>
       <c r="F648" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G648">
         <v>0</v>
@@ -19486,19 +19969,19 @@
         <v>46064</v>
       </c>
       <c r="B649" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C649" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D649" t="s">
-        <v>11</v>
+        <v>1295</v>
       </c>
       <c r="E649" t="s">
         <v>8</v>
       </c>
       <c r="F649" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -19509,19 +19992,19 @@
         <v>46064</v>
       </c>
       <c r="B650" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C650" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D650" t="s">
-        <v>1295</v>
+        <v>72</v>
       </c>
       <c r="E650" t="s">
         <v>8</v>
       </c>
       <c r="F650" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G650">
         <v>0</v>
@@ -19532,16 +20015,16 @@
         <v>46064</v>
       </c>
       <c r="B651" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C651" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D651" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E651" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F651" t="s">
         <v>21</v>
@@ -19555,16 +20038,16 @@
         <v>46064</v>
       </c>
       <c r="B652" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C652" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D652" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E652" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F652" t="s">
         <v>21</v>
@@ -19578,22 +20061,19 @@
         <v>46064</v>
       </c>
       <c r="B653" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C653" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D653" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E653" t="s">
         <v>8</v>
       </c>
       <c r="F653" t="s">
-        <v>21</v>
-      </c>
-      <c r="G653">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
@@ -19601,33 +20081,36 @@
         <v>46064</v>
       </c>
       <c r="B654" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C654" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D654" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E654" t="s">
         <v>8</v>
       </c>
       <c r="F654" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G654">
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="B655" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C655" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D655" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="E655" t="s">
         <v>8</v>
@@ -19644,13 +20127,13 @@
         <v>46065</v>
       </c>
       <c r="B656" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C656" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D656" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="E656" t="s">
         <v>8</v>
@@ -19667,13 +20150,13 @@
         <v>46065</v>
       </c>
       <c r="B657" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C657" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D657" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="E657" t="s">
         <v>8</v>
@@ -19690,16 +20173,16 @@
         <v>46065</v>
       </c>
       <c r="B658" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C658" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D658" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E658" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F658" t="s">
         <v>21</v>
@@ -19713,10 +20196,10 @@
         <v>46065</v>
       </c>
       <c r="B659" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C659" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D659" t="s">
         <v>66</v>
@@ -19736,16 +20219,16 @@
         <v>46065</v>
       </c>
       <c r="B660" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C660" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D660" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E660" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F660" t="s">
         <v>21</v>
@@ -19759,18 +20242,1803 @@
         <v>46065</v>
       </c>
       <c r="B661" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C661" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D661" t="s">
-        <v>1391</v>
+        <v>16</v>
+      </c>
+      <c r="E661" t="s">
+        <v>8</v>
       </c>
       <c r="F661" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D662" t="s">
+        <v>15</v>
+      </c>
+      <c r="E662" t="s">
+        <v>8</v>
+      </c>
+      <c r="F662" t="s">
+        <v>50</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D663" t="s">
+        <v>85</v>
+      </c>
+      <c r="E663" t="s">
+        <v>7</v>
+      </c>
+      <c r="F663" t="s">
+        <v>21</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D664" t="s">
+        <v>18</v>
+      </c>
+      <c r="E664" t="s">
+        <v>8</v>
+      </c>
+      <c r="F664" t="s">
+        <v>51</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D665" t="s">
+        <v>16</v>
+      </c>
+      <c r="E665" t="s">
+        <v>8</v>
+      </c>
+      <c r="F665" t="s">
+        <v>51</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D666" t="s">
+        <v>72</v>
+      </c>
+      <c r="E666" t="s">
+        <v>8</v>
+      </c>
+      <c r="F666" t="s">
+        <v>21</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D667" t="s">
+        <v>9</v>
+      </c>
+      <c r="E667" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" t="s">
+        <v>21</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D668" t="s">
+        <v>16</v>
+      </c>
+      <c r="E668" t="s">
+        <v>8</v>
+      </c>
+      <c r="F668" t="s">
+        <v>51</v>
+      </c>
+      <c r="G668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E669" t="s">
+        <v>8</v>
+      </c>
+      <c r="F669" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D670" t="s">
+        <v>15</v>
+      </c>
+      <c r="E670" t="s">
+        <v>8</v>
+      </c>
+      <c r="F670" t="s">
+        <v>50</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D671" t="s">
+        <v>18</v>
+      </c>
+      <c r="E671" t="s">
+        <v>8</v>
+      </c>
+      <c r="F671" t="s">
+        <v>21</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E672" t="s">
+        <v>10</v>
+      </c>
+      <c r="F672" t="s">
+        <v>21</v>
+      </c>
+      <c r="G672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E673" t="s">
+        <v>8</v>
+      </c>
+      <c r="F673" t="s">
+        <v>21</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D674" t="s">
+        <v>11</v>
+      </c>
+      <c r="E674" t="s">
+        <v>8</v>
+      </c>
+      <c r="F674" t="s">
+        <v>21</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E675" t="s">
+        <v>7</v>
+      </c>
+      <c r="F675" t="s">
+        <v>21</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D676" t="s">
+        <v>109</v>
+      </c>
+      <c r="E676" t="s">
+        <v>7</v>
+      </c>
+      <c r="F676" t="s">
+        <v>21</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D677" t="s">
+        <v>59</v>
+      </c>
+      <c r="E677" t="s">
+        <v>8</v>
+      </c>
+      <c r="F677" t="s">
+        <v>50</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D678" t="s">
+        <v>59</v>
+      </c>
+      <c r="E678" t="s">
+        <v>8</v>
+      </c>
+      <c r="F678" t="s">
+        <v>50</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D679" t="s">
+        <v>72</v>
+      </c>
+      <c r="E679" t="s">
+        <v>8</v>
+      </c>
+      <c r="F679" t="s">
+        <v>21</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D680" t="s">
+        <v>9</v>
+      </c>
+      <c r="E680" t="s">
+        <v>7</v>
+      </c>
+      <c r="F680" t="s">
+        <v>50</v>
+      </c>
+      <c r="G680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D681" t="s">
+        <v>109</v>
+      </c>
+      <c r="E681" t="s">
+        <v>118</v>
+      </c>
+      <c r="F681" t="s">
+        <v>21</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D682" t="s">
+        <v>75</v>
+      </c>
+      <c r="E682" t="s">
+        <v>10</v>
+      </c>
+      <c r="F682" t="s">
+        <v>50</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D683" t="s">
+        <v>18</v>
+      </c>
+      <c r="E683" t="s">
+        <v>8</v>
+      </c>
+      <c r="F683" t="s">
+        <v>21</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E684" t="s">
+        <v>8</v>
+      </c>
+      <c r="F684" t="s">
+        <v>21</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D685" t="s">
+        <v>15</v>
+      </c>
+      <c r="E685" t="s">
+        <v>8</v>
+      </c>
+      <c r="F685" t="s">
+        <v>21</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D686" t="s">
+        <v>75</v>
+      </c>
+      <c r="E686" t="s">
+        <v>7</v>
+      </c>
+      <c r="F686" t="s">
+        <v>50</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E687" t="s">
+        <v>8</v>
+      </c>
+      <c r="F687" t="s">
+        <v>50</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D688" t="s">
+        <v>9</v>
+      </c>
+      <c r="E688" t="s">
+        <v>7</v>
+      </c>
+      <c r="F688" t="s">
+        <v>21</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E689" t="s">
+        <v>10</v>
+      </c>
+      <c r="F689" t="s">
+        <v>50</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D690" t="s">
+        <v>59</v>
+      </c>
+      <c r="E690" t="s">
+        <v>8</v>
+      </c>
+      <c r="F690" t="s">
+        <v>21</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D691" t="s">
+        <v>72</v>
+      </c>
+      <c r="E691" t="s">
+        <v>8</v>
+      </c>
+      <c r="F691" t="s">
+        <v>21</v>
+      </c>
+      <c r="G691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E692" t="s">
+        <v>8</v>
+      </c>
+      <c r="F692" t="s">
+        <v>50</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D693" t="s">
+        <v>15</v>
+      </c>
+      <c r="E693" t="s">
+        <v>8</v>
+      </c>
+      <c r="F693" t="s">
+        <v>50</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D694" t="s">
+        <v>12</v>
+      </c>
+      <c r="E694" t="s">
+        <v>8</v>
+      </c>
+      <c r="F694" t="s">
+        <v>21</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D695" t="s">
+        <v>12</v>
+      </c>
+      <c r="E695" t="s">
+        <v>190</v>
+      </c>
+      <c r="F695" t="s">
+        <v>21</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D696" t="s">
+        <v>11</v>
+      </c>
+      <c r="E696" t="s">
+        <v>8</v>
+      </c>
+      <c r="F696" t="s">
+        <v>21</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D697" t="s">
+        <v>11</v>
+      </c>
+      <c r="E697" t="s">
+        <v>8</v>
+      </c>
+      <c r="F697" t="s">
+        <v>21</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D698" t="s">
+        <v>16</v>
+      </c>
+      <c r="E698" t="s">
+        <v>8</v>
+      </c>
+      <c r="F698" t="s">
+        <v>112</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D699" t="s">
+        <v>9</v>
+      </c>
+      <c r="E699" t="s">
+        <v>8</v>
+      </c>
+      <c r="F699" t="s">
+        <v>50</v>
+      </c>
+      <c r="G699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D700" t="s">
+        <v>69</v>
+      </c>
+      <c r="E700" t="s">
+        <v>8</v>
+      </c>
+      <c r="F700" t="s">
+        <v>21</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E701" t="s">
+        <v>7</v>
+      </c>
+      <c r="F701" t="s">
+        <v>21</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D702" t="s">
+        <v>16</v>
+      </c>
+      <c r="E702" t="s">
+        <v>8</v>
+      </c>
+      <c r="F702" t="s">
+        <v>21</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D703" t="s">
+        <v>18</v>
+      </c>
+      <c r="E703" t="s">
+        <v>8</v>
+      </c>
+      <c r="F703" t="s">
+        <v>21</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E704" t="s">
+        <v>8</v>
+      </c>
+      <c r="F704" t="s">
+        <v>21</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D705" t="s">
+        <v>18</v>
+      </c>
+      <c r="E705" t="s">
+        <v>8</v>
+      </c>
+      <c r="F705" t="s">
+        <v>21</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D706" t="s">
+        <v>210</v>
+      </c>
+      <c r="E706" t="s">
+        <v>8</v>
+      </c>
+      <c r="F706" t="s">
+        <v>50</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D707" t="s">
+        <v>75</v>
+      </c>
+      <c r="E707" t="s">
+        <v>8</v>
+      </c>
+      <c r="F707" t="s">
+        <v>50</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D708" t="s">
+        <v>9</v>
+      </c>
+      <c r="E708" t="s">
+        <v>7</v>
+      </c>
+      <c r="F708" t="s">
+        <v>21</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D709" t="s">
+        <v>16</v>
+      </c>
+      <c r="E709" t="s">
+        <v>8</v>
+      </c>
+      <c r="F709" t="s">
+        <v>21</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D710" t="s">
+        <v>199</v>
+      </c>
+      <c r="E710" t="s">
+        <v>8</v>
+      </c>
+      <c r="F710" t="s">
+        <v>50</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E711" t="s">
+        <v>8</v>
+      </c>
+      <c r="F711" t="s">
+        <v>51</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D712" t="s">
+        <v>18</v>
+      </c>
+      <c r="E712" t="s">
+        <v>8</v>
+      </c>
+      <c r="F712" t="s">
+        <v>51</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E713" t="s">
+        <v>7</v>
+      </c>
+      <c r="F713" t="s">
+        <v>21</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E714" t="s">
+        <v>8</v>
+      </c>
+      <c r="F714" t="s">
+        <v>21</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D715" t="s">
+        <v>39</v>
+      </c>
+      <c r="E715" t="s">
+        <v>8</v>
+      </c>
+      <c r="F715" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D716" t="s">
+        <v>16</v>
+      </c>
+      <c r="E716" t="s">
+        <v>8</v>
+      </c>
+      <c r="F716" t="s">
+        <v>21</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D717" t="s">
+        <v>15</v>
+      </c>
+      <c r="E717" t="s">
+        <v>8</v>
+      </c>
+      <c r="F717" t="s">
+        <v>51</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D718" t="s">
+        <v>66</v>
+      </c>
+      <c r="E718" t="s">
+        <v>10</v>
+      </c>
+      <c r="F718" t="s">
+        <v>21</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E719" t="s">
+        <v>8</v>
+      </c>
+      <c r="F719" t="s">
+        <v>21</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D720" t="s">
+        <v>11</v>
+      </c>
+      <c r="E720" t="s">
+        <v>8</v>
+      </c>
+      <c r="F720" t="s">
+        <v>21</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D721" t="s">
+        <v>39</v>
+      </c>
+      <c r="E721" t="s">
+        <v>8</v>
+      </c>
+      <c r="F721" t="s">
+        <v>21</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D722" t="s">
+        <v>199</v>
+      </c>
+      <c r="E722" t="s">
+        <v>8</v>
+      </c>
+      <c r="F722" t="s">
+        <v>21</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E723" t="s">
+        <v>8</v>
+      </c>
+      <c r="F723" t="s">
+        <v>50</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E724" t="s">
+        <v>8</v>
+      </c>
+      <c r="F724" t="s">
+        <v>50</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D725" t="s">
+        <v>18</v>
+      </c>
+      <c r="E725" t="s">
+        <v>8</v>
+      </c>
+      <c r="F725" t="s">
+        <v>21</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E726" t="s">
+        <v>8</v>
+      </c>
+      <c r="F726" t="s">
+        <v>50</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D727" t="s">
+        <v>66</v>
+      </c>
+      <c r="E727" t="s">
+        <v>10</v>
+      </c>
+      <c r="F727" t="s">
+        <v>21</v>
+      </c>
+      <c r="G727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D728" t="s">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s">
+        <v>118</v>
+      </c>
+      <c r="F728" t="s">
+        <v>21</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D729" t="s">
+        <v>18</v>
+      </c>
+      <c r="E729" t="s">
+        <v>8</v>
+      </c>
+      <c r="F729" t="s">
+        <v>112</v>
+      </c>
+      <c r="G729" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D730" t="s">
+        <v>39</v>
+      </c>
+      <c r="E730" t="s">
+        <v>8</v>
+      </c>
+      <c r="F730" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D731" t="s">
+        <v>39</v>
+      </c>
+      <c r="E731" t="s">
+        <v>8</v>
+      </c>
+      <c r="F731" t="s">
+        <v>21</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D732" t="s">
+        <v>607</v>
+      </c>
+      <c r="E732" t="s">
+        <v>608</v>
+      </c>
+      <c r="F732" t="s">
+        <v>21</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D733" t="s">
+        <v>607</v>
+      </c>
+      <c r="E733" t="s">
+        <v>608</v>
+      </c>
+      <c r="F733" t="s">
+        <v>21</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D734" t="s">
+        <v>607</v>
+      </c>
+      <c r="E734" t="s">
+        <v>608</v>
+      </c>
+      <c r="F734" t="s">
+        <v>21</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D735" t="s">
+        <v>607</v>
+      </c>
+      <c r="E735" t="s">
+        <v>608</v>
+      </c>
+      <c r="F735" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D736" t="s">
+        <v>607</v>
+      </c>
+      <c r="E736" t="s">
+        <v>608</v>
+      </c>
+      <c r="F736" t="s">
+        <v>21</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D737" t="s">
+        <v>607</v>
+      </c>
+      <c r="E737" t="s">
+        <v>608</v>
+      </c>
+      <c r="F737" t="s">
+        <v>21</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>46066</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D738" t="s">
+        <v>12</v>
+      </c>
+      <c r="E738" t="s">
+        <v>190</v>
+      </c>
+      <c r="F738" t="s">
+        <v>21</v>
+      </c>
+      <c r="G738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>46066</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D739" t="s">
+        <v>15</v>
+      </c>
+      <c r="E739" t="s">
+        <v>8</v>
+      </c>
+      <c r="F739" t="s">
+        <v>21</v>
+      </c>
+      <c r="G739">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603160B6-B74F-4978-8ABB-3F4CCA8F0AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278F370-8777-41DA-883E-45C66F3D30DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1900">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -5106,6 +5106,639 @@
   </si>
   <si>
     <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>26001508000106</t>
+  </si>
+  <si>
+    <t>SEBASTIAO DE SENA E SILVA</t>
+  </si>
+  <si>
+    <t>Felipe Silva</t>
+  </si>
+  <si>
+    <t>39495373000116</t>
+  </si>
+  <si>
+    <t>LUCIANO BATISTA DE LIMA</t>
+  </si>
+  <si>
+    <t>11338410000163</t>
+  </si>
+  <si>
+    <t>M CONT - DADOS CONTABILIDADE GOVERNAMENTAL LTDA</t>
+  </si>
+  <si>
+    <t>26658327000149</t>
+  </si>
+  <si>
+    <t>MENOR PRECO ATACADAO DE MATERIAL DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>07211422000155</t>
+  </si>
+  <si>
+    <t>IMPLEMENTAR GESTAO ADMINISTRATIVA, COMERCIAL E DE NEGOCIOS LTDA.</t>
+  </si>
+  <si>
+    <t>64870946000191</t>
+  </si>
+  <si>
+    <t>DANYELLI FISIOCARE LTDA</t>
+  </si>
+  <si>
+    <t>33643540000142</t>
+  </si>
+  <si>
+    <t>DANUSE BARRETO VIANNA</t>
+  </si>
+  <si>
+    <t>64905013000192</t>
+  </si>
+  <si>
+    <t>DIEGO VIEIRA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>23173369000100</t>
+  </si>
+  <si>
+    <t>JOAO GILBERTO DE SOUZA</t>
+  </si>
+  <si>
+    <t>64871639000125</t>
+  </si>
+  <si>
+    <t>ONOFRE GD TRANPORTES LTDA</t>
+  </si>
+  <si>
+    <t>18126529000111</t>
+  </si>
+  <si>
+    <t>A O C BARBOSA LTDA</t>
+  </si>
+  <si>
+    <t>35978470000109</t>
+  </si>
+  <si>
+    <t>CAMARA DE JUSTICA ARBITRAL DE MANACAPURU/AM - CJAM</t>
+  </si>
+  <si>
+    <t>59395734000160</t>
+  </si>
+  <si>
+    <t>GABRIEL OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>50120074000130</t>
+  </si>
+  <si>
+    <t>CLIMATECH LTDA</t>
+  </si>
+  <si>
+    <t>51858753000173</t>
+  </si>
+  <si>
+    <t>JGD NEGOCIOS E INVESTIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>65087485000148</t>
+  </si>
+  <si>
+    <t>RENATO CORDEIRO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>19449328000118</t>
+  </si>
+  <si>
+    <t>ERALDO FERREIRA BERNARDO</t>
+  </si>
+  <si>
+    <t>47308710000147</t>
+  </si>
+  <si>
+    <t>D F C DE JESUS COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>33371163000130</t>
+  </si>
+  <si>
+    <t>JOSE RUBENS ZAGATO</t>
+  </si>
+  <si>
+    <t>65076418000128</t>
+  </si>
+  <si>
+    <t>ALEX RIETE CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>64941132000109</t>
+  </si>
+  <si>
+    <t>CERVEJARIA ROOTS CRAFT BREWING LTDA</t>
+  </si>
+  <si>
+    <t>31888606000139</t>
+  </si>
+  <si>
+    <t>ALBERTT MIGUEL DOS S. KEMPER</t>
+  </si>
+  <si>
+    <t>01577361000168</t>
+  </si>
+  <si>
+    <t>LEVEL UP CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>18729427000190</t>
+  </si>
+  <si>
+    <t>LABORATORIO DE PROTESE ODONTOLOGICA GENESIS LTDA</t>
+  </si>
+  <si>
+    <t>17688427000127</t>
+  </si>
+  <si>
+    <t>NELSON FERREIRA NETO SERVICOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>21031549000113</t>
+  </si>
+  <si>
+    <t>MULTMAX LTDA</t>
+  </si>
+  <si>
+    <t>19764066000186</t>
+  </si>
+  <si>
+    <t>OLEARI PRODUCOES SOM E ILUMINACAO LTDA</t>
+  </si>
+  <si>
+    <t>19210666000100</t>
+  </si>
+  <si>
+    <t>RENATO DE JESUS CUNHA</t>
+  </si>
+  <si>
+    <t>52535224000100</t>
+  </si>
+  <si>
+    <t>PIZZARIA BENVENUTTO LTDA</t>
+  </si>
+  <si>
+    <t>64901103000105</t>
+  </si>
+  <si>
+    <t>LUCAS SOUZA PEREIRA</t>
+  </si>
+  <si>
+    <t>33249872000147</t>
+  </si>
+  <si>
+    <t>LUART ENXOVAIS LTDA</t>
+  </si>
+  <si>
+    <t>63934449000147</t>
+  </si>
+  <si>
+    <t>SUZELI SOARES DOS SANTOS CENTRO VETERINARIO LTDA</t>
+  </si>
+  <si>
+    <t>64811895000127</t>
+  </si>
+  <si>
+    <t>LUNA COMUNICACAO E MARKETING LTDA</t>
+  </si>
+  <si>
+    <t>Alan Cruz Silva</t>
+  </si>
+  <si>
+    <t>47973754000191</t>
+  </si>
+  <si>
+    <t>SILVANEY DOS S NUNES</t>
+  </si>
+  <si>
+    <t>52769680000106</t>
+  </si>
+  <si>
+    <t>AUTO ESCOLA PADRAO LTDA</t>
+  </si>
+  <si>
+    <t>65141104000161</t>
+  </si>
+  <si>
+    <t>ALCE INVESTIMENTOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>58328328000111</t>
+  </si>
+  <si>
+    <t>AL CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>51612982000103</t>
+  </si>
+  <si>
+    <t>51.612.982 KLEZIA PAULA MACHADO</t>
+  </si>
+  <si>
+    <t>50423065000118</t>
+  </si>
+  <si>
+    <t>WALLYSSON TAVARES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>47408862000111</t>
+  </si>
+  <si>
+    <t>BELLA PAES DISTRIBUIDORA DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>07499216000192</t>
+  </si>
+  <si>
+    <t>I S EMPREENDIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64988430000146</t>
+  </si>
+  <si>
+    <t>FIGAL EMPREENDIMENTOS E PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>63762286000162</t>
+  </si>
+  <si>
+    <t>63.762.286 PAULO CESAR DE MORAIS CARDOSO FRAZAO</t>
+  </si>
+  <si>
+    <t>41668744000166</t>
+  </si>
+  <si>
+    <t>REFRIGLASS COMERCIO DE VIDROS LTDA</t>
+  </si>
+  <si>
+    <t>58803515000100</t>
+  </si>
+  <si>
+    <t>RAMOS - SERVICOS AGRICOLA LTDA</t>
+  </si>
+  <si>
+    <t>57161623000163</t>
+  </si>
+  <si>
+    <t>LAURENT'S PIT STOP LTDA</t>
+  </si>
+  <si>
+    <t>12386860000194</t>
+  </si>
+  <si>
+    <t>ACC EMPREENDIMENTO SOCIAL</t>
+  </si>
+  <si>
+    <t>02495142000100</t>
+  </si>
+  <si>
+    <t>A L VEICULOS E LOCACAO LTDA</t>
+  </si>
+  <si>
+    <t>39964912000119</t>
+  </si>
+  <si>
+    <t>GABRIELLE SOUSA SERAFIM</t>
+  </si>
+  <si>
+    <t>51850198000133</t>
+  </si>
+  <si>
+    <t>BELLA CAFE LTDA</t>
+  </si>
+  <si>
+    <t>49528419000100</t>
+  </si>
+  <si>
+    <t>EDDY KELLER CESAR EVANGELISTA</t>
+  </si>
+  <si>
+    <t>35379451000166</t>
+  </si>
+  <si>
+    <t>ATLAS ENGENHARIA E PLANEJAMENTO LTDA</t>
+  </si>
+  <si>
+    <t>65059221000180</t>
+  </si>
+  <si>
+    <t>FESTINI ACOS LTDA</t>
+  </si>
+  <si>
+    <t>20520091000101</t>
+  </si>
+  <si>
+    <t>FRANCELEIDE MEDEIROS DE MELO</t>
+  </si>
+  <si>
+    <t>72143860000195</t>
+  </si>
+  <si>
+    <t>INDUSTRIA DE CALCADOS MORGANA LTDA</t>
+  </si>
+  <si>
+    <t>21043334000112</t>
+  </si>
+  <si>
+    <t>WAIGNO MOREIRA SALES</t>
+  </si>
+  <si>
+    <t>37361140000103</t>
+  </si>
+  <si>
+    <t>COLUFRAN FERRAGENS ARMADAS LTDA</t>
+  </si>
+  <si>
+    <t>50867874000119</t>
+  </si>
+  <si>
+    <t>RICARDO &amp; SILVEIRA MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>21005169000104</t>
+  </si>
+  <si>
+    <t>21.005.169 EDJAN VICENTE PEREIRA FERREIRA</t>
+  </si>
+  <si>
+    <t>09652373000111</t>
+  </si>
+  <si>
+    <t>MAKALLISTER INDUSTRIA E COMERCIO DE PRODUTOS TEXTEIS LTDA</t>
+  </si>
+  <si>
+    <t>36825902000104</t>
+  </si>
+  <si>
+    <t>FRIGORIFICO E DISTRIBUIDORA MAGALHAES</t>
+  </si>
+  <si>
+    <t>65104047000140</t>
+  </si>
+  <si>
+    <t>MVS REPASSES LTDA</t>
+  </si>
+  <si>
+    <t>64226888000168</t>
+  </si>
+  <si>
+    <t>DIAS SERVICOS CORPORATIVOS LTDA</t>
+  </si>
+  <si>
+    <t>07973117000109</t>
+  </si>
+  <si>
+    <t>CENTRO EDUCACIONAL DE TECNOLOGIA SOCIAL DA AMAZONIA - CETEC</t>
+  </si>
+  <si>
+    <t>63679775000155</t>
+  </si>
+  <si>
+    <t>NANNI TOSTES INTERMEDIACAO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>65131314000179</t>
+  </si>
+  <si>
+    <t>DN AUTO FREIOS CARRETRUCK LTDA</t>
+  </si>
+  <si>
+    <t>64225315000110</t>
+  </si>
+  <si>
+    <t>MELLSNICK PRODUCOES LTDA</t>
+  </si>
+  <si>
+    <t>09590641000118</t>
+  </si>
+  <si>
+    <t>C. G. DO AMARAL</t>
+  </si>
+  <si>
+    <t>65056655000127</t>
+  </si>
+  <si>
+    <t>MS COUROS LTDA</t>
+  </si>
+  <si>
+    <t>63539889000108</t>
+  </si>
+  <si>
+    <t>ALBERTO CARLOS SALVADOR GAMBOGGI SEGRETO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>19359600000179</t>
+  </si>
+  <si>
+    <t>E W G - INSTALACOES DE ELEVADORES LTDA</t>
+  </si>
+  <si>
+    <t>65131627000127</t>
+  </si>
+  <si>
+    <t>FERNANDA SOUZA SANTOS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>65125790000187</t>
+  </si>
+  <si>
+    <t>S SILVA PERES CONSULTORIA EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>65143589000122</t>
+  </si>
+  <si>
+    <t>TERESINHA PRISCILA FERREIRA DA SILVA DILL LTDA</t>
+  </si>
+  <si>
+    <t>18191048000190</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR ELMAVES LTDA</t>
+  </si>
+  <si>
+    <t>23718606000162</t>
+  </si>
+  <si>
+    <t>COOPSUL - COOPERATIVA DE AGENTE DE RECICLAGEM E COLETA SELETIVA DE MATERIAIS RECICLAVEIS</t>
+  </si>
+  <si>
+    <t>57430490000183</t>
+  </si>
+  <si>
+    <t>TERRA A VISTA COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>16675380000102</t>
+  </si>
+  <si>
+    <t>CUSTODIO CARNEIRO DOS SANTOS CONSTRUCAO</t>
+  </si>
+  <si>
+    <t>13180229000105</t>
+  </si>
+  <si>
+    <t>AUTOPECAS PEREIRA LTDA</t>
+  </si>
+  <si>
+    <t>45429021000165</t>
+  </si>
+  <si>
+    <t>VGM MEDICAL LTDA</t>
+  </si>
+  <si>
+    <t>64190827000198</t>
+  </si>
+  <si>
+    <t>AGHF-S HOLDING E PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>01016774000173</t>
+  </si>
+  <si>
+    <t>JORGIVALDO CARNEIRO NOBRE</t>
+  </si>
+  <si>
+    <t>18801867000101</t>
+  </si>
+  <si>
+    <t>EDDM PARTICIPACOES E ADMINISTRACAO DE BENS LTDA</t>
+  </si>
+  <si>
+    <t>54977875000177</t>
+  </si>
+  <si>
+    <t>LIBERTY SAUDE CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>64293096000106</t>
+  </si>
+  <si>
+    <t>MERCADO JNM LTDA</t>
+  </si>
+  <si>
+    <t>64380321000141</t>
+  </si>
+  <si>
+    <t>KELLY MELEM GLOBAL IMPORTACAO &amp; LIFESTYLE LTDA</t>
+  </si>
+  <si>
+    <t>17692738000160</t>
+  </si>
+  <si>
+    <t>L &amp; L INDUSTRIA E COMERCIO DE CALCADOS LTDA</t>
+  </si>
+  <si>
+    <t>24070290000108</t>
+  </si>
+  <si>
+    <t>DUARTE MENDES ENGENHARIA E CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t>65114961000172</t>
+  </si>
+  <si>
+    <t>T TERRATECH LOCACOES DE MAQUINAS E EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>65128497000173</t>
+  </si>
+  <si>
+    <t>AXXIA ENGENHARIA INTEGRADA LTDA</t>
+  </si>
+  <si>
+    <t>33102566000183</t>
+  </si>
+  <si>
+    <t>MARATON PROJETOS ASSESSORIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>33365785000155</t>
+  </si>
+  <si>
+    <t>SILVIO FERNANDO PEDROSO</t>
+  </si>
+  <si>
+    <t>17083629000145</t>
+  </si>
+  <si>
+    <t>PEDRO LEONARDO MECKING STAUDT LTDA</t>
+  </si>
+  <si>
+    <t>18265987000131</t>
+  </si>
+  <si>
+    <t>18.265.987 CLAUDIA TAVARES BORBA ROLIM</t>
+  </si>
+  <si>
+    <t>59159290000163</t>
+  </si>
+  <si>
+    <t>59.159.290 PAULA MARILIA MARTINS</t>
+  </si>
+  <si>
+    <t>Everly Gomes Caldas</t>
+  </si>
+  <si>
+    <t>59629357000186</t>
+  </si>
+  <si>
+    <t>M C NUNES SERVICOS GERENCIAIS LTDA</t>
+  </si>
+  <si>
+    <t>39477949000112</t>
+  </si>
+  <si>
+    <t>FERNANDO DE SOUZA VILELA</t>
+  </si>
+  <si>
+    <t>61487818000175</t>
+  </si>
+  <si>
+    <t>AROMA COSMETICOS E PERFUMARIA LTDA</t>
+  </si>
+  <si>
+    <t>18738942000137</t>
+  </si>
+  <si>
+    <t>SALVIANA E CLOVES PANZER RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>69076941000105</t>
+  </si>
+  <si>
+    <t>JACAMARGO SHOP LTDA</t>
+  </si>
+  <si>
+    <t>73093668000102</t>
+  </si>
+  <si>
+    <t>DPST - EMPREEITEIRA E MATERIAIS PARA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>61160276000121</t>
+  </si>
+  <si>
+    <t>W. MASSRUHA LTDA</t>
+  </si>
+  <si>
+    <t>17829738000169</t>
+  </si>
+  <si>
+    <t>MAFRAS PRATOS PRONTOS E MARMITEX LTDA.</t>
+  </si>
+  <si>
+    <t>64256188000116</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE EXCELENCIA EM INSTRUMENTACAO CIRURGICA ELAINE FREITAS LTDA</t>
   </si>
 </sst>
 </file>
@@ -5489,13 +6122,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G808"/>
+  <dimension ref="A1:G912"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11124,7 +11760,7 @@
         <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
         <v>1546</v>
@@ -12412,7 +13048,7 @@
         <v>8</v>
       </c>
       <c r="F301" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -13171,7 +13807,7 @@
         <v>8</v>
       </c>
       <c r="F334" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -17417,7 +18053,7 @@
         <v>8</v>
       </c>
       <c r="F519" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -18889,7 +19525,7 @@
         <v>8</v>
       </c>
       <c r="F583" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -18935,7 +19571,7 @@
         <v>8</v>
       </c>
       <c r="F585" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G585" t="s">
         <v>1547</v>
@@ -20312,7 +20948,7 @@
         <v>8</v>
       </c>
       <c r="F645" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G645" t="s">
         <v>1548</v>
@@ -21467,19 +22103,19 @@
         <v>46065</v>
       </c>
       <c r="B696" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C696" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D696" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E696" t="s">
         <v>8</v>
       </c>
       <c r="F696" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G696">
         <v>0</v>
@@ -21490,19 +22126,19 @@
         <v>46065</v>
       </c>
       <c r="B697" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C697" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D697" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E697" t="s">
         <v>8</v>
       </c>
       <c r="F697" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -21513,16 +22149,16 @@
         <v>46065</v>
       </c>
       <c r="B698" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C698" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D698" t="s">
-        <v>69</v>
+        <v>1147</v>
       </c>
       <c r="E698" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F698" t="s">
         <v>21</v>
@@ -21536,16 +22172,16 @@
         <v>46065</v>
       </c>
       <c r="B699" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C699" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="D699" t="s">
-        <v>1147</v>
+        <v>16</v>
       </c>
       <c r="E699" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F699" t="s">
         <v>21</v>
@@ -21559,13 +22195,13 @@
         <v>46065</v>
       </c>
       <c r="B700" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C700" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D700" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E700" t="s">
         <v>8</v>
@@ -21582,13 +22218,13 @@
         <v>46065</v>
       </c>
       <c r="B701" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C701" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D701" t="s">
-        <v>18</v>
+        <v>1302</v>
       </c>
       <c r="E701" t="s">
         <v>8</v>
@@ -21605,13 +22241,13 @@
         <v>46065</v>
       </c>
       <c r="B702" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C702" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D702" t="s">
-        <v>1302</v>
+        <v>18</v>
       </c>
       <c r="E702" t="s">
         <v>8</v>
@@ -21628,19 +22264,19 @@
         <v>46065</v>
       </c>
       <c r="B703" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C703" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D703" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E703" t="s">
         <v>8</v>
       </c>
       <c r="F703" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -21651,13 +22287,13 @@
         <v>46065</v>
       </c>
       <c r="B704" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C704" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D704" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E704" t="s">
         <v>8</v>
@@ -21674,19 +22310,19 @@
         <v>46065</v>
       </c>
       <c r="B705" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C705" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D705" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E705" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F705" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G705">
         <v>0</v>
@@ -21697,16 +22333,16 @@
         <v>46065</v>
       </c>
       <c r="B706" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C706" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D706" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E706" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F706" t="s">
         <v>21</v>
@@ -21720,19 +22356,19 @@
         <v>46065</v>
       </c>
       <c r="B707" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C707" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D707" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="E707" t="s">
         <v>8</v>
       </c>
       <c r="F707" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -21743,19 +22379,19 @@
         <v>46065</v>
       </c>
       <c r="B708" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C708" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D708" t="s">
-        <v>199</v>
+        <v>1230</v>
       </c>
       <c r="E708" t="s">
         <v>8</v>
       </c>
       <c r="F708" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -21766,13 +22402,13 @@
         <v>46065</v>
       </c>
       <c r="B709" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C709" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D709" t="s">
-        <v>1230</v>
+        <v>18</v>
       </c>
       <c r="E709" t="s">
         <v>8</v>
@@ -21789,19 +22425,19 @@
         <v>46065</v>
       </c>
       <c r="B710" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C710" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D710" t="s">
-        <v>18</v>
+        <v>1147</v>
       </c>
       <c r="E710" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F710" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -21812,16 +22448,16 @@
         <v>46065</v>
       </c>
       <c r="B711" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C711" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D711" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="E711" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F711" t="s">
         <v>21</v>
@@ -21835,22 +22471,19 @@
         <v>46065</v>
       </c>
       <c r="B712" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C712" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D712" t="s">
-        <v>1156</v>
+        <v>39</v>
       </c>
       <c r="E712" t="s">
         <v>8</v>
       </c>
       <c r="F712" t="s">
-        <v>21</v>
-      </c>
-      <c r="G712">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
@@ -21858,19 +22491,22 @@
         <v>46065</v>
       </c>
       <c r="B713" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C713" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D713" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E713" t="s">
         <v>8</v>
       </c>
       <c r="F713" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
@@ -21878,19 +22514,19 @@
         <v>46065</v>
       </c>
       <c r="B714" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C714" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D714" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E714" t="s">
         <v>8</v>
       </c>
       <c r="F714" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -21901,19 +22537,19 @@
         <v>46065</v>
       </c>
       <c r="B715" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C715" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D715" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E715" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F715" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -21924,16 +22560,16 @@
         <v>46065</v>
       </c>
       <c r="B716" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C716" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D716" t="s">
-        <v>66</v>
+        <v>1505</v>
       </c>
       <c r="E716" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F716" t="s">
         <v>21</v>
@@ -21947,13 +22583,13 @@
         <v>46065</v>
       </c>
       <c r="B717" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C717" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D717" t="s">
-        <v>1505</v>
+        <v>11</v>
       </c>
       <c r="E717" t="s">
         <v>8</v>
@@ -21970,13 +22606,13 @@
         <v>46065</v>
       </c>
       <c r="B718" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C718" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D718" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E718" t="s">
         <v>8</v>
@@ -21993,13 +22629,13 @@
         <v>46065</v>
       </c>
       <c r="B719" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C719" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="D719" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E719" t="s">
         <v>8</v>
@@ -22016,19 +22652,19 @@
         <v>46065</v>
       </c>
       <c r="B720" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C720" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D720" t="s">
-        <v>199</v>
+        <v>1230</v>
       </c>
       <c r="E720" t="s">
         <v>8</v>
       </c>
       <c r="F720" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -22039,10 +22675,10 @@
         <v>46065</v>
       </c>
       <c r="B721" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C721" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D721" t="s">
         <v>1230</v>
@@ -22062,19 +22698,19 @@
         <v>46065</v>
       </c>
       <c r="B722" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C722" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D722" t="s">
-        <v>1230</v>
+        <v>18</v>
       </c>
       <c r="E722" t="s">
         <v>8</v>
       </c>
       <c r="F722" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G722">
         <v>0</v>
@@ -22085,19 +22721,19 @@
         <v>46065</v>
       </c>
       <c r="B723" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C723" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D723" t="s">
-        <v>18</v>
+        <v>1230</v>
       </c>
       <c r="E723" t="s">
         <v>8</v>
       </c>
       <c r="F723" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -22108,19 +22744,19 @@
         <v>46065</v>
       </c>
       <c r="B724" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C724" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D724" t="s">
-        <v>1230</v>
+        <v>66</v>
       </c>
       <c r="E724" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F724" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G724">
         <v>0</v>
@@ -22131,16 +22767,16 @@
         <v>46065</v>
       </c>
       <c r="B725" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="C725" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="D725" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E725" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F725" t="s">
         <v>21</v>
@@ -22154,22 +22790,22 @@
         <v>46065</v>
       </c>
       <c r="B726" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C726" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D726" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E726" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="F726" t="s">
-        <v>21</v>
-      </c>
-      <c r="G726">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G726" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
@@ -22177,22 +22813,22 @@
         <v>46065</v>
       </c>
       <c r="B727" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C727" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D727" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E727" t="s">
         <v>8</v>
       </c>
       <c r="F727" t="s">
-        <v>112</v>
-      </c>
-      <c r="G727" t="s">
-        <v>263</v>
+        <v>52</v>
+      </c>
+      <c r="G727">
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
@@ -22200,10 +22836,10 @@
         <v>46065</v>
       </c>
       <c r="B728" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="C728" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D728" t="s">
         <v>39</v>
@@ -22212,7 +22848,7 @@
         <v>8</v>
       </c>
       <c r="F728" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G728">
         <v>0</v>
@@ -22223,16 +22859,16 @@
         <v>46065</v>
       </c>
       <c r="B729" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C729" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D729" t="s">
-        <v>39</v>
+        <v>607</v>
       </c>
       <c r="E729" t="s">
-        <v>8</v>
+        <v>608</v>
       </c>
       <c r="F729" t="s">
         <v>21</v>
@@ -22246,10 +22882,10 @@
         <v>46065</v>
       </c>
       <c r="B730" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C730" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D730" t="s">
         <v>607</v>
@@ -22269,10 +22905,10 @@
         <v>46065</v>
       </c>
       <c r="B731" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C731" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D731" t="s">
         <v>607</v>
@@ -22292,10 +22928,10 @@
         <v>46065</v>
       </c>
       <c r="B732" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C732" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D732" t="s">
         <v>607</v>
@@ -22315,10 +22951,10 @@
         <v>46065</v>
       </c>
       <c r="B733" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C733" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D733" t="s">
         <v>607</v>
@@ -22338,10 +22974,10 @@
         <v>46065</v>
       </c>
       <c r="B734" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C734" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D734" t="s">
         <v>607</v>
@@ -22358,19 +22994,19 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B735" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C735" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="D735" t="s">
-        <v>607</v>
+        <v>12</v>
       </c>
       <c r="E735" t="s">
-        <v>608</v>
+        <v>190</v>
       </c>
       <c r="F735" t="s">
         <v>21</v>
@@ -22384,16 +23020,16 @@
         <v>46066</v>
       </c>
       <c r="B736" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C736" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D736" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E736" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="F736" t="s">
         <v>21</v>
@@ -22407,16 +23043,16 @@
         <v>46066</v>
       </c>
       <c r="B737" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="C737" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="D737" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E737" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F737" t="s">
         <v>21</v>
@@ -22430,16 +23066,16 @@
         <v>46066</v>
       </c>
       <c r="B738" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C738" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D738" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="E738" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F738" t="s">
         <v>21</v>
@@ -22453,19 +23089,19 @@
         <v>46066</v>
       </c>
       <c r="B739" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C739" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D739" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E739" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F739" t="s">
-        <v>21</v>
+        <v>929</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -22476,19 +23112,19 @@
         <v>46066</v>
       </c>
       <c r="B740" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C740" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D740" t="s">
-        <v>85</v>
+        <v>1293</v>
       </c>
       <c r="E740" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F740" t="s">
-        <v>929</v>
+        <v>21</v>
       </c>
       <c r="G740">
         <v>0</v>
@@ -22499,16 +23135,16 @@
         <v>46066</v>
       </c>
       <c r="B741" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C741" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D741" t="s">
-        <v>1293</v>
+        <v>1138</v>
       </c>
       <c r="E741" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F741" t="s">
         <v>21</v>
@@ -22522,16 +23158,16 @@
         <v>46066</v>
       </c>
       <c r="B742" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C742" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D742" t="s">
-        <v>1138</v>
+        <v>109</v>
       </c>
       <c r="E742" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F742" t="s">
         <v>21</v>
@@ -22545,19 +23181,19 @@
         <v>46066</v>
       </c>
       <c r="B743" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C743" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D743" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E743" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F743" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G743">
         <v>0</v>
@@ -22568,19 +23204,19 @@
         <v>46066</v>
       </c>
       <c r="B744" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C744" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D744" t="s">
-        <v>18</v>
+        <v>894</v>
       </c>
       <c r="E744" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F744" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -22591,19 +23227,19 @@
         <v>46066</v>
       </c>
       <c r="B745" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C745" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D745" t="s">
-        <v>894</v>
+        <v>1348</v>
       </c>
       <c r="E745" t="s">
         <v>10</v>
       </c>
       <c r="F745" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G745">
         <v>0</v>
@@ -22614,19 +23250,19 @@
         <v>46066</v>
       </c>
       <c r="B746" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C746" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D746" t="s">
-        <v>1348</v>
+        <v>9</v>
       </c>
       <c r="E746" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F746" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G746">
         <v>0</v>
@@ -22637,19 +23273,19 @@
         <v>46066</v>
       </c>
       <c r="B747" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C747" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D747" t="s">
-        <v>9</v>
+        <v>1138</v>
       </c>
       <c r="E747" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F747" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G747">
         <v>0</v>
@@ -22660,22 +23296,19 @@
         <v>46066</v>
       </c>
       <c r="B748" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C748" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D748" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="E748" t="s">
         <v>10</v>
       </c>
       <c r="F748" t="s">
-        <v>21</v>
-      </c>
-      <c r="G748">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
@@ -22683,19 +23316,22 @@
         <v>46066</v>
       </c>
       <c r="B749" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C749" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D749" t="s">
-        <v>1156</v>
+        <v>1230</v>
       </c>
       <c r="E749" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F749" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
@@ -22703,19 +23339,19 @@
         <v>46066</v>
       </c>
       <c r="B750" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C750" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D750" t="s">
-        <v>1230</v>
+        <v>1577</v>
       </c>
       <c r="E750" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F750" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G750">
         <v>0</v>
@@ -22726,19 +23362,19 @@
         <v>46066</v>
       </c>
       <c r="B751" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C751" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D751" t="s">
-        <v>1577</v>
+        <v>85</v>
       </c>
       <c r="E751" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="F751" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -22749,19 +23385,19 @@
         <v>46066</v>
       </c>
       <c r="B752" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="C752" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="D752" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E752" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F752" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -22772,22 +23408,19 @@
         <v>46066</v>
       </c>
       <c r="B753" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C753" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D753" t="s">
-        <v>16</v>
+        <v>1230</v>
       </c>
       <c r="E753" t="s">
         <v>8</v>
       </c>
       <c r="F753" t="s">
-        <v>21</v>
-      </c>
-      <c r="G753">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
@@ -22795,19 +23428,22 @@
         <v>46066</v>
       </c>
       <c r="B754" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C754" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="D754" t="s">
-        <v>1230</v>
+        <v>894</v>
       </c>
       <c r="E754" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F754" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
@@ -22815,22 +23451,22 @@
         <v>46066</v>
       </c>
       <c r="B755" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C755" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D755" t="s">
-        <v>894</v>
+        <v>16</v>
       </c>
       <c r="E755" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F755" t="s">
-        <v>21</v>
-      </c>
-      <c r="G755">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G755" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
@@ -22838,22 +23474,22 @@
         <v>46066</v>
       </c>
       <c r="B756" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C756" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D756" t="s">
-        <v>16</v>
+        <v>1505</v>
       </c>
       <c r="E756" t="s">
         <v>8</v>
       </c>
       <c r="F756" t="s">
-        <v>112</v>
-      </c>
-      <c r="G756" t="s">
-        <v>1688</v>
+        <v>21</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
@@ -22861,13 +23497,13 @@
         <v>46066</v>
       </c>
       <c r="B757" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C757" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D757" t="s">
-        <v>1505</v>
+        <v>12</v>
       </c>
       <c r="E757" t="s">
         <v>8</v>
@@ -22884,19 +23520,19 @@
         <v>46066</v>
       </c>
       <c r="B758" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C758" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D758" t="s">
-        <v>12</v>
+        <v>1156</v>
       </c>
       <c r="E758" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F758" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G758">
         <v>0</v>
@@ -22907,10 +23543,10 @@
         <v>46066</v>
       </c>
       <c r="B759" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C759" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D759" t="s">
         <v>1156</v>
@@ -22919,7 +23555,7 @@
         <v>10</v>
       </c>
       <c r="F759" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -22930,22 +23566,22 @@
         <v>46066</v>
       </c>
       <c r="B760" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="C760" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D760" t="s">
-        <v>1156</v>
+        <v>18</v>
       </c>
       <c r="E760" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F760" t="s">
         <v>50</v>
       </c>
-      <c r="G760">
-        <v>0</v>
+      <c r="G760" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
@@ -22953,22 +23589,22 @@
         <v>46066</v>
       </c>
       <c r="B761" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="C761" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="D761" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E761" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F761" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G761" t="s">
-        <v>1688</v>
+        <v>263</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
@@ -22976,22 +23612,22 @@
         <v>46066</v>
       </c>
       <c r="B762" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C762" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D762" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="E762" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F762" t="s">
-        <v>112</v>
-      </c>
-      <c r="G762" t="s">
-        <v>263</v>
+        <v>21</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
@@ -22999,13 +23635,13 @@
         <v>46066</v>
       </c>
       <c r="B763" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="C763" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D763" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E763" t="s">
         <v>8</v>
@@ -23022,19 +23658,19 @@
         <v>46066</v>
       </c>
       <c r="B764" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C764" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D764" t="s">
-        <v>12</v>
+        <v>1230</v>
       </c>
       <c r="E764" t="s">
         <v>8</v>
       </c>
       <c r="F764" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G764">
         <v>0</v>
@@ -23045,10 +23681,10 @@
         <v>46066</v>
       </c>
       <c r="B765" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C765" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D765" t="s">
         <v>1230</v>
@@ -23057,10 +23693,10 @@
         <v>8</v>
       </c>
       <c r="F765" t="s">
-        <v>50</v>
-      </c>
-      <c r="G765">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G765" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
@@ -23068,22 +23704,22 @@
         <v>46066</v>
       </c>
       <c r="B766" t="s">
-        <v>1606</v>
+        <v>745</v>
       </c>
       <c r="C766" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D766" t="s">
-        <v>1230</v>
+        <v>85</v>
       </c>
       <c r="E766" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F766" t="s">
-        <v>112</v>
-      </c>
-      <c r="G766" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
@@ -23091,16 +23727,16 @@
         <v>46066</v>
       </c>
       <c r="B767" t="s">
-        <v>745</v>
+        <v>1609</v>
       </c>
       <c r="C767" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D767" t="s">
-        <v>85</v>
+        <v>1230</v>
       </c>
       <c r="E767" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F767" t="s">
         <v>21</v>
@@ -23114,19 +23750,19 @@
         <v>46066</v>
       </c>
       <c r="B768" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C768" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D768" t="s">
-        <v>1230</v>
+        <v>75</v>
       </c>
       <c r="E768" t="s">
         <v>8</v>
       </c>
       <c r="F768" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G768">
         <v>0</v>
@@ -23137,22 +23773,19 @@
         <v>46066</v>
       </c>
       <c r="B769" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C769" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D769" t="s">
-        <v>75</v>
+        <v>1348</v>
       </c>
       <c r="E769" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F769" t="s">
-        <v>52</v>
-      </c>
-      <c r="G769">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
@@ -23160,19 +23793,22 @@
         <v>46066</v>
       </c>
       <c r="B770" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C770" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D770" t="s">
-        <v>1348</v>
+        <v>16</v>
       </c>
       <c r="E770" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F770" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
@@ -23180,19 +23816,19 @@
         <v>46066</v>
       </c>
       <c r="B771" t="s">
-        <v>1615</v>
+        <v>1118</v>
       </c>
       <c r="C771" t="s">
-        <v>1616</v>
+        <v>1119</v>
       </c>
       <c r="D771" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E771" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F771" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G771">
         <v>0</v>
@@ -23203,16 +23839,16 @@
         <v>46066</v>
       </c>
       <c r="B772" t="s">
-        <v>1118</v>
+        <v>1617</v>
       </c>
       <c r="C772" t="s">
-        <v>1119</v>
+        <v>1618</v>
       </c>
       <c r="D772" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E772" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F772" t="s">
         <v>21</v>
@@ -23226,19 +23862,19 @@
         <v>46066</v>
       </c>
       <c r="B773" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C773" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D773" t="s">
-        <v>18</v>
+        <v>1147</v>
       </c>
       <c r="E773" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F773" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -23249,19 +23885,19 @@
         <v>46066</v>
       </c>
       <c r="B774" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C774" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D774" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="E774" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F774" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G774">
         <v>0</v>
@@ -23272,19 +23908,19 @@
         <v>46066</v>
       </c>
       <c r="B775" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C775" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D775" t="s">
-        <v>1156</v>
+        <v>17</v>
       </c>
       <c r="E775" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F775" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G775">
         <v>0</v>
@@ -23295,19 +23931,19 @@
         <v>46066</v>
       </c>
       <c r="B776" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C776" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D776" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E776" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F776" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G776">
         <v>0</v>
@@ -23318,13 +23954,13 @@
         <v>46066</v>
       </c>
       <c r="B777" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C777" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D777" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E777" t="s">
         <v>8</v>
@@ -23341,19 +23977,19 @@
         <v>46066</v>
       </c>
       <c r="B778" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C778" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="D778" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E778" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F778" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -23364,19 +24000,19 @@
         <v>46066</v>
       </c>
       <c r="B779" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C779" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D779" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E779" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F779" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G779">
         <v>0</v>
@@ -23387,19 +24023,19 @@
         <v>46066</v>
       </c>
       <c r="B780" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C780" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D780" t="s">
-        <v>15</v>
+        <v>1302</v>
       </c>
       <c r="E780" t="s">
         <v>8</v>
       </c>
       <c r="F780" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G780">
         <v>0</v>
@@ -23410,16 +24046,16 @@
         <v>46066</v>
       </c>
       <c r="B781" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C781" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D781" t="s">
-        <v>1302</v>
+        <v>1138</v>
       </c>
       <c r="E781" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F781" t="s">
         <v>21</v>
@@ -23433,19 +24069,19 @@
         <v>46066</v>
       </c>
       <c r="B782" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C782" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="D782" t="s">
-        <v>1138</v>
+        <v>18</v>
       </c>
       <c r="E782" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F782" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G782">
         <v>0</v>
@@ -23456,13 +24092,13 @@
         <v>46066</v>
       </c>
       <c r="B783" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C783" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D783" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E783" t="s">
         <v>8</v>
@@ -23479,19 +24115,19 @@
         <v>46066</v>
       </c>
       <c r="B784" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C784" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D784" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E784" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F784" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G784">
         <v>0</v>
@@ -23502,16 +24138,16 @@
         <v>46066</v>
       </c>
       <c r="B785" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C785" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="D785" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="E785" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F785" t="s">
         <v>21</v>
@@ -23525,22 +24161,19 @@
         <v>46066</v>
       </c>
       <c r="B786" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C786" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="D786" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="E786" t="s">
         <v>8</v>
       </c>
       <c r="F786" t="s">
-        <v>21</v>
-      </c>
-      <c r="G786">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
@@ -23548,19 +24181,22 @@
         <v>46066</v>
       </c>
       <c r="B787" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C787" t="s">
-        <v>1640</v>
+        <v>1647</v>
       </c>
       <c r="D787" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="E787" t="s">
-        <v>8</v>
+        <v>1173</v>
       </c>
       <c r="F787" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
@@ -23568,19 +24204,19 @@
         <v>46066</v>
       </c>
       <c r="B788" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C788" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D788" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E788" t="s">
-        <v>1173</v>
+        <v>8</v>
       </c>
       <c r="F788" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G788">
         <v>0</v>
@@ -23591,13 +24227,13 @@
         <v>46066</v>
       </c>
       <c r="B789" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C789" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D789" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="E789" t="s">
         <v>8</v>
@@ -23614,19 +24250,19 @@
         <v>46066</v>
       </c>
       <c r="B790" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C790" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="D790" t="s">
-        <v>18</v>
+        <v>1138</v>
       </c>
       <c r="E790" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F790" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G790">
         <v>0</v>
@@ -23637,16 +24273,16 @@
         <v>46066</v>
       </c>
       <c r="B791" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C791" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D791" t="s">
-        <v>1138</v>
+        <v>1293</v>
       </c>
       <c r="E791" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F791" t="s">
         <v>21</v>
@@ -23660,19 +24296,19 @@
         <v>46066</v>
       </c>
       <c r="B792" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C792" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="D792" t="s">
-        <v>1293</v>
+        <v>11</v>
       </c>
       <c r="E792" t="s">
         <v>8</v>
       </c>
       <c r="F792" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G792">
         <v>0</v>
@@ -23683,19 +24319,19 @@
         <v>46066</v>
       </c>
       <c r="B793" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C793" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D793" t="s">
-        <v>11</v>
+        <v>1302</v>
       </c>
       <c r="E793" t="s">
         <v>8</v>
       </c>
       <c r="F793" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G793">
         <v>0</v>
@@ -23706,19 +24342,19 @@
         <v>46066</v>
       </c>
       <c r="B794" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C794" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D794" t="s">
-        <v>1302</v>
+        <v>199</v>
       </c>
       <c r="E794" t="s">
         <v>8</v>
       </c>
       <c r="F794" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G794">
         <v>0</v>
@@ -23729,19 +24365,19 @@
         <v>46066</v>
       </c>
       <c r="B795" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C795" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D795" t="s">
-        <v>199</v>
+        <v>1339</v>
       </c>
       <c r="E795" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F795" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G795">
         <v>0</v>
@@ -23752,19 +24388,19 @@
         <v>46066</v>
       </c>
       <c r="B796" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C796" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="D796" t="s">
-        <v>1339</v>
+        <v>85</v>
       </c>
       <c r="E796" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F796" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G796">
         <v>0</v>
@@ -23775,19 +24411,19 @@
         <v>46066</v>
       </c>
       <c r="B797" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C797" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D797" t="s">
-        <v>85</v>
+        <v>1302</v>
       </c>
       <c r="E797" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F797" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -23798,19 +24434,19 @@
         <v>46066</v>
       </c>
       <c r="B798" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C798" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="D798" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="E798" t="s">
         <v>8</v>
       </c>
       <c r="F798" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -23821,19 +24457,19 @@
         <v>46066</v>
       </c>
       <c r="B799" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C799" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D799" t="s">
-        <v>1230</v>
+        <v>573</v>
       </c>
       <c r="E799" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F799" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G799">
         <v>0</v>
@@ -23844,16 +24480,16 @@
         <v>46066</v>
       </c>
       <c r="B800" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C800" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D800" t="s">
-        <v>573</v>
+        <v>16</v>
       </c>
       <c r="E800" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="F800" t="s">
         <v>21</v>
@@ -23867,13 +24503,13 @@
         <v>46066</v>
       </c>
       <c r="B801" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C801" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D801" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E801" t="s">
         <v>8</v>
@@ -23890,16 +24526,16 @@
         <v>46066</v>
       </c>
       <c r="B802" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C802" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="D802" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E802" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F802" t="s">
         <v>21</v>
@@ -23913,16 +24549,16 @@
         <v>46066</v>
       </c>
       <c r="B803" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C803" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D803" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E803" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F803" t="s">
         <v>21</v>
@@ -23936,10 +24572,10 @@
         <v>46066</v>
       </c>
       <c r="B804" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C804" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D804" t="s">
         <v>16</v>
@@ -23956,19 +24592,19 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B805" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C805" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D805" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="E805" t="s">
-        <v>8</v>
+        <v>1173</v>
       </c>
       <c r="F805" t="s">
         <v>21</v>
@@ -23982,16 +24618,16 @@
         <v>46069</v>
       </c>
       <c r="B806" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C806" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="D806" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="E806" t="s">
-        <v>1173</v>
+        <v>8</v>
       </c>
       <c r="F806" t="s">
         <v>21</v>
@@ -24005,13 +24641,13 @@
         <v>46069</v>
       </c>
       <c r="B807" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C807" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D807" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E807" t="s">
         <v>8</v>
@@ -24028,22 +24664,2291 @@
         <v>46069</v>
       </c>
       <c r="B808" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C808" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D808" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E808" t="s">
+        <v>8</v>
+      </c>
+      <c r="F808" t="s">
+        <v>21</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D809" t="s">
+        <v>109</v>
+      </c>
+      <c r="E809" t="s">
+        <v>8</v>
+      </c>
+      <c r="F809" t="s">
+        <v>21</v>
+      </c>
+      <c r="G809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D810" t="s">
+        <v>39</v>
+      </c>
+      <c r="E810" t="s">
+        <v>8</v>
+      </c>
+      <c r="F810" t="s">
+        <v>21</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D811" t="s">
+        <v>59</v>
+      </c>
+      <c r="E811" t="s">
+        <v>8</v>
+      </c>
+      <c r="F811" t="s">
+        <v>21</v>
+      </c>
+      <c r="G811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D812" t="s">
+        <v>15</v>
+      </c>
+      <c r="E812" t="s">
+        <v>8</v>
+      </c>
+      <c r="F812" t="s">
+        <v>52</v>
+      </c>
+      <c r="G812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D813" t="s">
+        <v>162</v>
+      </c>
+      <c r="E813" t="s">
+        <v>10</v>
+      </c>
+      <c r="F813" t="s">
+        <v>21</v>
+      </c>
+      <c r="G813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D814" t="s">
+        <v>16</v>
+      </c>
+      <c r="E814" t="s">
+        <v>8</v>
+      </c>
+      <c r="F814" t="s">
+        <v>21</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D815" t="s">
+        <v>894</v>
+      </c>
+      <c r="E815" t="s">
+        <v>10</v>
+      </c>
+      <c r="F815" t="s">
+        <v>52</v>
+      </c>
+      <c r="G815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D816" t="s">
+        <v>9</v>
+      </c>
+      <c r="E816" t="s">
+        <v>7</v>
+      </c>
+      <c r="F816" t="s">
+        <v>21</v>
+      </c>
+      <c r="G816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D817" t="s">
+        <v>162</v>
+      </c>
+      <c r="E817" t="s">
+        <v>10</v>
+      </c>
+      <c r="F817" t="s">
+        <v>21</v>
+      </c>
+      <c r="G817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D818" t="s">
+        <v>15</v>
+      </c>
+      <c r="E818" t="s">
+        <v>8</v>
+      </c>
+      <c r="F818" t="s">
+        <v>52</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E819" t="s">
+        <v>8</v>
+      </c>
+      <c r="F819" t="s">
+        <v>52</v>
+      </c>
+      <c r="G819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D820" t="s">
+        <v>11</v>
+      </c>
+      <c r="E820" t="s">
+        <v>8</v>
+      </c>
+      <c r="F820" t="s">
+        <v>21</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D821" t="s">
+        <v>75</v>
+      </c>
+      <c r="E821" t="s">
+        <v>8</v>
+      </c>
+      <c r="F821" t="s">
+        <v>52</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D822" t="s">
+        <v>573</v>
+      </c>
+      <c r="E822" t="s">
+        <v>190</v>
+      </c>
+      <c r="F822" t="s">
+        <v>21</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D823" t="s">
+        <v>894</v>
+      </c>
+      <c r="E823" t="s">
+        <v>10</v>
+      </c>
+      <c r="F823" t="s">
+        <v>21</v>
+      </c>
+      <c r="G823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A824" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E824" t="s">
+        <v>8</v>
+      </c>
+      <c r="F824" t="s">
+        <v>21</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E825" t="s">
+        <v>8</v>
+      </c>
+      <c r="F825" t="s">
+        <v>21</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A826" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E826" t="s">
+        <v>8</v>
+      </c>
+      <c r="F826" t="s">
+        <v>52</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E827" t="s">
+        <v>10</v>
+      </c>
+      <c r="F827" t="s">
+        <v>21</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E828" t="s">
+        <v>10</v>
+      </c>
+      <c r="F828" t="s">
+        <v>21</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D829" t="s">
+        <v>9</v>
+      </c>
+      <c r="E829" t="s">
+        <v>7</v>
+      </c>
+      <c r="F829" t="s">
+        <v>21</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D830" t="s">
+        <v>9</v>
+      </c>
+      <c r="E830" t="s">
+        <v>8</v>
+      </c>
+      <c r="F830" t="s">
+        <v>21</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D831" t="s">
+        <v>59</v>
+      </c>
+      <c r="E831" t="s">
+        <v>8</v>
+      </c>
+      <c r="F831" t="s">
+        <v>21</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E832" t="s">
+        <v>8</v>
+      </c>
+      <c r="F832" t="s">
+        <v>21</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D833" t="s">
+        <v>72</v>
+      </c>
+      <c r="E833" t="s">
+        <v>8</v>
+      </c>
+      <c r="F833" t="s">
+        <v>21</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A834" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D834" t="s">
+        <v>11</v>
+      </c>
+      <c r="E834" t="s">
+        <v>8</v>
+      </c>
+      <c r="F834" t="s">
+        <v>21</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D835" t="s">
+        <v>9</v>
+      </c>
+      <c r="E835" t="s">
+        <v>8</v>
+      </c>
+      <c r="F835" t="s">
+        <v>112</v>
+      </c>
+      <c r="G835" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A836" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D836" t="s">
         <v>18</v>
       </c>
-      <c r="E808" t="s">
-        <v>8</v>
-      </c>
-      <c r="F808" t="s">
-        <v>21</v>
-      </c>
-      <c r="G808">
-        <v>0</v>
+      <c r="E836" t="s">
+        <v>8</v>
+      </c>
+      <c r="F836" t="s">
+        <v>21</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E837" t="s">
+        <v>10</v>
+      </c>
+      <c r="F837" t="s">
+        <v>21</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A838" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E838" t="s">
+        <v>7</v>
+      </c>
+      <c r="F838" t="s">
+        <v>21</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D839" t="s">
+        <v>9</v>
+      </c>
+      <c r="E839" t="s">
+        <v>7</v>
+      </c>
+      <c r="F839" t="s">
+        <v>21</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E840" t="s">
+        <v>10</v>
+      </c>
+      <c r="F840" t="s">
+        <v>51</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D841" t="s">
+        <v>16</v>
+      </c>
+      <c r="E841" t="s">
+        <v>8</v>
+      </c>
+      <c r="F841" t="s">
+        <v>51</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D842" t="s">
+        <v>59</v>
+      </c>
+      <c r="E842" t="s">
+        <v>8</v>
+      </c>
+      <c r="F842" t="s">
+        <v>21</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D843" t="s">
+        <v>75</v>
+      </c>
+      <c r="E843" t="s">
+        <v>10</v>
+      </c>
+      <c r="F843" t="s">
+        <v>52</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D844" t="s">
+        <v>15</v>
+      </c>
+      <c r="E844" t="s">
+        <v>8</v>
+      </c>
+      <c r="F844" t="s">
+        <v>52</v>
+      </c>
+      <c r="G844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D845" t="s">
+        <v>261</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F845" t="s">
+        <v>929</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D846" t="s">
+        <v>109</v>
+      </c>
+      <c r="E846" t="s">
+        <v>7</v>
+      </c>
+      <c r="F846" t="s">
+        <v>112</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D847" t="s">
+        <v>15</v>
+      </c>
+      <c r="E847" t="s">
+        <v>8</v>
+      </c>
+      <c r="F847" t="s">
+        <v>51</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D848" t="s">
+        <v>15</v>
+      </c>
+      <c r="E848" t="s">
+        <v>8</v>
+      </c>
+      <c r="F848" t="s">
+        <v>929</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D849" t="s">
+        <v>11</v>
+      </c>
+      <c r="E849" t="s">
+        <v>8</v>
+      </c>
+      <c r="F849" t="s">
+        <v>50</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D850" t="s">
+        <v>75</v>
+      </c>
+      <c r="E850" t="s">
+        <v>10</v>
+      </c>
+      <c r="F850" t="s">
+        <v>52</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D851" t="s">
+        <v>261</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F851" t="s">
+        <v>52</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D852" t="s">
+        <v>16</v>
+      </c>
+      <c r="E852" t="s">
+        <v>8</v>
+      </c>
+      <c r="F852" t="s">
+        <v>21</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D853" t="s">
+        <v>18</v>
+      </c>
+      <c r="E853" t="s">
+        <v>8</v>
+      </c>
+      <c r="F853" t="s">
+        <v>51</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D854" t="s">
+        <v>72</v>
+      </c>
+      <c r="E854" t="s">
+        <v>8</v>
+      </c>
+      <c r="F854" t="s">
+        <v>21</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D855" t="s">
+        <v>39</v>
+      </c>
+      <c r="E855" t="s">
+        <v>8</v>
+      </c>
+      <c r="F855" t="s">
+        <v>112</v>
+      </c>
+      <c r="G855" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E856" t="s">
+        <v>7</v>
+      </c>
+      <c r="F856" t="s">
+        <v>21</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D857" t="s">
+        <v>261</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F857" t="s">
+        <v>21</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D858" t="s">
+        <v>15</v>
+      </c>
+      <c r="E858" t="s">
+        <v>8</v>
+      </c>
+      <c r="F858" t="s">
+        <v>52</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D859" t="s">
+        <v>59</v>
+      </c>
+      <c r="E859" t="s">
+        <v>8</v>
+      </c>
+      <c r="F859" t="s">
+        <v>52</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D860" t="s">
+        <v>18</v>
+      </c>
+      <c r="E860" t="s">
+        <v>8</v>
+      </c>
+      <c r="F860" t="s">
+        <v>51</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D861" t="s">
+        <v>894</v>
+      </c>
+      <c r="E861" t="s">
+        <v>10</v>
+      </c>
+      <c r="F861" t="s">
+        <v>21</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D862" t="s">
+        <v>11</v>
+      </c>
+      <c r="E862" t="s">
+        <v>8</v>
+      </c>
+      <c r="F862" t="s">
+        <v>21</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D863" t="s">
+        <v>12</v>
+      </c>
+      <c r="E863" t="s">
+        <v>8</v>
+      </c>
+      <c r="F863" t="s">
+        <v>21</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E864" t="s">
+        <v>8</v>
+      </c>
+      <c r="F864" t="s">
+        <v>21</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D865" t="s">
+        <v>11</v>
+      </c>
+      <c r="E865" t="s">
+        <v>8</v>
+      </c>
+      <c r="F865" t="s">
+        <v>21</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D866" t="s">
+        <v>72</v>
+      </c>
+      <c r="E866" t="s">
+        <v>8</v>
+      </c>
+      <c r="F866" t="s">
+        <v>21</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D867" t="s">
+        <v>15</v>
+      </c>
+      <c r="E867" t="s">
+        <v>8</v>
+      </c>
+      <c r="F867" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D868" t="s">
+        <v>11</v>
+      </c>
+      <c r="E868" t="s">
+        <v>8</v>
+      </c>
+      <c r="F868" t="s">
+        <v>21</v>
+      </c>
+      <c r="G868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D869" t="s">
+        <v>109</v>
+      </c>
+      <c r="E869" t="s">
+        <v>13</v>
+      </c>
+      <c r="F869" t="s">
+        <v>21</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D870" t="s">
+        <v>75</v>
+      </c>
+      <c r="E870" t="s">
+        <v>10</v>
+      </c>
+      <c r="F870" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E871" t="s">
+        <v>10</v>
+      </c>
+      <c r="F871" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E872" t="s">
+        <v>8</v>
+      </c>
+      <c r="F872" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D873" t="s">
+        <v>66</v>
+      </c>
+      <c r="E873" t="s">
+        <v>10</v>
+      </c>
+      <c r="F873" t="s">
+        <v>21</v>
+      </c>
+      <c r="G873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D874" t="s">
+        <v>12</v>
+      </c>
+      <c r="E874" t="s">
+        <v>10</v>
+      </c>
+      <c r="F874" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D875" t="s">
+        <v>75</v>
+      </c>
+      <c r="E875" t="s">
+        <v>10</v>
+      </c>
+      <c r="F875" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D876" t="s">
+        <v>39</v>
+      </c>
+      <c r="E876" t="s">
+        <v>8</v>
+      </c>
+      <c r="F876" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E877" t="s">
+        <v>10</v>
+      </c>
+      <c r="F877" t="s">
+        <v>50</v>
+      </c>
+      <c r="G877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A878" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D878" t="s">
+        <v>66</v>
+      </c>
+      <c r="E878" t="s">
+        <v>10</v>
+      </c>
+      <c r="F878" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D879" t="s">
+        <v>72</v>
+      </c>
+      <c r="E879" t="s">
+        <v>8</v>
+      </c>
+      <c r="F879" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A880" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D880" t="s">
+        <v>162</v>
+      </c>
+      <c r="E880" t="s">
+        <v>10</v>
+      </c>
+      <c r="F880" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E881" t="s">
+        <v>10</v>
+      </c>
+      <c r="F881" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D882" t="s">
+        <v>66</v>
+      </c>
+      <c r="E882" t="s">
+        <v>10</v>
+      </c>
+      <c r="F882" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E883" t="s">
+        <v>8</v>
+      </c>
+      <c r="F883" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E884" t="s">
+        <v>8</v>
+      </c>
+      <c r="F884" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D885" t="s">
+        <v>16</v>
+      </c>
+      <c r="E885" t="s">
+        <v>8</v>
+      </c>
+      <c r="F885" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E886" t="s">
+        <v>8</v>
+      </c>
+      <c r="F886" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D887" t="s">
+        <v>59</v>
+      </c>
+      <c r="E887" t="s">
+        <v>8</v>
+      </c>
+      <c r="F887" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E888" t="s">
+        <v>8</v>
+      </c>
+      <c r="F888" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E889" t="s">
+        <v>10</v>
+      </c>
+      <c r="F889" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D890" t="s">
+        <v>72</v>
+      </c>
+      <c r="E890" t="s">
+        <v>8</v>
+      </c>
+      <c r="F890" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D891" t="s">
+        <v>11</v>
+      </c>
+      <c r="E891" t="s">
+        <v>8</v>
+      </c>
+      <c r="F891" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D892" t="s">
+        <v>9</v>
+      </c>
+      <c r="E892" t="s">
+        <v>7</v>
+      </c>
+      <c r="F892" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E893" t="s">
+        <v>10</v>
+      </c>
+      <c r="F893" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E894" t="s">
+        <v>10</v>
+      </c>
+      <c r="F894" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D895" t="s">
+        <v>18</v>
+      </c>
+      <c r="E895" t="s">
+        <v>8</v>
+      </c>
+      <c r="F895" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E896" t="s">
+        <v>8</v>
+      </c>
+      <c r="F896" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A897" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E897" t="s">
+        <v>10</v>
+      </c>
+      <c r="F897" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A898" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E898" t="s">
+        <v>10</v>
+      </c>
+      <c r="F898" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D899" t="s">
+        <v>9</v>
+      </c>
+      <c r="E899" t="s">
+        <v>7</v>
+      </c>
+      <c r="F899" t="s">
+        <v>112</v>
+      </c>
+      <c r="G899" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A900" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D900" t="s">
+        <v>16</v>
+      </c>
+      <c r="E900" t="s">
+        <v>8</v>
+      </c>
+      <c r="F900" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A901" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D901" t="s">
+        <v>9</v>
+      </c>
+      <c r="E901" t="s">
+        <v>7</v>
+      </c>
+      <c r="F901" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A902" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D902" t="s">
+        <v>16</v>
+      </c>
+      <c r="E902" t="s">
+        <v>8</v>
+      </c>
+      <c r="F902" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F903" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A904" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E904" t="s">
+        <v>8</v>
+      </c>
+      <c r="F904" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A905" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D905" t="s">
+        <v>85</v>
+      </c>
+      <c r="E905" t="s">
+        <v>7</v>
+      </c>
+      <c r="F905" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A906" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D906" t="s">
+        <v>12</v>
+      </c>
+      <c r="E906" t="s">
+        <v>8</v>
+      </c>
+      <c r="F906" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E907" t="s">
+        <v>8</v>
+      </c>
+      <c r="F907" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A908" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E908" t="s">
+        <v>8</v>
+      </c>
+      <c r="F908" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A909" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D909" t="s">
+        <v>11</v>
+      </c>
+      <c r="E909" t="s">
+        <v>8</v>
+      </c>
+      <c r="F909" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E910" t="s">
+        <v>13</v>
+      </c>
+      <c r="F910" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A911" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E911" t="s">
+        <v>8</v>
+      </c>
+      <c r="F911" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D912" t="s">
+        <v>75</v>
+      </c>
+      <c r="E912" t="s">
+        <v>10</v>
+      </c>
+      <c r="F912" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396F550-E86D-42B9-A2D9-7406C351D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F682F3E5-1B48-42C3-A026-254E48016FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -7776,7 +7776,7 @@
   <dimension ref="A1:G1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/first-atlas/producao_2026-02.xlsx
+++ b/first-atlas/producao_2026-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F682F3E5-1B48-42C3-A026-254E48016FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51619815-A904-4F84-BEE6-58A1A5F3EB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="2454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6330" uniqueCount="2595">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -6833,9 +6833,6 @@
     <t>DR SOLUCOES EM ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>AUGUSTO BUENO DE ALMEIDA</t>
-  </si>
-  <si>
     <t>64221042000135</t>
   </si>
   <si>
@@ -7401,6 +7398,432 @@
   </si>
   <si>
     <t>Contrato Social das empresas socias: OSHER CONSULTORIA LTDA e BRASIL &amp; ISRAEL MINERACAO LTDA. Deve esta completo, atualizado e devidamente registrado no orgao competente.</t>
+  </si>
+  <si>
+    <t>60717296000198</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO DESPORTIVA 4 LINHAS ILHABELA</t>
+  </si>
+  <si>
+    <t>J. DA S. SANTOS COMERCIO DE PRODUTOS ALIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>27035627000134</t>
+  </si>
+  <si>
+    <t>LET'S DRINK ESPETERIA LTDA</t>
+  </si>
+  <si>
+    <t>08786720000136</t>
+  </si>
+  <si>
+    <t>C ANDRE DA SILVA</t>
+  </si>
+  <si>
+    <t>61031128000107</t>
+  </si>
+  <si>
+    <t>CONSULPLAN SERVICOS AGROPECUARIOS LTDA</t>
+  </si>
+  <si>
+    <t>ADMILSON RODRIGUES - SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>49950220000175</t>
+  </si>
+  <si>
+    <t>J &amp; M LOCADORA LTDA</t>
+  </si>
+  <si>
+    <t>61902778000180</t>
+  </si>
+  <si>
+    <t>CRIE O FUTURO GESTAO EXECUTIVA E BRANDING LTDA</t>
+  </si>
+  <si>
+    <t>09248965000172</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL REVIVER LTDA</t>
+  </si>
+  <si>
+    <t>27776123000175</t>
+  </si>
+  <si>
+    <t>27.776.123 KELY ERONIDES DA SILVA DA CRUZ</t>
+  </si>
+  <si>
+    <t>27225156000127</t>
+  </si>
+  <si>
+    <t>GESSO VITORIA</t>
+  </si>
+  <si>
+    <t>16733806000129</t>
+  </si>
+  <si>
+    <t>CARMEN SILVIA BONFA PESQUISAS</t>
+  </si>
+  <si>
+    <t>15030821000148</t>
+  </si>
+  <si>
+    <t>CENTENARIO FACILITY SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>57213691000129</t>
+  </si>
+  <si>
+    <t>DUNNAS DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>15122287000108</t>
+  </si>
+  <si>
+    <t>M J VIEIRA DE MORAES MOTO PECAS</t>
+  </si>
+  <si>
+    <t>65201732000195</t>
+  </si>
+  <si>
+    <t>ALCIDES SANTIAGO DESENVOLVIMENTO DE SOFTWARES LTDA</t>
+  </si>
+  <si>
+    <t>14989793000128</t>
+  </si>
+  <si>
+    <t>JEFFERSON RICK DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>64380016000150</t>
+  </si>
+  <si>
+    <t>LIMA SERVICOS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>12443280000191</t>
+  </si>
+  <si>
+    <t>12.443.280 ARIMILDO SILVA DE LIMA</t>
+  </si>
+  <si>
+    <t>65258315000189</t>
+  </si>
+  <si>
+    <t>AUTO CENTER AMORIM DIVINOPOLIS LTDA</t>
+  </si>
+  <si>
+    <t>27379100000127</t>
+  </si>
+  <si>
+    <t>GG SERVICOS E COMERCIO DE PECAS LTDA</t>
+  </si>
+  <si>
+    <t>59874698000117</t>
+  </si>
+  <si>
+    <t>V C DE ARAUJO LTDA</t>
+  </si>
+  <si>
+    <t>65274473000122</t>
+  </si>
+  <si>
+    <t>LUCIO FLAVIO DE SOUZA TAVORA FOTOGRAFIA</t>
+  </si>
+  <si>
+    <t>37127502000198</t>
+  </si>
+  <si>
+    <t>R J C DA SILVA JUNIOR LTDA</t>
+  </si>
+  <si>
+    <t>05819747000190</t>
+  </si>
+  <si>
+    <t>STAFF CONSULTORIA E ASSESSORIA CONTABIL E TRIBUTARIA LTDA</t>
+  </si>
+  <si>
+    <t>62696327000105</t>
+  </si>
+  <si>
+    <t>ESPACO AUTO PECAS TARUMA LTDA</t>
+  </si>
+  <si>
+    <t>14493857000103</t>
+  </si>
+  <si>
+    <t>14.493.857 JOSE GABRIEL SOUZA</t>
+  </si>
+  <si>
+    <t>26334191000111</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE RACOES ALENCAR E GODOI LTDA</t>
+  </si>
+  <si>
+    <t>18444187000188</t>
+  </si>
+  <si>
+    <t>ROBSON AUGUSTO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>RECADASTRO</t>
+  </si>
+  <si>
+    <t>27745477000152</t>
+  </si>
+  <si>
+    <t>PIRINEUS AGROINDUSTRIA E COMERCIO DE POLPAS DE FRUTAS LTDA</t>
+  </si>
+  <si>
+    <t>64348247000186</t>
+  </si>
+  <si>
+    <t>BD CONSULTING SERVICES LTDA</t>
+  </si>
+  <si>
+    <t>29427578000100</t>
+  </si>
+  <si>
+    <t>FERREIRA E GONCALVES LTDA</t>
+  </si>
+  <si>
+    <t>61158204000140</t>
+  </si>
+  <si>
+    <t>WAY INCORPORADORA E INVESTIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>04642494000169</t>
+  </si>
+  <si>
+    <t>SERGIO VANY ABREU DE LIMA</t>
+  </si>
+  <si>
+    <t>35297881000139</t>
+  </si>
+  <si>
+    <t>JARDAN SOLUCOES EM ADITIVOS LTDA</t>
+  </si>
+  <si>
+    <t>65225469000174</t>
+  </si>
+  <si>
+    <t>L P C SERVICOS E LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>65231184000146</t>
+  </si>
+  <si>
+    <t>SUL PRIME SOLAR LTDA</t>
+  </si>
+  <si>
+    <t>65126339000184</t>
+  </si>
+  <si>
+    <t>CGR TRANSPORTE E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>33716056000104</t>
+  </si>
+  <si>
+    <t>S DUTRA DE SOUZA LTDA</t>
+  </si>
+  <si>
+    <t>60447294000126</t>
+  </si>
+  <si>
+    <t>EDUARDO CAMACHO MIRANDA SERVICOS PNEUMATICOS LTDA</t>
+  </si>
+  <si>
+    <t>33058119000174</t>
+  </si>
+  <si>
+    <t>RONALDO GONCALVES VILERA</t>
+  </si>
+  <si>
+    <t>15634032000116</t>
+  </si>
+  <si>
+    <t>MSB SERVICOS DE PORTARIA &amp; LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>44025715000174</t>
+  </si>
+  <si>
+    <t>CACAMBAS EXPRESS LTDA</t>
+  </si>
+  <si>
+    <t>14281290000101</t>
+  </si>
+  <si>
+    <t>RAFAEL COUTINHO CUNHA GOUVEIA</t>
+  </si>
+  <si>
+    <t>34714757000169</t>
+  </si>
+  <si>
+    <t>GILBERTO ROCHA CORREA LTDA</t>
+  </si>
+  <si>
+    <t>31841084000110</t>
+  </si>
+  <si>
+    <t>31.841.084 WILSON ROBERTO VARGAS DA SILVA</t>
+  </si>
+  <si>
+    <t>04522136000112</t>
+  </si>
+  <si>
+    <t>PRADO E VALENTIM TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>14000330000191</t>
+  </si>
+  <si>
+    <t>CRT ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>62010264000183</t>
+  </si>
+  <si>
+    <t>S R SOLUCOES EMPRESARIAS LTDA</t>
+  </si>
+  <si>
+    <t>65186130000106</t>
+  </si>
+  <si>
+    <t>RSJT GASTRONOMIA LTDA</t>
+  </si>
+  <si>
+    <t>63182379000118</t>
+  </si>
+  <si>
+    <t>JDM EMPREITEIRA LTDA</t>
+  </si>
+  <si>
+    <t>17770391000126</t>
+  </si>
+  <si>
+    <t>ALEXSANDRO MARQUES DE LIMA</t>
+  </si>
+  <si>
+    <t>02852372000171</t>
+  </si>
+  <si>
+    <t>NADJAIRO FRANCISCO CHAVES</t>
+  </si>
+  <si>
+    <t>07191777000120</t>
+  </si>
+  <si>
+    <t>LEXON SERVICOS &amp; CONSTRUTORA EMPREENDIMENTOS, INCORPORADORA, TRANSPORTES, ASSESSORIA &amp; CONSULTORIA ADMINISTRATIVA LTDA</t>
+  </si>
+  <si>
+    <t>46979901000178</t>
+  </si>
+  <si>
+    <t>TAX MASTER CONSULTORIA &amp; PLANEJAMENTO EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>15516117000108</t>
+  </si>
+  <si>
+    <t>BDP CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t>22329058000116</t>
+  </si>
+  <si>
+    <t>EMBALA BRASIL EMBALAGENS LTDA</t>
+  </si>
+  <si>
+    <t>61512741000146</t>
+  </si>
+  <si>
+    <t>MUNDO ESCOLAR LTDA</t>
+  </si>
+  <si>
+    <t>23234760000169</t>
+  </si>
+  <si>
+    <t>JOSE DE ALMEIDA DOS SANTOS LTDA</t>
+  </si>
+  <si>
+    <t>65226662000120</t>
+  </si>
+  <si>
+    <t>F&amp;J SERVICOS E COMERCIOS LTDA</t>
+  </si>
+  <si>
+    <t>07354162000177</t>
+  </si>
+  <si>
+    <t>LUIS DOMINGOS FONSECA</t>
+  </si>
+  <si>
+    <t>11115778000162</t>
+  </si>
+  <si>
+    <t>MACRONORTE DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>63827218000134</t>
+  </si>
+  <si>
+    <t>RM BUFFET E CERIMONIAL LTDA</t>
+  </si>
+  <si>
+    <t>14699754000277</t>
+  </si>
+  <si>
+    <t>INDUSTRIA E COMERCIO DE BEBIDAS ENGENHO DA CANA LTDA</t>
+  </si>
+  <si>
+    <t>64813173000101</t>
+  </si>
+  <si>
+    <t>ASTA INOX INDUSTRIA E COMERCIO DE EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>35931235000181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO DE SOUZA </t>
+  </si>
+  <si>
+    <t>54248926000120</t>
+  </si>
+  <si>
+    <t>SIDINEI DE MACEDO SILVA SIDINEI DE MACEDO SILVA</t>
+  </si>
+  <si>
+    <t>19581841000168</t>
+  </si>
+  <si>
+    <t>KLENDERSON BARROS TEIXEIRA</t>
+  </si>
+  <si>
+    <t>48309899000155</t>
+  </si>
+  <si>
+    <t>RUBISMAR DA SILVA PIRES</t>
+  </si>
+  <si>
+    <t>05402699000130</t>
+  </si>
+  <si>
+    <t>CLEBER MARTINS DA COSTA</t>
+  </si>
+  <si>
+    <t>48019454000130</t>
+  </si>
+  <si>
+    <t>GRAZIELLE FERNANDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>Ata de eleicao devera ser enviada de forma completa, contendo todas as paginas, com mandato vigente ( versao mais recente) e devidamente registrado no orgao competente.&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente.</t>
   </si>
 </sst>
 </file>
@@ -7773,10 +8196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G1186"/>
+  <dimension ref="A1:G1258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8541,6 +8964,9 @@
       <c r="F33" t="s">
         <v>104</v>
       </c>
+      <c r="G33" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -8651,7 +9077,7 @@
         <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -9137,7 +9563,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -10445,7 +10871,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10700,6 +11126,9 @@
       <c r="F127" t="s">
         <v>21</v>
       </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -11569,10 +11998,10 @@
         <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>112</v>
-      </c>
-      <c r="G165" t="s">
-        <v>262</v>
+        <v>52</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -12192,6 +12621,9 @@
       <c r="F192" t="s">
         <v>21</v>
       </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -12348,10 +12780,10 @@
         <v>8</v>
       </c>
       <c r="F199" t="s">
-        <v>112</v>
-      </c>
-      <c r="G199" t="s">
-        <v>263</v>
+        <v>926</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -12578,7 +13010,7 @@
         <v>7</v>
       </c>
       <c r="F209" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -13409,7 +13841,7 @@
         <v>112</v>
       </c>
       <c r="G245" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -16191,6 +16623,9 @@
       <c r="F366" t="s">
         <v>104</v>
       </c>
+      <c r="G366" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
@@ -16303,6 +16738,9 @@
       <c r="F371" t="s">
         <v>104</v>
       </c>
+      <c r="G371" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
@@ -16806,6 +17244,9 @@
       <c r="F393" t="s">
         <v>104</v>
       </c>
+      <c r="G393" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
@@ -16985,7 +17426,7 @@
         <v>8</v>
       </c>
       <c r="F401" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G401" t="s">
         <v>2085</v>
@@ -19814,7 +20255,7 @@
         <v>7</v>
       </c>
       <c r="F524" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="G524">
         <v>0</v>
@@ -21171,7 +21612,7 @@
         <v>8</v>
       </c>
       <c r="F583" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -21286,7 +21727,7 @@
         <v>7</v>
       </c>
       <c r="F588" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -22162,6 +22603,9 @@
       <c r="F626" t="s">
         <v>104</v>
       </c>
+      <c r="G626" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
@@ -22505,7 +22949,7 @@
         <v>112</v>
       </c>
       <c r="G641" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
@@ -22642,6 +23086,9 @@
       <c r="F647" t="s">
         <v>51</v>
       </c>
+      <c r="G647" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
@@ -22824,7 +23271,7 @@
         <v>50</v>
       </c>
       <c r="G655" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
@@ -23007,6 +23454,9 @@
       <c r="F663" t="s">
         <v>51</v>
       </c>
+      <c r="G663" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
@@ -24039,6 +24489,9 @@
       <c r="F708" t="s">
         <v>51</v>
       </c>
+      <c r="G708" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
@@ -24747,7 +25200,7 @@
         <v>10</v>
       </c>
       <c r="F739" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -24841,6 +25294,9 @@
       <c r="F743" t="s">
         <v>104</v>
       </c>
+      <c r="G743" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
@@ -24953,6 +25409,9 @@
       <c r="F748" t="s">
         <v>104</v>
       </c>
+      <c r="G748" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
@@ -25201,7 +25660,7 @@
         <v>8</v>
       </c>
       <c r="F759" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -25318,6 +25777,9 @@
       <c r="F764" t="s">
         <v>104</v>
       </c>
+      <c r="G764" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
@@ -25520,7 +25982,7 @@
         <v>7</v>
       </c>
       <c r="F773" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -25706,6 +26168,9 @@
       <c r="F781" t="s">
         <v>51</v>
       </c>
+      <c r="G781" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
@@ -25954,7 +26419,7 @@
         <v>8</v>
       </c>
       <c r="F792" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G792">
         <v>0</v>
@@ -27127,7 +27592,7 @@
         <v>8</v>
       </c>
       <c r="F843" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G843">
         <v>0</v>
@@ -27658,8 +28123,8 @@
       <c r="F866" t="s">
         <v>50</v>
       </c>
-      <c r="G866">
-        <v>0</v>
+      <c r="G866" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
@@ -27771,7 +28236,7 @@
         <v>10</v>
       </c>
       <c r="F871" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G871">
         <v>0</v>
@@ -28164,6 +28629,9 @@
       <c r="F888" t="s">
         <v>104</v>
       </c>
+      <c r="G888" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
@@ -28230,6 +28698,9 @@
       <c r="F891" t="s">
         <v>104</v>
       </c>
+      <c r="G891" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
@@ -29285,6 +29756,9 @@
       <c r="F937" t="s">
         <v>104</v>
       </c>
+      <c r="G937" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
@@ -29590,22 +30064,22 @@
         <v>46072</v>
       </c>
       <c r="B951" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="C951" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D951" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E951" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F951" t="s">
-        <v>52</v>
-      </c>
-      <c r="G951">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G951" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
@@ -29613,13 +30087,13 @@
         <v>46072</v>
       </c>
       <c r="B952" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="C952" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D952" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E952" t="s">
         <v>8</v>
@@ -29636,13 +30110,13 @@
         <v>46072</v>
       </c>
       <c r="B953" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C953" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="D953" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E953" t="s">
         <v>8</v>
@@ -29659,13 +30133,13 @@
         <v>46072</v>
       </c>
       <c r="B954" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C954" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="D954" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E954" t="s">
         <v>8</v>
@@ -29682,13 +30156,13 @@
         <v>46072</v>
       </c>
       <c r="B955" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="C955" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="D955" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E955" t="s">
         <v>8</v>
@@ -29705,16 +30179,16 @@
         <v>46072</v>
       </c>
       <c r="B956" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C956" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D956" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E956" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F956" t="s">
         <v>21</v>
@@ -29728,16 +30202,16 @@
         <v>46072</v>
       </c>
       <c r="B957" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="C957" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="D957" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E957" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F957" t="s">
         <v>21</v>
@@ -29751,13 +30225,13 @@
         <v>46072</v>
       </c>
       <c r="B958" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C958" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="D958" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E958" t="s">
         <v>8</v>
@@ -29774,13 +30248,13 @@
         <v>46072</v>
       </c>
       <c r="B959" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C959" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D959" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E959" t="s">
         <v>8</v>
@@ -29797,13 +30271,13 @@
         <v>46072</v>
       </c>
       <c r="B960" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C960" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D960" t="s">
-        <v>16</v>
+        <v>1299</v>
       </c>
       <c r="E960" t="s">
         <v>8</v>
@@ -29820,19 +30294,19 @@
         <v>46072</v>
       </c>
       <c r="B961" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C961" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D961" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="E961" t="s">
         <v>8</v>
       </c>
       <c r="F961" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -29843,19 +30317,19 @@
         <v>46072</v>
       </c>
       <c r="B962" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C962" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D962" t="s">
-        <v>1227</v>
+        <v>39</v>
       </c>
       <c r="E962" t="s">
         <v>8</v>
       </c>
       <c r="F962" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -29866,19 +30340,19 @@
         <v>46072</v>
       </c>
       <c r="B963" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C963" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D963" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E963" t="s">
         <v>8</v>
       </c>
       <c r="F963" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -29889,16 +30363,16 @@
         <v>46072</v>
       </c>
       <c r="B964" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C964" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D964" t="s">
-        <v>59</v>
+        <v>1751</v>
       </c>
       <c r="E964" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F964" t="s">
         <v>52</v>
@@ -29912,22 +30386,22 @@
         <v>46072</v>
       </c>
       <c r="B965" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C965" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D965" t="s">
-        <v>1751</v>
+        <v>1299</v>
       </c>
       <c r="E965" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F965" t="s">
-        <v>52</v>
-      </c>
-      <c r="G965">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="G965" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
@@ -29935,19 +30409,22 @@
         <v>46072</v>
       </c>
       <c r="B966" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C966" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D966" t="s">
-        <v>1299</v>
+        <v>85</v>
       </c>
       <c r="E966" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F966" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
@@ -29955,19 +30432,19 @@
         <v>46072</v>
       </c>
       <c r="B967" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C967" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D967" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E967" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F967" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G967">
         <v>0</v>
@@ -29978,19 +30455,19 @@
         <v>46072</v>
       </c>
       <c r="B968" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C968" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D968" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="E968" t="s">
         <v>8</v>
       </c>
       <c r="F968" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G968">
         <v>0</v>
@@ -30001,13 +30478,13 @@
         <v>46072</v>
       </c>
       <c r="B969" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C969" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D969" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="E969" t="s">
         <v>8</v>
@@ -30024,16 +30501,16 @@
         <v>46072</v>
       </c>
       <c r="B970" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C970" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D970" t="s">
-        <v>11</v>
+        <v>1876</v>
       </c>
       <c r="E970" t="s">
-        <v>8</v>
+        <v>1170</v>
       </c>
       <c r="F970" t="s">
         <v>21</v>
@@ -30047,16 +30524,16 @@
         <v>46072</v>
       </c>
       <c r="B971" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C971" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D971" t="s">
-        <v>1876</v>
+        <v>1290</v>
       </c>
       <c r="E971" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F971" t="s">
         <v>21</v>
@@ -30070,13 +30547,13 @@
         <v>46072</v>
       </c>
       <c r="B972" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C972" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D972" t="s">
-        <v>1290</v>
+        <v>1502</v>
       </c>
       <c r="E972" t="s">
         <v>8</v>
@@ -30093,16 +30570,16 @@
         <v>46072</v>
       </c>
       <c r="B973" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="C973" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="D973" t="s">
-        <v>1502</v>
+        <v>1144</v>
       </c>
       <c r="E973" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F973" t="s">
         <v>21</v>
@@ -30116,16 +30593,16 @@
         <v>46072</v>
       </c>
       <c r="B974" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="C974" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="D974" t="s">
-        <v>1144</v>
+        <v>1227</v>
       </c>
       <c r="E974" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F974" t="s">
         <v>21</v>
@@ -30139,16 +30616,16 @@
         <v>46072</v>
       </c>
       <c r="B975" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="C975" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="D975" t="s">
-        <v>1227</v>
+        <v>1135</v>
       </c>
       <c r="E975" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F975" t="s">
         <v>21</v>
@@ -30162,16 +30639,16 @@
         <v>46072</v>
       </c>
       <c r="B976" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="C976" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="D976" t="s">
-        <v>1135</v>
+        <v>16</v>
       </c>
       <c r="E976" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F976" t="s">
         <v>21</v>
@@ -30185,19 +30662,19 @@
         <v>46072</v>
       </c>
       <c r="B977" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="C977" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="D977" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E977" t="s">
         <v>8</v>
       </c>
       <c r="F977" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G977">
         <v>0</v>
@@ -30208,22 +30685,22 @@
         <v>46072</v>
       </c>
       <c r="B978" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="C978" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="D978" t="s">
-        <v>18</v>
+        <v>1135</v>
       </c>
       <c r="E978" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F978" t="s">
-        <v>51</v>
-      </c>
-      <c r="G978">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G978" t="s">
+        <v>2271</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
@@ -30231,22 +30708,22 @@
         <v>46072</v>
       </c>
       <c r="B979" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="C979" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="D979" t="s">
-        <v>1135</v>
+        <v>15</v>
       </c>
       <c r="E979" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F979" t="s">
-        <v>112</v>
-      </c>
-      <c r="G979" t="s">
-        <v>2272</v>
+        <v>21</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
@@ -30254,13 +30731,13 @@
         <v>46072</v>
       </c>
       <c r="B980" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="C980" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="D980" t="s">
-        <v>15</v>
+        <v>1290</v>
       </c>
       <c r="E980" t="s">
         <v>8</v>
@@ -30277,16 +30754,16 @@
         <v>46072</v>
       </c>
       <c r="B981" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="C981" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="D981" t="s">
-        <v>1290</v>
+        <v>75</v>
       </c>
       <c r="E981" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F981" t="s">
         <v>21</v>
@@ -30300,16 +30777,16 @@
         <v>46072</v>
       </c>
       <c r="B982" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="C982" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D982" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E982" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F982" t="s">
         <v>21</v>
@@ -30323,13 +30800,13 @@
         <v>46072</v>
       </c>
       <c r="B983" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="C983" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D983" t="s">
-        <v>11</v>
+        <v>1227</v>
       </c>
       <c r="E983" t="s">
         <v>8</v>
@@ -30346,19 +30823,19 @@
         <v>46072</v>
       </c>
       <c r="B984" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="C984" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="D984" t="s">
-        <v>1227</v>
+        <v>1299</v>
       </c>
       <c r="E984" t="s">
         <v>8</v>
       </c>
       <c r="F984" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G984">
         <v>0</v>
@@ -30369,10 +30846,10 @@
         <v>46072</v>
       </c>
       <c r="B985" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="C985" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D985" t="s">
         <v>1299</v>
@@ -30381,7 +30858,7 @@
         <v>8</v>
       </c>
       <c r="F985" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G985">
         <v>0</v>
@@ -30392,19 +30869,19 @@
         <v>46072</v>
       </c>
       <c r="B986" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="C986" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="D986" t="s">
-        <v>1299</v>
+        <v>85</v>
       </c>
       <c r="E986" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F986" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G986">
         <v>0</v>
@@ -30415,19 +30892,19 @@
         <v>46072</v>
       </c>
       <c r="B987" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="C987" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="D987" t="s">
-        <v>85</v>
+        <v>1876</v>
       </c>
       <c r="E987" t="s">
-        <v>7</v>
+        <v>1170</v>
       </c>
       <c r="F987" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G987">
         <v>0</v>
@@ -30438,16 +30915,16 @@
         <v>46072</v>
       </c>
       <c r="B988" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="C988" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D988" t="s">
-        <v>1876</v>
+        <v>1227</v>
       </c>
       <c r="E988" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F988" t="s">
         <v>21</v>
@@ -30461,22 +30938,22 @@
         <v>46072</v>
       </c>
       <c r="B989" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="C989" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D989" t="s">
-        <v>1227</v>
+        <v>59</v>
       </c>
       <c r="E989" t="s">
         <v>8</v>
       </c>
       <c r="F989" t="s">
-        <v>21</v>
-      </c>
-      <c r="G989">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="G989" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
@@ -30484,19 +30961,19 @@
         <v>46072</v>
       </c>
       <c r="B990" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="C990" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="D990" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E990" t="s">
         <v>8</v>
       </c>
       <c r="F990" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G990">
         <v>0</v>
@@ -30507,13 +30984,13 @@
         <v>46072</v>
       </c>
       <c r="B991" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="C991" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="D991" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E991" t="s">
         <v>8</v>
@@ -30530,19 +31007,19 @@
         <v>46072</v>
       </c>
       <c r="B992" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="C992" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="D992" t="s">
-        <v>16</v>
+        <v>1227</v>
       </c>
       <c r="E992" t="s">
         <v>8</v>
       </c>
       <c r="F992" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G992">
         <v>0</v>
@@ -30553,10 +31030,10 @@
         <v>46072</v>
       </c>
       <c r="B993" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="C993" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D993" t="s">
         <v>1227</v>
@@ -30576,19 +31053,19 @@
         <v>46072</v>
       </c>
       <c r="B994" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="C994" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="D994" t="s">
-        <v>1227</v>
+        <v>18</v>
       </c>
       <c r="E994" t="s">
         <v>8</v>
       </c>
       <c r="F994" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G994">
         <v>0</v>
@@ -30599,45 +31076,45 @@
         <v>46072</v>
       </c>
       <c r="B995" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="C995" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D995" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E995" t="s">
         <v>8</v>
       </c>
       <c r="F995" t="s">
-        <v>21</v>
-      </c>
-      <c r="G995">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G995" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B996" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="C996" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="D996" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E996" t="s">
         <v>8</v>
       </c>
       <c r="F996" t="s">
-        <v>112</v>
-      </c>
-      <c r="G996" t="s">
-        <v>2084</v>
+        <v>21</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
@@ -30645,13 +31122,13 @@
         <v>46073</v>
       </c>
       <c r="B997" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="C997" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D997" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E997" t="s">
         <v>8</v>
@@ -30668,13 +31145,13 @@
         <v>46073</v>
       </c>
       <c r="B998" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="C998" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="D998" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E998" t="s">
         <v>8</v>
@@ -30691,16 +31168,16 @@
         <v>46073</v>
       </c>
       <c r="B999" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="C999" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="D999" t="s">
-        <v>16</v>
+        <v>1144</v>
       </c>
       <c r="E999" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F999" t="s">
         <v>21</v>
@@ -30714,16 +31191,16 @@
         <v>46073</v>
       </c>
       <c r="B1000" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="C1000" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D1000" t="s">
-        <v>1144</v>
+        <v>109</v>
       </c>
       <c r="E1000" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1000" t="s">
         <v>21</v>
@@ -30737,16 +31214,16 @@
         <v>46073</v>
       </c>
       <c r="B1001" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="C1001" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="D1001" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E1001" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1001" t="s">
         <v>21</v>
@@ -30760,16 +31237,16 @@
         <v>46073</v>
       </c>
       <c r="B1002" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C1002" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D1002" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="E1002" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1002" t="s">
         <v>21</v>
@@ -30783,13 +31260,13 @@
         <v>46073</v>
       </c>
       <c r="B1003" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="C1003" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D1003" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1003" t="s">
         <v>8</v>
@@ -30806,13 +31283,13 @@
         <v>46073</v>
       </c>
       <c r="B1004" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="C1004" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="D1004" t="s">
-        <v>11</v>
+        <v>1227</v>
       </c>
       <c r="E1004" t="s">
         <v>8</v>
@@ -30829,19 +31306,19 @@
         <v>46073</v>
       </c>
       <c r="B1005" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="C1005" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D1005" t="s">
-        <v>1227</v>
+        <v>39</v>
       </c>
       <c r="E1005" t="s">
         <v>8</v>
       </c>
       <c r="F1005" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1005">
         <v>0</v>
@@ -30852,19 +31329,19 @@
         <v>46073</v>
       </c>
       <c r="B1006" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="C1006" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D1006" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E1006" t="s">
         <v>8</v>
       </c>
       <c r="F1006" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1006">
         <v>0</v>
@@ -30875,22 +31352,22 @@
         <v>46073</v>
       </c>
       <c r="B1007" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="C1007" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="D1007" t="s">
-        <v>72</v>
+        <v>1135</v>
       </c>
       <c r="E1007" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1007" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1007">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
@@ -30898,22 +31375,22 @@
         <v>46073</v>
       </c>
       <c r="B1008" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C1008" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="D1008" t="s">
-        <v>1135</v>
+        <v>1290</v>
       </c>
       <c r="E1008" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1008" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1008" t="s">
-        <v>263</v>
+        <v>21</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
@@ -30921,13 +31398,13 @@
         <v>46073</v>
       </c>
       <c r="B1009" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="C1009" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="D1009" t="s">
-        <v>1290</v>
+        <v>11</v>
       </c>
       <c r="E1009" t="s">
         <v>8</v>
@@ -30944,19 +31421,19 @@
         <v>46073</v>
       </c>
       <c r="B1010" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C1010" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="D1010" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E1010" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1010" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1010">
         <v>0</v>
@@ -30967,16 +31444,16 @@
         <v>46073</v>
       </c>
       <c r="B1011" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C1011" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="D1011" t="s">
-        <v>109</v>
+        <v>1299</v>
       </c>
       <c r="E1011" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1011" t="s">
         <v>51</v>
@@ -30990,19 +31467,19 @@
         <v>46073</v>
       </c>
       <c r="B1012" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C1012" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="D1012" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="E1012" t="s">
         <v>8</v>
       </c>
       <c r="F1012" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1012">
         <v>0</v>
@@ -31013,10 +31490,10 @@
         <v>46073</v>
       </c>
       <c r="B1013" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C1013" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="D1013" t="s">
         <v>1227</v>
@@ -31036,19 +31513,19 @@
         <v>46073</v>
       </c>
       <c r="B1014" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="C1014" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="D1014" t="s">
-        <v>1227</v>
+        <v>1502</v>
       </c>
       <c r="E1014" t="s">
         <v>8</v>
       </c>
       <c r="F1014" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1014">
         <v>0</v>
@@ -31059,19 +31536,19 @@
         <v>46073</v>
       </c>
       <c r="B1015" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="C1015" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="D1015" t="s">
-        <v>1502</v>
+        <v>1227</v>
       </c>
       <c r="E1015" t="s">
         <v>8</v>
       </c>
       <c r="F1015" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1015">
         <v>0</v>
@@ -31082,19 +31559,19 @@
         <v>46073</v>
       </c>
       <c r="B1016" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="C1016" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="D1016" t="s">
-        <v>1227</v>
+        <v>18</v>
       </c>
       <c r="E1016" t="s">
         <v>8</v>
       </c>
       <c r="F1016" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1016">
         <v>0</v>
@@ -31105,19 +31582,19 @@
         <v>46073</v>
       </c>
       <c r="B1017" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C1017" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D1017" t="s">
-        <v>18</v>
+        <v>1345</v>
       </c>
       <c r="E1017" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1017" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -31128,19 +31605,19 @@
         <v>46073</v>
       </c>
       <c r="B1018" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="C1018" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="D1018" t="s">
-        <v>1345</v>
+        <v>18</v>
       </c>
       <c r="E1018" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1018" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -31151,19 +31628,19 @@
         <v>46073</v>
       </c>
       <c r="B1019" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="C1019" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="D1019" t="s">
-        <v>18</v>
+        <v>892</v>
       </c>
       <c r="E1019" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1019" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1019">
         <v>0</v>
@@ -31174,19 +31651,19 @@
         <v>46073</v>
       </c>
       <c r="B1020" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C1020" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="D1020" t="s">
-        <v>892</v>
+        <v>12</v>
       </c>
       <c r="E1020" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1020" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1020">
         <v>0</v>
@@ -31197,16 +31674,16 @@
         <v>46073</v>
       </c>
       <c r="B1021" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="C1021" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="D1021" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E1021" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1021" t="s">
         <v>21</v>
@@ -31220,22 +31697,22 @@
         <v>46073</v>
       </c>
       <c r="B1022" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="C1022" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="D1022" t="s">
-        <v>66</v>
+        <v>1345</v>
       </c>
       <c r="E1022" t="s">
         <v>10</v>
       </c>
       <c r="F1022" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1022">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="G1022" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
@@ -31243,19 +31720,22 @@
         <v>46073</v>
       </c>
       <c r="B1023" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C1023" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="D1023" t="s">
-        <v>1345</v>
+        <v>15</v>
       </c>
       <c r="E1023" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1023" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="G1023">
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
@@ -31263,22 +31743,22 @@
         <v>46073</v>
       </c>
       <c r="B1024" t="s">
-        <v>2130</v>
+        <v>705</v>
       </c>
       <c r="C1024" t="s">
-        <v>2131</v>
+        <v>706</v>
       </c>
       <c r="D1024" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1024" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1024" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1024">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
@@ -31286,22 +31766,22 @@
         <v>46073</v>
       </c>
       <c r="B1025" t="s">
-        <v>705</v>
+        <v>2132</v>
       </c>
       <c r="C1025" t="s">
-        <v>706</v>
+        <v>2133</v>
       </c>
       <c r="D1025" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="E1025" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1025" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1025" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
@@ -31309,19 +31789,19 @@
         <v>46073</v>
       </c>
       <c r="B1026" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="C1026" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="D1026" t="s">
-        <v>162</v>
+        <v>1227</v>
       </c>
       <c r="E1026" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1026" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1026">
         <v>0</v>
@@ -31332,19 +31812,19 @@
         <v>46073</v>
       </c>
       <c r="B1027" t="s">
-        <v>2136</v>
+        <v>1511</v>
       </c>
       <c r="C1027" t="s">
-        <v>2137</v>
+        <v>1512</v>
       </c>
       <c r="D1027" t="s">
-        <v>1227</v>
+        <v>1947</v>
       </c>
       <c r="E1027" t="s">
         <v>8</v>
       </c>
       <c r="F1027" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1027">
         <v>0</v>
@@ -31355,19 +31835,19 @@
         <v>46073</v>
       </c>
       <c r="B1028" t="s">
-        <v>1511</v>
+        <v>2138</v>
       </c>
       <c r="C1028" t="s">
-        <v>1512</v>
+        <v>2139</v>
       </c>
       <c r="D1028" t="s">
-        <v>1947</v>
+        <v>59</v>
       </c>
       <c r="E1028" t="s">
         <v>8</v>
       </c>
       <c r="F1028" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1028">
         <v>0</v>
@@ -31378,19 +31858,19 @@
         <v>46073</v>
       </c>
       <c r="B1029" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="C1029" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="D1029" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E1029" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1029" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1029">
         <v>0</v>
@@ -31401,16 +31881,16 @@
         <v>46073</v>
       </c>
       <c r="B1030" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C1030" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D1030" t="s">
-        <v>75</v>
+        <v>1876</v>
       </c>
       <c r="E1030" t="s">
-        <v>10</v>
+        <v>1170</v>
       </c>
       <c r="F1030" t="s">
         <v>21</v>
@@ -31424,19 +31904,19 @@
         <v>46073</v>
       </c>
       <c r="B1031" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="C1031" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="D1031" t="s">
-        <v>1876</v>
+        <v>66</v>
       </c>
       <c r="E1031" t="s">
-        <v>1170</v>
+        <v>10</v>
       </c>
       <c r="F1031" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1031">
         <v>0</v>
@@ -31447,16 +31927,16 @@
         <v>46073</v>
       </c>
       <c r="B1032" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="C1032" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D1032" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1032" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1032" t="s">
         <v>52</v>
@@ -31470,13 +31950,13 @@
         <v>46073</v>
       </c>
       <c r="B1033" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C1033" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D1033" t="s">
-        <v>59</v>
+        <v>1227</v>
       </c>
       <c r="E1033" t="s">
         <v>8</v>
@@ -31493,19 +31973,19 @@
         <v>46073</v>
       </c>
       <c r="B1034" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="C1034" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="D1034" t="s">
-        <v>1227</v>
+        <v>11</v>
       </c>
       <c r="E1034" t="s">
         <v>8</v>
       </c>
       <c r="F1034" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1034">
         <v>0</v>
@@ -31516,13 +31996,13 @@
         <v>46073</v>
       </c>
       <c r="B1035" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="C1035" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="D1035" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E1035" t="s">
         <v>8</v>
@@ -31539,16 +32019,16 @@
         <v>46073</v>
       </c>
       <c r="B1036" t="s">
-        <v>2152</v>
+        <v>1270</v>
       </c>
       <c r="C1036" t="s">
-        <v>2153</v>
+        <v>1271</v>
       </c>
       <c r="D1036" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E1036" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1036" t="s">
         <v>21</v>
@@ -31562,13 +32042,13 @@
         <v>46073</v>
       </c>
       <c r="B1037" t="s">
-        <v>1270</v>
+        <v>2154</v>
       </c>
       <c r="C1037" t="s">
-        <v>1271</v>
+        <v>2155</v>
       </c>
       <c r="D1037" t="s">
-        <v>16</v>
+        <v>892</v>
       </c>
       <c r="E1037" t="s">
         <v>7</v>
@@ -31585,16 +32065,16 @@
         <v>46073</v>
       </c>
       <c r="B1038" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="C1038" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="D1038" t="s">
-        <v>892</v>
+        <v>11</v>
       </c>
       <c r="E1038" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1038" t="s">
         <v>21</v>
@@ -31608,13 +32088,13 @@
         <v>46073</v>
       </c>
       <c r="B1039" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="C1039" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="D1039" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E1039" t="s">
         <v>8</v>
@@ -31631,16 +32111,16 @@
         <v>46073</v>
       </c>
       <c r="B1040" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C1040" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="D1040" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E1040" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F1040" t="s">
         <v>21</v>
@@ -31654,19 +32134,19 @@
         <v>46073</v>
       </c>
       <c r="B1041" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="C1041" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="D1041" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E1041" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1041" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1041">
         <v>0</v>
@@ -31677,19 +32157,19 @@
         <v>46073</v>
       </c>
       <c r="B1042" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="C1042" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="D1042" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1042" t="s">
         <v>8</v>
       </c>
       <c r="F1042" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1042">
         <v>0</v>
@@ -31700,19 +32180,19 @@
         <v>46073</v>
       </c>
       <c r="B1043" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="C1043" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="D1043" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="E1043" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1043" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1043">
         <v>0</v>
@@ -31723,19 +32203,19 @@
         <v>46073</v>
       </c>
       <c r="B1044" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="C1044" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="D1044" t="s">
-        <v>210</v>
+        <v>1345</v>
       </c>
       <c r="E1044" t="s">
         <v>10</v>
       </c>
       <c r="F1044" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1044">
         <v>0</v>
@@ -31746,22 +32226,22 @@
         <v>46073</v>
       </c>
       <c r="B1045" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="C1045" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="D1045" t="s">
-        <v>1345</v>
+        <v>1299</v>
       </c>
       <c r="E1045" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1045" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1045">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
@@ -31769,22 +32249,22 @@
         <v>46073</v>
       </c>
       <c r="B1046" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="C1046" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D1046" t="s">
-        <v>1299</v>
+        <v>16</v>
       </c>
       <c r="E1046" t="s">
         <v>8</v>
       </c>
       <c r="F1046" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1046" t="s">
-        <v>1543</v>
+        <v>51</v>
+      </c>
+      <c r="G1046">
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
@@ -31792,19 +32272,19 @@
         <v>46073</v>
       </c>
       <c r="B1047" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="C1047" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="D1047" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E1047" t="s">
         <v>8</v>
       </c>
       <c r="F1047" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1047">
         <v>0</v>
@@ -31815,19 +32295,19 @@
         <v>46073</v>
       </c>
       <c r="B1048" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="C1048" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="D1048" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E1048" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1048" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1048">
         <v>0</v>
@@ -31838,16 +32318,16 @@
         <v>46073</v>
       </c>
       <c r="B1049" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="C1049" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="D1049" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="E1049" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1049" t="s">
         <v>52</v>
@@ -31861,16 +32341,16 @@
         <v>46073</v>
       </c>
       <c r="B1050" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="C1050" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="D1050" t="s">
-        <v>75</v>
+        <v>1947</v>
       </c>
       <c r="E1050" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1050" t="s">
         <v>52</v>
@@ -31884,16 +32364,16 @@
         <v>46073</v>
       </c>
       <c r="B1051" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="C1051" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="D1051" t="s">
-        <v>1947</v>
+        <v>210</v>
       </c>
       <c r="E1051" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1051" t="s">
         <v>52</v>
@@ -31907,19 +32387,19 @@
         <v>46073</v>
       </c>
       <c r="B1052" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="C1052" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D1052" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="E1052" t="s">
         <v>8</v>
       </c>
       <c r="F1052" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1052">
         <v>0</v>
@@ -31930,19 +32410,19 @@
         <v>46073</v>
       </c>
       <c r="B1053" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="C1053" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="D1053" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1053" t="s">
         <v>8</v>
       </c>
       <c r="F1053" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1053">
         <v>0</v>
@@ -31953,19 +32433,19 @@
         <v>46073</v>
       </c>
       <c r="B1054" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="C1054" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="D1054" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E1054" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1054" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1054">
         <v>0</v>
@@ -31976,19 +32456,19 @@
         <v>46073</v>
       </c>
       <c r="B1055" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="C1055" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="D1055" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E1055" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1055" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1055">
         <v>0</v>
@@ -31999,19 +32479,19 @@
         <v>46073</v>
       </c>
       <c r="B1056" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="C1056" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="D1056" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1056" t="s">
         <v>8</v>
       </c>
       <c r="F1056" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1056">
         <v>0</v>
@@ -32022,19 +32502,19 @@
         <v>46073</v>
       </c>
       <c r="B1057" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="C1057" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="D1057" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1057" t="s">
         <v>8</v>
       </c>
       <c r="F1057" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1057">
         <v>0</v>
@@ -32045,19 +32525,19 @@
         <v>46073</v>
       </c>
       <c r="B1058" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="C1058" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="D1058" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E1058" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1058" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1058">
         <v>0</v>
@@ -32068,19 +32548,19 @@
         <v>46073</v>
       </c>
       <c r="B1059" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="C1059" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="D1059" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="E1059" t="s">
-        <v>7</v>
+        <v>1170</v>
       </c>
       <c r="F1059" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1059">
         <v>0</v>
@@ -32091,16 +32571,16 @@
         <v>46073</v>
       </c>
       <c r="B1060" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="C1060" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="D1060" t="s">
-        <v>261</v>
+        <v>1144</v>
       </c>
       <c r="E1060" t="s">
-        <v>1170</v>
+        <v>7</v>
       </c>
       <c r="F1060" t="s">
         <v>21</v>
@@ -32114,19 +32594,19 @@
         <v>46073</v>
       </c>
       <c r="B1061" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="C1061" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="D1061" t="s">
-        <v>1144</v>
+        <v>75</v>
       </c>
       <c r="E1061" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1061" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1061">
         <v>0</v>
@@ -32137,19 +32617,19 @@
         <v>46073</v>
       </c>
       <c r="B1062" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="C1062" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="D1062" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E1062" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1062" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1062">
         <v>0</v>
@@ -32160,16 +32640,16 @@
         <v>46073</v>
       </c>
       <c r="B1063" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="C1063" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="D1063" t="s">
-        <v>162</v>
+        <v>1876</v>
       </c>
       <c r="E1063" t="s">
-        <v>10</v>
+        <v>1170</v>
       </c>
       <c r="F1063" t="s">
         <v>21</v>
@@ -32183,19 +32663,19 @@
         <v>46073</v>
       </c>
       <c r="B1064" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="C1064" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="D1064" t="s">
-        <v>1876</v>
+        <v>1227</v>
       </c>
       <c r="E1064" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F1064" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1064">
         <v>0</v>
@@ -32206,19 +32686,19 @@
         <v>46073</v>
       </c>
       <c r="B1065" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="C1065" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="D1065" t="s">
-        <v>1227</v>
+        <v>66</v>
       </c>
       <c r="E1065" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1065" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1065">
         <v>0</v>
@@ -32229,16 +32709,16 @@
         <v>46073</v>
       </c>
       <c r="B1066" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="C1066" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D1066" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E1066" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1066" t="s">
         <v>21</v>
@@ -32252,16 +32732,16 @@
         <v>46073</v>
       </c>
       <c r="B1067" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="C1067" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="D1067" t="s">
-        <v>11</v>
+        <v>1502</v>
       </c>
       <c r="E1067" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1067" t="s">
         <v>21</v>
@@ -32275,19 +32755,19 @@
         <v>46073</v>
       </c>
       <c r="B1068" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="C1068" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="D1068" t="s">
-        <v>1502</v>
+        <v>75</v>
       </c>
       <c r="E1068" t="s">
         <v>8</v>
       </c>
       <c r="F1068" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1068">
         <v>0</v>
@@ -32298,19 +32778,19 @@
         <v>46073</v>
       </c>
       <c r="B1069" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="C1069" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="D1069" t="s">
-        <v>75</v>
+        <v>892</v>
       </c>
       <c r="E1069" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="F1069" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1069">
         <v>0</v>
@@ -32321,16 +32801,16 @@
         <v>46073</v>
       </c>
       <c r="B1070" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="C1070" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="D1070" t="s">
-        <v>892</v>
+        <v>199</v>
       </c>
       <c r="E1070" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="F1070" t="s">
         <v>21</v>
@@ -32344,19 +32824,19 @@
         <v>46073</v>
       </c>
       <c r="B1071" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="C1071" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="D1071" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="E1071" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1071" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1071">
         <v>0</v>
@@ -32367,13 +32847,13 @@
         <v>46073</v>
       </c>
       <c r="B1072" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="C1072" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="D1072" t="s">
-        <v>59</v>
+        <v>1227</v>
       </c>
       <c r="E1072" t="s">
         <v>8</v>
@@ -32390,19 +32870,19 @@
         <v>46073</v>
       </c>
       <c r="B1073" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="C1073" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="D1073" t="s">
-        <v>1227</v>
+        <v>72</v>
       </c>
       <c r="E1073" t="s">
         <v>8</v>
       </c>
       <c r="F1073" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1073">
         <v>0</v>
@@ -32413,19 +32893,19 @@
         <v>46073</v>
       </c>
       <c r="B1074" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="C1074" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="D1074" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E1074" t="s">
         <v>8</v>
       </c>
       <c r="F1074" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1074">
         <v>0</v>
@@ -32436,19 +32916,19 @@
         <v>46073</v>
       </c>
       <c r="B1075" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="C1075" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="D1075" t="s">
-        <v>11</v>
+        <v>1290</v>
       </c>
       <c r="E1075" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1075" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1075">
         <v>0</v>
@@ -32459,16 +32939,16 @@
         <v>46073</v>
       </c>
       <c r="B1076" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="C1076" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="D1076" t="s">
-        <v>1290</v>
+        <v>1876</v>
       </c>
       <c r="E1076" t="s">
-        <v>7</v>
+        <v>1170</v>
       </c>
       <c r="F1076" t="s">
         <v>21</v>
@@ -32482,16 +32962,16 @@
         <v>46073</v>
       </c>
       <c r="B1077" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C1077" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="D1077" t="s">
-        <v>1876</v>
+        <v>16</v>
       </c>
       <c r="E1077" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F1077" t="s">
         <v>21</v>
@@ -32505,13 +32985,13 @@
         <v>46073</v>
       </c>
       <c r="B1078" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="C1078" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="D1078" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E1078" t="s">
         <v>8</v>
@@ -32528,22 +33008,22 @@
         <v>46073</v>
       </c>
       <c r="B1079" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="C1079" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="D1079" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1079" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1079" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1079">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="G1079" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
@@ -32551,19 +33031,22 @@
         <v>46073</v>
       </c>
       <c r="B1080" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="C1080" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="D1080" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E1080" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1080" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="G1080">
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
@@ -32571,19 +33054,19 @@
         <v>46073</v>
       </c>
       <c r="B1081" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="C1081" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="D1081" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E1081" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1081" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1081">
         <v>0</v>
@@ -32594,10 +33077,10 @@
         <v>46073</v>
       </c>
       <c r="B1082" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="C1082" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D1082" t="s">
         <v>66</v>
@@ -32617,22 +33100,22 @@
         <v>46073</v>
       </c>
       <c r="B1083" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C1083" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="D1083" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E1083" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1083" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1083">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
@@ -32640,22 +33123,22 @@
         <v>46073</v>
       </c>
       <c r="B1084" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="C1084" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="D1084" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E1084" t="s">
         <v>8</v>
       </c>
       <c r="F1084" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1084" t="s">
-        <v>263</v>
+        <v>51</v>
+      </c>
+      <c r="G1084">
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
@@ -32663,19 +33146,19 @@
         <v>46073</v>
       </c>
       <c r="B1085" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C1085" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="D1085" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E1085" t="s">
         <v>8</v>
       </c>
       <c r="F1085" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1085">
         <v>0</v>
@@ -32686,19 +33169,19 @@
         <v>46073</v>
       </c>
       <c r="B1086" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="C1086" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="D1086" t="s">
-        <v>59</v>
+        <v>1227</v>
       </c>
       <c r="E1086" t="s">
         <v>8</v>
       </c>
       <c r="F1086" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1086">
         <v>0</v>
@@ -32709,19 +33192,19 @@
         <v>46073</v>
       </c>
       <c r="B1087" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="C1087" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="D1087" t="s">
-        <v>1227</v>
+        <v>1686</v>
       </c>
       <c r="E1087" t="s">
         <v>8</v>
       </c>
       <c r="F1087" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1087">
         <v>0</v>
@@ -32732,19 +33215,19 @@
         <v>46073</v>
       </c>
       <c r="B1088" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="C1088" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D1088" t="s">
-        <v>1686</v>
+        <v>1290</v>
       </c>
       <c r="E1088" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1088" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1088">
         <v>0</v>
@@ -32755,19 +33238,19 @@
         <v>46073</v>
       </c>
       <c r="B1089" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="C1089" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="D1089" t="s">
-        <v>1290</v>
+        <v>66</v>
       </c>
       <c r="E1089" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1089" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1089">
         <v>0</v>
@@ -32778,10 +33261,10 @@
         <v>46073</v>
       </c>
       <c r="B1090" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="C1090" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="D1090" t="s">
         <v>66</v>
@@ -32790,7 +33273,7 @@
         <v>10</v>
       </c>
       <c r="F1090" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1090">
         <v>0</v>
@@ -32798,22 +33281,22 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1091" s="1">
-        <v>46073</v>
+        <v>46076</v>
       </c>
       <c r="B1091" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="C1091" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="D1091" t="s">
-        <v>66</v>
+        <v>606</v>
       </c>
       <c r="E1091" t="s">
-        <v>10</v>
+        <v>607</v>
       </c>
       <c r="F1091" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G1091">
         <v>0</v>
@@ -32824,16 +33307,16 @@
         <v>46076</v>
       </c>
       <c r="B1092" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="C1092" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="D1092" t="s">
-        <v>606</v>
+        <v>24</v>
       </c>
       <c r="E1092" t="s">
-        <v>607</v>
+        <v>10</v>
       </c>
       <c r="F1092" t="s">
         <v>21</v>
@@ -32847,16 +33330,16 @@
         <v>46076</v>
       </c>
       <c r="B1093" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="C1093" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D1093" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E1093" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F1093" t="s">
         <v>21</v>
@@ -32870,16 +33353,16 @@
         <v>46076</v>
       </c>
       <c r="B1094" t="s">
-        <v>2267</v>
+        <v>2272</v>
       </c>
       <c r="C1094" t="s">
-        <v>2268</v>
+        <v>2273</v>
       </c>
       <c r="D1094" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E1094" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="F1094" t="s">
         <v>21</v>
@@ -32893,13 +33376,13 @@
         <v>46076</v>
       </c>
       <c r="B1095" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C1095" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="D1095" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E1095" t="s">
         <v>8</v>
@@ -32916,10 +33399,10 @@
         <v>46076</v>
       </c>
       <c r="B1096" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C1096" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="D1096" t="s">
         <v>18</v>
@@ -32939,13 +33422,13 @@
         <v>46076</v>
       </c>
       <c r="B1097" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C1097" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="D1097" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1097" t="s">
         <v>8</v>
@@ -32962,13 +33445,13 @@
         <v>46076</v>
       </c>
       <c r="B1098" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C1098" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D1098" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1098" t="s">
         <v>8</v>
@@ -32985,19 +33468,22 @@
         <v>46076</v>
       </c>
       <c r="B1099" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C1099" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D1099" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E1099" t="s">
         <v>8</v>
       </c>
       <c r="F1099" t="s">
         <v>21</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
@@ -33005,13 +33491,13 @@
         <v>46076</v>
       </c>
       <c r="B1100" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C1100" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="D1100" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="E1100" t="s">
         <v>8</v>
@@ -33028,19 +33514,19 @@
         <v>46076</v>
       </c>
       <c r="B1101" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C1101" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D1101" t="s">
-        <v>16</v>
+        <v>1876</v>
       </c>
       <c r="E1101" t="s">
-        <v>8</v>
+        <v>1170</v>
       </c>
       <c r="F1101" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1101">
         <v>0</v>
@@ -33051,19 +33537,19 @@
         <v>46076</v>
       </c>
       <c r="B1102" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C1102" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="D1102" t="s">
-        <v>1876</v>
+        <v>1290</v>
       </c>
       <c r="E1102" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F1102" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1102">
         <v>0</v>
@@ -33074,13 +33560,13 @@
         <v>46076</v>
       </c>
       <c r="B1103" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="C1103" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="D1103" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="E1103" t="s">
         <v>8</v>
@@ -33097,22 +33583,22 @@
         <v>46076</v>
       </c>
       <c r="B1104" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C1104" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D1104" t="s">
-        <v>1299</v>
+        <v>16</v>
       </c>
       <c r="E1104" t="s">
         <v>8</v>
       </c>
       <c r="F1104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1104">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
@@ -33120,22 +33606,22 @@
         <v>46076</v>
       </c>
       <c r="B1105" t="s">
-        <v>2293</v>
+        <v>2134</v>
       </c>
       <c r="C1105" t="s">
-        <v>2294</v>
+        <v>2135</v>
       </c>
       <c r="D1105" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E1105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1105" t="s">
-        <v>2084</v>
+        <v>21</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
@@ -33143,19 +33629,19 @@
         <v>46076</v>
       </c>
       <c r="B1106" t="s">
-        <v>2134</v>
+        <v>2294</v>
       </c>
       <c r="C1106" t="s">
-        <v>2135</v>
+        <v>2295</v>
       </c>
       <c r="D1106" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E1106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1106" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1106">
         <v>0</v>
@@ -33166,13 +33652,13 @@
         <v>46076</v>
       </c>
       <c r="B1107" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C1107" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="D1107" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E1107" t="s">
         <v>8</v>
@@ -33189,19 +33675,19 @@
         <v>46076</v>
       </c>
       <c r="B1108" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="C1108" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="D1108" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E1108" t="s">
         <v>8</v>
       </c>
       <c r="F1108" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1108">
         <v>0</v>
@@ -33212,22 +33698,22 @@
         <v>46076</v>
       </c>
       <c r="B1109" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="C1109" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D1109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1109" t="s">
         <v>8</v>
       </c>
       <c r="F1109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1109">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
@@ -33235,22 +33721,22 @@
         <v>46076</v>
       </c>
       <c r="B1110" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="C1110" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D1110" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E1110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1110" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1110" t="s">
-        <v>1543</v>
+        <v>51</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
@@ -33258,22 +33744,22 @@
         <v>46076</v>
       </c>
       <c r="B1111" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="C1111" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D1111" t="s">
-        <v>85</v>
+        <v>1144</v>
       </c>
       <c r="E1111" t="s">
         <v>7</v>
       </c>
       <c r="F1111" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1111">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
@@ -33281,22 +33767,22 @@
         <v>46076</v>
       </c>
       <c r="B1112" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C1112" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="D1112" t="s">
-        <v>1144</v>
+        <v>1947</v>
       </c>
       <c r="E1112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1112" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1112" t="s">
-        <v>263</v>
+        <v>21</v>
+      </c>
+      <c r="G1112">
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
@@ -33304,19 +33790,19 @@
         <v>46076</v>
       </c>
       <c r="B1113" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C1113" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="D1113" t="s">
-        <v>1947</v>
+        <v>15</v>
       </c>
       <c r="E1113" t="s">
         <v>8</v>
       </c>
       <c r="F1113" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1113">
         <v>0</v>
@@ -33327,19 +33813,19 @@
         <v>46076</v>
       </c>
       <c r="B1114" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="C1114" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D1114" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E1114" t="s">
         <v>8</v>
       </c>
       <c r="F1114" t="s">
-        <v>50</v>
+        <v>926</v>
       </c>
       <c r="G1114">
         <v>0</v>
@@ -33350,19 +33836,19 @@
         <v>46076</v>
       </c>
       <c r="B1115" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="C1115" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="D1115" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E1115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1115" t="s">
-        <v>926</v>
+        <v>21</v>
       </c>
       <c r="G1115">
         <v>0</v>
@@ -33373,16 +33859,16 @@
         <v>46076</v>
       </c>
       <c r="B1116" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C1116" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="D1116" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E1116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1116" t="s">
         <v>21</v>
@@ -33396,16 +33882,16 @@
         <v>46076</v>
       </c>
       <c r="B1117" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="C1117" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="D1117" t="s">
-        <v>11</v>
+        <v>1345</v>
       </c>
       <c r="E1117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1117" t="s">
         <v>21</v>
@@ -33419,19 +33905,19 @@
         <v>46076</v>
       </c>
       <c r="B1118" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="C1118" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D1118" t="s">
-        <v>1345</v>
+        <v>18</v>
       </c>
       <c r="E1118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1118" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1118">
         <v>0</v>
@@ -33442,19 +33928,19 @@
         <v>46076</v>
       </c>
       <c r="B1119" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="C1119" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="D1119" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1119" t="s">
         <v>8</v>
       </c>
       <c r="F1119" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1119">
         <v>0</v>
@@ -33465,13 +33951,13 @@
         <v>46076</v>
       </c>
       <c r="B1120" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C1120" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="D1120" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E1120" t="s">
         <v>8</v>
@@ -33488,19 +33974,19 @@
         <v>46076</v>
       </c>
       <c r="B1121" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="C1121" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D1121" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="E1121" t="s">
-        <v>8</v>
+        <v>1170</v>
       </c>
       <c r="F1121" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1121">
         <v>0</v>
@@ -33511,19 +33997,19 @@
         <v>46076</v>
       </c>
       <c r="B1122" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="C1122" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="D1122" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="E1122" t="s">
-        <v>1170</v>
+        <v>10</v>
       </c>
       <c r="F1122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1122">
         <v>0</v>
@@ -33534,19 +34020,19 @@
         <v>46076</v>
       </c>
       <c r="B1123" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="C1123" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D1123" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1123">
         <v>0</v>
@@ -33557,19 +34043,19 @@
         <v>46076</v>
       </c>
       <c r="B1124" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="C1124" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="D1124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1124" t="s">
         <v>8</v>
       </c>
       <c r="F1124" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1124">
         <v>0</v>
@@ -33580,13 +34066,13 @@
         <v>46076</v>
       </c>
       <c r="B1125" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C1125" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D1125" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1125" t="s">
         <v>8</v>
@@ -33603,13 +34089,13 @@
         <v>46076</v>
       </c>
       <c r="B1126" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C1126" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="D1126" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1126" t="s">
         <v>8</v>
@@ -33626,10 +34112,10 @@
         <v>46076</v>
       </c>
       <c r="B1127" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="C1127" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="D1127" t="s">
         <v>18</v>
@@ -33649,19 +34135,19 @@
         <v>46076</v>
       </c>
       <c r="B1128" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C1128" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="D1128" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1128" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1128">
         <v>0</v>
@@ -33672,19 +34158,19 @@
         <v>46076</v>
       </c>
       <c r="B1129" t="s">
-        <v>2339</v>
+        <v>1707</v>
       </c>
       <c r="C1129" t="s">
-        <v>2340</v>
+        <v>1708</v>
       </c>
       <c r="D1129" t="s">
-        <v>9</v>
+        <v>892</v>
       </c>
       <c r="E1129" t="s">
         <v>7</v>
       </c>
       <c r="F1129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1129">
         <v>0</v>
@@ -33695,19 +34181,19 @@
         <v>46076</v>
       </c>
       <c r="B1130" t="s">
-        <v>1707</v>
+        <v>2340</v>
       </c>
       <c r="C1130" t="s">
-        <v>1708</v>
+        <v>2341</v>
       </c>
       <c r="D1130" t="s">
-        <v>892</v>
+        <v>1299</v>
       </c>
       <c r="E1130" t="s">
         <v>7</v>
       </c>
       <c r="F1130" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1130">
         <v>0</v>
@@ -33718,16 +34204,16 @@
         <v>46076</v>
       </c>
       <c r="B1131" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C1131" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D1131" t="s">
-        <v>1299</v>
+        <v>11</v>
       </c>
       <c r="E1131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1131" t="s">
         <v>21</v>
@@ -33741,16 +34227,16 @@
         <v>46076</v>
       </c>
       <c r="B1132" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C1132" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="D1132" t="s">
-        <v>11</v>
+        <v>1345</v>
       </c>
       <c r="E1132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1132" t="s">
         <v>21</v>
@@ -33764,16 +34250,16 @@
         <v>46076</v>
       </c>
       <c r="B1133" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C1133" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="D1133" t="s">
-        <v>1345</v>
+        <v>16</v>
       </c>
       <c r="E1133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1133" t="s">
         <v>21</v>
@@ -33787,19 +34273,19 @@
         <v>46076</v>
       </c>
       <c r="B1134" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="C1134" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D1134" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E1134" t="s">
         <v>8</v>
       </c>
       <c r="F1134" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1134">
         <v>0</v>
@@ -33810,19 +34296,19 @@
         <v>46076</v>
       </c>
       <c r="B1135" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C1135" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="D1135" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E1135" t="s">
         <v>8</v>
       </c>
       <c r="F1135" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1135">
         <v>0</v>
@@ -33833,19 +34319,19 @@
         <v>46076</v>
       </c>
       <c r="B1136" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C1136" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="D1136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1136" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1136">
         <v>0</v>
@@ -33856,19 +34342,19 @@
         <v>46076</v>
       </c>
       <c r="B1137" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C1137" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="D1137" t="s">
-        <v>15</v>
+        <v>1876</v>
       </c>
       <c r="E1137" t="s">
-        <v>7</v>
+        <v>1170</v>
       </c>
       <c r="F1137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1137">
         <v>0</v>
@@ -33879,19 +34365,19 @@
         <v>46076</v>
       </c>
       <c r="B1138" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C1138" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="D1138" t="s">
-        <v>1876</v>
+        <v>72</v>
       </c>
       <c r="E1138" t="s">
-        <v>1170</v>
+        <v>8</v>
       </c>
       <c r="F1138" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1138">
         <v>0</v>
@@ -33902,19 +34388,19 @@
         <v>46076</v>
       </c>
       <c r="B1139" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C1139" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D1139" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E1139" t="s">
         <v>8</v>
       </c>
       <c r="F1139" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1139">
         <v>0</v>
@@ -33925,19 +34411,19 @@
         <v>46076</v>
       </c>
       <c r="B1140" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="C1140" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D1140" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E1140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1140">
         <v>0</v>
@@ -33948,22 +34434,22 @@
         <v>46076</v>
       </c>
       <c r="B1141" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C1141" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="D1141" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="E1141" t="s">
         <v>10</v>
       </c>
       <c r="F1141" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1141">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="G1141" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
@@ -33971,19 +34457,22 @@
         <v>46076</v>
       </c>
       <c r="B1142" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="C1142" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="D1142" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="E1142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1142" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
@@ -33991,19 +34480,19 @@
         <v>46076</v>
       </c>
       <c r="B1143" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="C1143" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D1143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1143" t="s">
         <v>8</v>
       </c>
       <c r="F1143" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1143">
         <v>0</v>
@@ -34014,10 +34503,10 @@
         <v>46076</v>
       </c>
       <c r="B1144" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C1144" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="D1144" t="s">
         <v>12</v>
@@ -34026,7 +34515,7 @@
         <v>8</v>
       </c>
       <c r="F1144" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1144">
         <v>0</v>
@@ -34037,13 +34526,13 @@
         <v>46076</v>
       </c>
       <c r="B1145" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="C1145" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="D1145" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E1145" t="s">
         <v>8</v>
@@ -34060,16 +34549,16 @@
         <v>46076</v>
       </c>
       <c r="B1146" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C1146" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="D1146" t="s">
-        <v>162</v>
+        <v>1144</v>
       </c>
       <c r="E1146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1146" t="s">
         <v>21</v>
@@ -34083,19 +34572,19 @@
         <v>46076</v>
       </c>
       <c r="B1147" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C1147" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="D1147" t="s">
-        <v>1144</v>
+        <v>162</v>
       </c>
       <c r="E1147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1147" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -34106,16 +34595,16 @@
         <v>46076</v>
       </c>
       <c r="B1148" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="C1148" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="D1148" t="s">
-        <v>162</v>
+        <v>2378</v>
       </c>
       <c r="E1148" t="s">
-        <v>8</v>
+        <v>2379</v>
       </c>
       <c r="F1148" t="s">
         <v>51</v>
@@ -34129,19 +34618,19 @@
         <v>46076</v>
       </c>
       <c r="B1149" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="C1149" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="D1149" t="s">
-        <v>2379</v>
+        <v>9</v>
       </c>
       <c r="E1149" t="s">
-        <v>2380</v>
+        <v>8</v>
       </c>
       <c r="F1149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -34152,19 +34641,19 @@
         <v>46076</v>
       </c>
       <c r="B1150" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="C1150" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="D1150" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E1150" t="s">
         <v>8</v>
       </c>
       <c r="F1150" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -34175,16 +34664,16 @@
         <v>46076</v>
       </c>
       <c r="B1151" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="C1151" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="D1151" t="s">
-        <v>39</v>
+        <v>1345</v>
       </c>
       <c r="E1151" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1151" t="s">
         <v>21</v>
@@ -34198,16 +34687,16 @@
         <v>46076</v>
       </c>
       <c r="B1152" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C1152" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D1152" t="s">
-        <v>1345</v>
+        <v>18</v>
       </c>
       <c r="E1152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1152" t="s">
         <v>21</v>
@@ -34221,19 +34710,19 @@
         <v>46076</v>
       </c>
       <c r="B1153" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="C1153" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="D1153" t="s">
-        <v>18</v>
+        <v>1947</v>
       </c>
       <c r="E1153" t="s">
         <v>8</v>
       </c>
       <c r="F1153" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1153">
         <v>0</v>
@@ -34244,19 +34733,19 @@
         <v>46076</v>
       </c>
       <c r="B1154" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="C1154" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="D1154" t="s">
-        <v>1947</v>
+        <v>59</v>
       </c>
       <c r="E1154" t="s">
         <v>8</v>
       </c>
       <c r="F1154" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1154">
         <v>0</v>
@@ -34267,16 +34756,16 @@
         <v>46076</v>
       </c>
       <c r="B1155" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C1155" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="D1155" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E1155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1155" t="s">
         <v>21</v>
@@ -34290,16 +34779,16 @@
         <v>46076</v>
       </c>
       <c r="B1156" t="s">
-        <v>2393</v>
+        <v>2034</v>
       </c>
       <c r="C1156" t="s">
-        <v>2394</v>
+        <v>2035</v>
       </c>
       <c r="D1156" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E1156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1156" t="s">
         <v>21</v>
@@ -34313,16 +34802,16 @@
         <v>46076</v>
       </c>
       <c r="B1157" t="s">
-        <v>2034</v>
+        <v>2394</v>
       </c>
       <c r="C1157" t="s">
-        <v>2035</v>
+        <v>2395</v>
       </c>
       <c r="D1157" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1157" t="s">
         <v>21</v>
@@ -34336,10 +34825,10 @@
         <v>46076</v>
       </c>
       <c r="B1158" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C1158" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="D1158" t="s">
         <v>15</v>
@@ -34359,19 +34848,19 @@
         <v>46076</v>
       </c>
       <c r="B1159" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C1159" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D1159" t="s">
-        <v>15</v>
+        <v>1290</v>
       </c>
       <c r="E1159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1159" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1159">
         <v>0</v>
@@ -34382,19 +34871,19 @@
         <v>46076</v>
       </c>
       <c r="B1160" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="C1160" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="D1160" t="s">
-        <v>1290</v>
+        <v>16</v>
       </c>
       <c r="E1160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1160" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1160">
         <v>0</v>
@@ -34405,19 +34894,19 @@
         <v>46076</v>
       </c>
       <c r="B1161" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C1161" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="D1161" t="s">
-        <v>16</v>
+        <v>1299</v>
       </c>
       <c r="E1161" t="s">
         <v>8</v>
       </c>
       <c r="F1161" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G1161">
         <v>0</v>
@@ -34428,19 +34917,19 @@
         <v>46076</v>
       </c>
       <c r="B1162" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C1162" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D1162" t="s">
-        <v>1299</v>
+        <v>16</v>
       </c>
       <c r="E1162" t="s">
         <v>8</v>
       </c>
       <c r="F1162" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1162">
         <v>0</v>
@@ -34451,19 +34940,19 @@
         <v>46076</v>
       </c>
       <c r="B1163" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C1163" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D1163" t="s">
-        <v>16</v>
+        <v>1751</v>
       </c>
       <c r="E1163" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1163" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1163">
         <v>0</v>
@@ -34474,19 +34963,19 @@
         <v>46076</v>
       </c>
       <c r="B1164" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C1164" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D1164" t="s">
-        <v>1751</v>
+        <v>18</v>
       </c>
       <c r="E1164" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1164" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1164">
         <v>0</v>
@@ -34497,16 +34986,16 @@
         <v>46076</v>
       </c>
       <c r="B1165" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C1165" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D1165" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1165" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1165" t="s">
         <v>21</v>
@@ -34520,19 +35009,19 @@
         <v>46076</v>
       </c>
       <c r="B1166" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C1166" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="D1166" t="s">
-        <v>11</v>
+        <v>1299</v>
       </c>
       <c r="E1166" t="s">
         <v>8</v>
       </c>
       <c r="F1166" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G1166">
         <v>0</v>
@@ -34543,19 +35032,19 @@
         <v>46076</v>
       </c>
       <c r="B1167" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="C1167" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D1167" t="s">
-        <v>1299</v>
+        <v>16</v>
       </c>
       <c r="E1167" t="s">
         <v>8</v>
       </c>
       <c r="F1167" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G1167">
         <v>0</v>
@@ -34566,16 +35055,16 @@
         <v>46076</v>
       </c>
       <c r="B1168" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C1168" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D1168" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E1168" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1168" t="s">
         <v>21</v>
@@ -34589,16 +35078,16 @@
         <v>46076</v>
       </c>
       <c r="B1169" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C1169" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="D1169" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E1169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1169" t="s">
         <v>21</v>
@@ -34612,13 +35101,13 @@
         <v>46076</v>
       </c>
       <c r="B1170" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="C1170" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="D1170" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E1170" t="s">
         <v>8</v>
@@ -34635,19 +35124,19 @@
         <v>46076</v>
       </c>
       <c r="B1171" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C1171" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="D1171" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E1171" t="s">
         <v>8</v>
       </c>
       <c r="F1171" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1171">
         <v>0</v>
@@ -34658,19 +35147,19 @@
         <v>46076</v>
       </c>
       <c r="B1172" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="C1172" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="D1172" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E1172" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F1172" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1172">
         <v>0</v>
@@ -34681,19 +35170,19 @@
         <v>46076</v>
       </c>
       <c r="B1173" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="C1173" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="D1173" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E1173" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1173" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G1173">
         <v>0</v>
@@ -34704,19 +35193,19 @@
         <v>46076</v>
       </c>
       <c r="B1174" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="C1174" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="D1174" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1174" t="s">
         <v>8</v>
       </c>
       <c r="F1174" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1174">
         <v>0</v>
@@ -34727,13 +35216,13 @@
         <v>46076</v>
       </c>
       <c r="B1175" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C1175" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="D1175" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1175" t="s">
         <v>8</v>
@@ -34750,19 +35239,19 @@
         <v>46076</v>
       </c>
       <c r="B1176" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="C1176" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="D1176" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="E1176" t="s">
-        <v>8</v>
+        <v>1170</v>
       </c>
       <c r="F1176" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G1176">
         <v>0</v>
@@ -34773,16 +35262,16 @@
         <v>46076</v>
       </c>
       <c r="B1177" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="C1177" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="D1177" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="E1177" t="s">
-        <v>1170</v>
+        <v>13</v>
       </c>
       <c r="F1177" t="s">
         <v>21</v>
@@ -34796,16 +35285,16 @@
         <v>46076</v>
       </c>
       <c r="B1178" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="C1178" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="D1178" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E1178" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1178" t="s">
         <v>21</v>
@@ -34816,19 +35305,19 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B1179" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="C1179" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="D1179" t="s">
-        <v>199</v>
+        <v>606</v>
       </c>
       <c r="E1179" t="s">
-        <v>8</v>
+        <v>607</v>
       </c>
       <c r="F1179" t="s">
         <v>21</v>
@@ -34842,13 +35331,16 @@
         <v>46077</v>
       </c>
       <c r="B1180" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="C1180" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="D1180" t="s">
-        <v>2264</v>
+        <v>606</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>607</v>
       </c>
       <c r="F1180" t="s">
         <v>21</v>
@@ -34862,13 +35354,16 @@
         <v>46077</v>
       </c>
       <c r="B1181" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="C1181" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="D1181" t="s">
-        <v>2264</v>
+        <v>606</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>607</v>
       </c>
       <c r="F1181" t="s">
         <v>21</v>
@@ -34882,13 +35377,16 @@
         <v>46077</v>
       </c>
       <c r="B1182" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C1182" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="D1182" t="s">
-        <v>2264</v>
+        <v>606</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>607</v>
       </c>
       <c r="F1182" t="s">
         <v>21</v>
@@ -34902,13 +35400,16 @@
         <v>46077</v>
       </c>
       <c r="B1183" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C1183" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="D1183" t="s">
-        <v>2264</v>
+        <v>109</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>7</v>
       </c>
       <c r="F1183" t="s">
         <v>21</v>
@@ -34922,16 +35423,16 @@
         <v>46077</v>
       </c>
       <c r="B1184" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C1184" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D1184" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E1184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1184" t="s">
         <v>21</v>
@@ -34945,13 +35446,13 @@
         <v>46077</v>
       </c>
       <c r="B1185" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C1185" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="D1185" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E1185" t="s">
         <v>8</v>
@@ -34968,10 +35469,10 @@
         <v>46077</v>
       </c>
       <c r="B1186" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1186" t="s">
         <v>2451</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>2452</v>
       </c>
       <c r="D1186" t="s">
         <v>72</v>
@@ -34984,6 +35485,1647 @@
       </c>
       <c r="G1186">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1187" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1188" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1189" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1190" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1191" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1192" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1193" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1194" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1195" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1195" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1196" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1197" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1198" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1199" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1200" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1201" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1202" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1203" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1204" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1204" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1205" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1206" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1207" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1208" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1209" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1210" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1211" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1212" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1213" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1214" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1215" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1247" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1248" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1250" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1254" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1257" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1258" s="1">
+        <v>46078</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
